--- a/index.xlsx
+++ b/index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="467">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2347,6 +2347,23 @@
     <t>Web Framework Category:
 [Action-based framework]Apache Structs, Spring 
 [Component-based Framework]Apache Tapestry, Apache Wicket, JSF</t>
+  </si>
+  <si>
+    <t>Http protocol</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIME</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>* HTTP Protocol是可運行在TCP/IP傳輸框架下的其中一種Protocol (其同伴還有FTP, POP3等等).
+* 在Web developing中, Http的幀由其Header分成兩種: Request 和 Response, 各有結構相似之處.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒體格式的結構化表示形式, Tika呀, Http Request的Request header中都會有要求你給出當前處理的數据是哪種MIME的要求, 常見的有text/html, application/json, 等等</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2911,9 +2928,6 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2957,6 +2971,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3320,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3514,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="101" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3505,7 +3522,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="86"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="9" t="s">
         <v>165</v>
       </c>
@@ -5072,6 +5089,28 @@
       </c>
       <c r="C189" s="83" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5102,16 +5141,16 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6427,72 +6466,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6520,694 +6559,694 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="86" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="86" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="86" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="86" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="86" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="96" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="86" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="86" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="86" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="96" t="s">
         <v>381</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="86" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="86" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="86" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="96" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="86" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="96" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="86" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="86" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="86" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87" t="s">
+      <c r="C18" s="86"/>
+      <c r="D18" s="86" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="96" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="86" t="s">
         <v>399</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="86" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="86" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="86" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="86" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="86" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="86" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="86" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="86" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="86" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="86" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="86" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="86" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="86" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="86" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87" t="s">
+      <c r="C31" s="86"/>
+      <c r="D31" s="86" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="86" t="s">
         <v>425</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="86" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="86" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="86" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="86" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="86" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="96" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="86" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="86" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="86" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="86" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="86" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="86" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="86" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="86" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="97" t="s">
         <v>447</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="97" t="s">
+      <c r="C43" s="98"/>
+      <c r="D43" s="96" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="95" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="86" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="86" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="96" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="86" t="s">
         <v>455</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87" t="s">
+      <c r="C47" s="86"/>
+      <c r="D47" s="86" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="86" t="s">
         <v>457</v>
       </c>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="97" t="s">
+      <c r="C48" s="98"/>
+      <c r="D48" s="96" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
     </row>
     <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
     </row>
     <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="100" t="s">
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="99" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="101" t="s">
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="100" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="101" t="s">
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="100" t="s">
         <v>462</v>
       </c>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="471">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2363,6 +2363,23 @@
   </si>
   <si>
     <t>多媒體格式的結構化表示形式, Tika呀, Http Request的Request header中都會有要求你給出當前處理的數据是哪種MIME的要求, 常見的有text/html, application/json, 等等</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Maven Repo Search Site: search.maven.org</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSON</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Gson 在少量數据量的JSON翻釋速度較其他同類library快, 但巨量數据下則最慢(最快為Jackson)
+* Gson 的fromJson方法允許input的Json有數据不完整性存在.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3337,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5111,6 +5128,28 @@
       </c>
       <c r="C191" s="1" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$129</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="473">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2382,16 +2382,22 @@
 * Gson 的fromJson方法允許input的Json有數据不完整性存在.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/articles/definitions-characters/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2399,7 +2405,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2407,7 +2413,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2421,21 +2427,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2443,7 +2449,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2451,27 +2457,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2694,7 +2700,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2780,12 +2786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2923,9 +2923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2993,10 +2990,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3030,14 +3030,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>121314</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3068,7 +3068,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3142,7 +3142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3177,7 +3176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3353,21 +3351,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3378,1818 +3376,2111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="4" customFormat="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>42458</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105">
+      <c r="A4" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60">
+      <c r="A5" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
       <c r="A6" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>42456</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>469</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="77.25">
+      <c r="A9" s="81">
+        <v>42453</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25">
+      <c r="A10" s="81">
+        <v>42453</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39">
+      <c r="A11" s="81">
+        <v>42452</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="165">
+      <c r="A12" s="77">
+        <v>42451</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="165">
+      <c r="A15" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>254</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="64.5">
+      <c r="A16" s="81">
+        <v>42451</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="64.5">
+      <c r="A17" s="81">
+        <v>42447</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42440</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="75">
+      <c r="A19" s="2">
+        <v>42436</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="101"/>
-      <c r="C22" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C19" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="39">
+      <c r="A20" s="81">
+        <v>42431</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.25">
+      <c r="A21" s="81">
+        <v>42431</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="81">
+        <v>42430</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26.25">
+      <c r="A23" s="81">
+        <v>42428</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="2">
+        <v>42426</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="77.25">
+      <c r="A25" s="81">
+        <v>42426</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="26.25">
+      <c r="A28" s="81">
+        <v>42425</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="81">
+        <v>42425</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="26.25">
+      <c r="A30" s="81">
+        <v>42425</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="165">
+      <c r="A31" s="2">
+        <v>42424</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="2">
+        <v>42423</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="81">
+        <v>42423</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="90">
+      <c r="A34" s="2">
+        <v>42422</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60">
+      <c r="A35" s="2">
+        <v>42419</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="195">
+      <c r="A36" s="2">
+        <v>42418</v>
+      </c>
+      <c r="B36" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="C36" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45">
+      <c r="A37" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="75">
+      <c r="A38" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="90">
+      <c r="A39" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="90">
+      <c r="A40" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45">
+      <c r="A41" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42397</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45">
+      <c r="A43" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="128.25">
+      <c r="A45" s="81">
+        <v>42386</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="64.5">
+      <c r="A46" s="81">
+        <v>42386</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45">
+      <c r="A47" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="180">
+      <c r="A48" s="2">
+        <v>42382</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="64.5">
+      <c r="A49" s="81">
+        <v>42382</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="2">
+        <v>42381</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45">
+      <c r="A51" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="75">
+      <c r="A52" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="180">
+      <c r="A53" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="217.5">
+      <c r="A54" s="81">
+        <v>42380</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="102.75">
+      <c r="A55" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="102.75">
+      <c r="A56" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="141">
+      <c r="A57" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="77.25">
+      <c r="A58" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="102.75">
+      <c r="A59" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="60">
+      <c r="A60" s="2">
+        <v>42377</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="77.25">
+      <c r="A61" s="81">
+        <v>42376</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45">
+      <c r="A62" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="195">
+      <c r="A64" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="135">
+      <c r="A65" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45">
+      <c r="A66" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30">
+      <c r="A67" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="150">
+      <c r="A69" s="2">
+        <v>42361</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30">
+      <c r="A70" s="2">
+        <v>42361</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="270">
+      <c r="A71" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="225">
+      <c r="A74" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="60">
+      <c r="A75" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="90">
+      <c r="A76" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60">
+      <c r="A77" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="42">
+        <v>42360</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="42">
+        <v>42360</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="102.75">
+      <c r="A80" s="82">
+        <v>42360</v>
+      </c>
+      <c r="B80" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30">
+      <c r="A81" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B83" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30">
+      <c r="A84" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B84" s="98"/>
+      <c r="C84" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="60">
+      <c r="A85" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="150">
+      <c r="A87" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="120">
+      <c r="A88" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B88" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30">
+      <c r="A89" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B89" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="C51" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>42349</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B60" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C61" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C68" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C71" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C72" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C73" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B74" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C75" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C76" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B80" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B83" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="30" t="s">
+      <c r="C89" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>42355</v>
       </c>
-      <c r="C90" s="46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="75">
       <c r="A91" s="2">
         <v>42355</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="135">
       <c r="A92" s="2">
         <v>42355</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="B92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="75">
+      <c r="A93" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
+      <c r="A94" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B96" s="44"/>
+      <c r="C96" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B97" s="44"/>
+      <c r="C97" s="32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B93" s="46" t="s">
+    <row r="98" spans="1:6" ht="75">
+      <c r="A98" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30">
+      <c r="A99" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="75">
+      <c r="A100" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B101" s="98"/>
+      <c r="C101" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B104" s="98"/>
+      <c r="C104" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30">
+      <c r="A106" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B106" s="98"/>
+      <c r="C106" s="98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30">
+      <c r="A107" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B107" s="98"/>
+      <c r="C107" s="98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="45">
+      <c r="A108" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B108" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B95" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="B99" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B100" s="38" t="s">
+      <c r="C108" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45">
+      <c r="A109" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B109" s="40"/>
+      <c r="C109" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30">
+      <c r="A110" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="75">
+      <c r="A111" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45">
+      <c r="A112" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30">
+      <c r="A113" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45">
+      <c r="A114" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B114" s="47"/>
+      <c r="C114" s="48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
+      <c r="A115" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B115" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="B102" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B103" s="41" t="s">
+      <c r="C115" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
+      <c r="A116" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B117" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="135">
+      <c r="A118" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="60">
+      <c r="A119" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B119" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30">
+      <c r="A120" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B120" s="98"/>
+      <c r="C120" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="120">
+      <c r="A121" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="150">
+      <c r="A122" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30">
+      <c r="A123" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B126" s="61"/>
+      <c r="C126" s="61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B128" s="63"/>
+      <c r="C128" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B129" s="64"/>
+      <c r="C129" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="60">
+      <c r="A130" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B130" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="90">
+      <c r="A131" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30">
+      <c r="A132" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B132" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="195">
+      <c r="A136" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="135">
+      <c r="A137" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B137" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="75">
+      <c r="A138" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B138" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="75">
+      <c r="A139" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
+      <c r="A140" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B140" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B141" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B142" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="60">
+      <c r="A143" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B143" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="150">
+      <c r="A144" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="45">
+      <c r="A145" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B145" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="60">
+      <c r="A146" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="105">
+      <c r="A147" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B147" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B148" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="44">
-        <v>42360</v>
-      </c>
-      <c r="B104" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C104" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="44">
-        <v>42360</v>
-      </c>
-      <c r="B105" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B108" s="45" t="s">
+      <c r="C148" s="98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B149" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C108" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B109" s="45" t="s">
+      <c r="C149" s="98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="75">
+      <c r="A150" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B150" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="189" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B110" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B112" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C112" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B113" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>42375</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" s="52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>42377</v>
-      </c>
-      <c r="B115" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B116" s="55" t="s">
+      <c r="C150" s="98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="45">
+      <c r="A151" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B151" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C116" s="55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B117" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B118" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C118" s="57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>42381</v>
-      </c>
-      <c r="B119" s="56" t="s">
+      <c r="C151" s="98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="141">
+      <c r="A152" s="82">
+        <v>42345</v>
+      </c>
+      <c r="B152" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="105">
+      <c r="A153" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="90">
+      <c r="A154" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="75">
+      <c r="A155" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30">
+      <c r="A156" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30">
+      <c r="A157" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="45">
+      <c r="A158" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="90">
+      <c r="A159" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30">
+      <c r="A160" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="150">
+      <c r="A161" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="75">
+      <c r="A162" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="90">
+      <c r="A163" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B163" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="60">
+      <c r="A164" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B164" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B165" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B166" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B167" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B168" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B169" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="75">
+      <c r="A170" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B170" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="60">
+      <c r="A171" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B171" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="60">
+      <c r="A172" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B172" s="98"/>
+      <c r="C172" s="98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="45">
+      <c r="A173" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B173" s="98"/>
+      <c r="C173" s="98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="60">
+      <c r="A174" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="64.5">
+      <c r="A177" s="82">
+        <v>42334</v>
+      </c>
+      <c r="B177" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" s="80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="26.25">
+      <c r="A178" s="82">
+        <v>42334</v>
+      </c>
+      <c r="B178" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="39">
+      <c r="A179" s="82">
+        <v>42334</v>
+      </c>
+      <c r="B179" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C179" s="80" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="128.25">
+      <c r="A180" s="82">
+        <v>42333</v>
+      </c>
+      <c r="B180" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C180" s="80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="51.75">
+      <c r="A181" s="82">
+        <v>42333</v>
+      </c>
+      <c r="B181" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>42382</v>
-      </c>
-      <c r="B120" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>42384</v>
-      </c>
-      <c r="B121" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="C121" s="59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B122" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B123" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" s="62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>42397</v>
-      </c>
-      <c r="B124" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B125" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" s="64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B126" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="C126" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="66" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B128" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>42403</v>
-      </c>
-      <c r="C129" s="66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>42418</v>
-      </c>
-      <c r="B130" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>42419</v>
-      </c>
-      <c r="B131" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="C131" s="68" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>42422</v>
-      </c>
-      <c r="B132" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="C132" s="69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B133" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C133" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>42424</v>
-      </c>
-      <c r="B134" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B135" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="C135" s="72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B136" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C136" s="73" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>42426</v>
-      </c>
-      <c r="B137" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" s="78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>42436</v>
-      </c>
-      <c r="B138" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>42440</v>
-      </c>
-      <c r="B139" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="80">
-        <v>42451</v>
-      </c>
-      <c r="B140" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="78" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B141" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="C141" s="78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B142" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C142" s="81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B143" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C143" s="82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="84">
-        <v>42453</v>
-      </c>
-      <c r="B145" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C145" s="83" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="84">
-        <v>42453</v>
-      </c>
-      <c r="B146" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="84">
-        <v>42452</v>
-      </c>
-      <c r="B147" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="C147" s="83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="84">
-        <v>42451</v>
-      </c>
-      <c r="B148" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="C148" s="83" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="84">
-        <v>42447</v>
-      </c>
-      <c r="B149" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="C149" s="83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A150" s="84">
-        <v>42431</v>
-      </c>
-      <c r="B150" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="C150" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="84">
-        <v>42431</v>
-      </c>
-      <c r="B151" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C151" s="83" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="84">
-        <v>42430</v>
-      </c>
-      <c r="B152" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="C152" s="83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="84">
-        <v>42428</v>
-      </c>
-      <c r="B153" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" s="83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="84">
-        <v>42426</v>
-      </c>
-      <c r="B154" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="C154" s="83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="84">
-        <v>42425</v>
-      </c>
-      <c r="B155" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="C155" s="83" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="84">
-        <v>42425</v>
-      </c>
-      <c r="B156" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="C156" s="83" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="84">
-        <v>42425</v>
-      </c>
-      <c r="B157" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C157" s="83" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="84">
-        <v>42423</v>
-      </c>
-      <c r="B158" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="C158" s="83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="84">
-        <v>42386</v>
-      </c>
-      <c r="B159" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="C159" s="83" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="84">
-        <v>42386</v>
-      </c>
-      <c r="B160" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="C160" s="83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="84">
-        <v>42382</v>
-      </c>
-      <c r="B161" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="C161" s="83" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="84">
-        <v>42380</v>
-      </c>
-      <c r="B162" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162" s="83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="84">
-        <v>42378</v>
-      </c>
-      <c r="B163" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="C163" s="83" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="84">
-        <v>42378</v>
-      </c>
-      <c r="B164" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="C164" s="83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="84">
-        <v>42378</v>
-      </c>
-      <c r="B165" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" s="83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="84">
-        <v>42378</v>
-      </c>
-      <c r="B166" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C166" s="83" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="84">
-        <v>42378</v>
-      </c>
-      <c r="B167" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="C167" s="83" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="84">
-        <v>42376</v>
-      </c>
-      <c r="B168" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="C168" s="83" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="85">
-        <v>42360</v>
-      </c>
-      <c r="B169" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="C169" s="83" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A170" s="85">
-        <v>42345</v>
-      </c>
-      <c r="B170" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="C170" s="83" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="85">
-        <v>42334</v>
-      </c>
-      <c r="B171" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="C171" s="83" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="85">
-        <v>42334</v>
-      </c>
-      <c r="B172" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="C172" s="83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A173" s="85">
-        <v>42334</v>
-      </c>
-      <c r="B173" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C173" s="83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="85">
-        <v>42333</v>
-      </c>
-      <c r="B174" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="C174" s="83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="85">
-        <v>42333</v>
-      </c>
-      <c r="B175" s="83" t="s">
+      <c r="C181" s="80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="26.25">
+      <c r="A182" s="82">
+        <v>42331</v>
+      </c>
+      <c r="B182" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="39">
+      <c r="A183" s="82">
+        <v>42329</v>
+      </c>
+      <c r="B183" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="39">
+      <c r="A184" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B184" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C184" s="80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="26.25">
+      <c r="A185" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B185" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="115.5">
+      <c r="A186" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B186" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C186" s="80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="90">
+      <c r="A187" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B187" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" s="80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="153.75">
+      <c r="A188" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B188" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" s="80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="102.75">
+      <c r="A189" s="82">
+        <v>42324</v>
+      </c>
+      <c r="B189" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="90">
+      <c r="A190" s="82">
+        <v>42321</v>
+      </c>
+      <c r="B190" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C190" s="80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="26.25">
+      <c r="A191" s="82">
+        <v>42321</v>
+      </c>
+      <c r="B191" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191" s="80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="77.25">
+      <c r="A192" s="81">
+        <v>42318</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C192" s="80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="115.5">
+      <c r="A193" s="81">
+        <v>42311</v>
+      </c>
+      <c r="B193" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C175" s="83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="85">
-        <v>42331</v>
-      </c>
-      <c r="B176" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="C176" s="83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A177" s="85">
-        <v>42329</v>
-      </c>
-      <c r="B177" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="C177" s="83" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A178" s="85">
-        <v>42328</v>
-      </c>
-      <c r="B178" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C178" s="83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="85">
-        <v>42328</v>
-      </c>
-      <c r="B179" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="C179" s="83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="85">
-        <v>42328</v>
-      </c>
-      <c r="B180" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="C180" s="83" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="85">
-        <v>42328</v>
-      </c>
-      <c r="B181" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="C181" s="83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A182" s="85">
-        <v>42328</v>
-      </c>
-      <c r="B182" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="83" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A183" s="85">
-        <v>42324</v>
-      </c>
-      <c r="B183" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C183" s="83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184" s="85">
-        <v>42321</v>
-      </c>
-      <c r="B184" s="83" t="s">
-        <v>328</v>
-      </c>
-      <c r="C184" s="83" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="85">
-        <v>42321</v>
-      </c>
-      <c r="B185" s="83" t="s">
-        <v>328</v>
-      </c>
-      <c r="C185" s="83" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="84">
-        <v>42318</v>
-      </c>
-      <c r="B186" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="C186" s="83" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="84">
-        <v>42311</v>
-      </c>
-      <c r="B187" s="83" t="s">
+      <c r="C193" s="80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="77.25">
+      <c r="A194" s="81">
+        <v>42310</v>
+      </c>
+      <c r="B194" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="83" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="84">
-        <v>42310</v>
-      </c>
-      <c r="B188" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="C188" s="83" t="s">
+      <c r="C194" s="80" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A189" s="84">
+    <row r="195" spans="1:3" ht="51.75">
+      <c r="A195" s="81">
         <v>42306</v>
       </c>
-      <c r="B189" s="83" t="s">
+      <c r="B195" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C189" s="83" t="s">
+      <c r="C195" s="80" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C127"/>
-  <mergeCells count="1">
-    <mergeCell ref="B21:B22"/>
-  </mergeCells>
+  <autoFilter ref="A1:C129">
+    <sortState ref="A2:C193">
+      <sortCondition descending="1" ref="A1:A127"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
-    <hyperlink ref="C58" r:id="rId2"/>
-    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="C168" r:id="rId1"/>
+    <hyperlink ref="C129" r:id="rId2"/>
+    <hyperlink ref="C169" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A1" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5201,27 +5492,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5232,7 +5523,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -5243,7 +5534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -5254,7 +5545,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5265,7 +5556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -5276,7 +5567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -5287,7 +5578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5298,7 +5589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -5309,7 +5600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5320,7 +5611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5331,7 +5622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5342,7 +5633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -5353,7 +5644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -5364,7 +5655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -5375,7 +5666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5386,7 +5677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -5397,7 +5688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -5408,7 +5699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -5419,7 +5710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -5430,7 +5721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -5441,7 +5732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -5452,7 +5743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -5463,7 +5754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -5474,7 +5765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -5485,7 +5776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -5496,7 +5787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -5507,7 +5798,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -5518,7 +5809,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5529,7 +5820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -5540,7 +5831,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -5551,7 +5842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -5562,7 +5853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -5573,7 +5864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5584,7 +5875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -5595,7 +5886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5606,7 +5897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -5617,7 +5908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -5628,7 +5919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -5639,7 +5930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -5650,7 +5941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -5661,7 +5952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -5672,7 +5963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -5683,7 +5974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -5694,7 +5985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -5705,7 +5996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -5716,7 +6007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -5727,7 +6018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -5738,7 +6029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -5749,7 +6040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -5760,7 +6051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -5771,7 +6062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -5782,7 +6073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -5793,7 +6084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -5804,7 +6095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -5815,7 +6106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -5826,7 +6117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5837,7 +6128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -5848,7 +6139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -5859,7 +6150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -5870,7 +6161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -5881,7 +6172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -5892,7 +6183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -5903,7 +6194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -5914,7 +6205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -5925,7 +6216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5936,7 +6227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -5947,7 +6238,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -5958,7 +6249,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -5969,7 +6260,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -5980,7 +6271,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -5991,7 +6282,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6002,7 +6293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6013,7 +6304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6024,7 +6315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6035,7 +6326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6046,7 +6337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6057,7 +6348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6068,7 +6359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6079,7 +6370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6090,7 +6381,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -6101,7 +6392,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -6112,7 +6403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6123,7 +6414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -6134,7 +6425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6145,7 +6436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6156,7 +6447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6167,7 +6458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -6178,7 +6469,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -6189,7 +6480,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -6200,7 +6491,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -6211,7 +6502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -6222,7 +6513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -6233,7 +6524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -6244,7 +6535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -6255,7 +6546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -6266,7 +6557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -6277,7 +6568,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -6288,7 +6579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -6299,7 +6590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6310,7 +6601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -6321,7 +6612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -6332,7 +6623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -6343,7 +6634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -6354,7 +6645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -6365,7 +6656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -6376,7 +6667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -6387,7 +6678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -6398,7 +6689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -6409,7 +6700,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6420,7 +6711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6431,7 +6722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6442,7 +6733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -6453,7 +6744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6491,86 +6782,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:2" ht="167.25" thickBot="1">
+      <c r="A2" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="85" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="87" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="87" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="87" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="87" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="87" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="87" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="87" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6582,14 +6873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -6597,695 +6888,695 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="91" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94" t="s">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A3" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="83" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+    <row r="5" spans="1:4" ht="27" thickBot="1">
+      <c r="A5" s="92" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="83" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+    <row r="6" spans="1:4" ht="27" thickBot="1">
+      <c r="A6" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="83" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+    <row r="7" spans="1:4" ht="27" thickBot="1">
+      <c r="A7" s="83" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A8" s="83" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="83" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="83" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="83" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="93" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+    <row r="11" spans="1:4" ht="27" thickBot="1">
+      <c r="A11" s="93" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A12" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="83" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:4" ht="27" thickBot="1">
+      <c r="A13" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="83" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="83" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:4" ht="27" thickBot="1">
+      <c r="A15" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="83" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:4" ht="27" thickBot="1">
+      <c r="A16" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="83" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:4" ht="27" thickBot="1">
+      <c r="A17" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="83" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A18" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86" t="s">
+      <c r="C18" s="83"/>
+      <c r="D18" s="83" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A19" s="92" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="93" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A20" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="83" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A21" s="94" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="83" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A22" s="83" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="83" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
+    <row r="23" spans="1:4" ht="27" thickBot="1">
+      <c r="A23" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="83" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+    <row r="24" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A24" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="83" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A25" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86" t="s">
+      <c r="C25" s="83"/>
+      <c r="D25" s="83" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+    <row r="26" spans="1:4" ht="27" thickBot="1">
+      <c r="A26" s="83" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="83" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:4" ht="27" thickBot="1">
+      <c r="A27" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="83" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A28" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="83" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A29" s="94" t="s">
         <v>419</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="83" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A30" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="83" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+    <row r="31" spans="1:4" ht="27" thickBot="1">
+      <c r="A31" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86" t="s">
+      <c r="C31" s="83"/>
+      <c r="D31" s="83" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A32" s="83" t="s">
         <v>425</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="83" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86" t="s">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="83" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="86" t="s">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A34" s="83" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="83" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="83" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="83" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A36" s="92" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="93" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="86" t="s">
+    <row r="37" spans="1:4" ht="27" thickBot="1">
+      <c r="A37" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="83" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="86" t="s">
+    <row r="38" spans="1:4" ht="27" thickBot="1">
+      <c r="A38" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="83" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96" t="s">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A39" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="83" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
+    <row r="40" spans="1:4" ht="27" thickBot="1">
+      <c r="A40" s="83" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="86" t="s">
+      <c r="D40" s="83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="83" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="83" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="96" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="93" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+    <row r="44" spans="1:4" ht="27" thickBot="1">
+      <c r="A44" s="92" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="83" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86" t="s">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="83" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="97" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A46" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D46" s="93" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86" t="s">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A47" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86" t="s">
+      <c r="C47" s="83"/>
+      <c r="D47" s="83" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="86" t="s">
+    <row r="48" spans="1:4" ht="27" thickBot="1">
+      <c r="A48" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="96" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="93" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-    </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="83"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+    </row>
+    <row r="51" spans="1:4" ht="39" thickBot="1">
+      <c r="A51" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="99" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="96" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="s">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1">
+      <c r="A52" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="100" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="97" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1">
+      <c r="A53" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="100" t="s">
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="97" t="s">
         <v>462</v>
       </c>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$130</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="474">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2387,6 +2387,12 @@
   </si>
   <si>
     <t>https://www.w3.org/International/articles/definitions-characters/</t>
+  </si>
+  <si>
+    <t>系統內有一些可以用的Utility, 他們以Copy的形式附著到源碼上, 如下:
+D/COPY CFSORC,SRW000
+C/COPY CFSORC,SRP001
+那麼在源碼中便可直接用EXSR SRP009來使用了, 當然必先設定Input的值.</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2706,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2985,6 +2991,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3030,13 +3039,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3352,9 +3361,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3381,293 +3390,293 @@
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A3" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1">
+      <c r="A4" s="2">
         <v>42458</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B4" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105">
-      <c r="A4" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60">
+    <row r="5" spans="1:3" ht="105">
       <c r="A5" s="2">
         <v>42456</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>463</v>
+        <v>255</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="2">
         <v>42456</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>464</v>
+      <c r="B6" s="98" t="s">
+        <v>463</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="2">
         <v>42456</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>42456</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="77.25">
-      <c r="A9" s="81">
-        <v>42453</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25">
+    <row r="10" spans="1:3" ht="77.25">
       <c r="A10" s="81">
         <v>42453</v>
       </c>
       <c r="B10" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25">
+      <c r="A11" s="81">
+        <v>42453</v>
+      </c>
+      <c r="B11" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C11" s="80" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39">
-      <c r="A11" s="81">
+    <row r="12" spans="1:3" ht="39">
+      <c r="A12" s="81">
         <v>42452</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B12" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C12" s="80" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="165">
-      <c r="A12" s="77">
+    <row r="13" spans="1:3" ht="165">
+      <c r="A13" s="77">
         <v>42451</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B13" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="2">
         <v>42451</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="165">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="2">
         <v>42451</v>
       </c>
       <c r="B15" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="165">
+      <c r="A16" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B16" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="64.5">
-      <c r="A16" s="81">
-        <v>42451</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="64.5">
       <c r="A17" s="81">
+        <v>42451</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="64.5">
+      <c r="A18" s="81">
         <v>42447</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B18" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C18" s="80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>42440</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B19" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="75">
-      <c r="A19" s="2">
+    <row r="20" spans="1:3" ht="75">
+      <c r="A20" s="2">
         <v>42436</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="39">
-      <c r="A20" s="81">
-        <v>42431</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.25">
+    <row r="21" spans="1:3" ht="39">
       <c r="A21" s="81">
         <v>42431</v>
       </c>
       <c r="B21" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26.25">
+      <c r="A22" s="81">
+        <v>42431</v>
+      </c>
+      <c r="B22" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C22" s="80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="81">
+    <row r="23" spans="1:3" ht="51.75">
+      <c r="A23" s="81">
         <v>42430</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B23" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C23" s="80" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25">
-      <c r="A23" s="81">
+    <row r="24" spans="1:3" ht="26.25">
+      <c r="A24" s="81">
         <v>42428</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B24" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C24" s="80" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="2">
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="2">
         <v>42426</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B25" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C25" s="98" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="77.25">
-      <c r="A25" s="81">
+    <row r="26" spans="1:3" ht="77.25">
+      <c r="A26" s="81">
         <v>42426</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B26" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C26" s="80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>42425</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25">
-      <c r="A28" s="81">
-        <v>42425</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="81">
         <v>42425</v>
       </c>
@@ -3675,261 +3684,261 @@
         <v>277</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="81">
         <v>42425</v>
       </c>
       <c r="B30" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26.25">
+      <c r="A31" s="81">
+        <v>42425</v>
+      </c>
+      <c r="B31" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C31" s="80" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="165">
-      <c r="A31" s="2">
+    <row r="32" spans="1:3" ht="165">
+      <c r="A32" s="2">
         <v>42424</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B32" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45">
-      <c r="A32" s="2">
+    <row r="33" spans="1:3" ht="45">
+      <c r="A33" s="2">
         <v>42423</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B33" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="81">
+    <row r="34" spans="1:3">
+      <c r="A34" s="81">
         <v>42423</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B34" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C34" s="80" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="90">
-      <c r="A34" s="2">
+    <row r="35" spans="1:3" ht="90">
+      <c r="A35" s="2">
         <v>42422</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C35" s="38" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" ht="60">
+      <c r="A36" s="2">
         <v>42419</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="195">
-      <c r="A36" s="2">
+    <row r="37" spans="1:3" ht="195">
+      <c r="A37" s="2">
         <v>42418</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B37" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45">
-      <c r="A37" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="75">
+    <row r="38" spans="1:3" ht="45">
       <c r="A38" s="2">
         <v>42403</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="75">
       <c r="A39" s="2">
         <v>42403</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="C39" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90">
       <c r="A40" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>42403</v>
+      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90">
       <c r="A41" s="2">
         <v>42398</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45">
+      <c r="A42" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B42" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>42397</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
-      <c r="A43" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B43" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="45">
       <c r="A44" s="2">
         <v>42396</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="128.25">
-      <c r="A45" s="81">
-        <v>42386</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="80" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="64.5">
+    <row r="46" spans="1:3" ht="128.25">
       <c r="A46" s="81">
         <v>42386</v>
       </c>
       <c r="B46" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="64.5">
+      <c r="A47" s="81">
+        <v>42386</v>
+      </c>
+      <c r="B47" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C47" s="80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45">
-      <c r="A47" s="2">
+    <row r="48" spans="1:3" ht="45">
+      <c r="A48" s="2">
         <v>42384</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="180">
-      <c r="A48" s="2">
+    <row r="49" spans="1:3" ht="180">
+      <c r="A49" s="2">
         <v>42382</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B49" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="64.5">
-      <c r="A49" s="81">
+    <row r="50" spans="1:3" ht="64.5">
+      <c r="A50" s="81">
         <v>42382</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B50" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C50" s="80" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="2">
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="2">
         <v>42381</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45">
-      <c r="A51" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="75">
+    <row r="52" spans="1:3" ht="45">
       <c r="A52" s="2">
         <v>42380</v>
       </c>
-      <c r="B52" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="180">
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="75">
       <c r="A53" s="2">
         <v>42380</v>
       </c>
@@ -3937,29 +3946,29 @@
         <v>195</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="180">
+      <c r="A54" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="217.5">
-      <c r="A54" s="81">
+    <row r="55" spans="1:3" ht="217.5">
+      <c r="A55" s="81">
         <v>42380</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B55" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C55" s="80" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="102.75">
-      <c r="A55" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="102.75">
@@ -3967,24 +3976,24 @@
         <v>42378</v>
       </c>
       <c r="B56" s="80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="141">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="102.75">
       <c r="A57" s="81">
         <v>42378</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="77.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="141">
       <c r="A58" s="81">
         <v>42378</v>
       </c>
@@ -3992,169 +4001,169 @@
         <v>298</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="102.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="77.25">
       <c r="A59" s="81">
         <v>42378</v>
       </c>
       <c r="B59" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="102.75">
+      <c r="A60" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B60" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C60" s="80" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="2">
+    <row r="61" spans="1:3" ht="60">
+      <c r="A61" s="2">
         <v>42377</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="98" t="s">
+      <c r="C61" s="98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="77.25">
-      <c r="A61" s="81">
+    <row r="62" spans="1:3" ht="77.25">
+      <c r="A62" s="81">
         <v>42376</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B62" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C62" s="80" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
-      <c r="A62" s="2">
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="2">
         <v>42375</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>42369</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="195">
-      <c r="A64" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="135">
+    <row r="65" spans="1:3" ht="195">
       <c r="A65" s="2">
         <v>42368</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="135">
       <c r="A66" s="2">
         <v>42368</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45">
+      <c r="A67" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30">
-      <c r="A67" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30">
       <c r="A68" s="2">
         <v>42366</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30">
+      <c r="A69" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="150">
-      <c r="A69" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30">
+    <row r="70" spans="1:3" ht="150">
       <c r="A70" s="2">
         <v>42361</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="270">
+      <c r="C70" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30">
       <c r="A71" s="2">
         <v>42361</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30">
+      <c r="C71" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="270">
       <c r="A72" s="2">
         <v>42361</v>
       </c>
-      <c r="B72" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
       <c r="A73" s="2">
         <v>42361</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="225">
+      <c r="B73" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>42361</v>
       </c>
@@ -4162,51 +4171,51 @@
         <v>186</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="60">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="225">
       <c r="A75" s="2">
         <v>42361</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>49</v>
+      <c r="B75" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="90">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="60">
       <c r="A76" s="2">
         <v>42361</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="60">
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="90">
       <c r="A77" s="2">
         <v>42361</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="26" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="60">
+      <c r="A78" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="26" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="42">
-        <v>42360</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4217,85 +4226,85 @@
         <v>195</v>
       </c>
       <c r="C79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="42">
+        <v>42360</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="102.75">
-      <c r="A80" s="82">
+    <row r="81" spans="1:3" ht="102.75">
+      <c r="A81" s="82">
         <v>42360</v>
       </c>
-      <c r="B80" s="80" t="s">
+      <c r="B81" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="80" t="s">
+      <c r="C81" s="80" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30">
-      <c r="A81" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="30">
       <c r="A82" s="2">
         <v>42356</v>
       </c>
-      <c r="B82" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>181</v>
+      <c r="B82" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>42356</v>
       </c>
-      <c r="B83" s="98" t="s">
-        <v>201</v>
+      <c r="B83" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>42356</v>
       </c>
-      <c r="B84" s="98"/>
-      <c r="C84" s="28" t="s">
+      <c r="B84" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30">
+      <c r="A85" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B85" s="98"/>
+      <c r="C85" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="60">
-      <c r="A85" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="60">
       <c r="A86" s="2">
         <v>42355</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="150">
+      <c r="B86" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>42355</v>
       </c>
@@ -4303,76 +4312,76 @@
         <v>33</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="120">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="150">
       <c r="A88" s="2">
         <v>42355</v>
       </c>
-      <c r="B88" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30">
+      <c r="B88" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="120">
       <c r="A89" s="2">
         <v>42355</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="B89" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
       <c r="A90" s="2">
         <v>42355</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>42355</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>43</v>
+      <c r="B91" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="135">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="75">
       <c r="A92" s="2">
         <v>42355</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="75">
+      <c r="B92" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="135">
       <c r="A93" s="2">
         <v>42355</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C93" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30">
+      <c r="C93" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="75">
       <c r="A94" s="2">
         <v>42355</v>
       </c>
@@ -4380,16 +4389,18 @@
         <v>173</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30">
       <c r="A95" s="2">
         <v>42355</v>
       </c>
-      <c r="B95" s="44"/>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C95" s="32" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4398,7 +4409,7 @@
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="32" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4407,92 +4418,92 @@
       </c>
       <c r="B97" s="44"/>
       <c r="C97" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B98" s="44"/>
+      <c r="C98" s="32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="75">
-      <c r="A98" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30">
+    <row r="99" spans="1:6" ht="75">
       <c r="A99" s="2">
         <v>42352</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="75">
+      <c r="B99" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30">
       <c r="A100" s="2">
         <v>42352</v>
       </c>
       <c r="B100" s="28"/>
-      <c r="C100" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="C100" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="75">
       <c r="A101" s="2">
         <v>42352</v>
       </c>
-      <c r="B101" s="98"/>
-      <c r="C101" s="35" t="s">
-        <v>69</v>
+      <c r="B101" s="28"/>
+      <c r="C101" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>42352</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36" t="s">
-        <v>75</v>
+      <c r="B102" s="98"/>
+      <c r="C102" s="35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>42352</v>
       </c>
-      <c r="B103" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="B103" s="36"/>
       <c r="C103" s="36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>42352</v>
       </c>
-      <c r="B104" s="98"/>
-      <c r="C104" s="39" t="s">
-        <v>73</v>
+      <c r="B104" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>42352</v>
       </c>
-      <c r="B105" s="39"/>
+      <c r="B105" s="98"/>
       <c r="C105" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>42352</v>
       </c>
-      <c r="B106" s="98"/>
-      <c r="C106" s="98" t="s">
-        <v>76</v>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30">
@@ -4501,270 +4512,268 @@
       </c>
       <c r="B107" s="98"/>
       <c r="C107" s="98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30">
       <c r="A108" s="2">
         <v>42352</v>
       </c>
-      <c r="B108" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>79</v>
+      <c r="B108" s="98"/>
+      <c r="C108" s="98" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="45">
       <c r="A109" s="2">
         <v>42352</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30">
+      <c r="B109" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="45">
       <c r="A110" s="2">
         <v>42352</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="75">
+      <c r="B110" s="40"/>
+      <c r="C110" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30">
       <c r="A111" s="2">
         <v>42352</v>
       </c>
       <c r="B111" s="43"/>
       <c r="C111" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="75">
       <c r="A112" s="2">
         <v>42352</v>
       </c>
-      <c r="B112" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" s="45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30">
+      <c r="B112" s="43"/>
+      <c r="C112" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="45">
       <c r="A113" s="2">
         <v>42352</v>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45">
+      <c r="B113" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30">
       <c r="A114" s="2">
         <v>42352</v>
       </c>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+      <c r="B114" s="46"/>
+      <c r="C114" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45">
       <c r="A115" s="2">
         <v>42352</v>
       </c>
-      <c r="B115" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="49" t="s">
-        <v>86</v>
+      <c r="B115" s="47"/>
+      <c r="C115" s="48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="B116" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B118" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C117" s="51" t="s">
+      <c r="C118" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="135">
-      <c r="A118" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="60">
+    <row r="119" spans="1:3" ht="135">
       <c r="A119" s="2">
         <v>42349</v>
       </c>
-      <c r="B119" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
+      <c r="B119" s="53"/>
+      <c r="C119" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="60">
       <c r="A120" s="2">
         <v>42349</v>
       </c>
-      <c r="B120" s="98"/>
+      <c r="B120" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="C120" s="55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="120">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="2">
         <v>42349</v>
       </c>
-      <c r="B121" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="150">
+      <c r="B121" s="98"/>
+      <c r="C121" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="120">
       <c r="A122" s="2">
         <v>42349</v>
       </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30">
+      <c r="B122" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="150">
       <c r="A123" s="2">
         <v>42349</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="B123" s="56"/>
+      <c r="C123" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="2">
         <v>42349</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C124" s="59" t="s">
-        <v>61</v>
+      <c r="C124" s="57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>42349</v>
       </c>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60" t="s">
-        <v>78</v>
+      <c r="B125" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>42349</v>
       </c>
-      <c r="B126" s="61"/>
-      <c r="C126" s="61" t="s">
-        <v>62</v>
+      <c r="B126" s="60"/>
+      <c r="C126" s="60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42349</v>
       </c>
-      <c r="B127" s="62"/>
-      <c r="C127" s="62" t="s">
-        <v>70</v>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42349</v>
       </c>
-      <c r="B128" s="63"/>
-      <c r="C128" s="63" t="s">
-        <v>64</v>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>42349</v>
       </c>
-      <c r="B129" s="64"/>
-      <c r="C129" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="60">
+      <c r="B129" s="63"/>
+      <c r="C129" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>42349</v>
       </c>
-      <c r="B130" s="64" t="s">
+      <c r="B130" s="64"/>
+      <c r="C130" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="60">
+      <c r="A131" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B131" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="64" t="s">
+      <c r="C131" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="90">
-      <c r="A131" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="30">
+    <row r="132" spans="1:3" ht="90">
       <c r="A132" s="2">
         <v>42345</v>
       </c>
-      <c r="B132" s="65" t="s">
+      <c r="B132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="C132" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30">
       <c r="A133" s="2">
         <v>42345</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133" s="66" t="s">
-        <v>28</v>
+      <c r="B133" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4774,162 +4783,162 @@
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="30">
+      <c r="C134" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>42345</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="195">
+      <c r="C135" s="67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30">
       <c r="A136" s="2">
         <v>42345</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="135">
+      <c r="B136" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="195">
       <c r="A137" s="2">
         <v>42345</v>
       </c>
-      <c r="B137" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C137" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="75">
+      <c r="B137" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="135">
       <c r="A138" s="2">
         <v>42345</v>
       </c>
       <c r="B138" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="71" t="s">
-        <v>32</v>
+      <c r="C138" s="70" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="75">
       <c r="A139" s="2">
         <v>42345</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C139" s="75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30">
+      <c r="B139" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="75">
       <c r="A140" s="2">
         <v>42345</v>
       </c>
-      <c r="B140" s="73" t="s">
-        <v>12</v>
+      <c r="B140" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C140" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30">
       <c r="A141" s="2">
         <v>42345</v>
       </c>
-      <c r="B141" s="74" t="s">
-        <v>39</v>
+      <c r="B141" s="73" t="s">
+        <v>12</v>
       </c>
       <c r="C141" s="75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>42345</v>
       </c>
-      <c r="B142" s="98" t="s">
+      <c r="B142" s="74" t="s">
         <v>39</v>
       </c>
       <c r="C142" s="75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>42345</v>
       </c>
-      <c r="B143" s="75" t="s">
+      <c r="B143" s="98" t="s">
         <v>39</v>
       </c>
       <c r="C143" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="60">
       <c r="A144" s="2">
         <v>42345</v>
       </c>
-      <c r="B144" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="45">
+      <c r="B144" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="150">
       <c r="A145" s="2">
         <v>42345</v>
       </c>
-      <c r="B145" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C145" s="79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="60">
+      <c r="B145" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="45">
       <c r="A146" s="2">
         <v>42345</v>
       </c>
-      <c r="B146" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="105">
+      <c r="B146" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="60">
       <c r="A147" s="2">
         <v>42345</v>
       </c>
-      <c r="B147" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="B147" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="105">
       <c r="A148" s="2">
         <v>42345</v>
       </c>
       <c r="B148" s="98" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C148" s="98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4940,10 +4949,10 @@
         <v>49</v>
       </c>
       <c r="C149" s="98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42345</v>
       </c>
@@ -4951,54 +4960,54 @@
         <v>49</v>
       </c>
       <c r="C150" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="75">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
       <c r="B151" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45">
+      <c r="A152" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B152" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="98" t="s">
+      <c r="C152" s="98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="141">
-      <c r="A152" s="82">
+    <row r="153" spans="1:3" ht="141">
+      <c r="A153" s="82">
         <v>42345</v>
       </c>
-      <c r="B152" s="80" t="s">
+      <c r="B153" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C152" s="80" t="s">
+      <c r="C153" s="80" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="105">
-      <c r="A153" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="90">
+    <row r="154" spans="1:3" ht="105">
       <c r="A154" s="2">
         <v>42341</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C154" s="98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="90">
       <c r="A155" s="2">
         <v>42341</v>
       </c>
@@ -5006,10 +5015,10 @@
         <v>15</v>
       </c>
       <c r="C155" s="98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="75">
       <c r="A156" s="2">
         <v>42341</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>15</v>
       </c>
       <c r="C156" s="98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30">
@@ -5028,10 +5037,10 @@
         <v>15</v>
       </c>
       <c r="C157" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30">
       <c r="A158" s="2">
         <v>42341</v>
       </c>
@@ -5039,32 +5048,32 @@
         <v>15</v>
       </c>
       <c r="C158" s="98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="45">
       <c r="A159" s="2">
         <v>42341</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C159" s="98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="90">
       <c r="A160" s="2">
         <v>42341</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C160" s="98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="2">
         <v>42341</v>
       </c>
@@ -5072,10 +5081,10 @@
         <v>15</v>
       </c>
       <c r="C161" s="98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="150">
       <c r="A162" s="2">
         <v>42341</v>
       </c>
@@ -5083,40 +5092,40 @@
         <v>15</v>
       </c>
       <c r="C162" s="98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="75">
       <c r="A163" s="2">
         <v>42341</v>
       </c>
-      <c r="B163" s="98" t="s">
-        <v>12</v>
+      <c r="B163" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C163" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="90">
       <c r="A164" s="2">
         <v>42341</v>
       </c>
       <c r="B164" s="98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C164" s="98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="60">
       <c r="A165" s="2">
         <v>42341</v>
       </c>
       <c r="B165" s="98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C165" s="98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5124,10 +5133,10 @@
         <v>42341</v>
       </c>
       <c r="B166" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C166" s="98" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5138,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5148,8 +5157,8 @@
       <c r="B168" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="9" t="s">
-        <v>165</v>
+      <c r="C168" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5160,67 +5169,69 @@
         <v>15</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>42341</v>
       </c>
       <c r="B170" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C170" s="98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="60">
+      <c r="C170" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="75">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
       <c r="B171" s="98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C171" s="98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="60">
       <c r="A172" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B172" s="98"/>
+        <v>42341</v>
+      </c>
+      <c r="B172" s="98" t="s">
+        <v>12</v>
+      </c>
       <c r="C172" s="98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="60">
       <c r="A173" s="2">
         <v>42340</v>
       </c>
       <c r="B173" s="98"/>
       <c r="C173" s="98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="45">
       <c r="A174" s="2">
         <v>42340</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="98"/>
+      <c r="C174" s="98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="60">
+      <c r="A175" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="98" t="s">
+      <c r="C175" s="98" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="98" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5229,131 +5240,129 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="64.5">
-      <c r="A177" s="82">
-        <v>42334</v>
-      </c>
-      <c r="B177" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="C177" s="80" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="26.25">
+    <row r="178" spans="1:3" ht="64.5">
       <c r="A178" s="82">
         <v>42334</v>
       </c>
       <c r="B178" s="80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C178" s="80" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="26.25">
       <c r="A179" s="82">
         <v>42334</v>
       </c>
       <c r="B179" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="39">
+      <c r="A180" s="82">
+        <v>42334</v>
+      </c>
+      <c r="B180" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C179" s="80" t="s">
+      <c r="C180" s="80" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="128.25">
-      <c r="A180" s="82">
-        <v>42333</v>
-      </c>
-      <c r="B180" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C180" s="80" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="51.75">
+    <row r="181" spans="1:3" ht="128.25">
       <c r="A181" s="82">
         <v>42333</v>
       </c>
       <c r="B181" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C181" s="80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="51.75">
+      <c r="A182" s="82">
+        <v>42333</v>
+      </c>
+      <c r="B182" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C181" s="80" t="s">
+      <c r="C182" s="80" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="26.25">
-      <c r="A182" s="82">
+    <row r="183" spans="1:3" ht="26.25">
+      <c r="A183" s="82">
         <v>42331</v>
       </c>
-      <c r="B182" s="80" t="s">
+      <c r="B183" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="C182" s="80" t="s">
+      <c r="C183" s="80" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="39">
-      <c r="A183" s="82">
-        <v>42329</v>
-      </c>
-      <c r="B183" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="C183" s="80" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="39">
       <c r="A184" s="82">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B184" s="80" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C184" s="80" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="26.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="39">
       <c r="A185" s="82">
         <v>42328</v>
       </c>
       <c r="B185" s="80" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C185" s="80" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="115.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="26.25">
       <c r="A186" s="82">
         <v>42328</v>
       </c>
       <c r="B186" s="80" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C186" s="80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="115.5">
       <c r="A187" s="82">
         <v>42328</v>
       </c>
       <c r="B187" s="80" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C187" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="153.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="90">
       <c r="A188" s="82">
         <v>42328</v>
       </c>
@@ -5361,32 +5370,32 @@
         <v>318</v>
       </c>
       <c r="C188" s="80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="153.75">
+      <c r="A189" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B189" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C189" s="80" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="102.75">
-      <c r="A189" s="82">
+    <row r="190" spans="1:3" ht="102.75">
+      <c r="A190" s="82">
         <v>42324</v>
       </c>
-      <c r="B189" s="80" t="s">
+      <c r="B190" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C189" s="80" t="s">
+      <c r="C190" s="80" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="90">
-      <c r="A190" s="82">
-        <v>42321</v>
-      </c>
-      <c r="B190" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="C190" s="80" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="26.25">
+    <row r="191" spans="1:3" ht="90">
       <c r="A191" s="82">
         <v>42321</v>
       </c>
@@ -5394,65 +5403,76 @@
         <v>328</v>
       </c>
       <c r="C191" s="80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="26.25">
+      <c r="A192" s="82">
+        <v>42321</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" s="80" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="77.25">
-      <c r="A192" s="81">
+    <row r="193" spans="1:3" ht="77.25">
+      <c r="A193" s="81">
         <v>42318</v>
       </c>
-      <c r="B192" s="80" t="s">
+      <c r="B193" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="C192" s="80" t="s">
+      <c r="C193" s="80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="115.5">
-      <c r="A193" s="81">
+    <row r="194" spans="1:3" ht="115.5">
+      <c r="A194" s="81">
         <v>42311</v>
-      </c>
-      <c r="B193" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="C193" s="80" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="77.25">
-      <c r="A194" s="81">
-        <v>42310</v>
       </c>
       <c r="B194" s="80" t="s">
         <v>216</v>
       </c>
       <c r="C194" s="80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="77.25">
+      <c r="A195" s="81">
+        <v>42310</v>
+      </c>
+      <c r="B195" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C195" s="80" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="51.75">
-      <c r="A195" s="81">
+    <row r="196" spans="1:3" ht="51.75">
+      <c r="A196" s="81">
         <v>42306</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C196" s="80" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C129">
+  <autoFilter ref="A1:C130">
     <sortState ref="A2:C193">
       <sortCondition descending="1" ref="A1:A127"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C168" r:id="rId1"/>
-    <hyperlink ref="C129" r:id="rId2"/>
-    <hyperlink ref="C169" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C169" r:id="rId1"/>
+    <hyperlink ref="C130" r:id="rId2"/>
+    <hyperlink ref="C170" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5471,16 +5491,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$131</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="475">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2393,6 +2393,10 @@
 D/COPY CFSORC,SRW000
 C/COPY CFSORC,SRP001
 那麼在源碼中便可直接用EXSR SRP009來使用了, 當然必先設定Input的值.</t>
+  </si>
+  <si>
+    <t>之前已有總結Encoding的結構, 再結合今天在Java上的String Encoding測試, 更加深了認識. Java的String.getByte方法會以字符的內容為基準, 按你注入的Charset Name返回相應的Byte值, 換句話講, 是面向字符內容而非面向Byte的, 不變的是內容, 變的是Byte值, 這是他的邏輯. 
+* 信息弄失在以某種大信息集的字符轉換到小信息集時, 小信息集會把不能承載的信息弄棄.</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2710,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2991,6 +2995,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3039,13 +3046,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3361,7 +3368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -3390,304 +3397,304 @@
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A3" s="2">
         <v>42459</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A4" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C4" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
-      <c r="A4" s="2">
+    <row r="5" spans="1:3" s="4" customFormat="1">
+      <c r="A5" s="2">
         <v>42458</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B5" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="105">
-      <c r="A5" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="105">
       <c r="A6" s="2">
         <v>42456</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>463</v>
+        <v>255</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60">
       <c r="A7" s="2">
         <v>42456</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>464</v>
+      <c r="B7" s="98" t="s">
+        <v>463</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" s="2">
         <v>42456</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>42456</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B10" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="77.25">
-      <c r="A10" s="81">
-        <v>42453</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25">
+    <row r="11" spans="1:3" ht="77.25">
       <c r="A11" s="81">
         <v>42453</v>
       </c>
       <c r="B11" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.25">
+      <c r="A12" s="81">
+        <v>42453</v>
+      </c>
+      <c r="B12" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C12" s="80" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="39">
-      <c r="A12" s="81">
+    <row r="13" spans="1:3" ht="39">
+      <c r="A13" s="81">
         <v>42452</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B13" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C13" s="80" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="165">
-      <c r="A13" s="77">
+    <row r="14" spans="1:3" ht="165">
+      <c r="A14" s="77">
         <v>42451</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B14" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
-      <c r="A14" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="2">
         <v>42451</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="165">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="2">
         <v>42451</v>
       </c>
       <c r="B16" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="165">
+      <c r="A17" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B17" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="64.5">
-      <c r="A17" s="81">
-        <v>42451</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="64.5">
       <c r="A18" s="81">
+        <v>42451</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="64.5">
+      <c r="A19" s="81">
         <v>42447</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B19" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C19" s="80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>42440</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B20" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75">
-      <c r="A20" s="2">
+    <row r="21" spans="1:3" ht="75">
+      <c r="A21" s="2">
         <v>42436</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39">
-      <c r="A21" s="81">
-        <v>42431</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26.25">
+    <row r="22" spans="1:3" ht="39">
       <c r="A22" s="81">
         <v>42431</v>
       </c>
       <c r="B22" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26.25">
+      <c r="A23" s="81">
+        <v>42431</v>
+      </c>
+      <c r="B23" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C23" s="80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51.75">
-      <c r="A23" s="81">
+    <row r="24" spans="1:3" ht="51.75">
+      <c r="A24" s="81">
         <v>42430</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B24" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C24" s="80" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.25">
-      <c r="A24" s="81">
+    <row r="25" spans="1:3" ht="26.25">
+      <c r="A25" s="81">
         <v>42428</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B25" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C25" s="80" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="2">
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="2">
         <v>42426</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B26" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C26" s="98" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="77.25">
-      <c r="A26" s="81">
+    <row r="27" spans="1:3" ht="77.25">
+      <c r="A27" s="81">
         <v>42426</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B27" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C27" s="80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>42425</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25">
-      <c r="A29" s="81">
-        <v>42425</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="26.25">
       <c r="A30" s="81">
         <v>42425</v>
       </c>
@@ -3695,261 +3702,261 @@
         <v>277</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="81">
         <v>42425</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26.25">
+      <c r="A32" s="81">
+        <v>42425</v>
+      </c>
+      <c r="B32" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C32" s="80" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="165">
-      <c r="A32" s="2">
+    <row r="33" spans="1:3" ht="165">
+      <c r="A33" s="2">
         <v>42424</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B33" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
-      <c r="A33" s="2">
+    <row r="34" spans="1:3" ht="45">
+      <c r="A34" s="2">
         <v>42423</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B34" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="81">
+    <row r="35" spans="1:3">
+      <c r="A35" s="81">
         <v>42423</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B35" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C35" s="80" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="90">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" ht="90">
+      <c r="A36" s="2">
         <v>42422</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C36" s="38" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60">
-      <c r="A36" s="2">
+    <row r="37" spans="1:3" ht="60">
+      <c r="A37" s="2">
         <v>42419</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="195">
-      <c r="A37" s="2">
+    <row r="38" spans="1:3" ht="195">
+      <c r="A38" s="2">
         <v>42418</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B38" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45">
-      <c r="A38" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="75">
+    <row r="39" spans="1:3" ht="45">
       <c r="A39" s="2">
         <v>42403</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75">
       <c r="A40" s="2">
         <v>42403</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="C40" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="90">
       <c r="A41" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>42403</v>
+      </c>
+      <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="90">
       <c r="A42" s="2">
         <v>42398</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45">
+      <c r="A43" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B43" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>42397</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B44" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
+    <row r="45" spans="1:3" ht="45">
       <c r="A45" s="2">
         <v>42396</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="128.25">
-      <c r="A46" s="81">
-        <v>42386</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="64.5">
+    <row r="47" spans="1:3" ht="128.25">
       <c r="A47" s="81">
         <v>42386</v>
       </c>
       <c r="B47" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="64.5">
+      <c r="A48" s="81">
+        <v>42386</v>
+      </c>
+      <c r="B48" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C48" s="80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45">
-      <c r="A48" s="2">
+    <row r="49" spans="1:3" ht="45">
+      <c r="A49" s="2">
         <v>42384</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="180">
-      <c r="A49" s="2">
+    <row r="50" spans="1:3" ht="180">
+      <c r="A50" s="2">
         <v>42382</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="64.5">
-      <c r="A50" s="81">
+    <row r="51" spans="1:3" ht="64.5">
+      <c r="A51" s="81">
         <v>42382</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B51" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C51" s="80" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" ht="30">
+      <c r="A52" s="2">
         <v>42381</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B52" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
-      <c r="A52" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="75">
+    <row r="53" spans="1:3" ht="45">
       <c r="A53" s="2">
         <v>42380</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="180">
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="75">
       <c r="A54" s="2">
         <v>42380</v>
       </c>
@@ -3957,29 +3964,29 @@
         <v>195</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="180">
+      <c r="A55" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="217.5">
-      <c r="A55" s="81">
+    <row r="56" spans="1:3" ht="217.5">
+      <c r="A56" s="81">
         <v>42380</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B56" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C56" s="80" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="102.75">
-      <c r="A56" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B56" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="102.75">
@@ -3987,24 +3994,24 @@
         <v>42378</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="141">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="102.75">
       <c r="A58" s="81">
         <v>42378</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="77.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="141">
       <c r="A59" s="81">
         <v>42378</v>
       </c>
@@ -4012,169 +4019,169 @@
         <v>298</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="102.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="77.25">
       <c r="A60" s="81">
         <v>42378</v>
       </c>
       <c r="B60" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="102.75">
+      <c r="A61" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B61" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C61" s="80" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="60">
-      <c r="A61" s="2">
+    <row r="62" spans="1:3" ht="60">
+      <c r="A62" s="2">
         <v>42377</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C62" s="98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="77.25">
-      <c r="A62" s="81">
+    <row r="63" spans="1:3" ht="77.25">
+      <c r="A63" s="81">
         <v>42376</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B63" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C63" s="80" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3" ht="45">
+      <c r="A64" s="2">
         <v>42375</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>42369</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="195">
-      <c r="A65" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="135">
+    <row r="66" spans="1:3" ht="195">
       <c r="A66" s="2">
         <v>42368</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="135">
       <c r="A67" s="2">
         <v>42368</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45">
+      <c r="A68" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30">
-      <c r="A68" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
       <c r="A69" s="2">
         <v>42366</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30">
+      <c r="A70" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="150">
-      <c r="A70" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30">
+    <row r="71" spans="1:3" ht="150">
       <c r="A71" s="2">
         <v>42361</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="270">
+      <c r="C71" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30">
       <c r="A72" s="2">
         <v>42361</v>
       </c>
-      <c r="B72" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30">
+      <c r="C72" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="270">
       <c r="A73" s="2">
         <v>42361</v>
       </c>
-      <c r="B73" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="B73" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30">
       <c r="A74" s="2">
         <v>42361</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="225">
+      <c r="B74" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>42361</v>
       </c>
@@ -4182,51 +4189,51 @@
         <v>186</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="60">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="225">
       <c r="A76" s="2">
         <v>42361</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>49</v>
+      <c r="B76" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="90">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60">
       <c r="A77" s="2">
         <v>42361</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="60">
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="90">
       <c r="A78" s="2">
         <v>42361</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="26" t="s">
         <v>196</v>
       </c>
       <c r="C78" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="60">
+      <c r="A79" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="26" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="42">
-        <v>42360</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4237,85 +4244,85 @@
         <v>195</v>
       </c>
       <c r="C80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="42">
+        <v>42360</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102.75">
-      <c r="A81" s="82">
+    <row r="82" spans="1:3" ht="102.75">
+      <c r="A82" s="82">
         <v>42360</v>
       </c>
-      <c r="B81" s="80" t="s">
+      <c r="B82" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C82" s="80" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30">
-      <c r="A82" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="30">
       <c r="A83" s="2">
         <v>42356</v>
       </c>
-      <c r="B83" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>181</v>
+      <c r="B83" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>42356</v>
       </c>
-      <c r="B84" s="98" t="s">
-        <v>201</v>
+      <c r="B84" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>42356</v>
       </c>
-      <c r="B85" s="98"/>
-      <c r="C85" s="28" t="s">
+      <c r="B85" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30">
+      <c r="A86" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B86" s="98"/>
+      <c r="C86" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="60">
-      <c r="A86" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="60">
       <c r="A87" s="2">
         <v>42355</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="150">
+      <c r="B87" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>42355</v>
       </c>
@@ -4323,76 +4330,76 @@
         <v>33</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="120">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="150">
       <c r="A89" s="2">
         <v>42355</v>
       </c>
-      <c r="B89" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30">
+      <c r="B89" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="120">
       <c r="A90" s="2">
         <v>42355</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="B90" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30">
       <c r="A91" s="2">
         <v>42355</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>42355</v>
       </c>
-      <c r="B92" s="16" t="s">
-        <v>43</v>
+      <c r="B92" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="135">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="75">
       <c r="A93" s="2">
         <v>42355</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="75">
+      <c r="B93" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="135">
       <c r="A94" s="2">
         <v>42355</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30">
+      <c r="C94" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="75">
       <c r="A95" s="2">
         <v>42355</v>
       </c>
@@ -4400,16 +4407,18 @@
         <v>173</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30">
       <c r="A96" s="2">
         <v>42355</v>
       </c>
-      <c r="B96" s="44"/>
+      <c r="B96" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C96" s="32" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4418,7 +4427,7 @@
       </c>
       <c r="B97" s="44"/>
       <c r="C97" s="32" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4427,92 +4436,92 @@
       </c>
       <c r="B98" s="44"/>
       <c r="C98" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B99" s="44"/>
+      <c r="C99" s="32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="75">
-      <c r="A99" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="30">
+    <row r="100" spans="1:6" ht="75">
       <c r="A100" s="2">
         <v>42352</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="75">
+      <c r="B100" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30">
       <c r="A101" s="2">
         <v>42352</v>
       </c>
       <c r="B101" s="28"/>
-      <c r="C101" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="C101" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="75">
       <c r="A102" s="2">
         <v>42352</v>
       </c>
-      <c r="B102" s="98"/>
-      <c r="C102" s="35" t="s">
-        <v>69</v>
+      <c r="B102" s="28"/>
+      <c r="C102" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>42352</v>
       </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36" t="s">
-        <v>75</v>
+      <c r="B103" s="98"/>
+      <c r="C103" s="35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>42352</v>
       </c>
-      <c r="B104" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="B104" s="36"/>
       <c r="C104" s="36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>42352</v>
       </c>
-      <c r="B105" s="98"/>
-      <c r="C105" s="39" t="s">
-        <v>73</v>
+      <c r="B105" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>42352</v>
       </c>
-      <c r="B106" s="39"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>42352</v>
       </c>
-      <c r="B107" s="98"/>
-      <c r="C107" s="98" t="s">
-        <v>76</v>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30">
@@ -4521,270 +4530,268 @@
       </c>
       <c r="B108" s="98"/>
       <c r="C108" s="98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30">
       <c r="A109" s="2">
         <v>42352</v>
       </c>
-      <c r="B109" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>79</v>
+      <c r="B109" s="98"/>
+      <c r="C109" s="98" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="45">
       <c r="A110" s="2">
         <v>42352</v>
       </c>
-      <c r="B110" s="40"/>
-      <c r="C110" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30">
+      <c r="B110" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="45">
       <c r="A111" s="2">
         <v>42352</v>
       </c>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="75">
+      <c r="B111" s="40"/>
+      <c r="C111" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30">
       <c r="A112" s="2">
         <v>42352</v>
       </c>
       <c r="B112" s="43"/>
       <c r="C112" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="75">
       <c r="A113" s="2">
         <v>42352</v>
       </c>
-      <c r="B113" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" s="45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
+      <c r="B113" s="43"/>
+      <c r="C113" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45">
       <c r="A114" s="2">
         <v>42352</v>
       </c>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="45">
+      <c r="B114" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="2">
         <v>42352</v>
       </c>
-      <c r="B115" s="47"/>
-      <c r="C115" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="30">
+      <c r="B115" s="46"/>
+      <c r="C115" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="45">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="49" t="s">
-        <v>86</v>
+      <c r="B116" s="47"/>
+      <c r="C116" s="48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="B117" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B119" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C119" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="135">
-      <c r="A119" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="60">
+    <row r="120" spans="1:3" ht="135">
       <c r="A120" s="2">
         <v>42349</v>
       </c>
-      <c r="B120" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30">
+      <c r="B120" s="53"/>
+      <c r="C120" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="60">
       <c r="A121" s="2">
         <v>42349</v>
       </c>
-      <c r="B121" s="98"/>
+      <c r="B121" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="C121" s="55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="120">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="2">
         <v>42349</v>
       </c>
-      <c r="B122" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="150">
+      <c r="B122" s="98"/>
+      <c r="C122" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="120">
       <c r="A123" s="2">
         <v>42349</v>
       </c>
-      <c r="B123" s="56"/>
-      <c r="C123" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30">
+      <c r="B123" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="150">
       <c r="A124" s="2">
         <v>42349</v>
       </c>
-      <c r="B124" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="B124" s="56"/>
+      <c r="C124" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="2">
         <v>42349</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="59" t="s">
-        <v>61</v>
+      <c r="C125" s="57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>42349</v>
       </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60" t="s">
-        <v>78</v>
+      <c r="B126" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42349</v>
       </c>
-      <c r="B127" s="61"/>
-      <c r="C127" s="61" t="s">
-        <v>62</v>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42349</v>
       </c>
-      <c r="B128" s="62"/>
-      <c r="C128" s="62" t="s">
-        <v>70</v>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>42349</v>
       </c>
-      <c r="B129" s="63"/>
-      <c r="C129" s="63" t="s">
-        <v>64</v>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>42349</v>
       </c>
-      <c r="B130" s="64"/>
-      <c r="C130" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="60">
+      <c r="B130" s="63"/>
+      <c r="C130" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>42349</v>
       </c>
-      <c r="B131" s="64" t="s">
+      <c r="B131" s="64"/>
+      <c r="C131" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="60">
+      <c r="A132" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B132" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C131" s="64" t="s">
+      <c r="C132" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="90">
-      <c r="A132" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="30">
+    <row r="133" spans="1:3" ht="90">
       <c r="A133" s="2">
         <v>42345</v>
       </c>
-      <c r="B133" s="65" t="s">
+      <c r="B133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="C133" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30">
       <c r="A134" s="2">
         <v>42345</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C134" s="66" t="s">
-        <v>28</v>
+      <c r="B134" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="65" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4794,162 +4801,162 @@
       <c r="B135" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="30">
+      <c r="C135" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>42345</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="195">
+      <c r="C136" s="67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30">
       <c r="A137" s="2">
         <v>42345</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="135">
+      <c r="B137" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="195">
       <c r="A138" s="2">
         <v>42345</v>
       </c>
-      <c r="B138" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="75">
+      <c r="B138" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="135">
       <c r="A139" s="2">
         <v>42345</v>
       </c>
       <c r="B139" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="71" t="s">
-        <v>32</v>
+      <c r="C139" s="70" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="75">
       <c r="A140" s="2">
         <v>42345</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" s="75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="30">
+      <c r="B140" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="75">
       <c r="A141" s="2">
         <v>42345</v>
       </c>
-      <c r="B141" s="73" t="s">
-        <v>12</v>
+      <c r="B141" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C141" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30">
       <c r="A142" s="2">
         <v>42345</v>
       </c>
-      <c r="B142" s="74" t="s">
-        <v>39</v>
+      <c r="B142" s="73" t="s">
+        <v>12</v>
       </c>
       <c r="C142" s="75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>42345</v>
       </c>
-      <c r="B143" s="98" t="s">
+      <c r="B143" s="74" t="s">
         <v>39</v>
       </c>
       <c r="C143" s="75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>42345</v>
       </c>
-      <c r="B144" s="75" t="s">
+      <c r="B144" s="98" t="s">
         <v>39</v>
       </c>
       <c r="C144" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="60">
       <c r="A145" s="2">
         <v>42345</v>
       </c>
-      <c r="B145" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="45">
+      <c r="B145" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="150">
       <c r="A146" s="2">
         <v>42345</v>
       </c>
-      <c r="B146" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C146" s="79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="60">
+      <c r="B146" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="45">
       <c r="A147" s="2">
         <v>42345</v>
       </c>
-      <c r="B147" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="105">
+      <c r="B147" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="60">
       <c r="A148" s="2">
         <v>42345</v>
       </c>
-      <c r="B148" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="B148" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="105">
       <c r="A149" s="2">
         <v>42345</v>
       </c>
       <c r="B149" s="98" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C149" s="98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4960,10 +4967,10 @@
         <v>49</v>
       </c>
       <c r="C150" s="98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
@@ -4971,54 +4978,54 @@
         <v>49</v>
       </c>
       <c r="C151" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="75">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
       <c r="B152" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="45">
+      <c r="A153" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B153" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C152" s="98" t="s">
+      <c r="C153" s="98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="141">
-      <c r="A153" s="82">
+    <row r="154" spans="1:3" ht="141">
+      <c r="A154" s="82">
         <v>42345</v>
       </c>
-      <c r="B153" s="80" t="s">
+      <c r="B154" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="80" t="s">
+      <c r="C154" s="80" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="105">
-      <c r="A154" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="90">
+    <row r="155" spans="1:3" ht="105">
       <c r="A155" s="2">
         <v>42341</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C155" s="98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="90">
       <c r="A156" s="2">
         <v>42341</v>
       </c>
@@ -5026,10 +5033,10 @@
         <v>15</v>
       </c>
       <c r="C156" s="98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="75">
       <c r="A157" s="2">
         <v>42341</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>15</v>
       </c>
       <c r="C157" s="98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30">
@@ -5048,10 +5055,10 @@
         <v>15</v>
       </c>
       <c r="C158" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="2">
         <v>42341</v>
       </c>
@@ -5059,32 +5066,32 @@
         <v>15</v>
       </c>
       <c r="C159" s="98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="45">
       <c r="A160" s="2">
         <v>42341</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C160" s="98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="90">
       <c r="A161" s="2">
         <v>42341</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C161" s="98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30">
       <c r="A162" s="2">
         <v>42341</v>
       </c>
@@ -5092,10 +5099,10 @@
         <v>15</v>
       </c>
       <c r="C162" s="98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="150">
       <c r="A163" s="2">
         <v>42341</v>
       </c>
@@ -5103,40 +5110,40 @@
         <v>15</v>
       </c>
       <c r="C163" s="98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="75">
       <c r="A164" s="2">
         <v>42341</v>
       </c>
-      <c r="B164" s="98" t="s">
-        <v>12</v>
+      <c r="B164" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C164" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="90">
       <c r="A165" s="2">
         <v>42341</v>
       </c>
       <c r="B165" s="98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C165" s="98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="60">
       <c r="A166" s="2">
         <v>42341</v>
       </c>
       <c r="B166" s="98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C166" s="98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5144,10 +5151,10 @@
         <v>42341</v>
       </c>
       <c r="B167" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C167" s="98" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5158,7 +5165,7 @@
         <v>15</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5168,8 +5175,8 @@
       <c r="B169" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>165</v>
+      <c r="C169" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5180,67 +5187,69 @@
         <v>15</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
       <c r="B171" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="60">
+      <c r="C171" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="75">
       <c r="A172" s="2">
         <v>42341</v>
       </c>
       <c r="B172" s="98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C172" s="98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="60">
       <c r="A173" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B173" s="98"/>
+        <v>42341</v>
+      </c>
+      <c r="B173" s="98" t="s">
+        <v>12</v>
+      </c>
       <c r="C173" s="98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="60">
       <c r="A174" s="2">
         <v>42340</v>
       </c>
       <c r="B174" s="98"/>
       <c r="C174" s="98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="45">
       <c r="A175" s="2">
         <v>42340</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="98"/>
+      <c r="C175" s="98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="60">
+      <c r="A176" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="98" t="s">
+      <c r="C176" s="98" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="98" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5249,131 +5258,129 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="64.5">
-      <c r="A178" s="82">
-        <v>42334</v>
-      </c>
-      <c r="B178" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="C178" s="80" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="26.25">
+    <row r="179" spans="1:3" ht="64.5">
       <c r="A179" s="82">
         <v>42334</v>
       </c>
       <c r="B179" s="80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C179" s="80" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="26.25">
       <c r="A180" s="82">
         <v>42334</v>
       </c>
       <c r="B180" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="39">
+      <c r="A181" s="82">
+        <v>42334</v>
+      </c>
+      <c r="B181" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C180" s="80" t="s">
+      <c r="C181" s="80" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="128.25">
-      <c r="A181" s="82">
-        <v>42333</v>
-      </c>
-      <c r="B181" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C181" s="80" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="51.75">
+    <row r="182" spans="1:3" ht="128.25">
       <c r="A182" s="82">
         <v>42333</v>
       </c>
       <c r="B182" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" s="80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="51.75">
+      <c r="A183" s="82">
+        <v>42333</v>
+      </c>
+      <c r="B183" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="80" t="s">
+      <c r="C183" s="80" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="26.25">
-      <c r="A183" s="82">
+    <row r="184" spans="1:3" ht="26.25">
+      <c r="A184" s="82">
         <v>42331</v>
       </c>
-      <c r="B183" s="80" t="s">
+      <c r="B184" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="C183" s="80" t="s">
+      <c r="C184" s="80" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="39">
-      <c r="A184" s="82">
-        <v>42329</v>
-      </c>
-      <c r="B184" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="C184" s="80" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="39">
       <c r="A185" s="82">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B185" s="80" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C185" s="80" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="26.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="39">
       <c r="A186" s="82">
         <v>42328</v>
       </c>
       <c r="B186" s="80" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C186" s="80" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="115.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="26.25">
       <c r="A187" s="82">
         <v>42328</v>
       </c>
       <c r="B187" s="80" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C187" s="80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="115.5">
       <c r="A188" s="82">
         <v>42328</v>
       </c>
       <c r="B188" s="80" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C188" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="153.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="90">
       <c r="A189" s="82">
         <v>42328</v>
       </c>
@@ -5381,32 +5388,32 @@
         <v>318</v>
       </c>
       <c r="C189" s="80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="153.75">
+      <c r="A190" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B190" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C190" s="80" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="102.75">
-      <c r="A190" s="82">
+    <row r="191" spans="1:3" ht="102.75">
+      <c r="A191" s="82">
         <v>42324</v>
       </c>
-      <c r="B190" s="80" t="s">
+      <c r="B191" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C190" s="80" t="s">
+      <c r="C191" s="80" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="90">
-      <c r="A191" s="82">
-        <v>42321</v>
-      </c>
-      <c r="B191" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="C191" s="80" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="26.25">
+    <row r="192" spans="1:3" ht="90">
       <c r="A192" s="82">
         <v>42321</v>
       </c>
@@ -5414,65 +5421,76 @@
         <v>328</v>
       </c>
       <c r="C192" s="80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="26.25">
+      <c r="A193" s="82">
+        <v>42321</v>
+      </c>
+      <c r="B193" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" s="80" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="77.25">
-      <c r="A193" s="81">
+    <row r="194" spans="1:3" ht="77.25">
+      <c r="A194" s="81">
         <v>42318</v>
       </c>
-      <c r="B193" s="80" t="s">
+      <c r="B194" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C194" s="80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="115.5">
-      <c r="A194" s="81">
+    <row r="195" spans="1:3" ht="115.5">
+      <c r="A195" s="81">
         <v>42311</v>
-      </c>
-      <c r="B194" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="C194" s="80" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="77.25">
-      <c r="A195" s="81">
-        <v>42310</v>
       </c>
       <c r="B195" s="80" t="s">
         <v>216</v>
       </c>
       <c r="C195" s="80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="77.25">
+      <c r="A196" s="81">
+        <v>42310</v>
+      </c>
+      <c r="B196" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="80" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="51.75">
-      <c r="A196" s="81">
+    <row r="197" spans="1:3" ht="51.75">
+      <c r="A197" s="81">
         <v>42306</v>
       </c>
-      <c r="B196" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C196" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C130">
+  <autoFilter ref="A1:C131">
     <sortState ref="A2:C193">
       <sortCondition descending="1" ref="A1:A127"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C169" r:id="rId1"/>
-    <hyperlink ref="C130" r:id="rId2"/>
-    <hyperlink ref="C170" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C170" r:id="rId1"/>
+    <hyperlink ref="C131" r:id="rId2"/>
+    <hyperlink ref="C171" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5491,16 +5509,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$135</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="483">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2398,16 +2398,51 @@
     <t>之前已有總結Encoding的結構, 再結合今天在Java上的String Encoding測試, 更加深了認識. Java的String.getByte方法會以字符的內容為基準, 按你注入的Charset Name返回相應的Byte值, 換句話講, 是面向字符內容而非面向Byte的, 不變的是內容, 變的是Byte值, 這是他的邏輯. 
 * 信息弄失在以某種大信息集的字符轉換到小信息集時, 小信息集會把不能承載的信息弄棄.</t>
   </si>
+  <si>
+    <t>Two game engine:1. libGDX base on java(find from www.slant.co) 2. monkey-x.com: has its own language and translate to other vm</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>今晚折騰了很多, 從八點半到十二點半, 在兩個維度做了mysql的charset設定: /etc/mysql/my.cnf, 另一維度則是進程內client的Alter database character set &amp; collate. 已經從根本上解決了亂碼問題. 但奈何為了遠程管理mysql的jsp在用戶端老是不能將中文寫入Mysql (mysql client顯示不出), 雖失望但也學到java原來針對select 和 insert都有不同的Statement要創建這個知識點, 也熟習了以Ajax方法請求Servlet, 更加實行了Agile的理念(不然一晚是做不了這麼多東西的). 現總結下可能性:
+1. mysql client顯示不出只由於bash沒有中文, 下載下來就可以看到效果
+2. 問題也可能出在connection上, 但仔細檢查JS射出的post以及Servlet對mysql射出的statement的encoding</t>
+  </si>
+  <si>
+    <t>Game Engine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysql</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>Encoding分三個層次, ASCII, BIG5, GB等是屬於將二三層一一映射的方案, 而Unicode是將二三層作函數映射, 這是主要分別. 也由於此, 因這函數的變化出了UTF-32, UTF-8, UTF-16, UCS等, 以UTF-8最為常用, (而Unicode的字符集也到了十萬級, 不用担心有不支持的字的問題)</t>
+  </si>
+  <si>
+    <t>終於解決Mysql問題了, 原因在:
+1. JSP post的request是UTF8的
+2. Tomcat收Request並無添加encoding(ServletRequest.setCharacterEncoding()), 所以亂碼
+3. Servlet向mysql伸出的Connection是set了UTF8
+4. Mysql內部無論my.cnf或內部Db都好, 都設定了UTF8
+5. Mysql的Client也設定了UTF8
+8. 連Ubuntu 和bash也是中文OK的.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2415,7 +2450,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2423,7 +2458,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2437,21 +2472,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2459,7 +2494,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2467,27 +2502,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2710,7 +2745,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3009,10 +3044,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3046,13 +3084,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3084,7 +3122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3158,6 +3196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3192,6 +3231,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3367,21 +3407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3392,1684 +3432,1684 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="105">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42459</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C6" s="100" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="60">
-      <c r="A4" s="2">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42459</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B8" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C8" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1">
-      <c r="A5" s="2">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42458</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B9" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105">
-      <c r="A6" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42456</v>
       </c>
       <c r="B10" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B14" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="77.25">
-      <c r="A11" s="81">
+    <row r="15" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>42453</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B15" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C15" s="80" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.25">
-      <c r="A12" s="81">
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
         <v>42453</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B16" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C16" s="80" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39">
-      <c r="A13" s="81">
+    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>42452</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B17" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C17" s="80" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="165">
-      <c r="A14" s="77">
+    <row r="18" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
         <v>42451</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B18" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
-      <c r="A15" s="2">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>42451</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B19" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="2">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>42451</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B20" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="165">
-      <c r="A17" s="2">
+    <row r="21" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42451</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B21" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="64.5">
-      <c r="A18" s="81">
+    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
         <v>42451</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B22" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C22" s="80" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="64.5">
-      <c r="A19" s="81">
+    <row r="23" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
         <v>42447</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B23" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C23" s="80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>42440</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B24" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="75">
-      <c r="A21" s="2">
+    <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42436</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="39">
-      <c r="A22" s="81">
+    <row r="26" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>42431</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B26" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C26" s="80" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25">
-      <c r="A23" s="81">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
         <v>42431</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B27" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C27" s="80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51.75">
-      <c r="A24" s="81">
+    <row r="28" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
         <v>42430</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B28" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C28" s="80" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.25">
-      <c r="A25" s="81">
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
         <v>42428</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B29" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C29" s="80" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42426</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B30" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C30" s="98" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="77.25">
-      <c r="A27" s="81">
+    <row r="31" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
         <v>42426</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B31" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C31" s="80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>42425</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="2">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>42425</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.25">
-      <c r="A30" s="81">
+    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="81">
         <v>42425</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B34" s="80" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C34" s="80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="81">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="81">
         <v>42425</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B35" s="80" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C35" s="80" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26.25">
-      <c r="A32" s="81">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="81">
         <v>42425</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B36" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C36" s="80" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165">
-      <c r="A33" s="2">
+    <row r="37" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>42424</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B37" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45">
-      <c r="A34" s="2">
+    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>42423</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B38" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="81">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="81">
         <v>42423</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B39" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C39" s="80" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="90">
-      <c r="A36" s="2">
+    <row r="40" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>42422</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C40" s="38" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60">
-      <c r="A37" s="2">
+    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>42419</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="195">
-      <c r="A38" s="2">
+    <row r="42" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>42418</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B42" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="2">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>42403</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="75">
-      <c r="A40" s="2">
+    <row r="44" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>42403</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="90">
-      <c r="A41" s="2">
+    <row r="45" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>42403</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="90">
-      <c r="A42" s="2">
+    <row r="46" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>42398</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
-      <c r="A43" s="2">
+    <row r="47" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>42398</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B47" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>42397</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="2">
+    <row r="49" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>42396</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B49" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="2">
+    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>42396</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="128.25">
-      <c r="A47" s="81">
+    <row r="51" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="81">
         <v>42386</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B51" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C51" s="80" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="64.5">
-      <c r="A48" s="81">
+    <row r="52" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="81">
         <v>42386</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B52" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C52" s="80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45">
-      <c r="A49" s="2">
+    <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>42384</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="180">
-      <c r="A50" s="2">
+    <row r="54" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>42382</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B54" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="64.5">
-      <c r="A51" s="81">
+    <row r="55" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="81">
         <v>42382</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B55" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C55" s="80" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30">
-      <c r="A52" s="2">
+    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>42381</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45">
-      <c r="A53" s="2">
+    <row r="57" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>42380</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="75">
-      <c r="A54" s="2">
+    <row r="58" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>42380</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B58" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="180">
-      <c r="A55" s="2">
+    <row r="59" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>42380</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B59" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="217.5">
-      <c r="A56" s="81">
+    <row r="60" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="81">
         <v>42380</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B60" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C60" s="80" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="102.75">
-      <c r="A57" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B57" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="102.75">
-      <c r="A58" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B58" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="141">
-      <c r="A59" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B59" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="77.25">
-      <c r="A60" s="81">
-        <v>42378</v>
-      </c>
-      <c r="B60" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="102.75">
+    <row r="61" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A61" s="81">
         <v>42378</v>
       </c>
       <c r="B61" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="81">
+        <v>42378</v>
+      </c>
+      <c r="B65" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C65" s="80" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60">
-      <c r="A62" s="2">
+    <row r="66" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>42377</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="98" t="s">
+      <c r="C66" s="98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="77.25">
-      <c r="A63" s="81">
+    <row r="67" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="81">
         <v>42376</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B67" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C67" s="80" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45">
-      <c r="A64" s="2">
+    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>42375</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>42369</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="195">
-      <c r="A66" s="2">
+    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>42368</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C70" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="135">
-      <c r="A67" s="2">
+    <row r="71" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>42368</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C71" s="22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45">
-      <c r="A68" s="2">
+    <row r="72" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>42368</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B72" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C72" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30">
-      <c r="A69" s="2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>42366</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C73" s="22" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30">
-      <c r="A70" s="2">
+    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>42366</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C74" s="22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="150">
-      <c r="A71" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30">
-      <c r="A72" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="270">
-      <c r="A73" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B74" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42361</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="225">
+      <c r="C75" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42361</v>
       </c>
-      <c r="B76" s="37" t="s">
-        <v>186</v>
-      </c>
       <c r="C76" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="60">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42361</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="90">
+      <c r="B77" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42361</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="60">
+      <c r="B78" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42361</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C82" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="42">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="42">
         <v>42360</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B84" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="42">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="42">
         <v>42360</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B85" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C85" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="102.75">
-      <c r="A82" s="82">
+    <row r="86" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="82">
         <v>42360</v>
       </c>
-      <c r="B82" s="80" t="s">
+      <c r="B86" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C86" s="80" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30">
-      <c r="A83" s="2">
+    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>42356</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B87" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C87" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>42356</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B88" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>42356</v>
       </c>
-      <c r="B85" s="98" t="s">
+      <c r="B89" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C89" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30">
-      <c r="A86" s="2">
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>42356</v>
       </c>
-      <c r="B86" s="98"/>
-      <c r="C86" s="28" t="s">
+      <c r="B90" s="98"/>
+      <c r="C90" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="60">
-      <c r="A87" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="150">
-      <c r="A89" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="120">
-      <c r="A90" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B90" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
+    <row r="91" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42355</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>12</v>
+      <c r="B91" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42355</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="75">
+      <c r="B92" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42355</v>
       </c>
-      <c r="B93" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="135">
+      <c r="B93" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42355</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="75">
+      <c r="B94" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42355</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="30">
+      <c r="B95" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42355</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="B96" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42355</v>
       </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="B97" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42355</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="B98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42355</v>
       </c>
-      <c r="B99" s="44"/>
+      <c r="B99" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C99" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B101" s="44"/>
+      <c r="C101" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B102" s="44"/>
+      <c r="C102" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B103" s="44"/>
+      <c r="C103" s="32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="75">
-      <c r="A100" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30">
-      <c r="A101" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="75">
-      <c r="A102" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B103" s="98"/>
-      <c r="C103" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42352</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="B104" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42352</v>
       </c>
-      <c r="B105" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="B105" s="28"/>
+      <c r="C105" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42352</v>
       </c>
-      <c r="B106" s="98"/>
-      <c r="C106" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="B106" s="28"/>
+      <c r="C106" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42352</v>
       </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30">
+      <c r="B107" s="98"/>
+      <c r="C107" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42352</v>
       </c>
-      <c r="B108" s="98"/>
-      <c r="C108" s="98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42352</v>
       </c>
-      <c r="B109" s="98"/>
-      <c r="C109" s="98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="45">
+      <c r="B109" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42352</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="45">
+      <c r="B110" s="98"/>
+      <c r="C110" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42352</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="30">
+      <c r="B111" s="39"/>
+      <c r="C111" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42352</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="75">
+      <c r="B112" s="98"/>
+      <c r="C112" s="98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42352</v>
       </c>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45">
+      <c r="B113" s="98"/>
+      <c r="C113" s="98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42352</v>
       </c>
-      <c r="B114" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+      <c r="B114" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42352</v>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="45">
+      <c r="B115" s="40"/>
+      <c r="C115" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="47"/>
-      <c r="C116" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30">
+      <c r="B116" s="43"/>
+      <c r="C116" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
-      <c r="B117" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30">
+      <c r="B117" s="43"/>
+      <c r="C117" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C118" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="B118" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="46"/>
+      <c r="C119" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B120" s="47"/>
+      <c r="C120" s="48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B123" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C123" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="135">
-      <c r="A120" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="60">
-      <c r="A121" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B121" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="120">
-      <c r="A123" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B123" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="150">
+    <row r="124" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42349</v>
       </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="30">
+      <c r="B124" s="53"/>
+      <c r="C124" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42349</v>
       </c>
-      <c r="B125" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="B125" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42349</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C126" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="B126" s="98"/>
+      <c r="C126" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42349</v>
       </c>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="B127" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42349</v>
       </c>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="B128" s="56"/>
+      <c r="C128" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42349</v>
       </c>
-      <c r="B129" s="62"/>
-      <c r="C129" s="62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="B129" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42349</v>
       </c>
-      <c r="B130" s="63"/>
-      <c r="C130" s="63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="B130" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42349</v>
       </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="60">
+      <c r="B131" s="60"/>
+      <c r="C131" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42349</v>
       </c>
-      <c r="B132" s="64" t="s">
+      <c r="B132" s="61"/>
+      <c r="C132" s="61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B134" s="63"/>
+      <c r="C134" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B135" s="64"/>
+      <c r="C135" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B136" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C132" s="64" t="s">
+      <c r="C136" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="90">
-      <c r="A133" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="30">
-      <c r="A134" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B134" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C136" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="30">
+    <row r="137" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42345</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="195">
+      <c r="B137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42345</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="135">
+      <c r="B138" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42345</v>
       </c>
-      <c r="B139" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="75">
+      <c r="B139" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42345</v>
       </c>
-      <c r="B140" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" s="71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="75">
+      <c r="B140" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42345</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C141" s="75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="30">
+      <c r="B141" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42345</v>
       </c>
-      <c r="B142" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="B142" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42345</v>
       </c>
-      <c r="B143" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143" s="75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="B143" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42345</v>
       </c>
-      <c r="B144" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C144" s="75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="60">
+      <c r="B144" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42345</v>
       </c>
-      <c r="B145" s="75" t="s">
-        <v>39</v>
+      <c r="B145" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C145" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42345</v>
       </c>
-      <c r="B146" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" s="78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="45">
+      <c r="B146" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42345</v>
       </c>
-      <c r="B147" s="79" t="s">
+      <c r="B147" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C147" s="79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="60">
+      <c r="C147" s="75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42345</v>
       </c>
-      <c r="B148" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="105">
+      <c r="B148" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" s="75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42345</v>
       </c>
-      <c r="B149" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="B149" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42345</v>
       </c>
-      <c r="B150" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C150" s="98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="B150" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
-      <c r="B151" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C151" s="98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="75">
+      <c r="B151" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
-      <c r="B152" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="45">
+      <c r="B152" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
       <c r="B153" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B154" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B155" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B156" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B157" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C153" s="98" t="s">
+      <c r="C157" s="98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="141">
-      <c r="A154" s="82">
+    <row r="158" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A158" s="82">
         <v>42345</v>
       </c>
-      <c r="B154" s="80" t="s">
+      <c r="B158" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C158" s="80" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="105">
-      <c r="A155" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="90">
-      <c r="A156" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="75">
-      <c r="A157" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" s="98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="30">
-      <c r="A158" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" s="98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="30">
+    <row r="159" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42341</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C159" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42341</v>
       </c>
@@ -5077,21 +5117,21 @@
         <v>15</v>
       </c>
       <c r="C160" s="98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42341</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C161" s="98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42341</v>
       </c>
@@ -5099,10 +5139,10 @@
         <v>15</v>
       </c>
       <c r="C162" s="98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42341</v>
       </c>
@@ -5110,10 +5150,10 @@
         <v>15</v>
       </c>
       <c r="C163" s="98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42341</v>
       </c>
@@ -5121,376 +5161,420 @@
         <v>15</v>
       </c>
       <c r="C164" s="98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42341</v>
       </c>
-      <c r="B165" s="98" t="s">
-        <v>12</v>
+      <c r="B165" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C165" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42341</v>
       </c>
-      <c r="B166" s="98" t="s">
+      <c r="B166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C166" s="98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42341</v>
       </c>
-      <c r="B167" s="98" t="s">
-        <v>12</v>
+      <c r="B167" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C167" s="98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42341</v>
       </c>
-      <c r="B168" s="98" t="s">
+      <c r="B168" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="C168" s="98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42341</v>
       </c>
       <c r="B169" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C169" s="98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42341</v>
       </c>
       <c r="B170" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="C170" s="98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
       <c r="B171" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="75">
+        <v>12</v>
+      </c>
+      <c r="C171" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42341</v>
       </c>
       <c r="B172" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="60">
+      <c r="C172" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42341</v>
       </c>
       <c r="B173" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B174" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B175" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B176" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B177" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C173" s="98" t="s">
+      <c r="C177" s="98" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="60">
-      <c r="A174" s="2">
+    <row r="178" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>42340</v>
       </c>
-      <c r="B174" s="98"/>
-      <c r="C174" s="98" t="s">
+      <c r="B178" s="98"/>
+      <c r="C178" s="98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="45">
-      <c r="A175" s="2">
+    <row r="179" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>42340</v>
       </c>
-      <c r="B175" s="98"/>
-      <c r="C175" s="98" t="s">
+      <c r="B179" s="98"/>
+      <c r="C179" s="98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="60">
-      <c r="A176" s="2">
+    <row r="180" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>42340</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="98" t="s">
+      <c r="C180" s="98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>42339</v>
       </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="98" t="s">
+      <c r="B181" s="2"/>
+      <c r="C181" s="98" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>42339</v>
       </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="98" t="s">
+      <c r="B182" s="2"/>
+      <c r="C182" s="98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="64.5">
-      <c r="A179" s="82">
+    <row r="183" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="82">
         <v>42334</v>
       </c>
-      <c r="B179" s="80" t="s">
+      <c r="B183" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C179" s="80" t="s">
+      <c r="C183" s="80" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="26.25">
-      <c r="A180" s="82">
+    <row r="184" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A184" s="82">
         <v>42334</v>
       </c>
-      <c r="B180" s="80" t="s">
+      <c r="B184" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="C180" s="80" t="s">
+      <c r="C184" s="80" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="39">
-      <c r="A181" s="82">
+    <row r="185" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A185" s="82">
         <v>42334</v>
       </c>
-      <c r="B181" s="80" t="s">
+      <c r="B185" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C181" s="80" t="s">
+      <c r="C185" s="80" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="128.25">
-      <c r="A182" s="82">
+    <row r="186" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A186" s="82">
         <v>42333</v>
       </c>
-      <c r="B182" s="80" t="s">
+      <c r="B186" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C182" s="80" t="s">
+      <c r="C186" s="80" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="51.75">
-      <c r="A183" s="82">
+    <row r="187" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="82">
         <v>42333</v>
       </c>
-      <c r="B183" s="80" t="s">
+      <c r="B187" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C183" s="80" t="s">
+      <c r="C187" s="80" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="26.25">
-      <c r="A184" s="82">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="82">
         <v>42331</v>
       </c>
-      <c r="B184" s="80" t="s">
+      <c r="B188" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="C184" s="80" t="s">
+      <c r="C188" s="80" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="39">
-      <c r="A185" s="82">
+    <row r="189" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A189" s="82">
         <v>42329</v>
       </c>
-      <c r="B185" s="80" t="s">
+      <c r="B189" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="C185" s="80" t="s">
+      <c r="C189" s="80" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="39">
-      <c r="A186" s="82">
-        <v>42328</v>
-      </c>
-      <c r="B186" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="C186" s="80" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="26.25">
-      <c r="A187" s="82">
-        <v>42328</v>
-      </c>
-      <c r="B187" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="C187" s="80" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="115.5">
-      <c r="A188" s="82">
-        <v>42328</v>
-      </c>
-      <c r="B188" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="C188" s="80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="90">
-      <c r="A189" s="82">
-        <v>42328</v>
-      </c>
-      <c r="B189" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="C189" s="80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="153.75">
+    <row r="190" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A190" s="82">
         <v>42328</v>
       </c>
       <c r="B190" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B191" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C191" s="80" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C192" s="80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A193" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B193" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="C190" s="80" t="s">
+      <c r="C193" s="80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A194" s="82">
+        <v>42328</v>
+      </c>
+      <c r="B194" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C194" s="80" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="102.75">
-      <c r="A191" s="82">
+    <row r="195" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A195" s="82">
         <v>42324</v>
       </c>
-      <c r="B191" s="80" t="s">
+      <c r="B195" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="80" t="s">
+      <c r="C195" s="80" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="90">
-      <c r="A192" s="82">
+    <row r="196" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A196" s="82">
         <v>42321</v>
       </c>
-      <c r="B192" s="80" t="s">
+      <c r="B196" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="C192" s="80" t="s">
+      <c r="C196" s="80" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="26.25">
-      <c r="A193" s="82">
+    <row r="197" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="82">
         <v>42321</v>
       </c>
-      <c r="B193" s="80" t="s">
+      <c r="B197" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C197" s="80" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="77.25">
-      <c r="A194" s="81">
+    <row r="198" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="81">
         <v>42318</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B198" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="C194" s="80" t="s">
+      <c r="C198" s="80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="115.5">
-      <c r="A195" s="81">
+    <row r="199" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="81">
         <v>42311</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B199" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C199" s="80" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="77.25">
-      <c r="A196" s="81">
+    <row r="200" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="81">
         <v>42310</v>
       </c>
-      <c r="B196" s="80" t="s">
+      <c r="B200" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C196" s="80" t="s">
+      <c r="C200" s="80" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="51.75">
-      <c r="A197" s="81">
+    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A201" s="81">
         <v>42306</v>
       </c>
-      <c r="B197" s="80" t="s">
+      <c r="B201" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C197" s="80" t="s">
+      <c r="C201" s="80" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C131">
+  <autoFilter ref="A1:C135">
     <sortState ref="A2:C193">
       <sortCondition descending="1" ref="A1:A127"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C170" r:id="rId1"/>
-    <hyperlink ref="C131" r:id="rId2"/>
-    <hyperlink ref="C171" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C174" r:id="rId1"/>
+    <hyperlink ref="C135" r:id="rId2"/>
+    <hyperlink ref="C175" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5499,26 +5583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5530,16 +5614,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>110</v>
       </c>
@@ -5550,7 +5634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5561,7 +5645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -5572,7 +5656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -5583,7 +5667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5594,7 +5678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -5605,7 +5689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -5616,7 +5700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5627,7 +5711,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -5638,7 +5722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5649,7 +5733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5660,7 +5744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5671,7 +5755,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -5682,7 +5766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -5693,7 +5777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -5704,7 +5788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5715,7 +5799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -5726,7 +5810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -5737,7 +5821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -5748,7 +5832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -5759,7 +5843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -5770,7 +5854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -5781,7 +5865,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -5792,7 +5876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -5803,7 +5887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -5814,7 +5898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -5825,7 +5909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -5836,7 +5920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -5847,7 +5931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5858,7 +5942,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -5869,7 +5953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -5880,7 +5964,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -5891,7 +5975,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -5902,7 +5986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5913,7 +5997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -5924,7 +6008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5935,7 +6019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -5946,7 +6030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -5957,7 +6041,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -5968,7 +6052,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -5979,7 +6063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -5990,7 +6074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6001,7 +6085,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6012,7 +6096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6023,7 +6107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6034,7 +6118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6045,7 +6129,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6056,7 +6140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6067,7 +6151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6078,7 +6162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6089,7 +6173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6100,7 +6184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6111,7 +6195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6122,7 +6206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6133,7 +6217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6144,7 +6228,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6155,7 +6239,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6166,7 +6250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6177,7 +6261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6188,7 +6272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6199,7 +6283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6210,7 +6294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6221,7 +6305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6232,7 +6316,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6243,7 +6327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6254,7 +6338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6265,7 +6349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6276,7 +6360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6287,7 +6371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6298,7 +6382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6309,7 +6393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6320,7 +6404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6331,7 +6415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6342,7 +6426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6353,7 +6437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6364,7 +6448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6375,7 +6459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6386,7 +6470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6397,7 +6481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6408,7 +6492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6419,7 +6503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -6430,7 +6514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -6441,7 +6525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6452,7 +6536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -6463,7 +6547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6474,7 +6558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6485,7 +6569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6496,7 +6580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -6507,7 +6591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -6518,7 +6602,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -6529,7 +6613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -6540,7 +6624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -6551,7 +6635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -6562,7 +6646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -6573,7 +6657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -6584,7 +6668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -6595,7 +6679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -6606,7 +6690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -6617,7 +6701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -6628,7 +6712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6639,7 +6723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -6650,7 +6734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -6661,7 +6745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -6672,7 +6756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -6683,7 +6767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -6694,7 +6778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -6705,7 +6789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -6716,7 +6800,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -6727,7 +6811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -6738,7 +6822,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6749,7 +6833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6760,7 +6844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6771,7 +6855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -6782,7 +6866,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6820,26 +6904,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83"/>
       <c r="B1" s="83" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="167.25" thickBot="1">
+    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>337</v>
       </c>
@@ -6847,7 +6931,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86" t="s">
         <v>339</v>
       </c>
@@ -6855,7 +6939,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="86" t="s">
         <v>341</v>
       </c>
@@ -6863,7 +6947,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
         <v>343</v>
       </c>
@@ -6871,7 +6955,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>345</v>
       </c>
@@ -6879,7 +6963,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>347</v>
       </c>
@@ -6887,7 +6971,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
         <v>349</v>
       </c>
@@ -6895,7 +6979,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
         <v>351</v>
       </c>
@@ -6911,14 +6995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -6926,7 +7010,7 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>353</v>
       </c>
@@ -6936,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -6944,7 +7028,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>355</v>
       </c>
@@ -6958,7 +7042,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>359</v>
       </c>
@@ -6972,7 +7056,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
         <v>362</v>
       </c>
@@ -6986,7 +7070,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1">
+    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
         <v>365</v>
       </c>
@@ -7000,7 +7084,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1">
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
         <v>368</v>
       </c>
@@ -7014,7 +7098,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>370</v>
       </c>
@@ -7028,7 +7112,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93" t="s">
         <v>372</v>
       </c>
@@ -7042,7 +7126,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
         <v>375</v>
       </c>
@@ -7056,7 +7140,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1">
+    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93" t="s">
         <v>377</v>
       </c>
@@ -7070,7 +7154,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="93" t="s">
         <v>379</v>
       </c>
@@ -7084,7 +7168,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1">
+    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="93" t="s">
         <v>381</v>
       </c>
@@ -7098,7 +7182,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="93" t="s">
         <v>384</v>
       </c>
@@ -7112,7 +7196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1">
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="93" t="s">
         <v>387</v>
       </c>
@@ -7126,7 +7210,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1">
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="93" t="s">
         <v>389</v>
       </c>
@@ -7140,7 +7224,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1">
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83" t="s">
         <v>392</v>
       </c>
@@ -7154,7 +7238,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="83" t="s">
         <v>394</v>
       </c>
@@ -7166,7 +7250,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="92" t="s">
         <v>396</v>
       </c>
@@ -7180,7 +7264,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83" t="s">
         <v>398</v>
       </c>
@@ -7194,7 +7278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="94" t="s">
         <v>401</v>
       </c>
@@ -7208,7 +7292,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83" t="s">
         <v>403</v>
       </c>
@@ -7222,7 +7306,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1">
+    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
         <v>405</v>
       </c>
@@ -7236,7 +7320,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="52.5" thickBot="1">
+    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
         <v>407</v>
       </c>
@@ -7250,7 +7334,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="83" t="s">
         <v>410</v>
       </c>
@@ -7262,7 +7346,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1">
+    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="83" t="s">
         <v>412</v>
       </c>
@@ -7276,7 +7360,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
         <v>414</v>
       </c>
@@ -7290,7 +7374,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="83" t="s">
         <v>417</v>
       </c>
@@ -7304,7 +7388,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="s">
         <v>419</v>
       </c>
@@ -7318,7 +7402,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83" t="s">
         <v>421</v>
       </c>
@@ -7332,7 +7416,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1">
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="83" t="s">
         <v>423</v>
       </c>
@@ -7344,7 +7428,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83" t="s">
         <v>425</v>
       </c>
@@ -7358,7 +7442,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="83" t="s">
         <v>427</v>
       </c>
@@ -7372,7 +7456,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="83" t="s">
         <v>429</v>
       </c>
@@ -7386,7 +7470,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="83" t="s">
         <v>431</v>
       </c>
@@ -7400,7 +7484,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="92" t="s">
         <v>433</v>
       </c>
@@ -7414,7 +7498,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1">
+    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
         <v>435</v>
       </c>
@@ -7428,7 +7512,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1">
+    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
         <v>437</v>
       </c>
@@ -7442,7 +7526,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="s">
         <v>439</v>
       </c>
@@ -7456,7 +7540,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1">
+    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="83" t="s">
         <v>441</v>
       </c>
@@ -7470,7 +7554,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
         <v>443</v>
       </c>
@@ -7484,7 +7568,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="94" t="s">
         <v>445</v>
       </c>
@@ -7498,7 +7582,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="94" t="s">
         <v>447</v>
       </c>
@@ -7510,7 +7594,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="92" t="s">
         <v>449</v>
       </c>
@@ -7524,7 +7608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83" t="s">
         <v>451</v>
       </c>
@@ -7538,7 +7622,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="94" t="s">
         <v>453</v>
       </c>
@@ -7552,7 +7636,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="83" t="s">
         <v>455</v>
       </c>
@@ -7564,7 +7648,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1">
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="83" t="s">
         <v>457</v>
       </c>
@@ -7576,19 +7660,19 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="83"/>
       <c r="B49" s="83"/>
       <c r="C49" s="95"/>
       <c r="D49" s="95"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="83"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83"/>
       <c r="D50" s="83"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1">
+    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="96" t="s">
         <v>459</v>
       </c>
@@ -7598,7 +7682,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="96" t="s">
         <v>459</v>
       </c>
@@ -7608,7 +7692,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="96" t="s">
         <v>459</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$207</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="490">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2424,6 +2424,10 @@
     <t>Encoding分三個層次, ASCII, BIG5, GB等是屬於將二三層一一映射的方案, 而Unicode是將二三層作函數映射, 這是主要分別. 也由於此, 因這函數的變化出了UTF-32, UTF-8, UTF-16, UCS等, 以UTF-8最為常用, (而Unicode的字符集也到了十萬級, 不用担心有不支持的字的問題)</t>
   </si>
   <si>
+    <t>Linode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>終於解決Mysql問題了, 原因在:
 1. JSP post的request是UTF8的
 2. Tomcat收Request並無添加encoding(ServletRequest.setCharacterEncoding()), 所以亂碼
@@ -2433,12 +2437,94 @@
 8. 連Ubuntu 和bash也是中文OK的.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Linode新點Setup全過程:
+1. Deploy an image (Ubuntu 12.04)
+2. Connect with SSH to root
+3. apt-get update &amp;&amp; apt-get upgrade
+/* set hostname for ubuntu*/
+4.1 echo "robusto" &gt; /etc/hostname
+4.2 hostname -F /etc/hostname
+4.3. comment the SET_HOSTNAME='yes' property in file /etc/default/dhcpcd if it exists.
+4.4 add line to /etc/hosts: "139.162.48.85 robusto" 
+4.5 add dns record (see get start tutorial on linode)
+/* setting the timezone */
+5. dpkg-reconfigure tzdata
+/* add user */
+6. adduser myles
+7. adduser myles sudo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linode設定VNC全過程:
+1. 由於沒有完備的14.04設定vnc教程在linode上, 故都選用12.04系統安裝:
+2. 安裝default desktop env: sudo apt-get install ubuntu-desktop
+3. sudo apt-get install vnc4server
+4. 此刻連接, 會看到只有bash的desktop, kill 掉再修改 ~/.vnc/xstartup 文件, 把末行 x-window-manager &amp; 改為gnome-session &amp; 後再vncserver :1即可
+5. 第一次vncserver :1會自動問密碼
+6. vnserver -kill :1 殺</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Linux</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在linux上安裝java也是有分別的, 此處安裝JDK8:
+1. Linux有分RPM-based platform如Redhat, Ubuntu 則屬Non-RPM-Base的
+2. Installation of the 64-bit JDK on Linux Platforms: This procedure installs the Java Development Kit (JDK) for 64-bit Linux, using an archive binary file (.tar.gz).
+3. Download jdk-8uversion-linux-x64.tar.gz from oracle.com
+4. % tar zxvf jdk-8uversion-linux-x64.tar.gz
+5. Set $PATH and $JAVA_HOME($JAVA_HOME) and $CLASSPATH
+前兩者根据Initial Procedure Launching, 可以在~/.bashrc中加入語句, 至於classpath, oracle在官網也建議最理想還是individual set with -cp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">若是手動安裝Java(其實linux都只能手動安裝…), 那麼Eclipse會認不到JVM, 雖入$eclipse_home/eclipse.ini來加入:
+…
+--launcher.defaultAction
+openFile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-vm
+/home/myles/jdk1.8.0_77/bin/java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-vmargs
+-Dosgi.requiredJavaVersion=1.5
+…</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2610,6 +2696,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2768,34 +2869,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3046,6 +3141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3084,14 +3185,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>102264</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>102263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3408,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3432,1736 +3533,1729 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+    </row>
+    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42460</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B8" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C8" s="99" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42460</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B9" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C9" s="99" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42460</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B10" s="99" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C10" s="99" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42459</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B12" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C12" s="98" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>480</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>42459</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B13" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C13" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>42458</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>42456</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B15" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C15" s="100" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>42456</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B16" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>42456</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42456</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
-        <v>42453</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
-        <v>42453</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
-        <v>42452</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>42451</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>42452</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
         <v>42451</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B23" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B24" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42451</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B25" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="26" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>42451</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B26" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
         <v>42451</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B27" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C27" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+    <row r="28" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="79">
         <v>42447</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B28" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C28" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>42440</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B29" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42436</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C30" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
         <v>42431</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B31" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C31" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
         <v>42431</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B32" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C32" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+    <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
         <v>42430</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B33" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C33" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
         <v>42428</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B34" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C34" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>42426</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B35" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C35" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+    <row r="36" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
         <v>42426</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B36" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C36" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>42425</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C37" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>42425</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C38" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="81">
+    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
         <v>42425</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B39" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C39" s="78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="81">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
         <v>42425</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B40" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C40" s="78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="81">
+    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
         <v>42425</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B41" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C41" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="42" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>42424</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B42" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C42" s="100" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B38" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="81">
-        <v>42423</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>42422</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>42419</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>42418</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>231</v>
+        <v>42423</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
+        <v>42423</v>
+      </c>
+      <c r="B44" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
+        <v>42422</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42419</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>42418</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>42403</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
+      <c r="B48" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="51" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>42398</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="52" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>42398</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B52" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>42397</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B53" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>42396</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B54" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C54" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>42396</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B55" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="81">
+    <row r="56" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
         <v>42386</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B56" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C56" s="78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="81">
+    <row r="57" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="79">
         <v>42386</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B57" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C52" s="80" t="s">
+      <c r="C57" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>42384</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B58" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C58" s="100" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>42382</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="81">
-        <v>42382</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>42381</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
+        <v>42382</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="79">
+        <v>42382</v>
+      </c>
+      <c r="B60" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>42381</v>
+      </c>
+      <c r="B61" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>42380</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B62" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B63" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C63" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="81">
+    <row r="65" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
         <v>42380</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B65" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C65" s="78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="81">
+    <row r="66" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
         <v>42378</v>
       </c>
-      <c r="B61" s="80" t="s">
+      <c r="B66" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C66" s="78" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="81">
+    <row r="67" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
         <v>42378</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B67" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C67" s="78" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="81">
+    <row r="68" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
         <v>42378</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B68" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C68" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
+    <row r="69" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="79">
         <v>42378</v>
       </c>
-      <c r="B64" s="80" t="s">
+      <c r="B69" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C69" s="78" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="81">
+    <row r="70" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="79">
         <v>42378</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B70" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C70" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="71" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>42377</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="98" t="s">
+      <c r="C71" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="81">
+    <row r="72" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
         <v>42376</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B72" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C72" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>42375</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C73" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>42369</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B74" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>42368</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C75" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="76" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>42368</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>42368</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>42366</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B78" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>42366</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B79" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B78" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42361</v>
       </c>
-      <c r="B80" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C80" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42361</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C81" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42361</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42361</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B86" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C87" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="42">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
         <v>42360</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B89" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="42">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
         <v>42360</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B90" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C90" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="82">
+    <row r="91" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="80">
         <v>42360</v>
       </c>
-      <c r="B86" s="80" t="s">
+      <c r="B91" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="80" t="s">
+      <c r="C91" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>42356</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B92" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C92" s="100" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>42356</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B93" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C93" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>42356</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B94" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C94" s="25" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B90" s="98"/>
-      <c r="C90" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B94" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42356</v>
+      </c>
+      <c r="B95" s="96"/>
+      <c r="C95" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42355</v>
       </c>
-      <c r="B96" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B96" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42355</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42355</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42355</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>175</v>
+      <c r="B99" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42355</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>176</v>
+      <c r="B100" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42355</v>
       </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42355</v>
       </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42355</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B103" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>68</v>
+        <v>42355</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="34" t="s">
-        <v>66</v>
+        <v>42355</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B107" s="98"/>
-      <c r="C107" s="35" t="s">
-        <v>69</v>
+        <v>42355</v>
+      </c>
+      <c r="B107" s="42"/>
+      <c r="C107" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B108" s="42"/>
+      <c r="C108" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42352</v>
       </c>
-      <c r="B109" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42352</v>
       </c>
-      <c r="B110" s="98"/>
-      <c r="C110" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="26"/>
+      <c r="C110" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42352</v>
       </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B111" s="26"/>
+      <c r="C111" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42352</v>
       </c>
-      <c r="B112" s="98"/>
-      <c r="C112" s="98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B112" s="26"/>
+      <c r="C112" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42352</v>
       </c>
-      <c r="B113" s="98"/>
-      <c r="C113" s="98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B113" s="96"/>
+      <c r="C113" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42352</v>
       </c>
-      <c r="B114" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B114" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42352</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B115" s="96"/>
+      <c r="C115" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B116" s="96"/>
+      <c r="C116" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B117" s="37"/>
+      <c r="C117" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
-      <c r="B118" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="45" t="s">
-        <v>90</v>
+      <c r="B118" s="96"/>
+      <c r="C118" s="96" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B119" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
-      <c r="B120" s="47"/>
-      <c r="C120" s="48" t="s">
-        <v>177</v>
+      <c r="B120" s="100"/>
+      <c r="C120" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
-      <c r="B121" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B121" s="38"/>
+      <c r="C121" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="41"/>
+      <c r="C122" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B126" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B128" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="51" t="s">
+      <c r="C128" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B125" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B126" s="98"/>
-      <c r="C126" s="55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B127" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B128" s="56"/>
-      <c r="C128" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42349</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C129" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="49"/>
+      <c r="C129" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42349</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130" s="59" t="s">
-        <v>61</v>
+      <c r="B130" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42349</v>
       </c>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="96"/>
+      <c r="C131" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42349</v>
       </c>
-      <c r="B132" s="61"/>
-      <c r="C132" s="61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42349</v>
       </c>
-      <c r="B133" s="62"/>
-      <c r="C133" s="62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="52"/>
+      <c r="C133" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42349</v>
       </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63" t="s">
-        <v>64</v>
+      <c r="B134" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42349</v>
       </c>
-      <c r="B135" s="64"/>
-      <c r="C135" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42349</v>
       </c>
-      <c r="B136" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="C136" s="64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B136" s="100"/>
+      <c r="C136" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B137" s="58"/>
+      <c r="C137" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B138" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="65" t="s">
-        <v>36</v>
+        <v>42349</v>
+      </c>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="66" t="s">
-        <v>28</v>
+        <v>42349</v>
+      </c>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B140" s="61"/>
+      <c r="C140" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B141" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42345</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B142" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42345</v>
       </c>
-      <c r="B143" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42345</v>
       </c>
-      <c r="B144" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144" s="71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42345</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="75" t="s">
-        <v>41</v>
+      <c r="B145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42345</v>
       </c>
-      <c r="B146" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42345</v>
       </c>
-      <c r="B147" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" s="75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42345</v>
       </c>
-      <c r="B148" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C148" s="75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B148" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42345</v>
       </c>
-      <c r="B149" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B149" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42345</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
-      <c r="B151" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C151" s="79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B151" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B152" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
-      <c r="B153" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
-      <c r="B154" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C154" s="98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
-      <c r="B155" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C155" s="98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
-      <c r="B156" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B156" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C157" s="98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A158" s="82">
+      <c r="B157" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="C158" s="80" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B158" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>42345</v>
+      </c>
+      <c r="B159" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="98" t="s">
-        <v>11</v>
+        <v>42345</v>
+      </c>
+      <c r="B160" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" s="96" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C161" s="98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42345</v>
+      </c>
+      <c r="B161" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C162" s="98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C163" s="98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42345</v>
+      </c>
+      <c r="B162" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A163" s="80">
+        <v>42345</v>
+      </c>
+      <c r="B163" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163" s="78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42341</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C164" s="98" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C164" s="100" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
@@ -5169,412 +5263,472 @@
         <v>42341</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C165" s="96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42341</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="C166" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42341</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C167" s="96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42341</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C168" s="96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42341</v>
       </c>
-      <c r="B169" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42341</v>
       </c>
-      <c r="B170" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
-      <c r="B171" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42341</v>
       </c>
-      <c r="B172" s="98" t="s">
+      <c r="B172" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42341</v>
       </c>
-      <c r="B173" s="98" t="s">
+      <c r="B173" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42341</v>
       </c>
-      <c r="B174" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
-      <c r="B175" s="98" t="s">
+      <c r="B175" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C175" s="96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
-      <c r="B176" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B176" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
-      <c r="B177" s="98" t="s">
+      <c r="B177" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B178" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B179" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B181" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B182" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="98" t="s">
+      <c r="C182" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    <row r="183" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>42340</v>
       </c>
-      <c r="B178" s="98"/>
-      <c r="C178" s="98" t="s">
+      <c r="B183" s="96"/>
+      <c r="C183" s="96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    <row r="184" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>42340</v>
       </c>
-      <c r="B179" s="98"/>
-      <c r="C179" s="98" t="s">
+      <c r="B184" s="96"/>
+      <c r="C184" s="96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    <row r="185" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
         <v>42340</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="98" t="s">
+      <c r="C185" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>42339</v>
       </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="98" t="s">
+      <c r="B186" s="2"/>
+      <c r="C186" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>42339</v>
       </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="98" t="s">
+      <c r="B187" s="2"/>
+      <c r="C187" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="82">
+    <row r="188" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="80">
         <v>42334</v>
       </c>
-      <c r="B183" s="80" t="s">
+      <c r="B188" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="C183" s="80" t="s">
+      <c r="C188" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="82">
+    <row r="189" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A189" s="80">
         <v>42334</v>
       </c>
-      <c r="B184" s="80" t="s">
+      <c r="B189" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C184" s="80" t="s">
+      <c r="C189" s="78" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A185" s="82">
+    <row r="190" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A190" s="80">
         <v>42334</v>
       </c>
-      <c r="B185" s="80" t="s">
+      <c r="B190" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C185" s="80" t="s">
+      <c r="C190" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="82">
+    <row r="191" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="80">
         <v>42333</v>
       </c>
-      <c r="B186" s="80" t="s">
+      <c r="B191" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C186" s="80" t="s">
+      <c r="C191" s="78" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="82">
+    <row r="192" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="80">
         <v>42333</v>
       </c>
-      <c r="B187" s="80" t="s">
+      <c r="B192" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="80" t="s">
+      <c r="C192" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="82">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="80">
         <v>42331</v>
       </c>
-      <c r="B188" s="80" t="s">
+      <c r="B193" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="80" t="s">
+      <c r="C193" s="78" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A189" s="82">
+    <row r="194" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A194" s="80">
         <v>42329</v>
       </c>
-      <c r="B189" s="80" t="s">
+      <c r="B194" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C189" s="80" t="s">
+      <c r="C194" s="78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A190" s="82">
+    <row r="195" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A195" s="80">
         <v>42328</v>
       </c>
-      <c r="B190" s="80" t="s">
+      <c r="B195" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="C190" s="80" t="s">
+      <c r="C195" s="78" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="82">
+    <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A196" s="80">
         <v>42328</v>
       </c>
-      <c r="B191" s="80" t="s">
+      <c r="B196" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="C191" s="80" t="s">
+      <c r="C196" s="78" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="82">
+    <row r="197" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="80">
         <v>42328</v>
       </c>
-      <c r="B192" s="80" t="s">
+      <c r="B197" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="C192" s="80" t="s">
+      <c r="C197" s="78" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A193" s="82">
+    <row r="198" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="80">
         <v>42328</v>
       </c>
-      <c r="B193" s="80" t="s">
+      <c r="B198" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C198" s="78" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A194" s="82">
+    <row r="199" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A199" s="80">
         <v>42328</v>
       </c>
-      <c r="B194" s="80" t="s">
+      <c r="B199" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C194" s="80" t="s">
+      <c r="C199" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A195" s="82">
+    <row r="200" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A200" s="80">
         <v>42324</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B200" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C195" s="80" t="s">
+      <c r="C200" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A196" s="82">
+    <row r="201" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A201" s="80">
         <v>42321</v>
       </c>
-      <c r="B196" s="80" t="s">
+      <c r="B201" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C196" s="80" t="s">
+      <c r="C201" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="82">
+    <row r="202" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="80">
         <v>42321</v>
       </c>
-      <c r="B197" s="80" t="s">
+      <c r="B202" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C197" s="80" t="s">
+      <c r="C202" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="81">
+    <row r="203" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A203" s="79">
         <v>42318</v>
       </c>
-      <c r="B198" s="80" t="s">
+      <c r="B203" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C198" s="80" t="s">
+      <c r="C203" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="81">
+    <row r="204" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="79">
         <v>42311</v>
       </c>
-      <c r="B199" s="80" t="s">
+      <c r="B204" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C199" s="80" t="s">
+      <c r="C204" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="81">
+    <row r="205" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A205" s="79">
         <v>42310</v>
       </c>
-      <c r="B200" s="80" t="s">
+      <c r="B205" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C200" s="80" t="s">
+      <c r="C205" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A201" s="81">
+    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A206" s="79">
         <v>42306</v>
       </c>
-      <c r="B201" s="80" t="s">
+      <c r="B206" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C201" s="80" t="s">
+      <c r="C206" s="78" t="s">
         <v>335</v>
       </c>
     </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="100"/>
+      <c r="B207" s="100"/>
+      <c r="C207" s="100"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C135">
-    <sortState ref="A2:C193">
-      <sortCondition descending="1" ref="A1:A127"/>
+  <autoFilter ref="A1:C207">
+    <sortState ref="A2:C201">
+      <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C174" r:id="rId1"/>
-    <hyperlink ref="C135" r:id="rId2"/>
-    <hyperlink ref="C175" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C179" r:id="rId1"/>
+    <hyperlink ref="C140" r:id="rId2"/>
+    <hyperlink ref="C180" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5593,16 +5747,16 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5624,13 +5778,13 @@
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6918,72 +7072,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="85" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="85" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="85" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="85" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="85" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7011,694 +7165,694 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="81" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="81" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="81" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="81" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="81" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="91" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="81" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="81" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="81" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="81" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="81" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="81" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="81" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="81" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="81" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="81" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="91" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="81" t="s">
         <v>399</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="81" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="81" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="81" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="81" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="81" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="81" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="81" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="81" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="81" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="81" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="81" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="81" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="81" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="81" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="81" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="81" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="91" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="81" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="81" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="81" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="81" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="81" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="81" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="92" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="81" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="92" t="s">
         <v>447</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="93" t="s">
+      <c r="C43" s="93"/>
+      <c r="D43" s="91" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="81" t="s">
         <v>390</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="81" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="81" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="93" t="s">
+      <c r="D46" s="91" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83" t="s">
+      <c r="C47" s="81"/>
+      <c r="D47" s="81" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="81" t="s">
         <v>457</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="93" t="s">
+      <c r="C48" s="93"/>
+      <c r="D48" s="91" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
     </row>
     <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="96" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="94" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="97" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="95" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="97" t="s">
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="95" t="s">
         <v>462</v>
       </c>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$213</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="504">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2405,11 +2405,6 @@
     <t>mysql</t>
   </si>
   <si>
-    <t>今晚折騰了很多, 從八點半到十二點半, 在兩個維度做了mysql的charset設定: /etc/mysql/my.cnf, 另一維度則是進程內client的Alter database character set &amp; collate. 已經從根本上解決了亂碼問題. 但奈何為了遠程管理mysql的jsp在用戶端老是不能將中文寫入Mysql (mysql client顯示不出), 雖失望但也學到java原來針對select 和 insert都有不同的Statement要創建這個知識點, 也熟習了以Ajax方法請求Servlet, 更加實行了Agile的理念(不然一晚是做不了這麼多東西的). 現總結下可能性:
-1. mysql client顯示不出只由於bash沒有中文, 下載下來就可以看到效果
-2. 問題也可能出在connection上, 但仔細檢查JS射出的post以及Servlet對mysql射出的statement的encoding</t>
-  </si>
-  <si>
     <t>Game Engine</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2517,6 +2512,81 @@
 -Dosgi.requiredJavaVersion=1.5
 …</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysql</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu每個版本都會有版本代號, 12.04是Precise Pangolin (精準穿山甲), 11則用了N和O此兩個首字母.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚折騰了很多, 從八點半到十二點半, 在兩個維度做了mysql的charset設定: /etc/mysql/my.cnf, 另一維度則是進程內client的Alter database character set &amp; collate. 已經從根本上解決了亂碼問題. 但奈何為了遠程管理mysql的jsp在用戶端老是不能將中文寫入Mysql (mysql client顯示不出), 雖失望但也學到java原來針對select 和 insert都有不同的Statement要創建這個知識點, 也熟習了以Ajax方法請求Servlet, 更加實行了Agile的理念(不然一晚是做不了這麼多東西的). 現總結下可能性:
+1. mysql client顯示不出只由於bash沒有中文, 下載下來就可以看到效果
+2. 問題也可能出在connection上, 但仔細檢查JS射出的post以及Servlet對mysql射出的statement的encoding</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse, tomcat</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install script:
+1. sudo apt-get install mysql-server
+2. 後續還可以有其他更多的security harden
+3. 針對/etc/mysql/my.cnf中的Client, mysql, mysqld添加character-set的propoerties, 其中mysql的比較特別, 可參考網上或churchill server
+4. 上述為設定MYSQL的整體Encoding, 接下來在創建每個DB時都注意把Charset和collation都設好, 就萬無一失了.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install Tomcat is simple:
+1. download package from tomcat.apache.org
+2. set catalina_home in your ~/.bashrc 
+3. set java-home if your don’t have
+4. (optional) make a link to /etc/init.d links to $CATALINA_HOME/bin/catalina.sh
+5. /etc/init.d/tomcat start OR stop OR restart</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>分兩步:
+1. 添加tomcat runtime: eclipse mebu&gt;window&gt;preferecnes&gt;server&gt;Runtimes&gt;Add.. 選擇$CATALINA_HOME即可, 若在eclipse.ini設定好了VM, 則其會出現在可選的JRE表中.
+2. 在Console的Server Tab按link 新增Tomcat instance, 選上述建立的runtime即可
+3. 使用: 在你的App上右擊Run on Server即可
+4. (optional) 右在JSP頁的Import tag上出現Syntax error reminder, 在Project的Library中Add library&gt;Server Runtime&gt;選Tomcat, 再Refresh就可以解決, 然而這不影響runnign</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker像Java 的VM, 只不過JVM是單獨地騙java application, Docker是聯同其他environment一起騙所有的application. 例如一個裝了tomcat和mysql的docker作為一個container, 可以有多個版本適用於linux呀win呀Mac呀, 而只要設備安裝了相應的Docker Container, 那我寫的app則可以安裝到其上。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http Session</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http session 是web server 在http/1.1(1999年發佈)後得到的新能力, 能以一個connection接收多個request, 減低cpu在調度和建立connection時花的運算時間, 而Http session還帶來另一副產品, 即是State狀態概念. 比如Servlet接受個request可以在request上建立一個httsession, 那麼攜帶此session的request會被送回用戶面前? 參考javatpoint的servlet login logout profile</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>css: font</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/fonts#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2846,7 +2916,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3147,6 +3217,15 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3185,14 +3264,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>102263</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3509,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3538,1793 +3617,1799 @@
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42462</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B10" s="100" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>42462</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B11" s="100" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42462</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B12" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="99" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>42460</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B15" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B17" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B11" s="99" t="s">
+      <c r="C17" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42459</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B18" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C18" s="98" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>42459</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B19" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C19" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>42458</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B20" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42456</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B21" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C21" s="100" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="22" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>42456</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B22" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C22" s="44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>42456</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B23" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C23" s="44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>42456</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C24" s="44" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42456</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C25" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="79">
+    <row r="26" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
         <v>42453</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B26" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C26" s="78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="79">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
         <v>42453</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B27" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C27" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="79">
+    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="79">
         <v>42452</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B28" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C28" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="75">
+    <row r="29" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
         <v>42451</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B29" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C29" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42451</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B30" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>42451</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B31" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="32" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>42451</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B32" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="79">
-        <v>42451</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="79">
-        <v>42447</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>42440</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>42436</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A31" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A33" s="79">
-        <v>42430</v>
+        <v>42451</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A34" s="79">
-        <v>42428</v>
+        <v>42447</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <v>42440</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42436</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <v>42430</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <v>42428</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>42426</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B41" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C41" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="79">
+    <row r="42" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
         <v>42426</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>42425</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B43" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C43" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>42425</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
+    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
         <v>42425</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B45" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C45" s="78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="79">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
         <v>42425</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B46" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C46" s="78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="79">
+    <row r="47" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
         <v>42425</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B47" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C47" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="48" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>42424</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B48" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C48" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="49" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>42423</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B49" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="79">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
         <v>42423</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B50" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>42422</v>
-      </c>
-      <c r="B45" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>42419</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>42418</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B48" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42422</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42419</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>42397</v>
-      </c>
-      <c r="B53" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>224</v>
+        <v>42418</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B54" s="12" t="s">
+        <v>42403</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B55" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>285</v>
+      <c r="C57" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>42384</v>
-      </c>
-      <c r="B58" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+        <v>42398</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>42382</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>219</v>
+        <v>42397</v>
+      </c>
+      <c r="B59" s="96" t="s">
+        <v>201</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="79">
-        <v>42382</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" s="78" t="s">
-        <v>287</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B63" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B64" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42382</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
+        <v>42382</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>42381</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B67" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C67" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>42380</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="69" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>42380</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B69" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C69" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>42380</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B70" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="79">
+    <row r="71" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="79">
         <v>42380</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B71" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C71" s="78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="79">
+    <row r="72" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
         <v>42378</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B72" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C72" s="78" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="79">
+    <row r="73" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="79">
         <v>42378</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B73" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C73" s="78" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="79">
+    <row r="74" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="79">
         <v>42378</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B74" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C74" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="79">
+    <row r="75" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="79">
         <v>42378</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B75" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C75" s="78" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="79">
+    <row r="76" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
         <v>42378</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B76" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C76" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="77" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>42377</v>
       </c>
-      <c r="B71" s="100" t="s">
+      <c r="B77" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="C77" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="79">
+    <row r="78" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="79">
         <v>42376</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B78" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C78" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>42375</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B79" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="C79" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>42369</v>
       </c>
-      <c r="B74" s="100" t="s">
+      <c r="B80" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="81" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>42368</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="82" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>42368</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="83" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>42368</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B83" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+        <v>42366</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>42366</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42361</v>
       </c>
-      <c r="B86" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C86" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42361</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C87" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42361</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B89" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B92" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C93" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
         <v>42360</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B95" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C95" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
         <v>42360</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="80">
+    <row r="97" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="80">
         <v>42360</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B97" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C97" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>42356</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B98" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C98" s="100" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>42356</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B99" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>42356</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B100" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C100" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>42356</v>
       </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="25" t="s">
+      <c r="B101" s="96"/>
+      <c r="C101" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B96" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B99" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B100" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42355</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42355</v>
       </c>
-      <c r="B103" s="100" t="s">
-        <v>173</v>
+      <c r="B103" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42355</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42355</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42355</v>
       </c>
-      <c r="C106" s="30" t="s">
-        <v>203</v>
+      <c r="B106" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B108" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B109" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B109" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="70" t="s">
-        <v>66</v>
+        <v>42355</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="32" t="s">
-        <v>69</v>
+        <v>42355</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B113" s="96"/>
-      <c r="C113" s="33" t="s">
-        <v>75</v>
+        <v>42355</v>
+      </c>
+      <c r="B113" s="42"/>
+      <c r="C113" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B114" s="42"/>
+      <c r="C114" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42352</v>
       </c>
-      <c r="B115" s="96"/>
-      <c r="C115" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="96"/>
-      <c r="C116" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="26"/>
+      <c r="C116" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B117" s="26"/>
+      <c r="C117" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
-      <c r="B118" s="96"/>
-      <c r="C118" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="26"/>
+      <c r="C118" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C119" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B119" s="96"/>
+      <c r="C119" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
-      <c r="B120" s="100"/>
-      <c r="C120" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B120" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="96"/>
+      <c r="C121" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B122" s="96"/>
+      <c r="C122" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>90</v>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B124" s="96"/>
+      <c r="C124" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44" t="s">
-        <v>177</v>
+      <c r="B125" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="96" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
-      <c r="B126" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" s="46" t="s">
-        <v>86</v>
+      <c r="B126" s="100"/>
+      <c r="C126" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="38"/>
+      <c r="C127" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="100" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B129" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B134" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C134" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B129" s="49"/>
-      <c r="C129" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B130" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B131" s="96"/>
-      <c r="C131" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B132" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42349</v>
       </c>
-      <c r="B135" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="49"/>
+      <c r="C135" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42349</v>
       </c>
-      <c r="B136" s="100"/>
-      <c r="C136" s="57" t="s">
-        <v>78</v>
+      <c r="B136" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42349</v>
       </c>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="96"/>
+      <c r="C137" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42349</v>
       </c>
-      <c r="B138" s="59"/>
-      <c r="C138" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42349</v>
       </c>
-      <c r="B139" s="60"/>
-      <c r="C139" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="52"/>
+      <c r="C139" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
-      <c r="B140" s="61"/>
-      <c r="C140" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B140" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
-      <c r="B141" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C141" s="100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B141" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B142" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B142" s="100"/>
+      <c r="C142" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="62" t="s">
-        <v>36</v>
+        <v>42349</v>
+      </c>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="63" t="s">
-        <v>28</v>
+        <v>42349</v>
+      </c>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B146" s="61"/>
+      <c r="C146" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B147" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C147" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42345</v>
       </c>
-      <c r="B148" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C148" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B148" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42345</v>
       </c>
-      <c r="B149" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C149" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42345</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B150" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
-      <c r="B151" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
-      <c r="B152" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C152" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
-      <c r="B153" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C153" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B153" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
-      <c r="B154" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C154" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B154" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
-      <c r="B155" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C155" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B155" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
-      <c r="B156" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B156" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C157" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B157" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>48</v>
+      <c r="B158" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" s="73" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C159" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C159" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
       <c r="B160" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C160" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C160" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C161" s="96" t="s">
-        <v>52</v>
+      <c r="B161" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" s="73" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C162" s="96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A163" s="80">
+      <c r="B162" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="C163" s="78" t="s">
-        <v>305</v>
+      <c r="B163" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" s="77" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B164" s="2" t="s">
+        <v>42345</v>
+      </c>
+      <c r="B164" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>15</v>
+        <v>42345</v>
+      </c>
+      <c r="B165" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="C165" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>15</v>
+        <v>42345</v>
+      </c>
+      <c r="B166" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="C166" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>15</v>
+        <v>42345</v>
+      </c>
+      <c r="B167" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="C167" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>15</v>
+        <v>42345</v>
+      </c>
+      <c r="B168" s="96" t="s">
+        <v>53</v>
       </c>
       <c r="C168" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C169" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A169" s="80">
+        <v>42345</v>
+      </c>
+      <c r="B169" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C169" s="78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42341</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C170" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
@@ -5332,10 +5417,10 @@
         <v>15</v>
       </c>
       <c r="C171" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42341</v>
       </c>
@@ -5343,10 +5428,10 @@
         <v>15</v>
       </c>
       <c r="C172" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42341</v>
       </c>
@@ -5354,84 +5439,84 @@
         <v>15</v>
       </c>
       <c r="C173" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42341</v>
       </c>
-      <c r="B174" s="100" t="s">
-        <v>12</v>
+      <c r="B174" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C174" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
-      <c r="B175" s="96" t="s">
+      <c r="B175" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
-      <c r="B176" s="96" t="s">
-        <v>12</v>
+      <c r="B176" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
-      <c r="B177" s="96" t="s">
+      <c r="B177" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42341</v>
       </c>
-      <c r="B178" s="96" t="s">
+      <c r="B178" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
-      <c r="B179" s="96" t="s">
+      <c r="B179" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
-      <c r="B180" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>164</v>
+      <c r="B180" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="96" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -5441,11 +5526,11 @@
       <c r="B181" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C181" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C181" s="96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5453,286 +5538,353 @@
         <v>12</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B183" s="96"/>
-      <c r="C183" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42341</v>
+      </c>
+      <c r="B183" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B184" s="96"/>
-      <c r="C184" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>42341</v>
+      </c>
+      <c r="B184" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="96" t="s">
-        <v>4</v>
+        <v>42341</v>
+      </c>
+      <c r="B185" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B186" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B187" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B188" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B189" s="96"/>
+      <c r="C189" s="96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B190" s="96"/>
+      <c r="C190" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
         <v>42339</v>
       </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="96" t="s">
+      <c r="B192" s="2"/>
+      <c r="C192" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>42339</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="96" t="s">
+      <c r="B193" s="2"/>
+      <c r="C193" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="80">
+    <row r="194" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="80">
         <v>42334</v>
       </c>
-      <c r="B188" s="78" t="s">
+      <c r="B194" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="C188" s="78" t="s">
+      <c r="C194" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="80">
+    <row r="195" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A195" s="80">
         <v>42334</v>
       </c>
-      <c r="B189" s="78" t="s">
+      <c r="B195" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C189" s="78" t="s">
+      <c r="C195" s="78" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A190" s="80">
+    <row r="196" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A196" s="80">
         <v>42334</v>
       </c>
-      <c r="B190" s="78" t="s">
+      <c r="B196" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C190" s="78" t="s">
+      <c r="C196" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="80">
+    <row r="197" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="80">
         <v>42333</v>
       </c>
-      <c r="B191" s="78" t="s">
+      <c r="B197" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C191" s="78" t="s">
+      <c r="C197" s="78" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="80">
+    <row r="198" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="80">
         <v>42333</v>
       </c>
-      <c r="B192" s="78" t="s">
+      <c r="B198" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="78" t="s">
+      <c r="C198" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="80">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="80">
         <v>42331</v>
       </c>
-      <c r="B193" s="78" t="s">
+      <c r="B199" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C193" s="78" t="s">
+      <c r="C199" s="78" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A194" s="80">
+    <row r="200" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A200" s="80">
         <v>42329</v>
       </c>
-      <c r="B194" s="78" t="s">
+      <c r="B200" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C194" s="78" t="s">
+      <c r="C200" s="78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A195" s="80">
+    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A201" s="80">
         <v>42328</v>
       </c>
-      <c r="B195" s="78" t="s">
+      <c r="B201" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="C195" s="78" t="s">
+      <c r="C201" s="78" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B196" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="C196" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B197" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="C197" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B198" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C198" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A199" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B199" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C199" s="78" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A200" s="80">
-        <v>42324</v>
-      </c>
-      <c r="B200" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C200" s="78" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A201" s="80">
-        <v>42321</v>
-      </c>
-      <c r="B201" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C201" s="78" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A202" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B202" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C202" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B203" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="C203" s="78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A204" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B204" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C204" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A205" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B205" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C205" s="78" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A206" s="80">
+        <v>42324</v>
+      </c>
+      <c r="B206" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" s="78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A207" s="80">
         <v>42321</v>
       </c>
-      <c r="B202" s="78" t="s">
+      <c r="B207" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C202" s="78" t="s">
+      <c r="C207" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="80">
+        <v>42321</v>
+      </c>
+      <c r="B208" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C208" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="79">
+    <row r="209" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="79">
         <v>42318</v>
       </c>
-      <c r="B203" s="78" t="s">
+      <c r="B209" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C203" s="78" t="s">
+      <c r="C209" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="79">
+    <row r="210" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="79">
         <v>42311</v>
       </c>
-      <c r="B204" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C204" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="79">
+    <row r="211" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A211" s="79">
         <v>42310</v>
       </c>
-      <c r="B205" s="78" t="s">
+      <c r="B211" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C211" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A206" s="79">
+    <row r="212" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A212" s="79">
         <v>42306</v>
       </c>
-      <c r="B206" s="78" t="s">
+      <c r="B212" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C206" s="78" t="s">
+      <c r="C212" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="100"/>
-      <c r="B207" s="100"/>
-      <c r="C207" s="100"/>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="100"/>
+      <c r="B213" s="100"/>
+      <c r="C213" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C207">
+  <autoFilter ref="A1:C213">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C179" r:id="rId1"/>
-    <hyperlink ref="C140" r:id="rId2"/>
-    <hyperlink ref="C180" r:id="rId3"/>
-    <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="C185" r:id="rId1"/>
+    <hyperlink ref="C146" r:id="rId2"/>
+    <hyperlink ref="C186" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5747,16 +5899,16 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$214</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="506">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2587,6 +2587,14 @@
   </si>
   <si>
     <t>https://www.google.com/fonts#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://css-tricks.com/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2916,7 +2924,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3217,6 +3225,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3264,13 +3275,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3588,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3617,117 +3628,117 @@
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>42469</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42463</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42463</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42463</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42463</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42463</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42463</v>
       </c>
       <c r="B9" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B10" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C10" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42462</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42462</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42462</v>
       </c>
@@ -3735,362 +3746,362 @@
         <v>481</v>
       </c>
       <c r="C13" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42460</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42460</v>
       </c>
       <c r="B17" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B18" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C18" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42459</v>
       </c>
       <c r="B19" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B20" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C20" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42458</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B21" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42456</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42456</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42456</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>467</v>
+      <c r="B24" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42456</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C26" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="79">
-        <v>42453</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="79">
         <v>42453</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="79">
         <v>42452</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B29" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C29" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="75">
+    <row r="30" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
         <v>42451</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B30" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C30" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42451</v>
       </c>
-      <c r="B31" s="96" t="s">
-        <v>196</v>
+      <c r="B31" s="100" t="s">
+        <v>250</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42451</v>
       </c>
       <c r="B32" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B33" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="79">
+    <row r="34" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
         <v>42451</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B34" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C34" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="79">
+    <row r="35" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
         <v>42447</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B35" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C35" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>42440</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B36" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C36" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="37" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>42436</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B37" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
         <v>42431</v>
       </c>
       <c r="B38" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B39" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C39" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
+    <row r="40" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
         <v>42430</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B40" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C40" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="79">
+    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
         <v>42428</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B41" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C41" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>42426</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B42" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C42" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="79">
+    <row r="43" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
         <v>42426</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B43" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42425</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="79">
         <v>42425</v>
       </c>
@@ -4098,291 +4109,291 @@
         <v>277</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
         <v>42425</v>
       </c>
       <c r="B47" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B48" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C48" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="49" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>42424</v>
       </c>
-      <c r="B48" s="100" t="s">
+      <c r="B49" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C49" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="50" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>42423</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B50" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="79">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
         <v>42423</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B51" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C51" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>42422</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B52" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="100" t="s">
+      <c r="C52" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="53" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>42419</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C53" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="54" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>42418</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B54" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42403</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>230</v>
+      <c r="B55" s="96" t="s">
+        <v>229</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42403</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="C56" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>196</v>
-      </c>
+        <v>42403</v>
+      </c>
+      <c r="B57" s="12"/>
       <c r="C57" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42398</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>42397</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B60" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42396</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B62" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B62" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A63" s="79">
         <v>42386</v>
       </c>
       <c r="B63" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B64" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C64" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="65" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>42384</v>
       </c>
-      <c r="B64" s="100" t="s">
+      <c r="B65" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="100" t="s">
+      <c r="C65" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="66" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>42382</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="79">
+    <row r="67" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
         <v>42382</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B67" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C67" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>42381</v>
       </c>
-      <c r="B67" s="100" t="s">
+      <c r="B68" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C68" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42380</v>
       </c>
-      <c r="B69" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42380</v>
       </c>
       <c r="B70" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="79">
+    <row r="72" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
         <v>42380</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B72" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C72" s="78" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B72" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
@@ -4390,24 +4401,24 @@
         <v>42378</v>
       </c>
       <c r="B73" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A74" s="79">
         <v>42378</v>
       </c>
       <c r="B74" s="78" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C74" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A75" s="79">
         <v>42378</v>
       </c>
@@ -4415,109 +4426,109 @@
         <v>298</v>
       </c>
       <c r="C75" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A76" s="79">
         <v>42378</v>
       </c>
       <c r="B76" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B77" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C77" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="78" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>42377</v>
       </c>
-      <c r="B77" s="100" t="s">
+      <c r="B78" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="100" t="s">
+      <c r="C78" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="79">
+    <row r="79" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="79">
         <v>42376</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B79" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C79" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>42375</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B80" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C80" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>42369</v>
       </c>
-      <c r="B80" s="100" t="s">
+      <c r="B81" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42368</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42368</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42366</v>
       </c>
@@ -4525,111 +4536,111 @@
         <v>49</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42361</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42361</v>
       </c>
-      <c r="B88" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42361</v>
       </c>
-      <c r="B89" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42361</v>
       </c>
-      <c r="B90" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="B90" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42361</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C91" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42361</v>
       </c>
-      <c r="B92" s="100" t="s">
-        <v>49</v>
+      <c r="B92" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42361</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>196</v>
+      <c r="B93" s="100" t="s">
+        <v>49</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42361</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>42360</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,187 +4651,189 @@
         <v>195</v>
       </c>
       <c r="C96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>42360</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="80">
+    <row r="98" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="80">
         <v>42360</v>
       </c>
-      <c r="B97" s="78" t="s">
+      <c r="B98" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C98" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B98" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42356</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>181</v>
+      <c r="B99" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="100" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42356</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B100" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42356</v>
       </c>
-      <c r="B101" s="96"/>
+      <c r="B101" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="C101" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B102" s="96"/>
+      <c r="C102" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B102" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42355</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42355</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C104" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C104" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42355</v>
       </c>
-      <c r="B105" s="100" t="s">
-        <v>168</v>
+      <c r="B105" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42355</v>
       </c>
-      <c r="B106" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
-      <c r="B107" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B107" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>43</v>
+      <c r="B108" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42355</v>
       </c>
-      <c r="B109" s="100" t="s">
-        <v>173</v>
+      <c r="B109" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42355</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C110" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C112" s="30" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
-      <c r="B113" s="42"/>
       <c r="C113" s="30" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4829,74 +4842,74 @@
       </c>
       <c r="B114" s="42"/>
       <c r="C114" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B115" s="42"/>
+      <c r="C115" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B115" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42352</v>
       </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B116" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42352</v>
       </c>
       <c r="B117" s="26"/>
-      <c r="C117" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
       <c r="B118" s="26"/>
-      <c r="C118" s="32" t="s">
-        <v>69</v>
+      <c r="C118" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
-      <c r="B119" s="96"/>
-      <c r="C119" s="33" t="s">
-        <v>75</v>
+      <c r="B119" s="26"/>
+      <c r="C119" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
-      <c r="B120" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>72</v>
+      <c r="B120" s="96"/>
+      <c r="C120" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
-      <c r="B121" s="96"/>
+      <c r="B121" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C121" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,289 +4917,287 @@
         <v>42352</v>
       </c>
       <c r="B122" s="96"/>
-      <c r="C122" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C122" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="37"/>
+      <c r="B123" s="96"/>
       <c r="C123" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="96"/>
-      <c r="C124" s="96" t="s">
-        <v>77</v>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B125" s="96"/>
       <c r="C125" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
-      <c r="B126" s="100"/>
-      <c r="C126" s="39" t="s">
-        <v>80</v>
+      <c r="B126" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="96" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="100"/>
+      <c r="C127" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B128" s="38"/>
+      <c r="C128" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="B129" s="41"/>
       <c r="C129" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B130" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B131" s="43"/>
+      <c r="C131" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" s="46" t="s">
-        <v>86</v>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C133" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="100" t="s">
+      <c r="B134" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B135" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C134" s="48" t="s">
+      <c r="C135" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42349</v>
       </c>
-      <c r="B136" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="49"/>
+      <c r="C136" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42349</v>
       </c>
-      <c r="B137" s="96"/>
-      <c r="C137" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B137" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42349</v>
       </c>
-      <c r="B138" s="96" t="s">
-        <v>12</v>
-      </c>
+      <c r="B138" s="96"/>
       <c r="C138" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42349</v>
       </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B139" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
-      <c r="B140" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C140" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="52"/>
+      <c r="C140" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C141" s="55" t="s">
-        <v>61</v>
+      <c r="C141" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42349</v>
       </c>
-      <c r="B142" s="100"/>
-      <c r="C142" s="57" t="s">
-        <v>78</v>
+      <c r="B142" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42349</v>
       </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58" t="s">
-        <v>62</v>
+      <c r="B143" s="100"/>
+      <c r="C143" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
-      <c r="B144" s="59"/>
-      <c r="C144" s="59" t="s">
-        <v>70</v>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60" t="s">
-        <v>64</v>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="61"/>
-      <c r="C146" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B146" s="60"/>
+      <c r="C146" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="62" t="s">
+      <c r="B147" s="61"/>
+      <c r="C147" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B148" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="100" t="s">
+      <c r="C148" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B148" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42345</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42345</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="63" t="s">
-        <v>28</v>
+      <c r="B150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5196,162 +5207,162 @@
       <c r="B151" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C151" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="C152" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
-      <c r="B154" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C154" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
-      <c r="B155" s="69" t="s">
+      <c r="B155" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="68" t="s">
-        <v>32</v>
+      <c r="C155" s="67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B156" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="71" t="s">
-        <v>39</v>
+      <c r="B158" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C158" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="72" t="s">
+      <c r="B159" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C159" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
-      <c r="B160" s="96" t="s">
+      <c r="B160" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C160" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="15" t="s">
-        <v>43</v>
+      <c r="B161" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C161" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C162" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B162" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C163" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B163" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C165" s="96" t="s">
-        <v>50</v>
+      <c r="B165" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5362,10 +5373,10 @@
         <v>49</v>
       </c>
       <c r="C166" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
@@ -5373,54 +5384,54 @@
         <v>49</v>
       </c>
       <c r="C167" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
       <c r="B168" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B169" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C168" s="96" t="s">
+      <c r="C169" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A169" s="80">
+    <row r="170" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A170" s="80">
         <v>42345</v>
       </c>
-      <c r="B169" s="78" t="s">
+      <c r="B170" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C169" s="78" t="s">
+      <c r="C170" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42341</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C171" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42341</v>
       </c>
@@ -5428,10 +5439,10 @@
         <v>15</v>
       </c>
       <c r="C172" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42341</v>
       </c>
@@ -5439,7 +5450,7 @@
         <v>15</v>
       </c>
       <c r="C173" s="96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5450,10 +5461,10 @@
         <v>15</v>
       </c>
       <c r="C174" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
@@ -5461,32 +5472,32 @@
         <v>15</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42341</v>
       </c>
@@ -5494,10 +5505,10 @@
         <v>15</v>
       </c>
       <c r="C178" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
@@ -5505,40 +5516,40 @@
         <v>15</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
-      <c r="B180" s="100" t="s">
-        <v>12</v>
+      <c r="B180" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
-      <c r="B181" s="96" t="s">
-        <v>15</v>
+      <c r="B181" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
       <c r="B182" s="96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,10 +5557,10 @@
         <v>42341</v>
       </c>
       <c r="B183" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C183" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5560,7 +5571,7 @@
         <v>15</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,8 +5581,8 @@
       <c r="B185" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>165</v>
+      <c r="C185" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,18 +5593,18 @@
         <v>15</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
       <c r="B187" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C187" s="100" t="s">
-        <v>24</v>
+      <c r="C187" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -5601,48 +5612,50 @@
         <v>42341</v>
       </c>
       <c r="B188" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="96" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C188" s="100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B189" s="96"/>
+        <v>42341</v>
+      </c>
+      <c r="B189" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="C189" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42340</v>
       </c>
       <c r="B190" s="96"/>
       <c r="C190" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42340</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="96"/>
+      <c r="C191" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C191" s="96" t="s">
+      <c r="C192" s="96" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="96" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,131 +5664,129 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B194" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C194" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A195" s="80">
         <v>42334</v>
       </c>
       <c r="B195" s="78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C195" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A196" s="80">
         <v>42334</v>
       </c>
       <c r="B196" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C196" s="78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A197" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B197" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C196" s="78" t="s">
+      <c r="C197" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B197" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C197" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A198" s="80">
         <v>42333</v>
       </c>
       <c r="B198" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C198" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B199" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C198" s="78" t="s">
+      <c r="C199" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="80">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="80">
         <v>42331</v>
       </c>
-      <c r="B199" s="78" t="s">
+      <c r="B200" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C199" s="78" t="s">
+      <c r="C200" s="78" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A200" s="80">
-        <v>42329</v>
-      </c>
-      <c r="B200" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="C200" s="78" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A201" s="80">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B201" s="78" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C201" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A202" s="80">
         <v>42328</v>
       </c>
       <c r="B202" s="78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C202" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A203" s="80">
         <v>42328</v>
       </c>
       <c r="B203" s="78" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C203" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A204" s="80">
         <v>42328</v>
       </c>
       <c r="B204" s="78" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C204" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A205" s="80">
         <v>42328</v>
       </c>
@@ -5783,32 +5794,32 @@
         <v>318</v>
       </c>
       <c r="C205" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A206" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B206" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C206" s="78" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A206" s="80">
-        <v>42324</v>
-      </c>
-      <c r="B206" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" s="78" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A207" s="80">
-        <v>42321</v>
+        <v>42324</v>
       </c>
       <c r="B207" s="78" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="C207" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="80">
         <v>42321</v>
       </c>
@@ -5816,75 +5827,87 @@
         <v>328</v>
       </c>
       <c r="C208" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="80">
+        <v>42321</v>
+      </c>
+      <c r="B209" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C209" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="79">
+    <row r="210" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A210" s="79">
         <v>42318</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="79">
+    <row r="211" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="79">
         <v>42311</v>
-      </c>
-      <c r="B210" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C210" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A211" s="79">
-        <v>42310</v>
       </c>
       <c r="B211" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C211" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A212" s="79">
+        <v>42310</v>
+      </c>
+      <c r="B212" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A212" s="79">
+    <row r="213" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A213" s="79">
         <v>42306</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B213" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C213" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="100"/>
-      <c r="B213" s="100"/>
-      <c r="C213" s="100"/>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="100"/>
+      <c r="B214" s="100"/>
+      <c r="C214" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C213">
+  <autoFilter ref="A1:C214">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C185" r:id="rId1"/>
-    <hyperlink ref="C146" r:id="rId2"/>
-    <hyperlink ref="C186" r:id="rId3"/>
-    <hyperlink ref="C20" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C186" r:id="rId1"/>
+    <hyperlink ref="C147" r:id="rId2"/>
+    <hyperlink ref="C187" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5899,16 +5922,16 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$216</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="508">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2503,7 +2503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2597,16 +2597,22 @@
     <t>css</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>To know more, study the caller-replyer relationship graph</t>
+  </si>
+  <si>
+    <t>WRKJOBNSCDE 是控制Job定時運行的工具, 由此溫故了相關的概念: Job是標準單位, Thread是其中最小粒度的單位, Job可在多個Queue中換來換去.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2614,7 +2620,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2622,7 +2628,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2636,21 +2642,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2658,7 +2664,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2666,27 +2672,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2776,7 +2782,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2784,7 +2790,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2924,7 +2930,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3238,10 +3244,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3275,13 +3287,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3313,7 +3325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3387,7 +3399,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3422,7 +3433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3598,21 +3608,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3623,1771 +3633,1771 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="102" customFormat="1">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="102" customFormat="1">
       <c r="A3" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A4" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1">
+      <c r="A5" s="2">
         <v>42469</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B5" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A6" s="2">
         <v>42463</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A7" s="2">
         <v>42463</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="102" customFormat="1">
       <c r="A8" s="2">
         <v>42463</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A9" s="2">
         <v>42463</v>
       </c>
-      <c r="B9" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C9" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A10" s="2">
         <v>42463</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A11" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A12" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B12" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C12" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A13" s="2">
         <v>42462</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A14" s="2">
         <v>42462</v>
       </c>
       <c r="B14" s="100" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="240">
+      <c r="A15" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B15" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C15" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A16" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>477</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A17" s="2">
         <v>42460</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
       <c r="B18" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="180">
+      <c r="A19" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A20" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B20" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C20" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="105">
+      <c r="A21" s="2">
         <v>42459</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B21" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C21" s="98" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A22" s="2">
         <v>42459</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B22" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C22" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="23" spans="1:3" s="4" customFormat="1">
+      <c r="A23" s="2">
         <v>42458</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B23" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A24" s="2">
         <v>42456</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60">
       <c r="A25" s="2">
         <v>42456</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>467</v>
+      <c r="B25" s="96" t="s">
+        <v>463</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45">
       <c r="A26" s="2">
         <v>42456</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45">
+      <c r="A28" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C28" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="79">
+    <row r="29" spans="1:3" ht="77.25">
+      <c r="A29" s="79">
         <v>42453</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B29" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C29" s="78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="79">
+    <row r="30" spans="1:3" ht="26.25">
+      <c r="A30" s="79">
         <v>42453</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B30" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C30" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="79">
+    <row r="31" spans="1:3" ht="39">
+      <c r="A31" s="79">
         <v>42452</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B31" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C31" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="75">
+    <row r="32" spans="1:3" ht="165">
+      <c r="A32" s="75">
         <v>42451</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B32" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C32" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="2">
         <v>42451</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="165">
+      <c r="A35" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B35" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="79">
+    <row r="36" spans="1:3" ht="64.5">
+      <c r="A36" s="79">
         <v>42451</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B36" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C36" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="79">
+    <row r="37" spans="1:3" ht="64.5">
+      <c r="A37" s="79">
         <v>42447</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B37" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C37" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>42440</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C38" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="39" spans="1:3" ht="75">
+      <c r="A39" s="2">
         <v>42436</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B39" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+    <row r="40" spans="1:3" ht="39">
+      <c r="A40" s="79">
         <v>42431</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B40" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C40" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
+    <row r="41" spans="1:3" ht="26.25">
+      <c r="A41" s="79">
         <v>42431</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B41" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C41" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="79">
+    <row r="42" spans="1:3" ht="51.75">
+      <c r="A42" s="79">
         <v>42430</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="79">
+    <row r="43" spans="1:3" ht="26.25">
+      <c r="A43" s="79">
         <v>42428</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="2">
         <v>42426</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B44" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C44" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="79">
+    <row r="45" spans="1:3" ht="77.25">
+      <c r="A45" s="79">
         <v>42426</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B45" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C45" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>42425</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B46" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C46" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="2">
         <v>42425</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B47" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="26.25">
       <c r="A48" s="79">
         <v>42425</v>
       </c>
       <c r="B48" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25">
+      <c r="A50" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B50" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" ht="165">
+      <c r="A51" s="2">
         <v>42424</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B51" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C51" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" ht="45">
+      <c r="A52" s="2">
         <v>42423</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B52" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="79">
+    <row r="53" spans="1:3">
+      <c r="A53" s="79">
         <v>42423</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B53" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C53" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="54" spans="1:3" ht="90">
+      <c r="A54" s="2">
         <v>42422</v>
       </c>
-      <c r="B52" s="100" t="s">
+      <c r="B54" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="100" t="s">
+      <c r="C54" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="55" spans="1:3" ht="60">
+      <c r="A55" s="2">
         <v>42419</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C55" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="56" spans="1:3" ht="195">
+      <c r="A56" s="2">
         <v>42418</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B55" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="45">
       <c r="A57" s="2">
         <v>42403</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="96" t="s">
+        <v>229</v>
+      </c>
       <c r="C57" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="75">
+      <c r="A58" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="90">
+      <c r="A59" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="60" spans="1:3" ht="90">
+      <c r="A60" s="2">
         <v>42398</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="61" spans="1:3" ht="45">
+      <c r="A61" s="2">
         <v>42398</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>42397</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B62" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="2">
         <v>42396</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="2">
         <v>42396</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B64" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="79">
+    <row r="65" spans="1:3" ht="128.25">
+      <c r="A65" s="79">
         <v>42386</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B65" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C65" s="78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="79">
+    <row r="66" spans="1:3" ht="64.5">
+      <c r="A66" s="79">
         <v>42386</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B66" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C66" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="67" spans="1:3" ht="45">
+      <c r="A67" s="2">
         <v>42384</v>
       </c>
-      <c r="B65" s="100" t="s">
+      <c r="B67" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="C67" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="68" spans="1:3" ht="180">
+      <c r="A68" s="2">
         <v>42382</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="79">
+    <row r="69" spans="1:3" ht="64.5">
+      <c r="A69" s="79">
         <v>42382</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B69" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C69" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="70" spans="1:3" ht="30">
+      <c r="A70" s="2">
         <v>42381</v>
       </c>
-      <c r="B68" s="100" t="s">
+      <c r="B70" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C70" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="2">
         <v>42380</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="75">
+      <c r="A72" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B72" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="180">
+      <c r="A73" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="79">
+    <row r="74" spans="1:3" ht="217.5">
+      <c r="A74" s="79">
         <v>42380</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B74" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C74" s="78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B73" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B74" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="102.75">
       <c r="A75" s="79">
         <v>42378</v>
       </c>
       <c r="B75" s="78" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C75" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="102.75">
       <c r="A76" s="79">
         <v>42378</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="141">
       <c r="A77" s="79">
         <v>42378</v>
       </c>
       <c r="B77" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="77.25">
+      <c r="A78" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B78" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="102.75">
+      <c r="A79" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B79" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C79" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="80" spans="1:3" ht="60">
+      <c r="A80" s="2">
         <v>42377</v>
       </c>
-      <c r="B78" s="100" t="s">
+      <c r="B80" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="100" t="s">
+      <c r="C80" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="79">
+    <row r="81" spans="1:3" ht="77.25">
+      <c r="A81" s="79">
         <v>42376</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B81" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C81" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="82" spans="1:3" ht="45">
+      <c r="A82" s="2">
         <v>42375</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="100" t="s">
+      <c r="C82" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>42369</v>
       </c>
-      <c r="B81" s="100" t="s">
+      <c r="B83" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="195">
       <c r="A84" s="2">
         <v>42368</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="135">
+      <c r="A85" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45">
+      <c r="A86" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="87" spans="1:3" ht="30">
+      <c r="A87" s="2">
         <v>42366</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B87" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="88" spans="1:3" ht="30">
+      <c r="A88" s="2">
         <v>42366</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B88" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="150">
       <c r="A89" s="2">
         <v>42361</v>
       </c>
-      <c r="B89" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C89" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
       <c r="A90" s="2">
         <v>42361</v>
       </c>
-      <c r="B90" s="100" t="s">
-        <v>53</v>
-      </c>
       <c r="C90" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="270">
       <c r="A91" s="2">
         <v>42361</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="C91" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
       <c r="A92" s="2">
         <v>42361</v>
       </c>
-      <c r="B92" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B92" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>42361</v>
       </c>
-      <c r="B93" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="225">
       <c r="A94" s="2">
         <v>42361</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>196</v>
+      <c r="B94" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="60">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="90">
+      <c r="A96" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C96" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="60">
+      <c r="A97" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
+    <row r="98" spans="1:3">
+      <c r="A98" s="40">
         <v>42360</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B98" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
+    <row r="99" spans="1:3">
+      <c r="A99" s="40">
         <v>42360</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B99" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="80">
+    <row r="100" spans="1:3" ht="102.75">
+      <c r="A100" s="80">
         <v>42360</v>
       </c>
-      <c r="B98" s="78" t="s">
+      <c r="B100" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C100" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B99" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="30">
       <c r="A101" s="2">
         <v>42356</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>42356</v>
       </c>
-      <c r="B102" s="96"/>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30">
+      <c r="A104" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B104" s="96"/>
+      <c r="C104" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B103" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="60">
       <c r="A105" s="2">
         <v>42355</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>33</v>
+      <c r="B105" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>42355</v>
       </c>
-      <c r="B106" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="150">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
-      <c r="B107" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="120">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B108" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30">
       <c r="A109" s="2">
         <v>42355</v>
       </c>
-      <c r="B109" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>42355</v>
       </c>
-      <c r="B110" s="100" t="s">
-        <v>173</v>
+      <c r="B110" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="75">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B111" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="135">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="75">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
-      <c r="C113" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
-      <c r="B114" s="42"/>
+      <c r="B114" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C114" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
-      <c r="B115" s="42"/>
       <c r="C115" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B116" s="42"/>
+      <c r="C116" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B117" s="42"/>
+      <c r="C117" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="75">
       <c r="A118" s="2">
         <v>42352</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
       <c r="B119" s="26"/>
-      <c r="C119" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="75">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
-      <c r="B120" s="96"/>
-      <c r="C120" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="26"/>
+      <c r="C120" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
-      <c r="B121" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="26"/>
+      <c r="C121" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
       <c r="B122" s="96"/>
-      <c r="C122" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="96"/>
-      <c r="C123" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B124" s="96"/>
+      <c r="C124" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
       <c r="B125" s="96"/>
-      <c r="C125" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C125" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C126" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B126" s="37"/>
+      <c r="C126" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="100"/>
-      <c r="C127" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="96"/>
+      <c r="C127" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="45">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="45">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B129" s="100"/>
+      <c r="C129" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C130" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B130" s="38"/>
+      <c r="C130" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="75">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B131" s="41"/>
+      <c r="C131" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="45">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B132" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="30">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="45">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="44"/>
+      <c r="C134" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="100" t="s">
+      <c r="B135" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30">
+      <c r="A136" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B137" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C137" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B136" s="49"/>
-      <c r="C136" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B137" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="135">
       <c r="A138" s="2">
         <v>42349</v>
       </c>
-      <c r="B138" s="96"/>
-      <c r="C138" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B138" s="49"/>
+      <c r="C138" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="60">
       <c r="A139" s="2">
         <v>42349</v>
       </c>
-      <c r="B139" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B139" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B140" s="96"/>
+      <c r="C140" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="120">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="150">
       <c r="A142" s="2">
         <v>42349</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C142" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="52"/>
+      <c r="C142" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30">
       <c r="A143" s="2">
         <v>42349</v>
       </c>
-      <c r="B143" s="100"/>
-      <c r="C143" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="100"/>
+      <c r="C145" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="58"/>
+      <c r="C146" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="61"/>
-      <c r="C147" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B147" s="59"/>
+      <c r="C147" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="60"/>
+      <c r="C148" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B149" s="61"/>
+      <c r="C149" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="60">
+      <c r="A150" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B150" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C148" s="100" t="s">
+      <c r="C150" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B149" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="90">
       <c r="A151" s="2">
         <v>42345</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="C153" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
-      <c r="B155" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C155" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="195">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
-      <c r="B156" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C156" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="135">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B157" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="75">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="75">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
-      <c r="B160" s="72" t="s">
-        <v>39</v>
+      <c r="B160" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C160" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="96" t="s">
+      <c r="B161" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C161" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="15" t="s">
-        <v>43</v>
+      <c r="B162" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="C162" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="60">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="100" t="s">
+      <c r="B163" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C163" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C163" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="150">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C164" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="45">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
       <c r="B165" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C165" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="60">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C166" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="105">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C167" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
@@ -5395,65 +5405,65 @@
         <v>49</v>
       </c>
       <c r="C168" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
       <c r="B169" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="75">
+      <c r="A170" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B170" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="45">
+      <c r="A171" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B171" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C169" s="96" t="s">
+      <c r="C171" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A170" s="80">
+    <row r="172" spans="1:3" ht="141">
+      <c r="A172" s="80">
         <v>42345</v>
       </c>
-      <c r="B170" s="78" t="s">
+      <c r="B172" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C170" s="78" t="s">
+      <c r="C172" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C172" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="105">
       <c r="A173" s="2">
         <v>42341</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C173" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="90">
       <c r="A174" s="2">
         <v>42341</v>
       </c>
@@ -5461,10 +5471,10 @@
         <v>15</v>
       </c>
       <c r="C174" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="75">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
@@ -5472,10 +5482,10 @@
         <v>15</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
@@ -5483,21 +5493,21 @@
         <v>15</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="45">
       <c r="A178" s="2">
         <v>42341</v>
       </c>
@@ -5505,21 +5515,21 @@
         <v>15</v>
       </c>
       <c r="C178" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="90">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
@@ -5527,383 +5537,405 @@
         <v>15</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="150">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
-      <c r="B181" s="100" t="s">
-        <v>12</v>
+      <c r="B181" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="75">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
-      <c r="B182" s="96" t="s">
+      <c r="B182" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="90">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
-      <c r="B183" s="96" t="s">
+      <c r="B183" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="60">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
       <c r="B184" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
       <c r="B185" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C185" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
       <c r="B186" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
       <c r="B187" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C187" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
       <c r="B188" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C188" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
       <c r="B189" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="75">
+      <c r="A190" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B190" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="60">
+      <c r="A191" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B191" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="96" t="s">
+      <c r="C191" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B190" s="96"/>
-      <c r="C190" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B191" s="96"/>
-      <c r="C191" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="60">
       <c r="A192" s="2">
         <v>42340</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="96"/>
+      <c r="C192" s="96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="45">
+      <c r="A193" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B193" s="96"/>
+      <c r="C193" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="60">
+      <c r="A194" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C192" s="96" t="s">
+      <c r="C194" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
         <v>42339</v>
       </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="96" t="s">
+      <c r="B195" s="2"/>
+      <c r="C195" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
         <v>42339</v>
       </c>
-      <c r="B194" s="2"/>
-      <c r="C194" s="96" t="s">
+      <c r="B196" s="2"/>
+      <c r="C196" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B195" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C195" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B196" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="C196" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="64.5">
       <c r="A197" s="80">
         <v>42334</v>
       </c>
       <c r="B197" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="26.25">
+      <c r="A198" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B198" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C198" s="78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="39">
+      <c r="A199" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B199" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C197" s="78" t="s">
+      <c r="C199" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="80">
+    <row r="200" spans="1:3" ht="128.25">
+      <c r="A200" s="80">
         <v>42333</v>
       </c>
-      <c r="B198" s="78" t="s">
+      <c r="B200" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C198" s="78" t="s">
+      <c r="C200" s="78" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="80">
+    <row r="201" spans="1:3" ht="51.75">
+      <c r="A201" s="80">
         <v>42333</v>
       </c>
-      <c r="B199" s="78" t="s">
+      <c r="B201" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C199" s="78" t="s">
+      <c r="C201" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="80">
+    <row r="202" spans="1:3" ht="26.25">
+      <c r="A202" s="80">
         <v>42331</v>
       </c>
-      <c r="B200" s="78" t="s">
+      <c r="B202" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C200" s="78" t="s">
+      <c r="C202" s="78" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A201" s="80">
+    <row r="203" spans="1:3" ht="39">
+      <c r="A203" s="80">
         <v>42329</v>
       </c>
-      <c r="B201" s="78" t="s">
+      <c r="B203" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="78" t="s">
+      <c r="C203" s="78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A202" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B202" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="C202" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B203" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="C203" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="39">
       <c r="A204" s="80">
         <v>42328</v>
       </c>
       <c r="B204" s="78" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C204" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="26.25">
       <c r="A205" s="80">
         <v>42328</v>
       </c>
       <c r="B205" s="78" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C205" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="115.5">
       <c r="A206" s="80">
         <v>42328</v>
       </c>
       <c r="B206" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="C206" s="78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="90">
+      <c r="A207" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B207" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C206" s="78" t="s">
+      <c r="C207" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="153.75">
+      <c r="A208" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B208" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C208" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A207" s="80">
+    <row r="209" spans="1:3" ht="102.75">
+      <c r="A209" s="80">
         <v>42324</v>
       </c>
-      <c r="B207" s="78" t="s">
+      <c r="B209" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C207" s="78" t="s">
+      <c r="C209" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A208" s="80">
+    <row r="210" spans="1:3" ht="90">
+      <c r="A210" s="80">
         <v>42321</v>
       </c>
-      <c r="B208" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C208" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="80">
+    <row r="211" spans="1:3" ht="26.25">
+      <c r="A211" s="80">
         <v>42321</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B211" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C211" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="79">
+    <row r="212" spans="1:3" ht="77.25">
+      <c r="A212" s="79">
         <v>42318</v>
       </c>
-      <c r="B210" s="78" t="s">
+      <c r="B212" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C212" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="79">
+    <row r="213" spans="1:3" ht="115.5">
+      <c r="A213" s="79">
         <v>42311</v>
       </c>
-      <c r="B211" s="78" t="s">
+      <c r="B213" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C211" s="78" t="s">
+      <c r="C213" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="79">
+    <row r="214" spans="1:3" ht="77.25">
+      <c r="A214" s="79">
         <v>42310</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B214" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C214" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A213" s="79">
+    <row r="215" spans="1:3" ht="51.75">
+      <c r="A215" s="79">
         <v>42306</v>
       </c>
-      <c r="B213" s="78" t="s">
+      <c r="B215" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C213" s="78" t="s">
+      <c r="C215" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="100"/>
-      <c r="B214" s="100"/>
-      <c r="C214" s="100"/>
+    <row r="216" spans="1:3">
+      <c r="A216" s="100"/>
+      <c r="B216" s="100"/>
+      <c r="C216" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C214">
+  <autoFilter ref="A1:C216">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C186" r:id="rId1"/>
-    <hyperlink ref="C147" r:id="rId2"/>
-    <hyperlink ref="C187" r:id="rId3"/>
-    <hyperlink ref="C21" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C188" r:id="rId1"/>
+    <hyperlink ref="C149" r:id="rId2"/>
+    <hyperlink ref="C189" r:id="rId3"/>
+    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -5912,26 +5944,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A1" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5943,16 +5975,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
@@ -5963,7 +5995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5974,7 +6006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -5985,7 +6017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -5996,7 +6028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6007,7 +6039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6018,7 +6050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6029,7 +6061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6040,7 +6072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6051,7 +6083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6062,7 +6094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6073,7 +6105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6084,7 +6116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6095,7 +6127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6106,7 +6138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6117,7 +6149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6128,7 +6160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6139,7 +6171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6150,7 +6182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6161,7 +6193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6172,7 +6204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6183,7 +6215,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6194,7 +6226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6205,7 +6237,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6216,7 +6248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6227,7 +6259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6238,7 +6270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6249,7 +6281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6260,7 +6292,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6271,7 +6303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6282,7 +6314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6304,7 +6336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6315,7 +6347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6326,7 +6358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -6337,7 +6369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6348,7 +6380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6359,7 +6391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6370,7 +6402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6381,7 +6413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6392,7 +6424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6403,7 +6435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6414,7 +6446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6425,7 +6457,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6436,7 +6468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6447,7 +6479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6458,7 +6490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6469,7 +6501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6480,7 +6512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6491,7 +6523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6502,7 +6534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6513,7 +6545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6524,7 +6556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6535,7 +6567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6546,7 +6578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6557,7 +6589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6568,7 +6600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6579,7 +6611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6590,7 +6622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6601,7 +6633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6612,7 +6644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6623,7 +6655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6634,7 +6666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6645,7 +6677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6656,7 +6688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6667,7 +6699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6678,7 +6710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6689,7 +6721,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6700,7 +6732,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6711,7 +6743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6722,7 +6754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6733,7 +6765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6744,7 +6776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6755,7 +6787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6766,7 +6798,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6777,7 +6809,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6788,7 +6820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6799,7 +6831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6810,7 +6842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6821,7 +6853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6832,7 +6864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -6843,7 +6875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -6854,7 +6886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6865,7 +6897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -6876,7 +6908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6887,7 +6919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6898,7 +6930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6909,7 +6941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -6920,7 +6952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -6931,7 +6963,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -6942,7 +6974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -6953,7 +6985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -6964,7 +6996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -6975,7 +7007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -6986,7 +7018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -6997,7 +7029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -7008,7 +7040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7019,7 +7051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -7030,7 +7062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7041,7 +7073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7052,7 +7084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7063,7 +7095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7074,7 +7106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -7085,7 +7117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7096,7 +7128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -7107,7 +7139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -7118,7 +7150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7129,7 +7161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -7140,7 +7172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7151,7 +7183,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -7162,7 +7194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7173,7 +7205,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7184,7 +7216,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7233,26 +7265,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="81"/>
       <c r="B1" s="81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="167.25" thickBot="1">
       <c r="A2" s="82" t="s">
         <v>337</v>
       </c>
@@ -7260,7 +7292,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="84" t="s">
         <v>339</v>
       </c>
@@ -7268,7 +7300,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="84" t="s">
         <v>341</v>
       </c>
@@ -7276,7 +7308,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
@@ -7284,7 +7316,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="82" t="s">
         <v>345</v>
       </c>
@@ -7292,7 +7324,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="84" t="s">
         <v>347</v>
       </c>
@@ -7300,7 +7332,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="84" t="s">
         <v>349</v>
       </c>
@@ -7308,7 +7340,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="82" t="s">
         <v>351</v>
       </c>
@@ -7324,14 +7356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -7339,7 +7371,7 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>353</v>
       </c>
@@ -7349,7 +7381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1">
       <c r="A2" s="81"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -7357,7 +7389,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1">
       <c r="A3" s="81" t="s">
         <v>355</v>
       </c>
@@ -7371,7 +7403,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="81" t="s">
         <v>359</v>
       </c>
@@ -7385,7 +7417,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="27" thickBot="1">
       <c r="A5" s="90" t="s">
         <v>362</v>
       </c>
@@ -7399,7 +7431,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="27" thickBot="1">
       <c r="A6" s="81" t="s">
         <v>365</v>
       </c>
@@ -7413,7 +7445,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="27" thickBot="1">
       <c r="A7" s="81" t="s">
         <v>368</v>
       </c>
@@ -7427,7 +7459,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1">
       <c r="A8" s="81" t="s">
         <v>370</v>
       </c>
@@ -7441,7 +7473,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="91" t="s">
         <v>372</v>
       </c>
@@ -7455,7 +7487,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="91" t="s">
         <v>375</v>
       </c>
@@ -7469,7 +7501,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="27" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>377</v>
       </c>
@@ -7483,7 +7515,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1">
       <c r="A12" s="91" t="s">
         <v>379</v>
       </c>
@@ -7497,7 +7529,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="27" thickBot="1">
       <c r="A13" s="91" t="s">
         <v>381</v>
       </c>
@@ -7511,7 +7543,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="91" t="s">
         <v>384</v>
       </c>
@@ -7525,7 +7557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="27" thickBot="1">
       <c r="A15" s="91" t="s">
         <v>387</v>
       </c>
@@ -7539,7 +7571,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="27" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>389</v>
       </c>
@@ -7553,7 +7585,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="27" thickBot="1">
       <c r="A17" s="81" t="s">
         <v>392</v>
       </c>
@@ -7567,7 +7599,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1">
       <c r="A18" s="81" t="s">
         <v>394</v>
       </c>
@@ -7579,7 +7611,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1">
       <c r="A19" s="90" t="s">
         <v>396</v>
       </c>
@@ -7593,7 +7625,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1">
       <c r="A20" s="81" t="s">
         <v>398</v>
       </c>
@@ -7607,7 +7639,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1">
       <c r="A21" s="92" t="s">
         <v>401</v>
       </c>
@@ -7621,7 +7653,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1">
       <c r="A22" s="81" t="s">
         <v>403</v>
       </c>
@@ -7635,7 +7667,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="27" thickBot="1">
       <c r="A23" s="81" t="s">
         <v>405</v>
       </c>
@@ -7649,7 +7681,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="52.5" thickBot="1">
       <c r="A24" s="81" t="s">
         <v>407</v>
       </c>
@@ -7663,7 +7695,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1">
       <c r="A25" s="81" t="s">
         <v>410</v>
       </c>
@@ -7675,7 +7707,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="27" thickBot="1">
       <c r="A26" s="81" t="s">
         <v>412</v>
       </c>
@@ -7689,7 +7721,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="27" thickBot="1">
       <c r="A27" s="81" t="s">
         <v>414</v>
       </c>
@@ -7703,7 +7735,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1">
       <c r="A28" s="81" t="s">
         <v>417</v>
       </c>
@@ -7717,7 +7749,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1">
       <c r="A29" s="92" t="s">
         <v>419</v>
       </c>
@@ -7731,7 +7763,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="81" t="s">
         <v>421</v>
       </c>
@@ -7745,7 +7777,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="27" thickBot="1">
       <c r="A31" s="81" t="s">
         <v>423</v>
       </c>
@@ -7757,7 +7789,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
       <c r="A32" s="81" t="s">
         <v>425</v>
       </c>
@@ -7771,7 +7803,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
       <c r="A33" s="81" t="s">
         <v>427</v>
       </c>
@@ -7785,7 +7817,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1">
       <c r="A34" s="81" t="s">
         <v>429</v>
       </c>
@@ -7799,7 +7831,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="81" t="s">
         <v>431</v>
       </c>
@@ -7813,7 +7845,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1">
       <c r="A36" s="90" t="s">
         <v>433</v>
       </c>
@@ -7827,7 +7859,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="27" thickBot="1">
       <c r="A37" s="81" t="s">
         <v>435</v>
       </c>
@@ -7841,7 +7873,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="27" thickBot="1">
       <c r="A38" s="81" t="s">
         <v>437</v>
       </c>
@@ -7855,7 +7887,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>439</v>
       </c>
@@ -7869,7 +7901,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="27" thickBot="1">
       <c r="A40" s="81" t="s">
         <v>441</v>
       </c>
@@ -7883,7 +7915,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
       <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
@@ -7897,7 +7929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="92" t="s">
         <v>445</v>
       </c>
@@ -7911,7 +7943,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
       <c r="A43" s="92" t="s">
         <v>447</v>
       </c>
@@ -7923,7 +7955,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="27" thickBot="1">
       <c r="A44" s="90" t="s">
         <v>449</v>
       </c>
@@ -7937,7 +7969,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
       <c r="A45" s="81" t="s">
         <v>451</v>
       </c>
@@ -7951,7 +7983,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -7965,7 +7997,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
       <c r="A47" s="81" t="s">
         <v>455</v>
       </c>
@@ -7977,7 +8009,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="27" thickBot="1">
       <c r="A48" s="81" t="s">
         <v>457</v>
       </c>
@@ -7989,19 +8021,19 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="93"/>
       <c r="D49" s="93"/>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="39" thickBot="1">
       <c r="A51" s="94" t="s">
         <v>459</v>
       </c>
@@ -8011,7 +8043,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1">
       <c r="A52" s="94" t="s">
         <v>459</v>
       </c>
@@ -8021,7 +8053,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1">
       <c r="A53" s="94" t="s">
         <v>459</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$217</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="509">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2602,6 +2602,9 @@
   </si>
   <si>
     <t>WRKJOBNSCDE 是控制Job定時運行的工具, 由此溫故了相關的概念: Job是標準單位, Thread是其中最小粒度的單位, Job可在多個Queue中換來換去.</t>
+  </si>
+  <si>
+    <t>STRQSH (Qshell for AS400 with similar command line as unix system)</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2933,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3231,6 +3234,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3287,13 +3293,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3609,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3640,148 +3646,148 @@
     </row>
     <row r="3" spans="1:3" s="102" customFormat="1">
       <c r="A3" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B3" s="106" t="s">
+        <v>42474</v>
+      </c>
+      <c r="B3" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="C3" s="108" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1">
       <c r="A4" s="2">
         <v>42473</v>
       </c>
       <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A5" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="107" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1">
-      <c r="A5" s="2">
+    <row r="6" spans="1:3" s="102" customFormat="1">
+      <c r="A6" s="2">
         <v>42469</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B6" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A6" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A7" s="2">
         <v>42463</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A8" s="2">
         <v>42463</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1">
       <c r="A9" s="2">
         <v>42463</v>
       </c>
-      <c r="B9" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B9" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A10" s="2">
         <v>42463</v>
       </c>
-      <c r="B10" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B10" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A11" s="2">
         <v>42463</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B11" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A12" s="2">
         <v>42463</v>
       </c>
       <c r="B12" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A13" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B13" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C13" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A13" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="135">
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A14" s="2">
         <v>42462</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="240">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A15" s="2">
         <v>42462</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="120">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="240">
       <c r="A16" s="2">
         <v>42462</v>
       </c>
@@ -3789,362 +3795,362 @@
         <v>481</v>
       </c>
       <c r="C16" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A17" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A17" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="180">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A19" s="2">
         <v>42460</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="60">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="180">
       <c r="A20" s="2">
         <v>42460</v>
       </c>
       <c r="B20" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A21" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B21" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C21" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A21" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A22" s="2">
         <v>42459</v>
       </c>
       <c r="B22" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A23" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B23" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C23" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1">
-      <c r="A23" s="2">
+    <row r="24" spans="1:3" s="4" customFormat="1">
+      <c r="A24" s="2">
         <v>42458</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B24" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A24" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B24" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="60">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A25" s="2">
         <v>42456</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45">
+        <v>255</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
       <c r="A26" s="2">
         <v>42456</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45">
       <c r="A27" s="2">
         <v>42456</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>467</v>
+      <c r="B27" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>42456</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C29" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="77.25">
-      <c r="A29" s="79">
-        <v>42453</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="26.25">
+    <row r="30" spans="1:3" ht="77.25">
       <c r="A30" s="79">
         <v>42453</v>
       </c>
       <c r="B30" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26.25">
+      <c r="A31" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B31" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C31" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="39">
-      <c r="A31" s="79">
+    <row r="32" spans="1:3" ht="39">
+      <c r="A32" s="79">
         <v>42452</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B32" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C32" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="165">
-      <c r="A32" s="75">
+    <row r="33" spans="1:3" ht="165">
+      <c r="A33" s="75">
         <v>42451</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B33" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C33" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
-      <c r="A33" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B33" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="45">
       <c r="A34" s="2">
         <v>42451</v>
       </c>
-      <c r="B34" s="96" t="s">
-        <v>196</v>
+      <c r="B34" s="100" t="s">
+        <v>250</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="165">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" s="2">
         <v>42451</v>
       </c>
       <c r="B35" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="165">
+      <c r="A36" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B36" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="64.5">
-      <c r="A36" s="79">
-        <v>42451</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="64.5">
       <c r="A37" s="79">
+        <v>42451</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="64.5">
+      <c r="A38" s="79">
         <v>42447</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B38" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C38" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>42440</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B39" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C39" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="75">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3" ht="75">
+      <c r="A40" s="2">
         <v>42436</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B40" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="39">
-      <c r="A40" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="26.25">
+    <row r="41" spans="1:3" ht="39">
       <c r="A41" s="79">
         <v>42431</v>
       </c>
       <c r="B41" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="26.25">
+      <c r="A42" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B42" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="51.75">
-      <c r="A42" s="79">
+    <row r="43" spans="1:3" ht="51.75">
+      <c r="A43" s="79">
         <v>42430</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="26.25">
-      <c r="A43" s="79">
+    <row r="44" spans="1:3" ht="26.25">
+      <c r="A44" s="79">
         <v>42428</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B44" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C44" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
-      <c r="A44" s="2">
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="2">
         <v>42426</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B45" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C45" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="77.25">
-      <c r="A45" s="79">
+    <row r="46" spans="1:3" ht="77.25">
+      <c r="A46" s="79">
         <v>42426</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B46" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C46" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B46" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>42425</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="26.25">
-      <c r="A48" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B48" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="26.25">
       <c r="A49" s="79">
         <v>42425</v>
       </c>
@@ -4152,291 +4158,291 @@
         <v>277</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="79">
         <v>42425</v>
       </c>
       <c r="B50" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="26.25">
+      <c r="A51" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B51" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C51" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="165">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" ht="165">
+      <c r="A52" s="2">
         <v>42424</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B52" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="100" t="s">
+      <c r="C52" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
-      <c r="A52" s="2">
+    <row r="53" spans="1:3" ht="45">
+      <c r="A53" s="2">
         <v>42423</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B53" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="79">
+    <row r="54" spans="1:3">
+      <c r="A54" s="79">
         <v>42423</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B54" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C54" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="90">
-      <c r="A54" s="2">
+    <row r="55" spans="1:3" ht="90">
+      <c r="A55" s="2">
         <v>42422</v>
       </c>
-      <c r="B54" s="100" t="s">
+      <c r="B55" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="100" t="s">
+      <c r="C55" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="60">
-      <c r="A55" s="2">
+    <row r="56" spans="1:3" ht="60">
+      <c r="A56" s="2">
         <v>42419</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C56" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="195">
-      <c r="A56" s="2">
+    <row r="57" spans="1:3" ht="195">
+      <c r="A57" s="2">
         <v>42418</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45">
-      <c r="A57" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B57" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="75">
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="2">
         <v>42403</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>230</v>
+      <c r="B58" s="96" t="s">
+        <v>229</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="75">
       <c r="A59" s="2">
         <v>42403</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="C59" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="90">
       <c r="A60" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>196</v>
-      </c>
+        <v>42403</v>
+      </c>
+      <c r="B60" s="12"/>
       <c r="C60" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="90">
       <c r="A61" s="2">
         <v>42398</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45">
+      <c r="A62" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>42397</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B63" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
-      <c r="A63" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30">
+    <row r="64" spans="1:3" ht="45">
       <c r="A64" s="2">
         <v>42396</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30">
+      <c r="A65" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B65" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="128.25">
-      <c r="A65" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B65" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="64.5">
+    <row r="66" spans="1:3" ht="128.25">
       <c r="A66" s="79">
         <v>42386</v>
       </c>
       <c r="B66" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="64.5">
+      <c r="A67" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B67" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C67" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45">
-      <c r="A67" s="2">
+    <row r="68" spans="1:3" ht="45">
+      <c r="A68" s="2">
         <v>42384</v>
       </c>
-      <c r="B67" s="100" t="s">
+      <c r="B68" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C68" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="180">
-      <c r="A68" s="2">
+    <row r="69" spans="1:3" ht="180">
+      <c r="A69" s="2">
         <v>42382</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B69" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="64.5">
-      <c r="A69" s="79">
+    <row r="70" spans="1:3" ht="64.5">
+      <c r="A70" s="79">
         <v>42382</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B70" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C70" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30">
-      <c r="A70" s="2">
+    <row r="71" spans="1:3" ht="30">
+      <c r="A71" s="2">
         <v>42381</v>
       </c>
-      <c r="B70" s="100" t="s">
+      <c r="B71" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="100" t="s">
+      <c r="C71" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45">
-      <c r="A71" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="75">
+    <row r="72" spans="1:3" ht="45">
       <c r="A72" s="2">
         <v>42380</v>
       </c>
-      <c r="B72" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="180">
+      <c r="B72" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="75">
       <c r="A73" s="2">
         <v>42380</v>
       </c>
       <c r="B73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="180">
+      <c r="A74" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="217.5">
-      <c r="A74" s="79">
+    <row r="75" spans="1:3" ht="217.5">
+      <c r="A75" s="79">
         <v>42380</v>
       </c>
-      <c r="B74" s="78" t="s">
+      <c r="B75" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C75" s="78" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="102.75">
-      <c r="A75" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B75" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C75" s="78" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="102.75">
@@ -4444,24 +4450,24 @@
         <v>42378</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="141">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="102.75">
       <c r="A77" s="79">
         <v>42378</v>
       </c>
       <c r="B77" s="78" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C77" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="77.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="141">
       <c r="A78" s="79">
         <v>42378</v>
       </c>
@@ -4469,106 +4475,106 @@
         <v>298</v>
       </c>
       <c r="C78" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="102.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="77.25">
       <c r="A79" s="79">
         <v>42378</v>
       </c>
       <c r="B79" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="102.75">
+      <c r="A80" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B80" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C80" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60">
-      <c r="A80" s="2">
+    <row r="81" spans="1:3" ht="60">
+      <c r="A81" s="2">
         <v>42377</v>
       </c>
-      <c r="B80" s="100" t="s">
+      <c r="B81" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="100" t="s">
+      <c r="C81" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="77.25">
-      <c r="A81" s="79">
+    <row r="82" spans="1:3" ht="77.25">
+      <c r="A82" s="79">
         <v>42376</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B82" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C82" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45">
-      <c r="A82" s="2">
+    <row r="83" spans="1:3" ht="45">
+      <c r="A83" s="2">
         <v>42375</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="100" t="s">
+      <c r="C83" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>42369</v>
       </c>
-      <c r="B83" s="100" t="s">
+      <c r="B84" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="195">
-      <c r="A84" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="135">
+    <row r="85" spans="1:3" ht="195">
       <c r="A85" s="2">
         <v>42368</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="45">
+        <v>196</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="135">
       <c r="A86" s="2">
         <v>42368</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="45">
+      <c r="A87" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="30">
-      <c r="A87" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30">
@@ -4579,111 +4585,111 @@
         <v>49</v>
       </c>
       <c r="C88" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30">
+      <c r="A89" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="150">
-      <c r="A89" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30">
+    <row r="90" spans="1:3" ht="150">
       <c r="A90" s="2">
         <v>42361</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="270">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30">
       <c r="A91" s="2">
         <v>42361</v>
       </c>
-      <c r="B91" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30">
+      <c r="C91" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="270">
       <c r="A92" s="2">
         <v>42361</v>
       </c>
-      <c r="B92" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="B92" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="2">
         <v>42361</v>
       </c>
-      <c r="B93" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="225">
+      <c r="B93" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>42361</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="60">
+      <c r="C94" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="225">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
-      <c r="B95" s="100" t="s">
-        <v>49</v>
+      <c r="B95" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="90">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="60">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>196</v>
+      <c r="B96" s="100" t="s">
+        <v>49</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="60">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="90">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="60">
+      <c r="A98" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="40">
-        <v>42360</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4694,187 +4700,189 @@
         <v>195</v>
       </c>
       <c r="C99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="40">
+        <v>42360</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102.75">
-      <c r="A100" s="80">
+    <row r="101" spans="1:3" ht="102.75">
+      <c r="A101" s="80">
         <v>42360</v>
       </c>
-      <c r="B100" s="78" t="s">
+      <c r="B101" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C100" s="78" t="s">
+      <c r="C101" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30">
-      <c r="A101" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B101" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="30">
       <c r="A102" s="2">
         <v>42356</v>
       </c>
-      <c r="B102" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>181</v>
+      <c r="B102" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="100" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>42356</v>
       </c>
-      <c r="B103" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30">
+      <c r="B103" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>42356</v>
       </c>
-      <c r="B104" s="96"/>
+      <c r="B104" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="C104" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30">
+      <c r="A105" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B105" s="96"/>
+      <c r="C105" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60">
-      <c r="A105" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B105" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="60">
       <c r="A106" s="2">
         <v>42355</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="150">
+      <c r="B106" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="120">
+      <c r="C107" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="150">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
-      <c r="B108" s="100" t="s">
-        <v>168</v>
+      <c r="B108" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="120">
       <c r="A109" s="2">
         <v>42355</v>
       </c>
-      <c r="B109" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="B109" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30">
       <c r="A110" s="2">
         <v>42355</v>
       </c>
-      <c r="B110" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="75">
+      <c r="B110" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>43</v>
+      <c r="B111" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="135">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="75">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
-      <c r="B112" s="100" t="s">
-        <v>173</v>
+      <c r="B112" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="135">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
+      <c r="C113" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="75">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C115" s="30" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
-      <c r="B116" s="42"/>
       <c r="C116" s="30" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4883,74 +4891,74 @@
       </c>
       <c r="B117" s="42"/>
       <c r="C117" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B118" s="42"/>
+      <c r="C118" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="75">
-      <c r="A118" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
+    <row r="119" spans="1:3" ht="75">
       <c r="A119" s="2">
         <v>42352</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="75">
+      <c r="B119" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
       <c r="B120" s="26"/>
-      <c r="C120" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="75">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
       <c r="B121" s="26"/>
-      <c r="C121" s="32" t="s">
-        <v>69</v>
+      <c r="C121" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
-      <c r="B122" s="96"/>
-      <c r="C122" s="33" t="s">
-        <v>75</v>
+      <c r="B122" s="26"/>
+      <c r="C122" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>72</v>
+      <c r="B123" s="96"/>
+      <c r="C123" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="96"/>
+      <c r="B124" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C124" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4958,289 +4966,287 @@
         <v>42352</v>
       </c>
       <c r="B125" s="96"/>
-      <c r="C125" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30">
+      <c r="C125" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
-      <c r="B126" s="37"/>
+      <c r="B126" s="96"/>
       <c r="C126" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="30">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="96"/>
-      <c r="C127" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="45">
+      <c r="B127" s="37"/>
+      <c r="C127" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B128" s="96"/>
       <c r="C128" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="45">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="100"/>
-      <c r="C129" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30">
+      <c r="B129" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="45">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="75">
+      <c r="B130" s="100"/>
+      <c r="C130" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="45">
+      <c r="B131" s="38"/>
+      <c r="C131" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="75">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="B132" s="41"/>
       <c r="C132" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="45">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="45">
+      <c r="B133" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="30">
+      <c r="B134" s="43"/>
+      <c r="C134" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="45">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" s="46" t="s">
-        <v>86</v>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C136" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="B136" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
-      <c r="B137" s="100" t="s">
+      <c r="B137" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B138" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="48" t="s">
+      <c r="C138" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="135">
-      <c r="A138" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="60">
+    <row r="139" spans="1:6" ht="135">
       <c r="A139" s="2">
         <v>42349</v>
       </c>
-      <c r="B139" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="30">
+      <c r="B139" s="49"/>
+      <c r="C139" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="60">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
-      <c r="B140" s="96"/>
-      <c r="C140" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="120">
+      <c r="B140" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
-      <c r="B141" s="96" t="s">
-        <v>12</v>
-      </c>
+      <c r="B141" s="96"/>
       <c r="C141" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="150">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="120">
       <c r="A142" s="2">
         <v>42349</v>
       </c>
-      <c r="B142" s="52"/>
-      <c r="C142" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="30">
+      <c r="B142" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="150">
       <c r="A143" s="2">
         <v>42349</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="B143" s="52"/>
+      <c r="C143" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="55" t="s">
-        <v>61</v>
+      <c r="C144" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
-      <c r="B145" s="100"/>
-      <c r="C145" s="57" t="s">
-        <v>78</v>
+      <c r="B145" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58" t="s">
-        <v>62</v>
+      <c r="B146" s="100"/>
+      <c r="C146" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="59"/>
-      <c r="C147" s="59" t="s">
-        <v>70</v>
+      <c r="B147" s="58"/>
+      <c r="C147" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60" t="s">
-        <v>64</v>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
-      <c r="B149" s="61"/>
-      <c r="C149" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="60">
+      <c r="B149" s="60"/>
+      <c r="C149" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
-      <c r="B150" s="62" t="s">
+      <c r="B150" s="61"/>
+      <c r="C150" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="60">
+      <c r="A151" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B151" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C150" s="100" t="s">
+      <c r="C151" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="90">
-      <c r="A151" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B151" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="30">
+    <row r="152" spans="1:3" ht="90">
       <c r="A152" s="2">
         <v>42345</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="63" t="s">
-        <v>28</v>
+      <c r="B153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5250,162 +5256,162 @@
       <c r="B154" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="30">
+      <c r="C154" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="195">
+      <c r="C155" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="135">
+      <c r="B156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="195">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="75">
+      <c r="B157" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="135">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="69" t="s">
+      <c r="B158" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C158" s="68" t="s">
-        <v>32</v>
+      <c r="C158" s="67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="75">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="30">
+      <c r="B159" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="75">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
-      <c r="B160" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="B160" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="71" t="s">
-        <v>39</v>
+      <c r="B161" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C161" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="72" t="s">
+      <c r="B162" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C162" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="96" t="s">
+      <c r="B163" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C163" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="60">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="15" t="s">
-        <v>43</v>
+      <c r="B164" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C164" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="150">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="60">
+      <c r="B165" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="45">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C166" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="105">
+      <c r="B166" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="60">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="B167" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="105">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C168" s="96" t="s">
-        <v>50</v>
+      <c r="B168" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5416,10 +5422,10 @@
         <v>49</v>
       </c>
       <c r="C169" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
@@ -5427,54 +5433,54 @@
         <v>49</v>
       </c>
       <c r="C170" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="75">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
       <c r="B171" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="45">
+      <c r="A172" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B172" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C171" s="96" t="s">
+      <c r="C172" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="141">
-      <c r="A172" s="80">
+    <row r="173" spans="1:3" ht="141">
+      <c r="A173" s="80">
         <v>42345</v>
       </c>
-      <c r="B172" s="78" t="s">
+      <c r="B173" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C172" s="78" t="s">
+      <c r="C173" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="105">
-      <c r="A173" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="90">
+    <row r="174" spans="1:3" ht="105">
       <c r="A174" s="2">
         <v>42341</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="75">
+        <v>12</v>
+      </c>
+      <c r="C174" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="90">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
@@ -5482,10 +5488,10 @@
         <v>15</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="75">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>15</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30">
@@ -5504,10 +5510,10 @@
         <v>15</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30">
       <c r="A178" s="2">
         <v>42341</v>
       </c>
@@ -5515,32 +5521,32 @@
         <v>15</v>
       </c>
       <c r="C178" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="45">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="90">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="30">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
@@ -5548,10 +5554,10 @@
         <v>15</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="150">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5559,40 +5565,40 @@
         <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="75">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
-      <c r="B183" s="100" t="s">
-        <v>12</v>
+      <c r="B183" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="90">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
-      <c r="B184" s="96" t="s">
-        <v>15</v>
+      <c r="B184" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="60">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
       <c r="B185" s="96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5600,10 +5606,10 @@
         <v>42341</v>
       </c>
       <c r="B186" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C186" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5614,7 +5620,7 @@
         <v>15</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5624,8 +5630,8 @@
       <c r="B188" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>165</v>
+      <c r="C188" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5636,67 +5642,69 @@
         <v>15</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
       <c r="B190" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C190" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="60">
+      <c r="C190" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="75">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
       <c r="B191" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" s="96" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C191" s="100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="60">
       <c r="A192" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B192" s="96"/>
+        <v>42341</v>
+      </c>
+      <c r="B192" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="C192" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="60">
       <c r="A193" s="2">
         <v>42340</v>
       </c>
       <c r="B193" s="96"/>
       <c r="C193" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="45">
       <c r="A194" s="2">
         <v>42340</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="96"/>
+      <c r="C194" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="60">
+      <c r="A195" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="96" t="s">
+      <c r="C195" s="96" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="96" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5705,131 +5713,129 @@
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="64.5">
-      <c r="A197" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B197" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C197" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="26.25">
+    <row r="198" spans="1:3" ht="64.5">
       <c r="A198" s="80">
         <v>42334</v>
       </c>
       <c r="B198" s="78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C198" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="26.25">
       <c r="A199" s="80">
         <v>42334</v>
       </c>
       <c r="B199" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C199" s="78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="39">
+      <c r="A200" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B200" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C199" s="78" t="s">
+      <c r="C200" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="128.25">
-      <c r="A200" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B200" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C200" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="51.75">
+    <row r="201" spans="1:3" ht="128.25">
       <c r="A201" s="80">
         <v>42333</v>
       </c>
       <c r="B201" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C201" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="51.75">
+      <c r="A202" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B202" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C201" s="78" t="s">
+      <c r="C202" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="26.25">
-      <c r="A202" s="80">
+    <row r="203" spans="1:3" ht="26.25">
+      <c r="A203" s="80">
         <v>42331</v>
       </c>
-      <c r="B202" s="78" t="s">
+      <c r="B203" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C202" s="78" t="s">
+      <c r="C203" s="78" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="39">
-      <c r="A203" s="80">
-        <v>42329</v>
-      </c>
-      <c r="B203" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="C203" s="78" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="39">
       <c r="A204" s="80">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B204" s="78" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C204" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="26.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="39">
       <c r="A205" s="80">
         <v>42328</v>
       </c>
       <c r="B205" s="78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C205" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="115.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="26.25">
       <c r="A206" s="80">
         <v>42328</v>
       </c>
       <c r="B206" s="78" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C206" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="115.5">
       <c r="A207" s="80">
         <v>42328</v>
       </c>
       <c r="B207" s="78" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C207" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="153.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="90">
       <c r="A208" s="80">
         <v>42328</v>
       </c>
@@ -5837,32 +5843,32 @@
         <v>318</v>
       </c>
       <c r="C208" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="153.75">
+      <c r="A209" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B209" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C209" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="102.75">
-      <c r="A209" s="80">
+    <row r="210" spans="1:3" ht="102.75">
+      <c r="A210" s="80">
         <v>42324</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="90">
-      <c r="A210" s="80">
-        <v>42321</v>
-      </c>
-      <c r="B210" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C210" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="26.25">
+    <row r="211" spans="1:3" ht="90">
       <c r="A211" s="80">
         <v>42321</v>
       </c>
@@ -5870,72 +5876,83 @@
         <v>328</v>
       </c>
       <c r="C211" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="26.25">
+      <c r="A212" s="80">
+        <v>42321</v>
+      </c>
+      <c r="B212" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C212" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="77.25">
-      <c r="A212" s="79">
+    <row r="213" spans="1:3" ht="77.25">
+      <c r="A213" s="79">
         <v>42318</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B213" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C213" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="115.5">
-      <c r="A213" s="79">
+    <row r="214" spans="1:3" ht="115.5">
+      <c r="A214" s="79">
         <v>42311</v>
-      </c>
-      <c r="B213" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="77.25">
-      <c r="A214" s="79">
-        <v>42310</v>
       </c>
       <c r="B214" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C214" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="77.25">
+      <c r="A215" s="79">
+        <v>42310</v>
+      </c>
+      <c r="B215" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="51.75">
-      <c r="A215" s="79">
+    <row r="216" spans="1:3" ht="51.75">
+      <c r="A216" s="79">
         <v>42306</v>
       </c>
-      <c r="B215" s="78" t="s">
+      <c r="B216" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C215" s="78" t="s">
+      <c r="C216" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="100"/>
-      <c r="B216" s="100"/>
-      <c r="C216" s="100"/>
+    <row r="217" spans="1:3">
+      <c r="A217" s="100"/>
+      <c r="B217" s="100"/>
+      <c r="C217" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C216">
+  <autoFilter ref="A1:C217">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C188" r:id="rId1"/>
-    <hyperlink ref="C149" r:id="rId2"/>
-    <hyperlink ref="C189" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C189" r:id="rId1"/>
+    <hyperlink ref="C150" r:id="rId2"/>
+    <hyperlink ref="C190" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -5954,16 +5971,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$218</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="508">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2602,9 +2602,6 @@
   </si>
   <si>
     <t>WRKJOBNSCDE 是控制Job定時運行的工具, 由此溫故了相關的概念: Job是標準單位, Thread是其中最小粒度的單位, Job可在多個Queue中換來換去.</t>
-  </si>
-  <si>
-    <t>STRQSH (Qshell for AS400 with similar command line as unix system)</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2930,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3234,6 +3231,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3293,13 +3293,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3615,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3645,160 +3645,148 @@
       <c r="C2" s="100"/>
     </row>
     <row r="3" spans="1:3" s="102" customFormat="1">
-      <c r="A3" s="2">
-        <v>42474</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>508</v>
-      </c>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
     </row>
     <row r="4" spans="1:3" s="102" customFormat="1">
-      <c r="A4" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1">
       <c r="A5" s="2">
         <v>42473</v>
       </c>
       <c r="B5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A6" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="107" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1">
-      <c r="A6" s="2">
+    <row r="7" spans="1:3" s="102" customFormat="1">
+      <c r="A7" s="2">
         <v>42469</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B7" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A7" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A8" s="2">
         <v>42463</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A9" s="2">
         <v>42463</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1">
       <c r="A10" s="2">
         <v>42463</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B10" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A11" s="2">
         <v>42463</v>
       </c>
-      <c r="B11" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B11" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A12" s="2">
         <v>42463</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B12" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
       <c r="B13" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A14" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B14" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C14" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A14" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="135">
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A15" s="2">
         <v>42462</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="240">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A16" s="2">
         <v>42462</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="120">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="240">
       <c r="A17" s="2">
         <v>42462</v>
       </c>
@@ -3806,362 +3794,362 @@
         <v>481</v>
       </c>
       <c r="C17" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A18" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A18" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A19" s="2">
         <v>42460</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="180">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A20" s="2">
         <v>42460</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="60">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="180">
       <c r="A21" s="2">
         <v>42460</v>
       </c>
       <c r="B21" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A22" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B22" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C22" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A22" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A23" s="2">
         <v>42459</v>
       </c>
       <c r="B23" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A24" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B24" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C24" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1">
-      <c r="A24" s="2">
+    <row r="25" spans="1:3" s="4" customFormat="1">
+      <c r="A25" s="2">
         <v>42458</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B25" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A25" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A26" s="2">
         <v>42456</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45">
+        <v>255</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" s="2">
         <v>42456</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45">
       <c r="A28" s="2">
         <v>42456</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>467</v>
+      <c r="B28" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>42456</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45">
+      <c r="A30" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C30" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="77.25">
-      <c r="A30" s="79">
-        <v>42453</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="26.25">
+    <row r="31" spans="1:3" ht="77.25">
       <c r="A31" s="79">
         <v>42453</v>
       </c>
       <c r="B31" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26.25">
+      <c r="A32" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B32" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C32" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="39">
-      <c r="A32" s="79">
+    <row r="33" spans="1:3" ht="39">
+      <c r="A33" s="79">
         <v>42452</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B33" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C33" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165">
-      <c r="A33" s="75">
+    <row r="34" spans="1:3" ht="165">
+      <c r="A34" s="75">
         <v>42451</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B34" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C34" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45">
-      <c r="A34" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="45">
       <c r="A35" s="2">
         <v>42451</v>
       </c>
-      <c r="B35" s="96" t="s">
-        <v>196</v>
+      <c r="B35" s="100" t="s">
+        <v>250</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="165">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="2">
         <v>42451</v>
       </c>
       <c r="B36" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="165">
+      <c r="A37" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B37" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="64.5">
-      <c r="A37" s="79">
-        <v>42451</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="64.5">
       <c r="A38" s="79">
+        <v>42451</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="64.5">
+      <c r="A39" s="79">
         <v>42447</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B39" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C39" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>42440</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B40" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C40" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="75">
-      <c r="A40" s="2">
+    <row r="41" spans="1:3" ht="75">
+      <c r="A41" s="2">
         <v>42436</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B41" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="39">
-      <c r="A41" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="26.25">
+    <row r="42" spans="1:3" ht="39">
       <c r="A42" s="79">
         <v>42431</v>
       </c>
       <c r="B42" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="26.25">
+      <c r="A43" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B43" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="51.75">
-      <c r="A43" s="79">
+    <row r="44" spans="1:3" ht="51.75">
+      <c r="A44" s="79">
         <v>42430</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B44" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C44" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="26.25">
-      <c r="A44" s="79">
+    <row r="45" spans="1:3" ht="26.25">
+      <c r="A45" s="79">
         <v>42428</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B45" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C45" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="2">
         <v>42426</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B46" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C46" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="77.25">
-      <c r="A46" s="79">
+    <row r="47" spans="1:3" ht="77.25">
+      <c r="A47" s="79">
         <v>42426</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B47" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C47" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B47" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>42425</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="26.25">
-      <c r="A49" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B49" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="26.25">
       <c r="A50" s="79">
         <v>42425</v>
       </c>
@@ -4169,291 +4157,291 @@
         <v>277</v>
       </c>
       <c r="C50" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="79">
         <v>42425</v>
       </c>
       <c r="B51" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26.25">
+      <c r="A52" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B52" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C52" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="165">
-      <c r="A52" s="2">
+    <row r="53" spans="1:3" ht="165">
+      <c r="A53" s="2">
         <v>42424</v>
       </c>
-      <c r="B52" s="100" t="s">
+      <c r="B53" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="100" t="s">
+      <c r="C53" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45">
-      <c r="A53" s="2">
+    <row r="54" spans="1:3" ht="45">
+      <c r="A54" s="2">
         <v>42423</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B54" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="79">
+    <row r="55" spans="1:3">
+      <c r="A55" s="79">
         <v>42423</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B55" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C55" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="90">
-      <c r="A55" s="2">
+    <row r="56" spans="1:3" ht="90">
+      <c r="A56" s="2">
         <v>42422</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="B56" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C56" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="60">
-      <c r="A56" s="2">
+    <row r="57" spans="1:3" ht="60">
+      <c r="A57" s="2">
         <v>42419</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C57" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="195">
-      <c r="A57" s="2">
+    <row r="58" spans="1:3" ht="195">
+      <c r="A58" s="2">
         <v>42418</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45">
-      <c r="A58" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B58" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="75">
+    <row r="59" spans="1:3" ht="45">
       <c r="A59" s="2">
         <v>42403</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>230</v>
+      <c r="B59" s="96" t="s">
+        <v>229</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="75">
       <c r="A60" s="2">
         <v>42403</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="C60" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="90">
       <c r="A61" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>196</v>
-      </c>
+        <v>42403</v>
+      </c>
+      <c r="B61" s="12"/>
       <c r="C61" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="90">
       <c r="A62" s="2">
         <v>42398</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>42397</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B64" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45">
-      <c r="A64" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30">
+    <row r="65" spans="1:3" ht="45">
       <c r="A65" s="2">
         <v>42396</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30">
+      <c r="A66" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B66" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="128.25">
-      <c r="A66" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B66" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="64.5">
+    <row r="67" spans="1:3" ht="128.25">
       <c r="A67" s="79">
         <v>42386</v>
       </c>
       <c r="B67" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="64.5">
+      <c r="A68" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B68" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C68" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45">
-      <c r="A68" s="2">
+    <row r="69" spans="1:3" ht="45">
+      <c r="A69" s="2">
         <v>42384</v>
       </c>
-      <c r="B68" s="100" t="s">
+      <c r="B69" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C69" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="180">
-      <c r="A69" s="2">
+    <row r="70" spans="1:3" ht="180">
+      <c r="A70" s="2">
         <v>42382</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B70" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="64.5">
-      <c r="A70" s="79">
+    <row r="71" spans="1:3" ht="64.5">
+      <c r="A71" s="79">
         <v>42382</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B71" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C71" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30">
-      <c r="A71" s="2">
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="2">
         <v>42381</v>
       </c>
-      <c r="B71" s="100" t="s">
+      <c r="B72" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="C72" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45">
-      <c r="A72" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="75">
+    <row r="73" spans="1:3" ht="45">
       <c r="A73" s="2">
         <v>42380</v>
       </c>
-      <c r="B73" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="180">
+      <c r="B73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="75">
       <c r="A74" s="2">
         <v>42380</v>
       </c>
       <c r="B74" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="180">
+      <c r="A75" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="217.5">
-      <c r="A75" s="79">
+    <row r="76" spans="1:3" ht="217.5">
+      <c r="A76" s="79">
         <v>42380</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B76" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C76" s="78" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="102.75">
-      <c r="A76" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B76" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="102.75">
@@ -4461,24 +4449,24 @@
         <v>42378</v>
       </c>
       <c r="B77" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C77" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="141">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="102.75">
       <c r="A78" s="79">
         <v>42378</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C78" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="77.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="141">
       <c r="A79" s="79">
         <v>42378</v>
       </c>
@@ -4486,106 +4474,106 @@
         <v>298</v>
       </c>
       <c r="C79" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="102.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="77.25">
       <c r="A80" s="79">
         <v>42378</v>
       </c>
       <c r="B80" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="102.75">
+      <c r="A81" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B81" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C81" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="60">
-      <c r="A81" s="2">
+    <row r="82" spans="1:3" ht="60">
+      <c r="A82" s="2">
         <v>42377</v>
       </c>
-      <c r="B81" s="100" t="s">
+      <c r="B82" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="C82" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="77.25">
-      <c r="A82" s="79">
+    <row r="83" spans="1:3" ht="77.25">
+      <c r="A83" s="79">
         <v>42376</v>
       </c>
-      <c r="B82" s="78" t="s">
+      <c r="B83" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C83" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45">
-      <c r="A83" s="2">
+    <row r="84" spans="1:3" ht="45">
+      <c r="A84" s="2">
         <v>42375</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="100" t="s">
+      <c r="C84" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>42369</v>
       </c>
-      <c r="B84" s="100" t="s">
+      <c r="B85" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="195">
-      <c r="A85" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="135">
+    <row r="86" spans="1:3" ht="195">
       <c r="A86" s="2">
         <v>42368</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="45">
+        <v>196</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="135">
       <c r="A87" s="2">
         <v>42368</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45">
+      <c r="A88" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30">
-      <c r="A88" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30">
@@ -4596,111 +4584,111 @@
         <v>49</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
+      <c r="A90" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="150">
-      <c r="A90" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
+    <row r="91" spans="1:3" ht="150">
       <c r="A91" s="2">
         <v>42361</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="270">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30">
       <c r="A92" s="2">
         <v>42361</v>
       </c>
-      <c r="B92" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30">
+      <c r="C92" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="270">
       <c r="A93" s="2">
         <v>42361</v>
       </c>
-      <c r="B93" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="B93" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
       <c r="A94" s="2">
         <v>42361</v>
       </c>
-      <c r="B94" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="225">
+      <c r="B94" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="60">
+      <c r="C95" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="225">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
-      <c r="B96" s="100" t="s">
-        <v>49</v>
+      <c r="B96" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="90">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="60">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>196</v>
+      <c r="B97" s="100" t="s">
+        <v>49</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="60">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="90">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60">
+      <c r="A99" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="40">
-        <v>42360</v>
-      </c>
-      <c r="B99" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4711,187 +4699,189 @@
         <v>195</v>
       </c>
       <c r="C100" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="40">
+        <v>42360</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="102.75">
-      <c r="A101" s="80">
+    <row r="102" spans="1:3" ht="102.75">
+      <c r="A102" s="80">
         <v>42360</v>
       </c>
-      <c r="B101" s="78" t="s">
+      <c r="B102" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="78" t="s">
+      <c r="C102" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30">
-      <c r="A102" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B102" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C102" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="30">
       <c r="A103" s="2">
         <v>42356</v>
       </c>
-      <c r="B103" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>181</v>
+      <c r="B103" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="100" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>42356</v>
       </c>
-      <c r="B104" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30">
+      <c r="B104" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>42356</v>
       </c>
-      <c r="B105" s="96"/>
+      <c r="B105" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="C105" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30">
+      <c r="A106" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B106" s="96"/>
+      <c r="C106" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="60">
-      <c r="A106" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B106" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="60">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="150">
+      <c r="B107" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="120">
+      <c r="C108" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="150">
       <c r="A109" s="2">
         <v>42355</v>
       </c>
-      <c r="B109" s="100" t="s">
-        <v>168</v>
+      <c r="B109" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="120">
       <c r="A110" s="2">
         <v>42355</v>
       </c>
-      <c r="B110" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="B110" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
-      <c r="B111" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="75">
+      <c r="B111" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>43</v>
+      <c r="B112" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="135">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="75">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
-      <c r="B113" s="100" t="s">
-        <v>173</v>
+      <c r="B113" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="135">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C114" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+      <c r="C114" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="75">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C115" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="C115" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C116" s="30" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
-      <c r="B117" s="42"/>
       <c r="C117" s="30" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4900,74 +4890,74 @@
       </c>
       <c r="B118" s="42"/>
       <c r="C118" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B119" s="42"/>
+      <c r="C119" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="75">
-      <c r="A119" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B119" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" ht="75">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
-      <c r="B120" s="26"/>
-      <c r="C120" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="75">
+      <c r="B120" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
       <c r="B121" s="26"/>
-      <c r="C121" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="75">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
       <c r="B122" s="26"/>
-      <c r="C122" s="32" t="s">
-        <v>69</v>
+      <c r="C122" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
-      <c r="B123" s="96"/>
-      <c r="C123" s="33" t="s">
-        <v>75</v>
+      <c r="B123" s="26"/>
+      <c r="C123" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>72</v>
+      <c r="B124" s="96"/>
+      <c r="C124" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
-      <c r="B125" s="96"/>
+      <c r="B125" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C125" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4975,289 +4965,287 @@
         <v>42352</v>
       </c>
       <c r="B126" s="96"/>
-      <c r="C126" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="30">
+      <c r="C126" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="37"/>
+      <c r="B127" s="96"/>
       <c r="C127" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="96"/>
-      <c r="C128" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="45">
+      <c r="B128" s="37"/>
+      <c r="C128" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B129" s="96"/>
       <c r="C129" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="45">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="100"/>
-      <c r="C130" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30">
+      <c r="B130" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="45">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="38"/>
-      <c r="C131" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F131" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="75">
+      <c r="B131" s="100"/>
+      <c r="C131" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="45">
+      <c r="B132" s="38"/>
+      <c r="C132" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="75">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="B133" s="41"/>
       <c r="C133" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="45">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="45">
+      <c r="B134" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30">
+      <c r="B135" s="43"/>
+      <c r="C135" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="45">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="46" t="s">
-        <v>86</v>
+      <c r="B136" s="44"/>
+      <c r="C136" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
-      <c r="B137" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="B137" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
-      <c r="B138" s="100" t="s">
+      <c r="B138" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B139" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C138" s="48" t="s">
+      <c r="C139" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="135">
-      <c r="A139" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="60">
+    <row r="140" spans="1:6" ht="135">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
-      <c r="B140" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="30">
+      <c r="B140" s="49"/>
+      <c r="C140" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="60">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
-      <c r="B141" s="96"/>
-      <c r="C141" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="120">
+      <c r="B141" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2">
         <v>42349</v>
       </c>
-      <c r="B142" s="96" t="s">
-        <v>12</v>
-      </c>
+      <c r="B142" s="96"/>
       <c r="C142" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="150">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="120">
       <c r="A143" s="2">
         <v>42349</v>
       </c>
-      <c r="B143" s="52"/>
-      <c r="C143" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="30">
+      <c r="B143" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="150">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="B144" s="52"/>
+      <c r="C144" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
       <c r="B145" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="55" t="s">
-        <v>61</v>
+      <c r="C145" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="100"/>
-      <c r="C146" s="57" t="s">
-        <v>78</v>
+      <c r="B146" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58" t="s">
-        <v>62</v>
+      <c r="B147" s="100"/>
+      <c r="C147" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="59"/>
-      <c r="C148" s="59" t="s">
-        <v>70</v>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60" t="s">
-        <v>64</v>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
-      <c r="B150" s="61"/>
-      <c r="C150" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="60">
+      <c r="B150" s="60"/>
+      <c r="C150" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
-      <c r="B151" s="62" t="s">
+      <c r="B151" s="61"/>
+      <c r="C151" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="60">
+      <c r="A152" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B152" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C151" s="100" t="s">
+      <c r="C152" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="90">
-      <c r="A152" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B152" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="30">
+    <row r="153" spans="1:3" ht="90">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="63" t="s">
-        <v>28</v>
+      <c r="B154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5267,162 +5255,162 @@
       <c r="B155" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="30">
+      <c r="C155" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="195">
+      <c r="C156" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="135">
+      <c r="B157" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="195">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="75">
+      <c r="B158" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="135">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="69" t="s">
+      <c r="B159" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="68" t="s">
-        <v>32</v>
+      <c r="C159" s="67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="75">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30">
+      <c r="B160" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="75">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="B161" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="71" t="s">
-        <v>39</v>
+      <c r="B162" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C162" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="72" t="s">
+      <c r="B163" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C163" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="96" t="s">
+      <c r="B164" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C164" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="60">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="15" t="s">
-        <v>43</v>
+      <c r="B165" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C165" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="150">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="60">
+      <c r="B166" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="45">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C167" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="105">
+      <c r="B167" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="60">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="B168" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="105">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
-      <c r="B169" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C169" s="96" t="s">
-        <v>50</v>
+      <c r="B169" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5433,10 +5421,10 @@
         <v>49</v>
       </c>
       <c r="C170" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
@@ -5444,54 +5432,54 @@
         <v>49</v>
       </c>
       <c r="C171" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="75">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
       <c r="B172" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C172" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="45">
+      <c r="A173" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B173" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C172" s="96" t="s">
+      <c r="C173" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="141">
-      <c r="A173" s="80">
+    <row r="174" spans="1:3" ht="141">
+      <c r="A174" s="80">
         <v>42345</v>
       </c>
-      <c r="B173" s="78" t="s">
+      <c r="B174" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C173" s="78" t="s">
+      <c r="C174" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="105">
-      <c r="A174" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="90">
+    <row r="175" spans="1:3" ht="105">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="75">
+        <v>12</v>
+      </c>
+      <c r="C175" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="90">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
@@ -5499,10 +5487,10 @@
         <v>15</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="75">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
@@ -5510,7 +5498,7 @@
         <v>15</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30">
@@ -5521,10 +5509,10 @@
         <v>15</v>
       </c>
       <c r="C178" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
@@ -5532,32 +5520,32 @@
         <v>15</v>
       </c>
       <c r="C179" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="45">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="90">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5565,10 +5553,10 @@
         <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="150">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5576,40 +5564,40 @@
         <v>15</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="75">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
-      <c r="B184" s="100" t="s">
-        <v>12</v>
+      <c r="B184" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="90">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
-      <c r="B185" s="96" t="s">
-        <v>15</v>
+      <c r="B185" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="60">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
       <c r="B186" s="96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5617,10 +5605,10 @@
         <v>42341</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C187" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5631,7 +5619,7 @@
         <v>15</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5641,8 +5629,8 @@
       <c r="B189" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>165</v>
+      <c r="C189" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5653,67 +5641,69 @@
         <v>15</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
       <c r="B191" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="60">
+      <c r="C191" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="75">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
       <c r="B192" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="96" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C192" s="100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="60">
       <c r="A193" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B193" s="96"/>
+        <v>42341</v>
+      </c>
+      <c r="B193" s="96" t="s">
+        <v>12</v>
+      </c>
       <c r="C193" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="60">
       <c r="A194" s="2">
         <v>42340</v>
       </c>
       <c r="B194" s="96"/>
       <c r="C194" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="45">
       <c r="A195" s="2">
         <v>42340</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="96"/>
+      <c r="C195" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="60">
+      <c r="A196" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C195" s="96" t="s">
+      <c r="C196" s="96" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="96" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5722,131 +5712,129 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="64.5">
-      <c r="A198" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B198" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C198" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="26.25">
+    <row r="199" spans="1:3" ht="64.5">
       <c r="A199" s="80">
         <v>42334</v>
       </c>
       <c r="B199" s="78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C199" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="26.25">
       <c r="A200" s="80">
         <v>42334</v>
       </c>
       <c r="B200" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C200" s="78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="39">
+      <c r="A201" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B201" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C200" s="78" t="s">
+      <c r="C201" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="128.25">
-      <c r="A201" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B201" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C201" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="51.75">
+    <row r="202" spans="1:3" ht="128.25">
       <c r="A202" s="80">
         <v>42333</v>
       </c>
       <c r="B202" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="51.75">
+      <c r="A203" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B203" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C202" s="78" t="s">
+      <c r="C203" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="26.25">
-      <c r="A203" s="80">
+    <row r="204" spans="1:3" ht="26.25">
+      <c r="A204" s="80">
         <v>42331</v>
       </c>
-      <c r="B203" s="78" t="s">
+      <c r="B204" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C203" s="78" t="s">
+      <c r="C204" s="78" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="39">
-      <c r="A204" s="80">
-        <v>42329</v>
-      </c>
-      <c r="B204" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="C204" s="78" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="39">
       <c r="A205" s="80">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B205" s="78" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C205" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="26.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="39">
       <c r="A206" s="80">
         <v>42328</v>
       </c>
       <c r="B206" s="78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C206" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="115.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="26.25">
       <c r="A207" s="80">
         <v>42328</v>
       </c>
       <c r="B207" s="78" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C207" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="115.5">
       <c r="A208" s="80">
         <v>42328</v>
       </c>
       <c r="B208" s="78" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C208" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="153.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="90">
       <c r="A209" s="80">
         <v>42328</v>
       </c>
@@ -5854,32 +5842,32 @@
         <v>318</v>
       </c>
       <c r="C209" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="153.75">
+      <c r="A210" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B210" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C210" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="102.75">
-      <c r="A210" s="80">
+    <row r="211" spans="1:3" ht="102.75">
+      <c r="A211" s="80">
         <v>42324</v>
       </c>
-      <c r="B210" s="78" t="s">
+      <c r="B211" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C211" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="90">
-      <c r="A211" s="80">
-        <v>42321</v>
-      </c>
-      <c r="B211" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C211" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="26.25">
+    <row r="212" spans="1:3" ht="90">
       <c r="A212" s="80">
         <v>42321</v>
       </c>
@@ -5887,72 +5875,83 @@
         <v>328</v>
       </c>
       <c r="C212" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="26.25">
+      <c r="A213" s="80">
+        <v>42321</v>
+      </c>
+      <c r="B213" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C213" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="77.25">
-      <c r="A213" s="79">
+    <row r="214" spans="1:3" ht="77.25">
+      <c r="A214" s="79">
         <v>42318</v>
       </c>
-      <c r="B213" s="78" t="s">
+      <c r="B214" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C213" s="78" t="s">
+      <c r="C214" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="115.5">
-      <c r="A214" s="79">
+    <row r="215" spans="1:3" ht="115.5">
+      <c r="A215" s="79">
         <v>42311</v>
-      </c>
-      <c r="B214" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="77.25">
-      <c r="A215" s="79">
-        <v>42310</v>
       </c>
       <c r="B215" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C215" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="77.25">
+      <c r="A216" s="79">
+        <v>42310</v>
+      </c>
+      <c r="B216" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="51.75">
-      <c r="A216" s="79">
+    <row r="217" spans="1:3" ht="51.75">
+      <c r="A217" s="79">
         <v>42306</v>
       </c>
-      <c r="B216" s="78" t="s">
+      <c r="B217" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C216" s="78" t="s">
+      <c r="C217" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="100"/>
-      <c r="B217" s="100"/>
-      <c r="C217" s="100"/>
+    <row r="218" spans="1:3">
+      <c r="A218" s="100"/>
+      <c r="B218" s="100"/>
+      <c r="C218" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C217">
+  <autoFilter ref="A1:C218">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C189" r:id="rId1"/>
-    <hyperlink ref="C150" r:id="rId2"/>
-    <hyperlink ref="C190" r:id="rId3"/>
-    <hyperlink ref="C24" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C190" r:id="rId1"/>
+    <hyperlink ref="C151" r:id="rId2"/>
+    <hyperlink ref="C191" r:id="rId3"/>
+    <hyperlink ref="C25" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -5971,16 +5970,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="512">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2503,7 +2503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2603,16 +2603,39 @@
   <si>
     <t>WRKJOBNSCDE 是控制Job定時運行的工具, 由此溫故了相關的概念: Job是標準單位, Thread是其中最小粒度的單位, Job可在多個Queue中換來換去.</t>
   </si>
+  <si>
+    <t>photoshop</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雖然不算code, 也是學習的一部份, 更是網站建設的一個工具. 如何調彩圖為單色圖? 在色相/飽和度中, 選著色, 然後調整其他參數即可.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安裝Nginx的步驟:
+1. 下載nginx.org上的nginx_signing.key, 並加到apt-key 工具中
+2. sudo apt-get nginx (此處為pre-build package installation)
+3. 使用sudo service nginx start/stop/reload
+其相關目錄如下:
+/etc/nginx/ 放置設置文檔
+/usr/sbin/nginx 軟件的不變程式
+/usr/share/nginx 預設放置網站之處 (也可以通過設定放到別處啦)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2620,7 +2643,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2628,7 +2651,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2642,21 +2665,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2664,7 +2687,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2672,27 +2695,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2782,7 +2805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2790,7 +2813,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3258,8 +3281,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3300,7 +3323,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>102264</xdr:rowOff>
+      <xdr:rowOff>102265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3331,7 +3354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3405,6 +3428,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3439,6 +3463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3614,21 +3639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3639,22 +3664,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1">
+    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1">
+    <row r="3" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42477</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42477</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42473</v>
       </c>
@@ -3665,7 +3702,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="45">
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42473</v>
       </c>
@@ -3676,7 +3713,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1">
+    <row r="7" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42469</v>
       </c>
@@ -3687,7 +3724,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="75">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42463</v>
       </c>
@@ -3698,7 +3735,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42463</v>
       </c>
@@ -3709,7 +3746,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="102" customFormat="1">
+    <row r="10" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42463</v>
       </c>
@@ -3720,7 +3757,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="150">
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42463</v>
       </c>
@@ -3731,7 +3768,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="90">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42463</v>
       </c>
@@ -3742,7 +3779,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="30">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
@@ -3753,7 +3790,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42463</v>
       </c>
@@ -3764,7 +3801,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="150">
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42462</v>
       </c>
@@ -3775,7 +3812,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="135">
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42462</v>
       </c>
@@ -3786,7 +3823,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="240">
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42462</v>
       </c>
@@ -3797,7 +3834,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="120">
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42462</v>
       </c>
@@ -3808,7 +3845,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="120">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42460</v>
       </c>
@@ -3819,7 +3856,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42460</v>
       </c>
@@ -3830,7 +3867,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="180">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42460</v>
       </c>
@@ -3841,7 +3878,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42460</v>
       </c>
@@ -3852,7 +3889,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="105">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42459</v>
       </c>
@@ -3863,7 +3900,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42459</v>
       </c>
@@ -3874,7 +3911,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42458</v>
       </c>
@@ -3885,7 +3922,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="105">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42456</v>
       </c>
@@ -3896,7 +3933,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42456</v>
       </c>
@@ -3907,7 +3944,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42456</v>
       </c>
@@ -3918,7 +3955,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42456</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42456</v>
       </c>
@@ -3940,7 +3977,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="77.25">
+    <row r="31" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="79">
         <v>42453</v>
       </c>
@@ -3951,7 +3988,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26.25">
+    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="79">
         <v>42453</v>
       </c>
@@ -3962,7 +3999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="39">
+    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="79">
         <v>42452</v>
       </c>
@@ -3973,7 +4010,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="165">
+    <row r="34" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
         <v>42451</v>
       </c>
@@ -3984,7 +4021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42451</v>
       </c>
@@ -3995,7 +4032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42451</v>
       </c>
@@ -4006,7 +4043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="165">
+    <row r="37" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42451</v>
       </c>
@@ -4017,7 +4054,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="64.5">
+    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
         <v>42451</v>
       </c>
@@ -4028,7 +4065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="64.5">
+    <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A39" s="79">
         <v>42447</v>
       </c>
@@ -4039,7 +4076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42440</v>
       </c>
@@ -4050,7 +4087,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="75">
+    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42436</v>
       </c>
@@ -4061,7 +4098,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="39">
+    <row r="42" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="79">
         <v>42431</v>
       </c>
@@ -4072,7 +4109,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="26.25">
+    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="79">
         <v>42431</v>
       </c>
@@ -4083,7 +4120,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="51.75">
+    <row r="44" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A44" s="79">
         <v>42430</v>
       </c>
@@ -4094,7 +4131,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25">
+    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="79">
         <v>42428</v>
       </c>
@@ -4105,7 +4142,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42426</v>
       </c>
@@ -4116,7 +4153,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="77.25">
+    <row r="47" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
         <v>42426</v>
       </c>
@@ -4127,7 +4164,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42425</v>
       </c>
@@ -4138,7 +4175,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30">
+    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42425</v>
       </c>
@@ -4149,7 +4186,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25">
+    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="79">
         <v>42425</v>
       </c>
@@ -4160,7 +4197,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="79">
         <v>42425</v>
       </c>
@@ -4171,7 +4208,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="26.25">
+    <row r="52" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="79">
         <v>42425</v>
       </c>
@@ -4182,7 +4219,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="165">
+    <row r="53" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42424</v>
       </c>
@@ -4193,7 +4230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45">
+    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42423</v>
       </c>
@@ -4204,7 +4241,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="79">
         <v>42423</v>
       </c>
@@ -4215,7 +4252,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="90">
+    <row r="56" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42422</v>
       </c>
@@ -4226,7 +4263,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="60">
+    <row r="57" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42419</v>
       </c>
@@ -4237,7 +4274,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="195">
+    <row r="58" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42418</v>
       </c>
@@ -4248,7 +4285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45">
+    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42403</v>
       </c>
@@ -4259,7 +4296,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="75">
+    <row r="60" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42403</v>
       </c>
@@ -4270,7 +4307,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="90">
+    <row r="61" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42403</v>
       </c>
@@ -4279,7 +4316,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="90">
+    <row r="62" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42398</v>
       </c>
@@ -4290,7 +4327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
+    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42398</v>
       </c>
@@ -4301,7 +4338,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42397</v>
       </c>
@@ -4312,7 +4349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45">
+    <row r="65" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42396</v>
       </c>
@@ -4323,7 +4360,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30">
+    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42396</v>
       </c>
@@ -4334,7 +4371,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="128.25">
+    <row r="67" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A67" s="79">
         <v>42386</v>
       </c>
@@ -4345,7 +4382,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="64.5">
+    <row r="68" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A68" s="79">
         <v>42386</v>
       </c>
@@ -4356,7 +4393,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45">
+    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42384</v>
       </c>
@@ -4367,7 +4404,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="180">
+    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42382</v>
       </c>
@@ -4378,7 +4415,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="64.5">
+    <row r="71" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A71" s="79">
         <v>42382</v>
       </c>
@@ -4389,7 +4426,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30">
+    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42381</v>
       </c>
@@ -4400,7 +4437,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45">
+    <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42380</v>
       </c>
@@ -4411,7 +4448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="75">
+    <row r="74" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42380</v>
       </c>
@@ -4422,7 +4459,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="180">
+    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42380</v>
       </c>
@@ -4433,7 +4470,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="217.5">
+    <row r="76" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A76" s="79">
         <v>42380</v>
       </c>
@@ -4444,7 +4481,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="102.75">
+    <row r="77" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A77" s="79">
         <v>42378</v>
       </c>
@@ -4455,7 +4492,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="102.75">
+    <row r="78" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A78" s="79">
         <v>42378</v>
       </c>
@@ -4466,7 +4503,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="141">
+    <row r="79" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A79" s="79">
         <v>42378</v>
       </c>
@@ -4477,7 +4514,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="77.25">
+    <row r="80" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A80" s="79">
         <v>42378</v>
       </c>
@@ -4488,7 +4525,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102.75">
+    <row r="81" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A81" s="79">
         <v>42378</v>
       </c>
@@ -4499,7 +4536,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="60">
+    <row r="82" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42377</v>
       </c>
@@ -4510,7 +4547,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="77.25">
+    <row r="83" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A83" s="79">
         <v>42376</v>
       </c>
@@ -4521,7 +4558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="45">
+    <row r="84" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42375</v>
       </c>
@@ -4532,7 +4569,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42369</v>
       </c>
@@ -4543,7 +4580,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="195">
+    <row r="86" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42368</v>
       </c>
@@ -4554,7 +4591,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="135">
+    <row r="87" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42368</v>
       </c>
@@ -4565,7 +4602,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45">
+    <row r="88" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42368</v>
       </c>
@@ -4576,7 +4613,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42366</v>
       </c>
@@ -4587,7 +4624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30">
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42366</v>
       </c>
@@ -4598,7 +4635,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="150">
+    <row r="91" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42361</v>
       </c>
@@ -4606,7 +4643,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30">
+    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42361</v>
       </c>
@@ -4614,7 +4651,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="270">
+    <row r="93" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42361</v>
       </c>
@@ -4625,7 +4662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30">
+    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42361</v>
       </c>
@@ -4636,7 +4673,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
@@ -4647,7 +4684,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="225">
+    <row r="96" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
@@ -4658,7 +4695,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="60">
+    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
@@ -4669,7 +4706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="90">
+    <row r="98" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
@@ -4680,7 +4717,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="60">
+    <row r="99" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
@@ -4691,7 +4728,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>42360</v>
       </c>
@@ -4702,7 +4739,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>42360</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="102.75">
+    <row r="102" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A102" s="80">
         <v>42360</v>
       </c>
@@ -4724,7 +4761,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30">
+    <row r="103" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42356</v>
       </c>
@@ -4735,7 +4772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42356</v>
       </c>
@@ -4746,7 +4783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42356</v>
       </c>
@@ -4757,7 +4794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30">
+    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42356</v>
       </c>
@@ -4766,7 +4803,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="60">
+    <row r="107" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42355</v>
       </c>
@@ -4777,7 +4814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42355</v>
       </c>
@@ -4788,7 +4825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="150">
+    <row r="109" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42355</v>
       </c>
@@ -4799,7 +4836,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="120">
+    <row r="110" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42355</v>
       </c>
@@ -4810,7 +4847,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30">
+    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
@@ -4821,7 +4858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
@@ -4832,7 +4869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="75">
+    <row r="113" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
@@ -4843,7 +4880,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="135">
+    <row r="114" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
@@ -4854,7 +4891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="75">
+    <row r="115" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
@@ -4865,7 +4902,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30">
+    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
@@ -4876,7 +4913,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
@@ -4884,7 +4921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
@@ -4893,7 +4930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
@@ -4902,7 +4939,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="75">
+    <row r="120" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42352</v>
       </c>
@@ -4913,7 +4950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30">
+    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42352</v>
       </c>
@@ -4922,7 +4959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="75">
+    <row r="122" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42352</v>
       </c>
@@ -4931,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42352</v>
       </c>
@@ -4940,7 +4977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
@@ -4949,7 +4986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
@@ -4960,7 +4997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
@@ -4969,7 +5006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
@@ -4978,7 +5015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30">
+    <row r="128" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
@@ -4987,7 +5024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30">
+    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
@@ -4996,7 +5033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="45">
+    <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
@@ -5007,7 +5044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="45">
+    <row r="131" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
@@ -5016,7 +5053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30">
+    <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
@@ -5028,7 +5065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="75">
+    <row r="133" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
@@ -5037,7 +5074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="45">
+    <row r="134" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
@@ -5048,7 +5085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30">
+    <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
@@ -5057,7 +5094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="45">
+    <row r="136" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
@@ -5066,7 +5103,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30">
+    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
@@ -5077,7 +5114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
@@ -5088,7 +5125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
@@ -5099,7 +5136,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="135">
+    <row r="140" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42349</v>
       </c>
@@ -5108,7 +5145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60">
+    <row r="141" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42349</v>
       </c>
@@ -5119,7 +5156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42349</v>
       </c>
@@ -5128,7 +5165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="120">
+    <row r="143" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42349</v>
       </c>
@@ -5139,7 +5176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="150">
+    <row r="144" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
@@ -5148,7 +5185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30">
+    <row r="145" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
@@ -5159,7 +5196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
@@ -5170,7 +5207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
@@ -5179,7 +5216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
@@ -5188,7 +5225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
@@ -5197,7 +5234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
@@ -5206,7 +5243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
@@ -5215,7 +5252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="60">
+    <row r="152" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
@@ -5226,7 +5263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="90">
+    <row r="153" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42345</v>
       </c>
@@ -5237,7 +5274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30">
+    <row r="154" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42345</v>
       </c>
@@ -5248,7 +5285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42345</v>
       </c>
@@ -5259,7 +5296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42345</v>
       </c>
@@ -5270,7 +5307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
+    <row r="157" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
@@ -5281,7 +5318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="195">
+    <row r="158" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
@@ -5292,7 +5329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="135">
+    <row r="159" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
@@ -5303,7 +5340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="75">
+    <row r="160" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
@@ -5314,7 +5351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="75">
+    <row r="161" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
@@ -5325,7 +5362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30">
+    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
@@ -5336,7 +5373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
@@ -5347,7 +5384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
@@ -5358,7 +5395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="60">
+    <row r="165" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
@@ -5369,7 +5406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="150">
+    <row r="166" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
@@ -5380,7 +5417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="45">
+    <row r="167" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
@@ -5391,7 +5428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="60">
+    <row r="168" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
@@ -5402,7 +5439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="105">
+    <row r="169" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
@@ -5413,7 +5450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
@@ -5424,7 +5461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
@@ -5435,7 +5472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="75">
+    <row r="172" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
@@ -5446,7 +5483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="45">
+    <row r="173" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
@@ -5457,7 +5494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="141">
+    <row r="174" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A174" s="80">
         <v>42345</v>
       </c>
@@ -5468,7 +5505,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="105">
+    <row r="175" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42341</v>
       </c>
@@ -5479,7 +5516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="90">
+    <row r="176" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42341</v>
       </c>
@@ -5490,7 +5527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="75">
+    <row r="177" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42341</v>
       </c>
@@ -5501,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30">
+    <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42341</v>
       </c>
@@ -5512,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30">
+    <row r="179" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
@@ -5523,7 +5560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="45">
+    <row r="180" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
@@ -5534,7 +5571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="90">
+    <row r="181" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
@@ -5545,7 +5582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30">
+    <row r="182" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5556,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="150">
+    <row r="183" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5567,7 +5604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="75">
+    <row r="184" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5578,7 +5615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="90">
+    <row r="185" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
@@ -5589,7 +5626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="60">
+    <row r="186" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
@@ -5600,7 +5637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
@@ -5611,7 +5648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5622,7 +5659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
@@ -5633,7 +5670,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
@@ -5644,7 +5681,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
@@ -5655,7 +5692,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="75">
+    <row r="192" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
@@ -5666,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="60">
+    <row r="193" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
@@ -5677,7 +5714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="60">
+    <row r="194" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42340</v>
       </c>
@@ -5686,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="45">
+    <row r="195" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42340</v>
       </c>
@@ -5695,7 +5732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="60">
+    <row r="196" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42340</v>
       </c>
@@ -5706,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42339</v>
       </c>
@@ -5715,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42339</v>
       </c>
@@ -5724,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="64.5">
+    <row r="199" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A199" s="80">
         <v>42334</v>
       </c>
@@ -5735,7 +5772,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="26.25">
+    <row r="200" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A200" s="80">
         <v>42334</v>
       </c>
@@ -5746,7 +5783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="39">
+    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A201" s="80">
         <v>42334</v>
       </c>
@@ -5757,7 +5794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="128.25">
+    <row r="202" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A202" s="80">
         <v>42333</v>
       </c>
@@ -5768,7 +5805,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="51.75">
+    <row r="203" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A203" s="80">
         <v>42333</v>
       </c>
@@ -5779,7 +5816,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="26.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="80">
         <v>42331</v>
       </c>
@@ -5790,7 +5827,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="39">
+    <row r="205" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A205" s="80">
         <v>42329</v>
       </c>
@@ -5801,7 +5838,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="39">
+    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A206" s="80">
         <v>42328</v>
       </c>
@@ -5812,7 +5849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="26.25">
+    <row r="207" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A207" s="80">
         <v>42328</v>
       </c>
@@ -5823,7 +5860,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="115.5">
+    <row r="208" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A208" s="80">
         <v>42328</v>
       </c>
@@ -5834,7 +5871,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="90">
+    <row r="209" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A209" s="80">
         <v>42328</v>
       </c>
@@ -5845,7 +5882,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="153.75">
+    <row r="210" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A210" s="80">
         <v>42328</v>
       </c>
@@ -5856,7 +5893,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="102.75">
+    <row r="211" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A211" s="80">
         <v>42324</v>
       </c>
@@ -5867,7 +5904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="90">
+    <row r="212" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="80">
         <v>42321</v>
       </c>
@@ -5878,7 +5915,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="26.25">
+    <row r="213" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A213" s="80">
         <v>42321</v>
       </c>
@@ -5889,7 +5926,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="77.25">
+    <row r="214" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A214" s="79">
         <v>42318</v>
       </c>
@@ -5900,7 +5937,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="115.5">
+    <row r="215" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A215" s="79">
         <v>42311</v>
       </c>
@@ -5911,7 +5948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="77.25">
+    <row r="216" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A216" s="79">
         <v>42310</v>
       </c>
@@ -5922,7 +5959,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="51.75">
+    <row r="217" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A217" s="79">
         <v>42306</v>
       </c>
@@ -5933,7 +5970,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="100"/>
       <c r="B218" s="100"/>
       <c r="C218" s="100"/>
@@ -5960,16 +5997,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="110" t="s">
         <v>23</v>
       </c>
@@ -5991,16 +6028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
@@ -6011,7 +6048,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6022,7 +6059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6033,7 +6070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6044,7 +6081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6055,7 +6092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6066,7 +6103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6077,7 +6114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6088,7 +6125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6099,7 +6136,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6110,7 +6147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6121,7 +6158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6132,7 +6169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6143,7 +6180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6154,7 +6191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6165,7 +6202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6176,7 +6213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6187,7 +6224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6198,7 +6235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6209,7 +6246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6220,7 +6257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6231,7 +6268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6242,7 +6279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6253,7 +6290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6264,7 +6301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6275,7 +6312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6286,7 +6323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6297,7 +6334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6308,7 +6345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6319,7 +6356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6330,7 +6367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -6341,7 +6378,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6352,7 +6389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6363,7 +6400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6374,7 +6411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -6385,7 +6422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6396,7 +6433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6407,7 +6444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6418,7 +6455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6429,7 +6466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6440,7 +6477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6451,7 +6488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6473,7 +6510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6484,7 +6521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6495,7 +6532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6506,7 +6543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6517,7 +6554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6528,7 +6565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6539,7 +6576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6550,7 +6587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6561,7 +6598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6572,7 +6609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6583,7 +6620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6594,7 +6631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6605,7 +6642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6616,7 +6653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6627,7 +6664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6638,7 +6675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6649,7 +6686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6660,7 +6697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6671,7 +6708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6682,7 +6719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6693,7 +6730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6704,7 +6741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6715,7 +6752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6726,7 +6763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6737,7 +6774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6748,7 +6785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6759,7 +6796,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6770,7 +6807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6781,7 +6818,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6792,7 +6829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6803,7 +6840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6814,7 +6851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6825,7 +6862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6836,7 +6873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6847,7 +6884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6858,7 +6895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6869,7 +6906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6880,7 +6917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -6891,7 +6928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -6902,7 +6939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6913,7 +6950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -6924,7 +6961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6935,7 +6972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6946,7 +6983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6957,7 +6994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -6968,7 +7005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -6979,7 +7016,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -6990,7 +7027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -7001,7 +7038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -7012,7 +7049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -7023,7 +7060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -7034,7 +7071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -7045,7 +7082,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -7056,7 +7093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7067,7 +7104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -7078,7 +7115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7089,7 +7126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7100,7 +7137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7111,7 +7148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7122,7 +7159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -7133,7 +7170,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7144,7 +7181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -7155,7 +7192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -7166,7 +7203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7177,7 +7214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -7188,7 +7225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7199,7 +7236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -7210,7 +7247,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7221,7 +7258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7232,7 +7269,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7243,7 +7280,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7281,26 +7318,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81"/>
       <c r="B1" s="81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="167.25" thickBot="1">
+    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>337</v>
       </c>
@@ -7308,7 +7345,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
         <v>339</v>
       </c>
@@ -7316,7 +7353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>341</v>
       </c>
@@ -7324,7 +7361,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
@@ -7332,7 +7369,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>345</v>
       </c>
@@ -7340,7 +7377,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>347</v>
       </c>
@@ -7348,7 +7385,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>349</v>
       </c>
@@ -7356,7 +7393,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
         <v>351</v>
       </c>
@@ -7372,14 +7409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -7387,7 +7424,7 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
         <v>353</v>
       </c>
@@ -7397,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -7405,7 +7442,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>355</v>
       </c>
@@ -7419,7 +7456,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>359</v>
       </c>
@@ -7433,7 +7470,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
         <v>362</v>
       </c>
@@ -7447,7 +7484,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1">
+    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>365</v>
       </c>
@@ -7461,7 +7498,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1">
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>368</v>
       </c>
@@ -7475,7 +7512,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>370</v>
       </c>
@@ -7489,7 +7526,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="s">
         <v>372</v>
       </c>
@@ -7503,7 +7540,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
         <v>375</v>
       </c>
@@ -7517,7 +7554,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1">
+    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="s">
         <v>377</v>
       </c>
@@ -7531,7 +7568,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="s">
         <v>379</v>
       </c>
@@ -7545,7 +7582,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1">
+    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91" t="s">
         <v>381</v>
       </c>
@@ -7559,7 +7596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
         <v>384</v>
       </c>
@@ -7573,7 +7610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1">
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
         <v>387</v>
       </c>
@@ -7587,7 +7624,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1">
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="s">
         <v>389</v>
       </c>
@@ -7601,7 +7638,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1">
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>392</v>
       </c>
@@ -7615,7 +7652,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>394</v>
       </c>
@@ -7627,7 +7664,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90" t="s">
         <v>396</v>
       </c>
@@ -7641,7 +7678,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>398</v>
       </c>
@@ -7655,7 +7692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92" t="s">
         <v>401</v>
       </c>
@@ -7669,7 +7706,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>403</v>
       </c>
@@ -7683,7 +7720,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1">
+    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>405</v>
       </c>
@@ -7697,7 +7734,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="52.5" thickBot="1">
+    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>407</v>
       </c>
@@ -7711,7 +7748,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>410</v>
       </c>
@@ -7723,7 +7760,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1">
+    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>412</v>
       </c>
@@ -7737,7 +7774,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="81" t="s">
         <v>414</v>
       </c>
@@ -7751,7 +7788,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
         <v>417</v>
       </c>
@@ -7765,7 +7802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="s">
         <v>419</v>
       </c>
@@ -7779,7 +7816,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>421</v>
       </c>
@@ -7793,7 +7830,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1">
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>423</v>
       </c>
@@ -7805,7 +7842,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="81" t="s">
         <v>425</v>
       </c>
@@ -7819,7 +7856,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
         <v>427</v>
       </c>
@@ -7833,7 +7870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
         <v>429</v>
       </c>
@@ -7847,7 +7884,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
         <v>431</v>
       </c>
@@ -7861,7 +7898,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90" t="s">
         <v>433</v>
       </c>
@@ -7875,7 +7912,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1">
+    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>435</v>
       </c>
@@ -7889,7 +7926,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1">
+    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
         <v>437</v>
       </c>
@@ -7903,7 +7940,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="s">
         <v>439</v>
       </c>
@@ -7917,7 +7954,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1">
+    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>441</v>
       </c>
@@ -7931,7 +7968,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
@@ -7945,7 +7982,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="92" t="s">
         <v>445</v>
       </c>
@@ -7959,7 +7996,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="92" t="s">
         <v>447</v>
       </c>
@@ -7971,7 +8008,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="90" t="s">
         <v>449</v>
       </c>
@@ -7985,7 +8022,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>451</v>
       </c>
@@ -7999,7 +8036,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -8013,7 +8050,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>455</v>
       </c>
@@ -8025,7 +8062,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1">
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>457</v>
       </c>
@@ -8037,19 +8074,19 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="93"/>
       <c r="D49" s="93"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1">
+    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="94" t="s">
         <v>459</v>
       </c>
@@ -8059,7 +8096,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="94" t="s">
         <v>459</v>
       </c>
@@ -8069,7 +8106,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="s">
         <v>459</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$222</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="513">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2624,6 +2624,12 @@
 /etc/nginx/ 放置設置文檔
 /usr/sbin/nginx 軟件的不變程式
 /usr/share/nginx 預設放置網站之處 (也可以通過設定放到別處啦)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>關於NGINX的分流選擇方式, 官網上寫明:
+When nginx selects a location block to serve a request it first checks location directives that specify prefixes, remembering location with the longest prefix, and then checks regular expressions. If there is a match with a regular expression, nginx picks this location or, otherwise, it picks the one remembered earlier.
+優先正則擊中, 次為最長匹配</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2953,7 +2959,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3254,6 +3260,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3316,13 +3325,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>102265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3640,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3669,860 +3678,842 @@
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42478</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42477</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B7" s="109" t="s">
         <v>510</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C7" s="109" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42477</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B8" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C8" s="108" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="9" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42473</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B9" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C9" s="106" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42473</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B10" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C10" s="107" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="11" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>42469</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B11" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42463</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42463</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B18" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C18" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>42462</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B19" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C19" s="100" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>42462</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B20" s="100" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C20" s="100" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42462</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B21" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C21" s="100" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>42462</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B22" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C22" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>42460</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B23" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C23" s="99" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>42460</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B24" s="99" t="s">
         <v>477</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C24" s="99" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42460</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B25" s="99" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C25" s="99" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>42460</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B26" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C26" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>42459</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B27" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C27" s="98" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>42459</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B28" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C28" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>42458</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B29" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42456</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C34" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="79">
+    <row r="35" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
         <v>42453</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B35" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C35" s="78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="79">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
         <v>42453</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B36" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C36" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="79">
+    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
         <v>42452</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B37" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C37" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="75">
+    <row r="38" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
         <v>42451</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B38" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C38" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="39" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>42451</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B39" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>42451</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B40" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="41" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>42451</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B41" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+    <row r="42" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
         <v>42451</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
+    <row r="43" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
         <v>42447</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>42440</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B44" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C44" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="45" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>42436</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B45" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A42" s="79">
+    <row r="46" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
         <v>42431</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B46" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C46" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="79">
+    <row r="47" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
         <v>42431</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B47" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C47" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="79">
+    <row r="48" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
         <v>42430</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B48" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C48" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="79">
+    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="79">
         <v>42428</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B49" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C49" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>42426</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B50" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C50" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="79">
+    <row r="51" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
         <v>42426</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B51" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C51" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>42425</v>
       </c>
-      <c r="B48" s="100" t="s">
+      <c r="B52" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C52" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>42425</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="79">
+    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="79">
         <v>42425</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B54" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C54" s="78" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>42424</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B54" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>42424</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>42423</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B58" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="79">
+        <v>42423</v>
+      </c>
+      <c r="B59" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C59" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="60" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>42422</v>
       </c>
-      <c r="B56" s="100" t="s">
+      <c r="B60" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C60" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="61" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>42419</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C61" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="62" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>42418</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B59" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>42398</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>42397</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B68" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B67" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B68" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C68" s="78" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>42384</v>
-      </c>
-      <c r="B69" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+        <v>42396</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>42382</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>219</v>
+        <v>42396</v>
+      </c>
+      <c r="B70" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A71" s="79">
-        <v>42382</v>
+        <v>42386</v>
       </c>
       <c r="B71" s="78" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C71" s="78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>42381</v>
-      </c>
-      <c r="B72" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="100" t="s">
-        <v>217</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B73" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>42382</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="79">
+        <v>42382</v>
+      </c>
+      <c r="B75" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>42381</v>
+      </c>
+      <c r="B76" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>42380</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="78" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>42380</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B78" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="79" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>42380</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B79" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="79">
+    <row r="80" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="79">
         <v>42380</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B80" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C80" s="78" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B77" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B79" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B80" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
@@ -4530,1037 +4521,1037 @@
         <v>42378</v>
       </c>
       <c r="B81" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B82" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B83" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B85" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C85" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="86" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>42377</v>
       </c>
-      <c r="B82" s="100" t="s">
+      <c r="B86" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C82" s="100" t="s">
+      <c r="C86" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="79">
+    <row r="87" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
         <v>42376</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B87" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C87" s="78" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42375</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="100" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B85" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="189" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>208</v>
+        <v>42375</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="100" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B89" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>42366</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B93" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B94" s="100" t="s">
-        <v>53</v>
+        <v>42366</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
-      <c r="B95" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="C95" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
-      <c r="B96" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C96" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
-      <c r="B97" s="100" t="s">
-        <v>49</v>
+      <c r="B97" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B98" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B101" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C102" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="40">
         <v>42360</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B104" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
         <v>42360</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B105" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C105" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="80">
+    <row r="106" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="80">
         <v>42360</v>
       </c>
-      <c r="B102" s="78" t="s">
+      <c r="B106" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C106" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>42356</v>
       </c>
-      <c r="B103" s="100" t="s">
+      <c r="B107" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="100" t="s">
+      <c r="C107" s="100" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B106" s="96"/>
-      <c r="C106" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B107" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>42356</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+        <v>42356</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B110" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42356</v>
+      </c>
+      <c r="B110" s="96"/>
+      <c r="C110" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
       <c r="B111" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>169</v>
+        <v>91</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
-      <c r="B112" s="29" t="s">
-        <v>171</v>
+      <c r="B112" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B115" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
-      <c r="C117" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
-      <c r="B119" s="42"/>
-      <c r="C119" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B120" s="42" t="s">
-        <v>189</v>
+        <v>42355</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="70" t="s">
-        <v>66</v>
+        <v>42355</v>
+      </c>
+      <c r="B122" s="42"/>
+      <c r="C122" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B123" s="26"/>
-      <c r="C123" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42355</v>
+      </c>
+      <c r="B123" s="42"/>
+      <c r="C123" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
-      <c r="B124" s="96"/>
-      <c r="C124" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
-      <c r="B125" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="26"/>
+      <c r="C125" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
-      <c r="B126" s="96"/>
-      <c r="C126" s="34" t="s">
-        <v>73</v>
+      <c r="B126" s="26"/>
+      <c r="C126" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
-      <c r="B127" s="96"/>
-      <c r="C127" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="26"/>
+      <c r="C127" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B128" s="96"/>
+      <c r="C128" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="96"/>
-      <c r="C129" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B129" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B130" s="96"/>
+      <c r="C130" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="100"/>
-      <c r="C131" s="39" t="s">
-        <v>80</v>
+      <c r="B131" s="96"/>
+      <c r="C131" s="37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="38"/>
-      <c r="C132" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B132" s="37"/>
+      <c r="C132" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="41"/>
-      <c r="C133" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B133" s="96"/>
+      <c r="C133" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" s="41" t="s">
-        <v>90</v>
+      <c r="B134" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="96" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B135" s="100"/>
+      <c r="C135" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B136" s="38"/>
+      <c r="C136" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
-      <c r="B137" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B137" s="41"/>
+      <c r="C137" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
-      <c r="B139" s="100" t="s">
+      <c r="B139" s="43"/>
+      <c r="C139" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B141" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B143" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="C143" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B141" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B142" s="96"/>
-      <c r="C142" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B143" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B144" s="49"/>
+      <c r="C144" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>60</v>
+      <c r="B145" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="96"/>
+      <c r="C146" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="100"/>
-      <c r="C147" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="52"/>
+      <c r="C148" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
-      <c r="B149" s="59"/>
-      <c r="C149" s="59" t="s">
-        <v>70</v>
+      <c r="B149" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60" t="s">
-        <v>64</v>
+      <c r="B150" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
-      <c r="B151" s="61"/>
-      <c r="C151" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B151" s="100"/>
+      <c r="C151" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
-      <c r="B152" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C152" s="100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B152" s="58"/>
+      <c r="C152" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B153" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="62" t="s">
-        <v>36</v>
+        <v>42349</v>
+      </c>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B155" s="61"/>
+      <c r="C155" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42349</v>
+      </c>
+      <c r="B156" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="B157" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C159" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
-      <c r="B160" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C163" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C164" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B164" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B165" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>43</v>
+      <c r="B166" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C166" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="100" t="s">
+      <c r="B167" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C167" s="73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C168" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B168" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
-      <c r="B169" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
-      <c r="B170" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C170" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
-      <c r="B171" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C171" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B171" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
-      <c r="B172" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C172" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B172" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
-      <c r="B173" s="96" t="s">
+      <c r="B173" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B174" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B175" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B176" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B177" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="96" t="s">
+      <c r="C177" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="141" x14ac:dyDescent="0.25">
-      <c r="A174" s="80">
+    <row r="178" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A178" s="80">
         <v>42345</v>
       </c>
-      <c r="B174" s="78" t="s">
+      <c r="B178" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C174" s="78" t="s">
+      <c r="C178" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C179" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
@@ -5568,18 +5559,18 @@
         <v>15</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5590,10 +5581,10 @@
         <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5601,10 +5592,10 @@
         <v>15</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5612,73 +5603,73 @@
         <v>15</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
-      <c r="B185" s="100" t="s">
-        <v>12</v>
+      <c r="B185" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
-      <c r="B186" s="96" t="s">
+      <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
-      <c r="B187" s="96" t="s">
-        <v>12</v>
+      <c r="B187" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
-      <c r="B188" s="96" t="s">
+      <c r="B188" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
-      <c r="B189" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
       <c r="B190" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>165</v>
+      <c r="C190" s="96" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -5686,309 +5677,353 @@
         <v>42341</v>
       </c>
       <c r="B191" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C191" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
       <c r="B192" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="C192" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
       <c r="B193" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" s="96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B194" s="96"/>
-      <c r="C194" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>42341</v>
+      </c>
+      <c r="B194" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B195" s="96"/>
-      <c r="C195" s="96" t="s">
-        <v>8</v>
+        <v>42341</v>
+      </c>
+      <c r="B195" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B196" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B197" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>42340</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B198" s="96"/>
+      <c r="C198" s="96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B199" s="96"/>
+      <c r="C199" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="96" t="s">
+      <c r="C200" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
         <v>42339</v>
       </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="96" t="s">
+      <c r="B201" s="2"/>
+      <c r="C201" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
         <v>42339</v>
       </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="96" t="s">
+      <c r="B202" s="2"/>
+      <c r="C202" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="80">
+    <row r="203" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="80">
         <v>42334</v>
       </c>
-      <c r="B199" s="78" t="s">
+      <c r="B203" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="C199" s="78" t="s">
+      <c r="C203" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="80">
+    <row r="204" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A204" s="80">
         <v>42334</v>
       </c>
-      <c r="B200" s="78" t="s">
+      <c r="B204" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C200" s="78" t="s">
+      <c r="C204" s="78" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A201" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B201" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="C201" s="78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B202" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C202" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B203" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203" s="78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="80">
-        <v>42331</v>
-      </c>
-      <c r="B204" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C204" s="78" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A205" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B205" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C205" s="78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B206" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C206" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B207" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207" s="78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="80">
+        <v>42331</v>
+      </c>
+      <c r="B208" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208" s="78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A209" s="80">
         <v>42329</v>
       </c>
-      <c r="B205" s="78" t="s">
+      <c r="B209" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C209" s="78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A206" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B206" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="C206" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B207" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="C207" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B208" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="C208" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B209" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C209" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A210" s="80">
         <v>42328</v>
       </c>
       <c r="B210" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="C210" s="78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A211" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B211" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C211" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B212" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="C212" s="78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B213" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C213" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A214" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B214" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C214" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A211" s="80">
+    <row r="215" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215" s="80">
         <v>42324</v>
       </c>
-      <c r="B211" s="78" t="s">
+      <c r="B215" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C211" s="78" t="s">
+      <c r="C215" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212" s="80">
+    <row r="216" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216" s="80">
         <v>42321</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B216" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C216" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="80">
+    <row r="217" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A217" s="80">
         <v>42321</v>
       </c>
-      <c r="B213" s="78" t="s">
+      <c r="B217" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C213" s="78" t="s">
+      <c r="C217" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="79">
+    <row r="218" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A218" s="79">
         <v>42318</v>
       </c>
-      <c r="B214" s="78" t="s">
+      <c r="B218" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C214" s="78" t="s">
+      <c r="C218" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="79">
+    <row r="219" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="79">
         <v>42311</v>
       </c>
-      <c r="B215" s="78" t="s">
+      <c r="B219" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="78" t="s">
+      <c r="C219" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="79">
+    <row r="220" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A220" s="79">
         <v>42310</v>
       </c>
-      <c r="B216" s="78" t="s">
+      <c r="B220" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C216" s="78" t="s">
+      <c r="C220" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A217" s="79">
+    <row r="221" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A221" s="79">
         <v>42306</v>
       </c>
-      <c r="B217" s="78" t="s">
+      <c r="B221" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C217" s="78" t="s">
+      <c r="C221" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="100"/>
-      <c r="B218" s="100"/>
-      <c r="C218" s="100"/>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="100"/>
+      <c r="B222" s="100"/>
+      <c r="C222" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C218">
+  <autoFilter ref="A1:C222">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C190" r:id="rId1"/>
-    <hyperlink ref="C151" r:id="rId2"/>
-    <hyperlink ref="C191" r:id="rId3"/>
-    <hyperlink ref="C25" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C194" r:id="rId1"/>
+    <hyperlink ref="C155" r:id="rId2"/>
+    <hyperlink ref="C195" r:id="rId3"/>
+    <hyperlink ref="C29" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -6007,16 +6042,16 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="514">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2503,7 +2503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2632,16 +2632,26 @@
 優先正則擊中, 次為最長匹配</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>SETLL理解: 
+1. 無論多少個KEY, 會從第一個開始找, 找到&gt;= arg的值, 在前停; 從ptr所在位置開始進行下一個arg的search, 直到結束. (有key的PF, 本身已是有序體)
+2. %FOUND(71-72): 1=*ON 0=*OFF
+3. %ERROR IN(73-74)
+4. %EQUAL(75-76):1=*ON 0=*OFF
+5. *START, *END
+6. SETLL本身不讀RECORD, 要靠READ, 所以比CHAIN快得多
+相關試用CODE在YMYLES/QSETLLSRC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2649,7 +2659,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2657,7 +2667,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2671,21 +2681,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2693,7 +2703,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2701,27 +2711,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2811,7 +2821,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2819,7 +2829,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2959,7 +2969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3288,10 +3298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3363,7 +3376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3437,7 +3450,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3472,7 +3484,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3648,21 +3659,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3673,27 +3684,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="102" customFormat="1">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="102" customFormat="1">
       <c r="A3" s="110"/>
       <c r="B3" s="110"/>
       <c r="C3" s="110"/>
     </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="102" customFormat="1">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-    </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="150">
+      <c r="A5" s="2">
+        <v>42479</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A6" s="2">
         <v>42478</v>
       </c>
@@ -3704,7 +3721,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="120">
       <c r="A7" s="2">
         <v>42477</v>
       </c>
@@ -3715,7 +3732,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A8" s="2">
         <v>42477</v>
       </c>
@@ -3726,7 +3743,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="102" customFormat="1">
       <c r="A9" s="2">
         <v>42473</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="45">
       <c r="A10" s="2">
         <v>42473</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="102" customFormat="1">
       <c r="A11" s="2">
         <v>42469</v>
       </c>
@@ -3759,7 +3776,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A12" s="2">
         <v>42463</v>
       </c>
@@ -3770,7 +3787,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
@@ -3781,7 +3798,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="102" customFormat="1">
       <c r="A14" s="2">
         <v>42463</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A15" s="2">
         <v>42463</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A16" s="2">
         <v>42463</v>
       </c>
@@ -3814,7 +3831,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A17" s="2">
         <v>42463</v>
       </c>
@@ -3825,7 +3842,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A18" s="2">
         <v>42463</v>
       </c>
@@ -3836,7 +3853,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A19" s="2">
         <v>42462</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A20" s="2">
         <v>42462</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="240">
       <c r="A21" s="2">
         <v>42462</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="120">
       <c r="A22" s="2">
         <v>42462</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A23" s="2">
         <v>42460</v>
       </c>
@@ -3891,7 +3908,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A24" s="2">
         <v>42460</v>
       </c>
@@ -3902,7 +3919,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="180">
       <c r="A25" s="2">
         <v>42460</v>
       </c>
@@ -3913,7 +3930,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A27" s="2">
         <v>42459</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A28" s="2">
         <v>42459</v>
       </c>
@@ -3946,7 +3963,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="4" customFormat="1">
       <c r="A29" s="2">
         <v>42458</v>
       </c>
@@ -3957,7 +3974,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A30" s="2">
         <v>42456</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="60">
       <c r="A31" s="2">
         <v>42456</v>
       </c>
@@ -3979,7 +3996,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="2">
         <v>42456</v>
       </c>
@@ -3990,7 +4007,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>42456</v>
       </c>
@@ -4001,7 +4018,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="45">
       <c r="A34" s="2">
         <v>42456</v>
       </c>
@@ -4012,7 +4029,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="77.25">
       <c r="A35" s="79">
         <v>42453</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26.25">
       <c r="A36" s="79">
         <v>42453</v>
       </c>
@@ -4034,7 +4051,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="39">
       <c r="A37" s="79">
         <v>42452</v>
       </c>
@@ -4045,7 +4062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="165">
       <c r="A38" s="75">
         <v>42451</v>
       </c>
@@ -4056,7 +4073,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="45">
       <c r="A39" s="2">
         <v>42451</v>
       </c>
@@ -4067,7 +4084,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2">
         <v>42451</v>
       </c>
@@ -4078,7 +4095,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="165">
       <c r="A41" s="2">
         <v>42451</v>
       </c>
@@ -4089,7 +4106,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="64.5">
       <c r="A42" s="79">
         <v>42451</v>
       </c>
@@ -4100,7 +4117,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="64.5">
       <c r="A43" s="79">
         <v>42447</v>
       </c>
@@ -4111,7 +4128,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>42440</v>
       </c>
@@ -4122,7 +4139,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="75">
       <c r="A45" s="2">
         <v>42436</v>
       </c>
@@ -4133,7 +4150,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="39">
       <c r="A46" s="79">
         <v>42431</v>
       </c>
@@ -4144,7 +4161,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="26.25">
       <c r="A47" s="79">
         <v>42431</v>
       </c>
@@ -4155,7 +4172,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="51.75">
       <c r="A48" s="79">
         <v>42430</v>
       </c>
@@ -4166,7 +4183,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="26.25">
       <c r="A49" s="79">
         <v>42428</v>
       </c>
@@ -4177,7 +4194,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" s="2">
         <v>42426</v>
       </c>
@@ -4188,7 +4205,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="77.25">
       <c r="A51" s="79">
         <v>42426</v>
       </c>
@@ -4199,7 +4216,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>42425</v>
       </c>
@@ -4210,7 +4227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30">
       <c r="A53" s="2">
         <v>42425</v>
       </c>
@@ -4221,7 +4238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="26.25">
       <c r="A54" s="79">
         <v>42425</v>
       </c>
@@ -4232,7 +4249,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="79">
         <v>42425</v>
       </c>
@@ -4243,7 +4260,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="26.25">
       <c r="A56" s="79">
         <v>42425</v>
       </c>
@@ -4254,7 +4271,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="165">
       <c r="A57" s="2">
         <v>42424</v>
       </c>
@@ -4265,7 +4282,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="2">
         <v>42423</v>
       </c>
@@ -4276,7 +4293,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="79">
         <v>42423</v>
       </c>
@@ -4287,7 +4304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="90">
       <c r="A60" s="2">
         <v>42422</v>
       </c>
@@ -4298,7 +4315,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="60">
       <c r="A61" s="2">
         <v>42419</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="195">
       <c r="A62" s="2">
         <v>42418</v>
       </c>
@@ -4320,7 +4337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="45">
       <c r="A63" s="2">
         <v>42403</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="75">
       <c r="A64" s="2">
         <v>42403</v>
       </c>
@@ -4342,7 +4359,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="90">
       <c r="A65" s="2">
         <v>42403</v>
       </c>
@@ -4351,7 +4368,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="90">
       <c r="A66" s="2">
         <v>42398</v>
       </c>
@@ -4362,7 +4379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="45">
       <c r="A67" s="2">
         <v>42398</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>42397</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="45">
       <c r="A69" s="2">
         <v>42396</v>
       </c>
@@ -4395,7 +4412,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="30">
       <c r="A70" s="2">
         <v>42396</v>
       </c>
@@ -4406,7 +4423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="128.25">
       <c r="A71" s="79">
         <v>42386</v>
       </c>
@@ -4417,7 +4434,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="64.5">
       <c r="A72" s="79">
         <v>42386</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="45">
       <c r="A73" s="2">
         <v>42384</v>
       </c>
@@ -4439,7 +4456,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="180">
       <c r="A74" s="2">
         <v>42382</v>
       </c>
@@ -4450,7 +4467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="64.5">
       <c r="A75" s="79">
         <v>42382</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" s="2">
         <v>42381</v>
       </c>
@@ -4472,7 +4489,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="45">
       <c r="A77" s="2">
         <v>42380</v>
       </c>
@@ -4483,7 +4500,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="75">
       <c r="A78" s="2">
         <v>42380</v>
       </c>
@@ -4494,7 +4511,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="180">
       <c r="A79" s="2">
         <v>42380</v>
       </c>
@@ -4505,7 +4522,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="217.5">
       <c r="A80" s="79">
         <v>42380</v>
       </c>
@@ -4516,7 +4533,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="102.75">
       <c r="A81" s="79">
         <v>42378</v>
       </c>
@@ -4527,7 +4544,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="102.75">
       <c r="A82" s="79">
         <v>42378</v>
       </c>
@@ -4538,7 +4555,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="141">
       <c r="A83" s="79">
         <v>42378</v>
       </c>
@@ -4549,7 +4566,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="77.25">
       <c r="A84" s="79">
         <v>42378</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="102.75">
       <c r="A85" s="79">
         <v>42378</v>
       </c>
@@ -4571,7 +4588,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="60">
       <c r="A86" s="2">
         <v>42377</v>
       </c>
@@ -4582,7 +4599,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="77.25">
       <c r="A87" s="79">
         <v>42376</v>
       </c>
@@ -4593,7 +4610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="45">
       <c r="A88" s="2">
         <v>42375</v>
       </c>
@@ -4604,7 +4621,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>42369</v>
       </c>
@@ -4615,7 +4632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="195">
       <c r="A90" s="2">
         <v>42368</v>
       </c>
@@ -4626,7 +4643,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="135">
       <c r="A91" s="2">
         <v>42368</v>
       </c>
@@ -4637,7 +4654,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="45">
       <c r="A92" s="2">
         <v>42368</v>
       </c>
@@ -4648,7 +4665,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="2">
         <v>42366</v>
       </c>
@@ -4659,7 +4676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="30">
       <c r="A94" s="2">
         <v>42366</v>
       </c>
@@ -4670,7 +4687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="150">
       <c r="A95" s="2">
         <v>42361</v>
       </c>
@@ -4678,7 +4695,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="30">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
@@ -4686,7 +4703,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="270">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="30">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
@@ -4708,7 +4725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
@@ -4719,7 +4736,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="225">
       <c r="A100" s="2">
         <v>42361</v>
       </c>
@@ -4730,7 +4747,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="60">
       <c r="A101" s="2">
         <v>42361</v>
       </c>
@@ -4741,7 +4758,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="90">
       <c r="A102" s="2">
         <v>42361</v>
       </c>
@@ -4752,7 +4769,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="60">
       <c r="A103" s="2">
         <v>42361</v>
       </c>
@@ -4763,7 +4780,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="40">
         <v>42360</v>
       </c>
@@ -4774,7 +4791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="40">
         <v>42360</v>
       </c>
@@ -4785,7 +4802,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="102.75">
       <c r="A106" s="80">
         <v>42360</v>
       </c>
@@ -4796,7 +4813,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="30">
       <c r="A107" s="2">
         <v>42356</v>
       </c>
@@ -4807,7 +4824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>42356</v>
       </c>
@@ -4818,7 +4835,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>42356</v>
       </c>
@@ -4829,7 +4846,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="30">
       <c r="A110" s="2">
         <v>42356</v>
       </c>
@@ -4838,7 +4855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="60">
       <c r="A111" s="2">
         <v>42355</v>
       </c>
@@ -4849,7 +4866,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
@@ -4860,7 +4877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="150">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
@@ -4871,7 +4888,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="120">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
@@ -4882,7 +4899,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
@@ -4893,7 +4910,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
@@ -4904,7 +4921,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="75">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
@@ -4915,7 +4932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="135">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
@@ -4926,7 +4943,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="75">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
@@ -4937,7 +4954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="2">
         <v>42355</v>
       </c>
@@ -4948,7 +4965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>42355</v>
       </c>
@@ -4956,7 +4973,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42355</v>
       </c>
@@ -4965,7 +4982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42355</v>
       </c>
@@ -4974,7 +4991,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="75">
       <c r="A124" s="2">
         <v>42352</v>
       </c>
@@ -4985,7 +5002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
@@ -4994,7 +5011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="75">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
@@ -5003,7 +5020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
@@ -5021,7 +5038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
@@ -5032,7 +5049,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
@@ -5041,7 +5058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
@@ -5050,7 +5067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
@@ -5059,7 +5076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
@@ -5068,7 +5085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="45">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
@@ -5079,7 +5096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="45">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
@@ -5088,7 +5105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
@@ -5100,7 +5117,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="75">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
@@ -5109,7 +5126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="45">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
@@ -5120,7 +5137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
@@ -5129,7 +5146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="2">
         <v>42352</v>
       </c>
@@ -5138,7 +5155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="2">
         <v>42352</v>
       </c>
@@ -5149,7 +5166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2">
         <v>42352</v>
       </c>
@@ -5160,7 +5177,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>42352</v>
       </c>
@@ -5171,7 +5188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="135">
       <c r="A144" s="2">
         <v>42349</v>
       </c>
@@ -5180,7 +5197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="60">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
@@ -5191,7 +5208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="30">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
@@ -5200,7 +5217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="120">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
@@ -5211,7 +5228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="150">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="30">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
@@ -5231,7 +5248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
@@ -5242,7 +5259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>42349</v>
       </c>
@@ -5269,7 +5286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42349</v>
       </c>
@@ -5278,7 +5295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42349</v>
       </c>
@@ -5287,7 +5304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="60">
       <c r="A156" s="2">
         <v>42349</v>
       </c>
@@ -5298,7 +5315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="90">
       <c r="A157" s="2">
         <v>42345</v>
       </c>
@@ -5309,7 +5326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="30">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
@@ -5320,7 +5337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
@@ -5331,7 +5348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
@@ -5342,7 +5359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
@@ -5353,7 +5370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="195">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
@@ -5364,7 +5381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="135">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
@@ -5375,7 +5392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="75">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
@@ -5386,7 +5403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="75">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="30">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
@@ -5419,7 +5436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
@@ -5430,7 +5447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="60">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
@@ -5441,7 +5458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="150">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
@@ -5452,7 +5469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="45">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
@@ -5463,7 +5480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="60">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
@@ -5474,7 +5491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="105">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
@@ -5485,7 +5502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>42345</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>42345</v>
       </c>
@@ -5507,7 +5524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="75">
       <c r="A176" s="2">
         <v>42345</v>
       </c>
@@ -5518,7 +5535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="45">
       <c r="A177" s="2">
         <v>42345</v>
       </c>
@@ -5529,7 +5546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="141">
       <c r="A178" s="80">
         <v>42345</v>
       </c>
@@ -5540,7 +5557,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="105">
       <c r="A179" s="2">
         <v>42341</v>
       </c>
@@ -5551,7 +5568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="90">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
@@ -5562,7 +5579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="75">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
@@ -5573,7 +5590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="30">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="30">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5595,7 +5612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="45">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5606,7 +5623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="90">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
@@ -5617,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="30">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
@@ -5628,7 +5645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="150">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
@@ -5639,7 +5656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="75">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5650,7 +5667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="90">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
@@ -5661,7 +5678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="60">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
@@ -5672,7 +5689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
@@ -5683,7 +5700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
@@ -5694,7 +5711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
@@ -5705,7 +5722,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>42341</v>
       </c>
@@ -5716,7 +5733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>42341</v>
       </c>
@@ -5727,7 +5744,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="75">
       <c r="A196" s="2">
         <v>42341</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="60">
       <c r="A197" s="2">
         <v>42341</v>
       </c>
@@ -5749,7 +5766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="60">
       <c r="A198" s="2">
         <v>42340</v>
       </c>
@@ -5758,7 +5775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="45">
       <c r="A199" s="2">
         <v>42340</v>
       </c>
@@ -5767,7 +5784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="60">
       <c r="A200" s="2">
         <v>42340</v>
       </c>
@@ -5778,7 +5795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>42339</v>
       </c>
@@ -5787,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>42339</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="64.5">
       <c r="A203" s="80">
         <v>42334</v>
       </c>
@@ -5807,7 +5824,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="26.25">
       <c r="A204" s="80">
         <v>42334</v>
       </c>
@@ -5818,7 +5835,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="39">
       <c r="A205" s="80">
         <v>42334</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="128.25">
       <c r="A206" s="80">
         <v>42333</v>
       </c>
@@ -5840,7 +5857,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="51.75">
       <c r="A207" s="80">
         <v>42333</v>
       </c>
@@ -5851,7 +5868,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="26.25">
       <c r="A208" s="80">
         <v>42331</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="39">
       <c r="A209" s="80">
         <v>42329</v>
       </c>
@@ -5873,7 +5890,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="39">
       <c r="A210" s="80">
         <v>42328</v>
       </c>
@@ -5884,7 +5901,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="26.25">
       <c r="A211" s="80">
         <v>42328</v>
       </c>
@@ -5895,7 +5912,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="115.5">
       <c r="A212" s="80">
         <v>42328</v>
       </c>
@@ -5906,7 +5923,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="90">
       <c r="A213" s="80">
         <v>42328</v>
       </c>
@@ -5917,7 +5934,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="153.75">
       <c r="A214" s="80">
         <v>42328</v>
       </c>
@@ -5928,7 +5945,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="102.75">
       <c r="A215" s="80">
         <v>42324</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="90">
       <c r="A216" s="80">
         <v>42321</v>
       </c>
@@ -5950,7 +5967,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="26.25">
       <c r="A217" s="80">
         <v>42321</v>
       </c>
@@ -5961,7 +5978,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="77.25">
       <c r="A218" s="79">
         <v>42318</v>
       </c>
@@ -5972,7 +5989,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="115.5">
       <c r="A219" s="79">
         <v>42311</v>
       </c>
@@ -5983,7 +6000,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="77.25">
       <c r="A220" s="79">
         <v>42310</v>
       </c>
@@ -5994,7 +6011,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="51.75">
       <c r="A221" s="79">
         <v>42306</v>
       </c>
@@ -6005,7 +6022,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="100"/>
       <c r="B222" s="100"/>
       <c r="C222" s="100"/>
@@ -6032,26 +6049,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6063,16 +6080,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
@@ -6083,7 +6100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6094,7 +6111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6116,7 +6133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6127,7 +6144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6138,7 +6155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6160,7 +6177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6171,7 +6188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6182,7 +6199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6193,7 +6210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6204,7 +6221,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6215,7 +6232,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6226,7 +6243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6237,7 +6254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6248,7 +6265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6259,7 +6276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6270,7 +6287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6281,7 +6298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6292,7 +6309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6303,7 +6320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6314,7 +6331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6325,7 +6342,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6336,7 +6353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6347,7 +6364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6358,7 +6375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6369,7 +6386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6380,7 +6397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6391,7 +6408,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6402,7 +6419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -6413,7 +6430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6424,7 +6441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6446,7 +6463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -6457,7 +6474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6468,7 +6485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6479,7 +6496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6501,7 +6518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6512,7 +6529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6523,7 +6540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6534,7 +6551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6545,7 +6562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6556,7 +6573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6567,7 +6584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6578,7 +6595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6589,7 +6606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6611,7 +6628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6622,7 +6639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6633,7 +6650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6644,7 +6661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6655,7 +6672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6677,7 +6694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6688,7 +6705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6699,7 +6716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6710,7 +6727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6721,7 +6738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6732,7 +6749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6743,7 +6760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6754,7 +6771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6765,7 +6782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6776,7 +6793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6787,7 +6804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6798,7 +6815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6809,7 +6826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6820,7 +6837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6831,7 +6848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6842,7 +6859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6853,7 +6870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6864,7 +6881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6875,7 +6892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6886,7 +6903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6897,7 +6914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6908,7 +6925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6919,7 +6936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6930,7 +6947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6941,7 +6958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6952,7 +6969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -6963,7 +6980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -6974,7 +6991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6985,7 +7002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -6996,7 +7013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -7007,7 +7024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -7018,7 +7035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -7029,7 +7046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -7040,7 +7057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -7051,7 +7068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -7062,7 +7079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -7073,7 +7090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -7084,7 +7101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -7095,7 +7112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -7106,7 +7123,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -7117,7 +7134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -7128,7 +7145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7139,7 +7156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -7150,7 +7167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7161,7 +7178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7172,7 +7189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7183,7 +7200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7194,7 +7211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -7205,7 +7222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7216,7 +7233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -7227,7 +7244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -7238,7 +7255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7249,7 +7266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -7260,7 +7277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7271,7 +7288,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -7282,7 +7299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7293,7 +7310,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7304,7 +7321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7315,7 +7332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7353,26 +7370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="81"/>
       <c r="B1" s="81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="167.25" thickBot="1">
       <c r="A2" s="82" t="s">
         <v>337</v>
       </c>
@@ -7380,7 +7397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="84" t="s">
         <v>339</v>
       </c>
@@ -7388,7 +7405,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="84" t="s">
         <v>341</v>
       </c>
@@ -7396,7 +7413,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
@@ -7404,7 +7421,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="82" t="s">
         <v>345</v>
       </c>
@@ -7412,7 +7429,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="84" t="s">
         <v>347</v>
       </c>
@@ -7420,7 +7437,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="84" t="s">
         <v>349</v>
       </c>
@@ -7428,7 +7445,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="82" t="s">
         <v>351</v>
       </c>
@@ -7444,14 +7461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -7459,7 +7476,7 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
         <v>353</v>
       </c>
@@ -7469,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1">
       <c r="A2" s="81"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -7477,7 +7494,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1">
       <c r="A3" s="81" t="s">
         <v>355</v>
       </c>
@@ -7491,7 +7508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="81" t="s">
         <v>359</v>
       </c>
@@ -7505,7 +7522,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="27" thickBot="1">
       <c r="A5" s="90" t="s">
         <v>362</v>
       </c>
@@ -7519,7 +7536,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="27" thickBot="1">
       <c r="A6" s="81" t="s">
         <v>365</v>
       </c>
@@ -7533,7 +7550,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="27" thickBot="1">
       <c r="A7" s="81" t="s">
         <v>368</v>
       </c>
@@ -7547,7 +7564,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1">
       <c r="A8" s="81" t="s">
         <v>370</v>
       </c>
@@ -7561,7 +7578,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="91" t="s">
         <v>372</v>
       </c>
@@ -7575,7 +7592,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="91" t="s">
         <v>375</v>
       </c>
@@ -7589,7 +7606,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="27" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>377</v>
       </c>
@@ -7603,7 +7620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1">
       <c r="A12" s="91" t="s">
         <v>379</v>
       </c>
@@ -7617,7 +7634,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="27" thickBot="1">
       <c r="A13" s="91" t="s">
         <v>381</v>
       </c>
@@ -7631,7 +7648,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="91" t="s">
         <v>384</v>
       </c>
@@ -7645,7 +7662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="27" thickBot="1">
       <c r="A15" s="91" t="s">
         <v>387</v>
       </c>
@@ -7659,7 +7676,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="27" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>389</v>
       </c>
@@ -7673,7 +7690,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="27" thickBot="1">
       <c r="A17" s="81" t="s">
         <v>392</v>
       </c>
@@ -7687,7 +7704,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1">
       <c r="A18" s="81" t="s">
         <v>394</v>
       </c>
@@ -7699,7 +7716,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1">
       <c r="A19" s="90" t="s">
         <v>396</v>
       </c>
@@ -7713,7 +7730,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1">
       <c r="A20" s="81" t="s">
         <v>398</v>
       </c>
@@ -7727,7 +7744,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1">
       <c r="A21" s="92" t="s">
         <v>401</v>
       </c>
@@ -7741,7 +7758,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1">
       <c r="A22" s="81" t="s">
         <v>403</v>
       </c>
@@ -7755,7 +7772,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="27" thickBot="1">
       <c r="A23" s="81" t="s">
         <v>405</v>
       </c>
@@ -7769,7 +7786,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="52.5" thickBot="1">
       <c r="A24" s="81" t="s">
         <v>407</v>
       </c>
@@ -7783,7 +7800,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1">
       <c r="A25" s="81" t="s">
         <v>410</v>
       </c>
@@ -7795,7 +7812,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="27" thickBot="1">
       <c r="A26" s="81" t="s">
         <v>412</v>
       </c>
@@ -7809,7 +7826,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="27" thickBot="1">
       <c r="A27" s="81" t="s">
         <v>414</v>
       </c>
@@ -7823,7 +7840,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1">
       <c r="A28" s="81" t="s">
         <v>417</v>
       </c>
@@ -7837,7 +7854,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1">
       <c r="A29" s="92" t="s">
         <v>419</v>
       </c>
@@ -7851,7 +7868,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="81" t="s">
         <v>421</v>
       </c>
@@ -7865,7 +7882,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="27" thickBot="1">
       <c r="A31" s="81" t="s">
         <v>423</v>
       </c>
@@ -7877,7 +7894,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
       <c r="A32" s="81" t="s">
         <v>425</v>
       </c>
@@ -7891,7 +7908,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
       <c r="A33" s="81" t="s">
         <v>427</v>
       </c>
@@ -7905,7 +7922,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1">
       <c r="A34" s="81" t="s">
         <v>429</v>
       </c>
@@ -7919,7 +7936,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="81" t="s">
         <v>431</v>
       </c>
@@ -7933,7 +7950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1">
       <c r="A36" s="90" t="s">
         <v>433</v>
       </c>
@@ -7947,7 +7964,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="27" thickBot="1">
       <c r="A37" s="81" t="s">
         <v>435</v>
       </c>
@@ -7961,7 +7978,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="27" thickBot="1">
       <c r="A38" s="81" t="s">
         <v>437</v>
       </c>
@@ -7975,7 +7992,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>439</v>
       </c>
@@ -7989,7 +8006,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="27" thickBot="1">
       <c r="A40" s="81" t="s">
         <v>441</v>
       </c>
@@ -8003,7 +8020,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
       <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
@@ -8017,7 +8034,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="92" t="s">
         <v>445</v>
       </c>
@@ -8031,7 +8048,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
       <c r="A43" s="92" t="s">
         <v>447</v>
       </c>
@@ -8043,7 +8060,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="27" thickBot="1">
       <c r="A44" s="90" t="s">
         <v>449</v>
       </c>
@@ -8057,7 +8074,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
       <c r="A45" s="81" t="s">
         <v>451</v>
       </c>
@@ -8071,7 +8088,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -8085,7 +8102,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
       <c r="A47" s="81" t="s">
         <v>455</v>
       </c>
@@ -8097,7 +8114,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="27" thickBot="1">
       <c r="A48" s="81" t="s">
         <v>457</v>
       </c>
@@ -8109,19 +8126,19 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="93"/>
       <c r="D49" s="93"/>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="39" thickBot="1">
       <c r="A51" s="94" t="s">
         <v>459</v>
       </c>
@@ -8131,7 +8148,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1">
       <c r="A52" s="94" t="s">
         <v>459</v>
       </c>
@@ -8141,7 +8158,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1">
       <c r="A53" s="94" t="s">
         <v>459</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="515">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2641,6 +2641,27 @@
 5. *START, *END
 6. SETLL本身不讀RECORD, 要靠READ, 所以比CHAIN快得多
 相關試用CODE在YMYLES/QSETLLSRC</t>
+  </si>
+  <si>
+    <t>RPG有其補充功能的API: ILE Bindable APIs Available
+Most bindable APIs are available to any HLL that ILE supports. ILE provides the following bindable APIs:
+Activation Group and Control Flow Bindable APIs
+Abnormal End (CEE4ABN)
+Find a Control Boundary (CEE4FCB)
+Register Activation Group Exit Procedure (CEE4RAGE)
+Register Call Stack Entry Termination User Exit Procedure (CEERTX)
+Signal the Termination-Imminent Condition (CEETREC)
+Unregister Call Stack Entry Termination User Exit Procedure (CEEUTX)
+Condition Management Bindable APIs
+Construct a Condition Token (CEENCOD)
+Decompose a Condition Token (CEEDCOD)
+Handle a Condition (CEE4HC)
+Move the Resume Cursor to a Return Point (CEEMRCR)
+Register a User-Written Condition Handler (CEEHDLR)
+Retrieve ILE Version and Platform ID (CEEGPID)
+Return the Relative Invocation Number (CEE4RIN)
+Signal a Condition (CEESGL)
+Unregister a User Condition Handler (CEEHDLU)</t>
   </si>
 </sst>
 </file>
@@ -2969,7 +2990,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3270,6 +3291,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3663,7 +3687,7 @@
   <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3694,10 +3718,16 @@
       <c r="B3" s="110"/>
       <c r="C3" s="110"/>
     </row>
-    <row r="4" spans="1:3" s="102" customFormat="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="300">
+      <c r="A4" s="2">
+        <v>42479</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A5" s="2">
@@ -6059,16 +6089,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$223</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="519">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,7 +1574,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1605,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2503,7 +2503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2663,16 +2663,32 @@
 Signal a Condition (CEESGL)
 Unregister a User Condition Handler (CEEHDLU)</t>
   </si>
+  <si>
+    <t>Http</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原來金數据那種以curl -u傳入的Key/secret 是典型的Http Basic Authentication. 是一種傳統機制, 所以各種語言均有相應support.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpComponents</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache的HttpComponent是其Common Http的第二代產品, 包括HttpClient, HttpServer等等幾個package. 在Linode 4GB Server上試用了HttpClient包的Demo, 包括Get, Post, Basic Auth. 其抽像機制是把Client, RequestAction(HttpGet, HttpPost..), Request, Response 都抽象成個體, 針對reponse的解釋不再使用String, 而是有EntityUtils用靜態方式處理Response (官方文檔用了consume這個字眼)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2680,7 +2696,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2688,7 +2704,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2702,21 +2718,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2724,7 +2740,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2732,27 +2748,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2842,7 +2858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2850,7 +2866,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2990,7 +3006,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3325,10 +3341,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3362,14 +3381,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>102265</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3400,7 +3419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3474,6 +3493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3508,6 +3528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3683,21 +3704,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3708,215 +3729,221 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1">
+    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="300">
+    <row r="3" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42479</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B6" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="112" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A5" s="2">
-        <v>42479</v>
-      </c>
-      <c r="B5" s="111" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="111" t="s">
+      <c r="C6" s="111" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A6" s="2">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42478</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="110" t="s">
         <v>510</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C7" s="110" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="120">
-      <c r="A7" s="2">
-        <v>42477</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="30">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42477</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="109" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42477</v>
+      </c>
+      <c r="B9" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C9" s="108" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="102" customFormat="1">
-      <c r="A9" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="45">
+    <row r="10" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42473</v>
       </c>
       <c r="B10" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="107" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1">
-      <c r="A11" s="2">
+    <row r="12" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42469</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B12" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A12" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42463</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42463</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B15" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42463</v>
       </c>
-      <c r="B16" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B16" s="100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42463</v>
       </c>
-      <c r="B17" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B17" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42463</v>
       </c>
       <c r="B18" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B19" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C19" s="101" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A19" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B19" s="100" t="s">
-        <v>487</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="102" customFormat="1" ht="135">
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42462</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="240">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42462</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="120">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42462</v>
       </c>
@@ -3924,362 +3951,362 @@
         <v>481</v>
       </c>
       <c r="C22" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A23" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42460</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="180">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42460</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="60">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
       <c r="B26" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B27" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C27" s="99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A27" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>471</v>
-      </c>
-      <c r="C27" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42459</v>
       </c>
       <c r="B28" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B29" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C29" s="99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1">
-      <c r="A29" s="2">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42458</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B30" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A30" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42456</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
+        <v>255</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42456</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42456</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>467</v>
+      <c r="B33" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42456</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C35" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="77.25">
-      <c r="A35" s="79">
-        <v>42453</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="26.25">
+    <row r="36" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A36" s="79">
         <v>42453</v>
       </c>
       <c r="B36" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B37" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C37" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="39">
-      <c r="A37" s="79">
+    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
         <v>42452</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B38" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C38" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="165">
-      <c r="A38" s="75">
+    <row r="39" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="75">
         <v>42451</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B39" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C39" s="100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B39" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42451</v>
       </c>
-      <c r="B40" s="96" t="s">
-        <v>196</v>
+      <c r="B40" s="100" t="s">
+        <v>250</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="165">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42451</v>
       </c>
       <c r="B41" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B42" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="64.5">
-      <c r="A42" s="79">
+    <row r="43" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
         <v>42451</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="64.5">
-      <c r="A43" s="79">
+    <row r="44" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
         <v>42447</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B44" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C44" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>42440</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B45" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C45" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="75">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>42436</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B46" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="39">
-      <c r="A46" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="26.25">
+    <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
         <v>42431</v>
       </c>
       <c r="B47" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B48" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C48" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="51.75">
-      <c r="A48" s="79">
+    <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="79">
         <v>42430</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B49" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C49" s="78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="26.25">
-      <c r="A49" s="79">
+    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
         <v>42428</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B50" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>42426</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B51" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C51" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="77.25">
-      <c r="A51" s="79">
+    <row r="52" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="79">
         <v>42426</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B52" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C52" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B52" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42425</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="26.25">
-      <c r="A54" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B54" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="79">
         <v>42425</v>
       </c>
@@ -4287,316 +4314,316 @@
         <v>277</v>
       </c>
       <c r="C55" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="26.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="79">
         <v>42425</v>
       </c>
       <c r="B56" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B57" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C57" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="165">
-      <c r="A57" s="2">
+    <row r="58" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>42424</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B58" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="100" t="s">
+      <c r="C58" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45">
-      <c r="A58" s="2">
+    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>42423</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B59" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="79">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="79">
         <v>42423</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B60" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C60" s="78" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="90">
-      <c r="A60" s="2">
+    <row r="61" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>42422</v>
       </c>
-      <c r="B60" s="100" t="s">
+      <c r="B61" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="100" t="s">
+      <c r="C61" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="60">
-      <c r="A61" s="2">
+    <row r="62" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>42419</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C62" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="195">
-      <c r="A62" s="2">
+    <row r="63" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>42418</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
-      <c r="A63" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="75">
+    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42403</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>230</v>
+      <c r="B64" s="96" t="s">
+        <v>229</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42403</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="C65" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="90">
-      <c r="A66" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="45">
+    <row r="67" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42398</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>42397</v>
       </c>
-      <c r="B68" s="96" t="s">
+      <c r="B69" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45">
-      <c r="A69" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30">
+    <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42396</v>
       </c>
-      <c r="B70" s="96" t="s">
+      <c r="B70" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B71" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="128.25">
-      <c r="A71" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B71" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="64.5">
+    <row r="72" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A72" s="79">
         <v>42386</v>
       </c>
       <c r="B72" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B73" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C73" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45">
-      <c r="A73" s="2">
+    <row r="74" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>42384</v>
       </c>
-      <c r="B73" s="100" t="s">
+      <c r="B74" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="C74" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="180">
-      <c r="A74" s="2">
+    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>42382</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B75" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="64.5">
-      <c r="A75" s="79">
+    <row r="76" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
         <v>42382</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B76" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C76" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="2">
+    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>42381</v>
       </c>
-      <c r="B76" s="100" t="s">
+      <c r="B77" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="100" t="s">
+      <c r="C77" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45">
-      <c r="A77" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="75">
+    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42380</v>
       </c>
-      <c r="B78" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="180">
+      <c r="B78" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42380</v>
       </c>
       <c r="B79" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="217.5">
-      <c r="A80" s="79">
+    <row r="81" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="79">
         <v>42380</v>
       </c>
-      <c r="B80" s="78" t="s">
+      <c r="B81" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C81" s="78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102.75">
-      <c r="A81" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B81" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" s="78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="102.75">
+    <row r="82" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A82" s="79">
         <v>42378</v>
       </c>
       <c r="B82" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C82" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="141">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A83" s="79">
         <v>42378</v>
       </c>
       <c r="B83" s="78" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C83" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="77.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A84" s="79">
         <v>42378</v>
       </c>
@@ -4604,109 +4631,109 @@
         <v>298</v>
       </c>
       <c r="C84" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="102.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A85" s="79">
         <v>42378</v>
       </c>
       <c r="B85" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" s="78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B86" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C86" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="60">
-      <c r="A86" s="2">
+    <row r="87" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>42377</v>
       </c>
-      <c r="B86" s="100" t="s">
+      <c r="B87" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C86" s="100" t="s">
+      <c r="C87" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="77.25">
-      <c r="A87" s="79">
+    <row r="88" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="79">
         <v>42376</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B88" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C88" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45">
-      <c r="A88" s="2">
+    <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>42375</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="100" t="s">
+      <c r="C89" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>42369</v>
       </c>
-      <c r="B89" s="100" t="s">
+      <c r="B90" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C90" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="195">
-      <c r="A90" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="135">
+    <row r="91" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42368</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="45">
+        <v>196</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42368</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30">
-      <c r="A93" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42366</v>
       </c>
@@ -4714,114 +4741,114 @@
         <v>49</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>42366</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="150">
-      <c r="A95" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="30">
+    <row r="96" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="270">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
-      <c r="B97" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30">
+      <c r="C97" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
-      <c r="B98" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="B98" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
-      <c r="B99" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="225">
+      <c r="B99" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42361</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="60">
+      <c r="C100" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42361</v>
       </c>
-      <c r="B101" s="100" t="s">
-        <v>49</v>
+      <c r="B101" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="90">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42361</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>196</v>
+      <c r="B102" s="100" t="s">
+        <v>49</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="60">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42361</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="40">
-        <v>42360</v>
-      </c>
-      <c r="B104" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C104" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>42360</v>
       </c>
@@ -4829,721 +4856,721 @@
         <v>195</v>
       </c>
       <c r="C105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>42360</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="102.75">
-      <c r="A106" s="80">
+    <row r="107" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="80">
         <v>42360</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="B107" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C107" s="78" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30">
-      <c r="A107" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B107" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42356</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="B108" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42356</v>
       </c>
-      <c r="B109" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="30">
+      <c r="B109" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42356</v>
       </c>
-      <c r="B110" s="96"/>
+      <c r="B110" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="C110" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B111" s="96"/>
+      <c r="C111" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="60">
-      <c r="A111" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B111" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="150">
+      <c r="B112" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C113" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="120">
+      <c r="C113" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
-      <c r="B114" s="100" t="s">
-        <v>168</v>
+      <c r="B114" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
-      <c r="B115" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="B115" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="75">
+      <c r="B116" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>43</v>
+      <c r="B117" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="135">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
-      <c r="B118" s="100" t="s">
-        <v>173</v>
+      <c r="B118" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
+      <c r="C119" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42355</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42355</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C121" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42355</v>
       </c>
-      <c r="B122" s="42"/>
       <c r="C122" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42355</v>
       </c>
       <c r="B123" s="42"/>
       <c r="C123" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="75">
-      <c r="A124" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="30">
+    <row r="125" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
-      <c r="B125" s="26"/>
-      <c r="C125" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="75">
+      <c r="B125" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
       <c r="B126" s="26"/>
-      <c r="C126" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="C126" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
       <c r="B127" s="26"/>
-      <c r="C127" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="C127" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="96"/>
-      <c r="C128" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="B128" s="26"/>
+      <c r="C128" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="B129" s="96"/>
+      <c r="C129" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="96"/>
+      <c r="B130" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C130" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
       <c r="B131" s="96"/>
-      <c r="C131" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30">
+      <c r="C131" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="37"/>
+      <c r="B132" s="96"/>
       <c r="C132" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="96"/>
-      <c r="C133" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="45">
+      <c r="B133" s="37"/>
+      <c r="C133" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B134" s="96"/>
       <c r="C134" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="100"/>
-      <c r="C135" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30">
+      <c r="B135" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="38"/>
-      <c r="C136" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F136" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="75">
+      <c r="B136" s="100"/>
+      <c r="C136" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="45">
+      <c r="B137" s="38"/>
+      <c r="C137" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
-      <c r="B138" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="B138" s="41"/>
       <c r="C138" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="45">
+      <c r="B139" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C139" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42352</v>
       </c>
-      <c r="B140" s="44"/>
-      <c r="C140" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="30">
+      <c r="B140" s="43"/>
+      <c r="C140" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42352</v>
       </c>
-      <c r="B141" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C141" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="30">
+      <c r="B141" s="44"/>
+      <c r="C141" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42352</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="B142" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42352</v>
       </c>
-      <c r="B143" s="100" t="s">
+      <c r="B143" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B144" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C144" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="135">
-      <c r="A144" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B144" s="49"/>
-      <c r="C144" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="60">
+    <row r="145" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
-      <c r="B145" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="30">
+      <c r="B145" s="49"/>
+      <c r="C145" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
-      <c r="B146" s="96"/>
-      <c r="C146" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="120">
+      <c r="B146" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
-      <c r="B147" s="96" t="s">
-        <v>12</v>
-      </c>
+      <c r="B147" s="96"/>
       <c r="C147" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="150">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="30">
+      <c r="B148" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
-      <c r="B149" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C149" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="B149" s="52"/>
+      <c r="C149" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C150" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="C150" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
-      <c r="B151" s="100"/>
-      <c r="C151" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="B151" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="B152" s="100"/>
+      <c r="C152" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42349</v>
       </c>
-      <c r="B153" s="59"/>
-      <c r="C153" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="B153" s="58"/>
+      <c r="C153" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42349</v>
       </c>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="B154" s="59"/>
+      <c r="C154" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42349</v>
       </c>
-      <c r="B155" s="61"/>
-      <c r="C155" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="60">
+      <c r="B155" s="60"/>
+      <c r="C155" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42349</v>
       </c>
-      <c r="B156" s="62" t="s">
+      <c r="B156" s="61"/>
+      <c r="C156" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B157" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C156" s="100" t="s">
+      <c r="C157" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="90">
-      <c r="A157" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B157" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="30">
+    <row r="158" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="B159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30">
+      <c r="C160" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C161" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="195">
+      <c r="C161" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="135">
+      <c r="B162" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="75">
+      <c r="B163" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="69" t="s">
+      <c r="B164" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C164" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="75">
+      <c r="C164" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C165" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="30">
+      <c r="B165" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="B166" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="71" t="s">
-        <v>39</v>
+      <c r="B167" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C167" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="72" t="s">
+      <c r="B168" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C168" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
-      <c r="B169" s="96" t="s">
+      <c r="B169" s="72" t="s">
         <v>39</v>
       </c>
       <c r="C169" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
-      <c r="B170" s="15" t="s">
-        <v>43</v>
+      <c r="B170" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C170" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
-      <c r="B171" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C171" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="60">
+      <c r="B171" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
-      <c r="B172" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C172" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="105">
+      <c r="B172" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
-      <c r="B173" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="B173" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42345</v>
       </c>
-      <c r="B174" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C174" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="B174" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42345</v>
       </c>
@@ -5551,10 +5578,10 @@
         <v>49</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42345</v>
       </c>
@@ -5562,54 +5589,54 @@
         <v>49</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42345</v>
       </c>
       <c r="B177" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B178" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C177" s="96" t="s">
+      <c r="C178" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="141">
-      <c r="A178" s="80">
+    <row r="179" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A179" s="80">
         <v>42345</v>
       </c>
-      <c r="B178" s="78" t="s">
+      <c r="B179" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C178" s="78" t="s">
+      <c r="C179" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="105">
-      <c r="A179" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="90">
+    <row r="180" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="75">
+        <v>12</v>
+      </c>
+      <c r="C180" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
@@ -5617,10 +5644,10 @@
         <v>15</v>
       </c>
       <c r="C181" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5628,10 +5655,10 @@
         <v>15</v>
       </c>
       <c r="C182" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5639,10 +5666,10 @@
         <v>15</v>
       </c>
       <c r="C183" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5650,32 +5677,32 @@
         <v>15</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
@@ -5683,10 +5710,10 @@
         <v>15</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5694,54 +5721,54 @@
         <v>15</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
-      <c r="B189" s="100" t="s">
-        <v>12</v>
+      <c r="B189" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
-      <c r="B190" s="96" t="s">
-        <v>15</v>
+      <c r="B190" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C190" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
       <c r="B191" s="96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
       <c r="B192" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C192" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
@@ -5749,21 +5776,21 @@
         <v>15</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42341</v>
       </c>
       <c r="B194" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="C194" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42341</v>
       </c>
@@ -5771,200 +5798,200 @@
         <v>15</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42341</v>
       </c>
       <c r="B196" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C196" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="60">
+      <c r="C196" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42341</v>
       </c>
       <c r="B197" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B198" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C197" s="96" t="s">
+      <c r="C198" s="96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="60">
-      <c r="A198" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B198" s="96"/>
-      <c r="C198" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="45">
+    <row r="199" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42340</v>
       </c>
       <c r="B199" s="96"/>
       <c r="C199" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42340</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="96"/>
+      <c r="C200" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C200" s="96" t="s">
+      <c r="C201" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42339</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="64.5">
-      <c r="A203" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B203" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C203" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="26.25">
+    <row r="204" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A204" s="80">
         <v>42334</v>
       </c>
       <c r="B204" s="78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C204" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="39">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="80">
         <v>42334</v>
       </c>
       <c r="B205" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C205" s="78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A206" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B206" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C206" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="128.25">
-      <c r="A206" s="80">
-        <v>42333</v>
-      </c>
-      <c r="B206" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C206" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="51.75">
+    <row r="207" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A207" s="80">
         <v>42333</v>
       </c>
       <c r="B207" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C207" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="80">
+        <v>42333</v>
+      </c>
+      <c r="B208" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C207" s="78" t="s">
+      <c r="C208" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="26.25">
-      <c r="A208" s="80">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="80">
         <v>42331</v>
       </c>
-      <c r="B208" s="78" t="s">
+      <c r="B209" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C208" s="78" t="s">
+      <c r="C209" s="78" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="39">
-      <c r="A209" s="80">
+    <row r="210" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A210" s="80">
         <v>42329</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="39">
-      <c r="A210" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B210" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="C210" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="26.25">
+    <row r="211" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A211" s="80">
         <v>42328</v>
       </c>
       <c r="B211" s="78" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C211" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="115.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A212" s="80">
         <v>42328</v>
       </c>
       <c r="B212" s="78" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C212" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A213" s="80">
         <v>42328</v>
       </c>
       <c r="B213" s="78" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C213" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="153.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A214" s="80">
         <v>42328</v>
       </c>
@@ -5972,32 +5999,32 @@
         <v>318</v>
       </c>
       <c r="C214" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+      <c r="A215" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B215" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C215" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="102.75">
-      <c r="A215" s="80">
+    <row r="216" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216" s="80">
         <v>42324</v>
       </c>
-      <c r="B215" s="78" t="s">
+      <c r="B216" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C215" s="78" t="s">
+      <c r="C216" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="90">
-      <c r="A216" s="80">
-        <v>42321</v>
-      </c>
-      <c r="B216" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C216" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="26.25">
+    <row r="217" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="80">
         <v>42321</v>
       </c>
@@ -6005,72 +6032,83 @@
         <v>328</v>
       </c>
       <c r="C217" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A218" s="80">
+        <v>42321</v>
+      </c>
+      <c r="B218" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C218" s="78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="77.25">
-      <c r="A218" s="79">
+    <row r="219" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A219" s="79">
         <v>42318</v>
       </c>
-      <c r="B218" s="78" t="s">
+      <c r="B219" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C218" s="78" t="s">
+      <c r="C219" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="115.5">
-      <c r="A219" s="79">
+    <row r="220" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="79">
         <v>42311</v>
-      </c>
-      <c r="B219" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="77.25">
-      <c r="A220" s="79">
-        <v>42310</v>
       </c>
       <c r="B220" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="79">
+        <v>42310</v>
+      </c>
+      <c r="B221" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C221" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="51.75">
-      <c r="A221" s="79">
+    <row r="222" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A222" s="79">
         <v>42306</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B222" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C221" s="78" t="s">
+      <c r="C222" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="100"/>
-      <c r="B222" s="100"/>
-      <c r="C222" s="100"/>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="100"/>
+      <c r="B223" s="100"/>
+      <c r="C223" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C222">
+  <autoFilter ref="A1:C223">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C194" r:id="rId1"/>
-    <hyperlink ref="C155" r:id="rId2"/>
-    <hyperlink ref="C195" r:id="rId3"/>
-    <hyperlink ref="C29" r:id="rId4"/>
-    <hyperlink ref="C14" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C195" r:id="rId1"/>
+    <hyperlink ref="C156" r:id="rId2"/>
+    <hyperlink ref="C196" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -6079,26 +6117,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6110,16 +6148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
@@ -6130,7 +6168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6141,7 +6179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6152,7 +6190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6163,7 +6201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6174,7 +6212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6185,7 +6223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6196,7 +6234,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6207,7 +6245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6218,7 +6256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6229,7 +6267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6240,7 +6278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6251,7 +6289,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6262,7 +6300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6273,7 +6311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6284,7 +6322,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6295,7 +6333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6306,7 +6344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6317,7 +6355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6328,7 +6366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6339,7 +6377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6350,7 +6388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6361,7 +6399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6372,7 +6410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6383,7 +6421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6394,7 +6432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6405,7 +6443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6416,7 +6454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6427,7 +6465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6438,7 +6476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6449,7 +6487,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -6460,7 +6498,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6471,7 +6509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6482,7 +6520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6493,7 +6531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -6504,7 +6542,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6515,7 +6553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6526,7 +6564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6537,7 +6575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6548,7 +6586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6559,7 +6597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6570,7 +6608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6581,7 +6619,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6592,7 +6630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6603,7 +6641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6614,7 +6652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6625,7 +6663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6636,7 +6674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6647,7 +6685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6658,7 +6696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6669,7 +6707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6680,7 +6718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6691,7 +6729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6702,7 +6740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6713,7 +6751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6724,7 +6762,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6735,7 +6773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6746,7 +6784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6757,7 +6795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6768,7 +6806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6779,7 +6817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6790,7 +6828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6801,7 +6839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6812,7 +6850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6823,7 +6861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6834,7 +6872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6845,7 +6883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6856,7 +6894,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6867,7 +6905,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6878,7 +6916,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6889,7 +6927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6900,7 +6938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6911,7 +6949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6922,7 +6960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6933,7 +6971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6944,7 +6982,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6955,7 +6993,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -6966,7 +7004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -6977,7 +7015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -6988,7 +7026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -6999,7 +7037,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -7010,7 +7048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -7021,7 +7059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -7032,7 +7070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -7043,7 +7081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -7054,7 +7092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -7065,7 +7103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -7076,7 +7114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -7087,7 +7125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -7098,7 +7136,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -7109,7 +7147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -7120,7 +7158,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -7131,7 +7169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -7142,7 +7180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -7153,7 +7191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -7164,7 +7202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -7175,7 +7213,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7186,7 +7224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -7197,7 +7235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7208,7 +7246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7219,7 +7257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7230,7 +7268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7241,7 +7279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -7252,7 +7290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7263,7 +7301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -7274,7 +7312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -7285,7 +7323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7296,7 +7334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -7307,7 +7345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7318,7 +7356,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -7329,7 +7367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7340,7 +7378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7351,7 +7389,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7362,7 +7400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7400,26 +7438,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81"/>
       <c r="B1" s="81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="167.25" thickBot="1">
+    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>337</v>
       </c>
@@ -7427,7 +7465,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
         <v>339</v>
       </c>
@@ -7435,7 +7473,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>341</v>
       </c>
@@ -7443,7 +7481,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
@@ -7451,7 +7489,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>345</v>
       </c>
@@ -7459,7 +7497,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>347</v>
       </c>
@@ -7467,7 +7505,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>349</v>
       </c>
@@ -7475,7 +7513,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
         <v>351</v>
       </c>
@@ -7491,14 +7529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -7506,7 +7544,7 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
         <v>353</v>
       </c>
@@ -7516,7 +7554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -7524,7 +7562,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1">
+    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>355</v>
       </c>
@@ -7538,7 +7576,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>359</v>
       </c>
@@ -7552,7 +7590,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
         <v>362</v>
       </c>
@@ -7566,7 +7604,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1">
+    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>365</v>
       </c>
@@ -7580,7 +7618,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1">
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>368</v>
       </c>
@@ -7594,7 +7632,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1">
+    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>370</v>
       </c>
@@ -7608,7 +7646,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="s">
         <v>372</v>
       </c>
@@ -7622,7 +7660,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
         <v>375</v>
       </c>
@@ -7636,7 +7674,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1">
+    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="s">
         <v>377</v>
       </c>
@@ -7650,7 +7688,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1">
+    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="s">
         <v>379</v>
       </c>
@@ -7664,7 +7702,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1">
+    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91" t="s">
         <v>381</v>
       </c>
@@ -7678,7 +7716,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
         <v>384</v>
       </c>
@@ -7692,7 +7730,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1">
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
         <v>387</v>
       </c>
@@ -7706,7 +7744,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1">
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="s">
         <v>389</v>
       </c>
@@ -7720,7 +7758,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1">
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>392</v>
       </c>
@@ -7734,7 +7772,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>394</v>
       </c>
@@ -7746,7 +7784,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1">
+    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90" t="s">
         <v>396</v>
       </c>
@@ -7760,7 +7798,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1">
+    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>398</v>
       </c>
@@ -7774,7 +7812,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1">
+    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92" t="s">
         <v>401</v>
       </c>
@@ -7788,7 +7826,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1">
+    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>403</v>
       </c>
@@ -7802,7 +7840,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1">
+    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>405</v>
       </c>
@@ -7816,7 +7854,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="52.5" thickBot="1">
+    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>407</v>
       </c>
@@ -7830,7 +7868,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1">
+    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>410</v>
       </c>
@@ -7842,7 +7880,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1">
+    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>412</v>
       </c>
@@ -7856,7 +7894,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="81" t="s">
         <v>414</v>
       </c>
@@ -7870,7 +7908,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
         <v>417</v>
       </c>
@@ -7884,7 +7922,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="s">
         <v>419</v>
       </c>
@@ -7898,7 +7936,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>421</v>
       </c>
@@ -7912,7 +7950,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1">
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>423</v>
       </c>
@@ -7924,7 +7962,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="81" t="s">
         <v>425</v>
       </c>
@@ -7938,7 +7976,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
         <v>427</v>
       </c>
@@ -7952,7 +7990,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1">
+    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
         <v>429</v>
       </c>
@@ -7966,7 +8004,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
         <v>431</v>
       </c>
@@ -7980,7 +8018,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1">
+    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90" t="s">
         <v>433</v>
       </c>
@@ -7994,7 +8032,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1">
+    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>435</v>
       </c>
@@ -8008,7 +8046,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1">
+    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
         <v>437</v>
       </c>
@@ -8022,7 +8060,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1">
+    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="s">
         <v>439</v>
       </c>
@@ -8036,7 +8074,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1">
+    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>441</v>
       </c>
@@ -8050,7 +8088,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>443</v>
       </c>
@@ -8064,7 +8102,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="92" t="s">
         <v>445</v>
       </c>
@@ -8078,7 +8116,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="92" t="s">
         <v>447</v>
       </c>
@@ -8090,7 +8128,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="90" t="s">
         <v>449</v>
       </c>
@@ -8104,7 +8142,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>451</v>
       </c>
@@ -8118,7 +8156,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -8132,7 +8170,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>455</v>
       </c>
@@ -8144,7 +8182,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1">
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>457</v>
       </c>
@@ -8156,19 +8194,19 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="93"/>
       <c r="D49" s="93"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1">
+    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="94" t="s">
         <v>459</v>
       </c>
@@ -8178,7 +8216,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1">
+    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="94" t="s">
         <v>459</v>
       </c>
@@ -8188,7 +8226,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1">
+    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="s">
         <v>459</v>
       </c>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1507,19 +1507,6 @@
   </si>
   <si>
     <t>RPGLE/ Debug</t>
-  </si>
-  <si>
-    <t>Debug step by step:
-1. Compile: 14 + F4 + DBGVIEW(*SOURCE)
-2. STRDBG */* UPDPROD(*YES)-&gt;會進入設定Break point 界面
-3. 只要還沒有ENDDBG, 每次CALL都會進入DBG模式
-4. 一系列有用的Key:
-    a) F6 可動態設定
-    b) F10 小跳
-    c) F12 大跳
-    d) F11 指定變量名查動態值
-    e) Eval *=* 在某切面動態賦值
-x. ENDDBG</t>
   </si>
   <si>
     <t>加了QUALIFIED關鍵字才可以用*.*的形式調用Data structure</t>
@@ -1574,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1595,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1605,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2478,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2503,7 +2490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2679,16 +2666,29 @@
     <t>Apache的HttpComponent是其Common Http的第二代產品, 包括HttpClient, HttpServer等等幾個package. 在Linode 4GB Server上試用了HttpClient包的Demo, 包括Get, Post, Basic Auth. 其抽像機制是把Client, RequestAction(HttpGet, HttpPost..), Request, Response 都抽象成個體, 針對reponse的解釋不再使用String, 而是有EntityUtils用靜態方式處理Response (官方文檔用了consume這個字眼)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Debug step by step:
+1. Compile: 14 + F4 + DBGVIEW(*SOURCE)
+2. STRDBG {LIBRARY}/{PGMNAME} UPDPROD(*YES)-&gt;會進入設定Break point 界面
+3. 只要還沒有ENDDBG, 每次CALL都會進入DBG模式
+4. 一系列有用的Key:
+    a) F6: break point- 可動態設定
+    b) F10 小跳
+    c) F12 大跳
+    d) F11 指定變量名查動態值
+    e) Eval *=* 在某切面動態賦值
+x. ENDDBG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2696,7 +2696,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2704,7 +2704,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2718,21 +2718,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2740,7 +2740,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2748,27 +2748,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2858,7 +2858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2866,7 +2866,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3006,7 +3006,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3344,10 +3344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3419,7 +3422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3493,7 +3496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3528,7 +3530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3704,21 +3705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3729,89 +3730,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="102" customFormat="1">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A3" s="2">
         <v>42485</v>
       </c>
       <c r="B3" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>517</v>
       </c>
-      <c r="C3" s="113" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A4" s="2">
         <v>42485</v>
       </c>
       <c r="B4" s="110" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="110" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="300">
       <c r="A5" s="2">
         <v>42485</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A6" s="2">
         <v>42479</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A7" s="2">
         <v>42478</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="120">
       <c r="A8" s="2">
         <v>42477</v>
       </c>
       <c r="B8" s="109" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="109" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="109" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A9" s="2">
         <v>42477</v>
       </c>
       <c r="B9" s="108" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="108" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1">
       <c r="A10" s="2">
         <v>42473</v>
       </c>
@@ -3819,10 +3820,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="45">
       <c r="A11" s="2">
         <v>42473</v>
       </c>
@@ -3830,329 +3831,329 @@
         <v>12</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="102" customFormat="1">
       <c r="A12" s="2">
         <v>42469</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A13" s="2">
         <v>42463</v>
       </c>
       <c r="B13" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="104" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A14" s="2">
         <v>42463</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="104" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1">
       <c r="A15" s="2">
         <v>42463</v>
       </c>
       <c r="B15" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="C15" s="104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A16" s="2">
         <v>42463</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A17" s="2">
         <v>42463</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="30">
       <c r="A18" s="2">
         <v>42463</v>
       </c>
       <c r="B18" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="101" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A19" s="2">
         <v>42463</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A20" s="2">
         <v>42462</v>
       </c>
       <c r="B20" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="100" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A21" s="2">
         <v>42462</v>
       </c>
       <c r="B21" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="100" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="240">
       <c r="A22" s="2">
         <v>42462</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="102" customFormat="1" ht="120">
       <c r="A23" s="2">
         <v>42462</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A24" s="2">
         <v>42460</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A25" s="2">
         <v>42460</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="180">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A27" s="2">
         <v>42460</v>
       </c>
       <c r="B27" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C27" s="99" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A28" s="2">
         <v>42459</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A29" s="2">
         <v>42459</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1">
       <c r="A30" s="2">
         <v>42458</v>
       </c>
       <c r="B30" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A31" s="2">
         <v>42456</v>
       </c>
       <c r="B31" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="60">
       <c r="A32" s="2">
         <v>42456</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="2">
         <v>42456</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>42456</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="C34" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="45">
       <c r="A35" s="2">
         <v>42456</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="77.25">
       <c r="A36" s="79">
         <v>42453</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.25">
       <c r="A37" s="79">
         <v>42453</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="39">
       <c r="A38" s="79">
         <v>42452</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="165">
       <c r="A39" s="75">
         <v>42451</v>
       </c>
       <c r="B39" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="100" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="45">
       <c r="A40" s="2">
         <v>42451</v>
       </c>
       <c r="B40" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="2">
         <v>42451</v>
       </c>
@@ -4160,43 +4161,43 @@
         <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="165">
       <c r="A42" s="2">
         <v>42451</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="64.5">
       <c r="A43" s="79">
         <v>42451</v>
       </c>
       <c r="B43" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="64.5">
       <c r="A44" s="79">
         <v>42447</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>42440</v>
       </c>
@@ -4204,10 +4205,10 @@
         <v>53</v>
       </c>
       <c r="C45" s="100" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="75">
       <c r="A46" s="2">
         <v>42436</v>
       </c>
@@ -4215,54 +4216,54 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="39">
       <c r="A47" s="79">
         <v>42431</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25">
       <c r="A48" s="79">
         <v>42431</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="51.75">
       <c r="A49" s="79">
         <v>42430</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25">
       <c r="A50" s="79">
         <v>42428</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" s="78" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
       <c r="A51" s="2">
         <v>42426</v>
       </c>
@@ -4270,87 +4271,87 @@
         <v>186</v>
       </c>
       <c r="C51" s="100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="77.25">
       <c r="A52" s="79">
         <v>42426</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>42425</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
       <c r="A54" s="2">
         <v>42425</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="26.25">
       <c r="A55" s="79">
         <v>42425</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="79">
         <v>42425</v>
       </c>
       <c r="B56" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C56" s="78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" ht="26.25">
       <c r="A57" s="79">
         <v>42425</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="165">
       <c r="A58" s="2">
         <v>42424</v>
       </c>
       <c r="B58" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="100" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C58" s="114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45">
       <c r="A59" s="2">
         <v>42423</v>
       </c>
@@ -4361,18 +4362,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="79">
         <v>42423</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="90">
       <c r="A61" s="2">
         <v>42422</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="60">
       <c r="A62" s="2">
         <v>42419</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="195">
       <c r="A63" s="2">
         <v>42418</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="45">
       <c r="A64" s="2">
         <v>42403</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="75">
       <c r="A65" s="2">
         <v>42403</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="90">
       <c r="A66" s="2">
         <v>42403</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="90">
       <c r="A67" s="2">
         <v>42398</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="45">
       <c r="A68" s="2">
         <v>42398</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>42397</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="45">
       <c r="A70" s="2">
         <v>42396</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30">
       <c r="A71" s="2">
         <v>42396</v>
       </c>
@@ -4491,29 +4492,29 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="128.25">
       <c r="A72" s="79">
         <v>42386</v>
       </c>
       <c r="B72" s="78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C72" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="64.5">
       <c r="A73" s="79">
         <v>42386</v>
       </c>
       <c r="B73" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45">
       <c r="A74" s="2">
         <v>42384</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="180">
       <c r="A75" s="2">
         <v>42382</v>
       </c>
@@ -4535,18 +4536,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="64.5">
       <c r="A76" s="79">
         <v>42382</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C76" s="78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30">
       <c r="A77" s="2">
         <v>42381</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="45">
       <c r="A78" s="2">
         <v>42380</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="75">
       <c r="A79" s="2">
         <v>42380</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="180">
       <c r="A80" s="2">
         <v>42380</v>
       </c>
@@ -4590,73 +4591,73 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="217.5">
       <c r="A81" s="79">
         <v>42380</v>
       </c>
       <c r="B81" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C81" s="78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="102.75">
       <c r="A82" s="79">
         <v>42378</v>
       </c>
       <c r="B82" s="78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C82" s="78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="102.75">
       <c r="A83" s="79">
         <v>42378</v>
       </c>
       <c r="B83" s="78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C83" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="141">
       <c r="A84" s="79">
         <v>42378</v>
       </c>
       <c r="B84" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" ht="77.25">
       <c r="A85" s="79">
         <v>42378</v>
       </c>
       <c r="B85" s="78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C85" s="78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="102.75">
       <c r="A86" s="79">
         <v>42378</v>
       </c>
       <c r="B86" s="78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="78" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="60">
       <c r="A87" s="2">
         <v>42377</v>
       </c>
@@ -4667,18 +4668,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="77.25">
       <c r="A88" s="79">
         <v>42376</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C88" s="78" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45">
       <c r="A89" s="2">
         <v>42375</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>42369</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="195">
       <c r="A91" s="2">
         <v>42368</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="135">
       <c r="A92" s="2">
         <v>42368</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="45">
       <c r="A93" s="2">
         <v>42368</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="30">
       <c r="A94" s="2">
         <v>42366</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="30">
       <c r="A95" s="2">
         <v>42366</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="150">
       <c r="A96" s="2">
         <v>42361</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="30">
       <c r="A97" s="2">
         <v>42361</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="270">
       <c r="A98" s="2">
         <v>42361</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="30">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>42361</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="225">
       <c r="A101" s="2">
         <v>42361</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="60">
       <c r="A102" s="2">
         <v>42361</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="90">
       <c r="A103" s="2">
         <v>42361</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="60">
       <c r="A104" s="2">
         <v>42361</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="40">
         <v>42360</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="40">
         <v>42360</v>
       </c>
@@ -4870,18 +4871,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="102.75">
       <c r="A107" s="80">
         <v>42360</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" s="78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30">
       <c r="A108" s="2">
         <v>42356</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>42356</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>42356</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="30">
       <c r="A111" s="2">
         <v>42356</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="60">
       <c r="A112" s="2">
         <v>42355</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>42355</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="150">
       <c r="A114" s="2">
         <v>42355</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="120">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="30">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="75">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="135">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="75">
       <c r="A120" s="2">
         <v>42355</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="2">
         <v>42355</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42355</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42355</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42355</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="75">
       <c r="A125" s="2">
         <v>42352</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" s="2">
         <v>42352</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="75">
       <c r="A127" s="2">
         <v>42352</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="45">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="45">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="75">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="45">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="30">
       <c r="A140" s="2">
         <v>42352</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="45">
       <c r="A141" s="2">
         <v>42352</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2">
         <v>42352</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30">
       <c r="A143" s="2">
         <v>42352</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>42352</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="135">
       <c r="A145" s="2">
         <v>42349</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="60">
       <c r="A146" s="2">
         <v>42349</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="30">
       <c r="A147" s="2">
         <v>42349</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="120">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="150">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="30">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>42349</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42349</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42349</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>42349</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="60">
       <c r="A157" s="2">
         <v>42349</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="90">
       <c r="A158" s="2">
         <v>42345</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="2">
         <v>42345</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>42345</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="30">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="195">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="135">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="75">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="75">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="30">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="60">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="150">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="45">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="60">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="105">
       <c r="A174" s="2">
         <v>42345</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>42345</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>42345</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="75">
       <c r="A177" s="2">
         <v>42345</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="45">
       <c r="A178" s="2">
         <v>42345</v>
       </c>
@@ -5614,18 +5615,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="141">
       <c r="A179" s="80">
         <v>42345</v>
       </c>
       <c r="B179" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C179" s="78" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" ht="105">
       <c r="A180" s="2">
         <v>42341</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="90">
       <c r="A181" s="2">
         <v>42341</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="75">
       <c r="A182" s="2">
         <v>42341</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="30">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="30">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="45">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="90">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="30">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="150">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="75">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="90">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="60">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>42341</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>42341</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>42341</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="75">
       <c r="A197" s="2">
         <v>42341</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="60">
       <c r="A198" s="2">
         <v>42341</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="60">
       <c r="A199" s="2">
         <v>42340</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="45">
       <c r="A200" s="2">
         <v>42340</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="60">
       <c r="A201" s="2">
         <v>42340</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>42339</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>42339</v>
       </c>
@@ -5881,51 +5882,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="64.5">
       <c r="A204" s="80">
         <v>42334</v>
       </c>
       <c r="B204" s="78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C204" s="78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="26.25">
       <c r="A205" s="80">
         <v>42334</v>
       </c>
       <c r="B205" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C205" s="78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="39">
       <c r="A206" s="80">
         <v>42334</v>
       </c>
       <c r="B206" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C206" s="78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="128.25">
       <c r="A207" s="80">
         <v>42333</v>
       </c>
       <c r="B207" s="78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C207" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="51.75">
       <c r="A208" s="80">
         <v>42333</v>
       </c>
@@ -5933,87 +5934,87 @@
         <v>216</v>
       </c>
       <c r="C208" s="78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="26.25">
       <c r="A209" s="80">
         <v>42331</v>
       </c>
       <c r="B209" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C209" s="78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="39">
       <c r="A210" s="80">
         <v>42329</v>
       </c>
       <c r="B210" s="78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C210" s="78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="39">
       <c r="A211" s="80">
         <v>42328</v>
       </c>
       <c r="B211" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C211" s="78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="26.25">
       <c r="A212" s="80">
         <v>42328</v>
       </c>
       <c r="B212" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C212" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="115.5">
       <c r="A213" s="80">
         <v>42328</v>
       </c>
       <c r="B213" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C213" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="90">
       <c r="A214" s="80">
         <v>42328</v>
       </c>
       <c r="B214" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C214" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C214" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="141" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" ht="153.75">
       <c r="A215" s="80">
         <v>42328</v>
       </c>
       <c r="B215" s="78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C215" s="78" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="102.75">
       <c r="A216" s="80">
         <v>42324</v>
       </c>
@@ -6021,43 +6022,43 @@
         <v>49</v>
       </c>
       <c r="C216" s="78" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="90">
       <c r="A217" s="80">
         <v>42321</v>
       </c>
       <c r="B217" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C217" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C217" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" ht="26.25">
       <c r="A218" s="80">
         <v>42321</v>
       </c>
       <c r="B218" s="78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C218" s="78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="77.25">
       <c r="A219" s="79">
         <v>42318</v>
       </c>
       <c r="B219" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C219" s="78" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="115.5">
       <c r="A220" s="79">
         <v>42311</v>
       </c>
@@ -6065,10 +6066,10 @@
         <v>216</v>
       </c>
       <c r="C220" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="77.25">
       <c r="A221" s="79">
         <v>42310</v>
       </c>
@@ -6076,21 +6077,21 @@
         <v>216</v>
       </c>
       <c r="C221" s="78" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="51.75">
       <c r="A222" s="79">
         <v>42306</v>
       </c>
       <c r="B222" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="C222" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="C222" s="78" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="100"/>
       <c r="B223" s="100"/>
       <c r="C223" s="100"/>
@@ -6117,26 +6118,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6148,16 +6149,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
         <v>110</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -7147,7 +7148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7438,87 +7439,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="81"/>
       <c r="B1" s="81" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="167.25" thickBot="1">
+      <c r="A2" s="82" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="83" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="84" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="85" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="84" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="85" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="84" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="85" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="82" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="B6" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="85" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="84" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="85" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="84" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="85" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="82" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
+      <c r="B9" s="85" t="s">
         <v>351</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7529,14 +7530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -7544,9 +7545,9 @@
     <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -7554,686 +7555,686 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.5" thickBot="1">
       <c r="A2" s="81"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A3" s="81" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="B3" s="81" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="C3" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="D3" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="81" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="81" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="B4" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="D4" s="81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" thickBot="1">
+      <c r="A5" s="90" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" thickBot="1">
+      <c r="A6" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" thickBot="1">
+      <c r="A7" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="D7" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="81" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A8" s="81" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
-        <v>370</v>
-      </c>
       <c r="B8" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="91" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="B9" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="D9" s="81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" thickBot="1">
+      <c r="A11" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A12" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" thickBot="1">
+      <c r="A13" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" thickBot="1">
+      <c r="A15" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1">
+      <c r="A16" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" thickBot="1">
+      <c r="A17" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>385</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="D17" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D17" s="81" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A18" s="81" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
-        <v>394</v>
-      </c>
       <c r="B18" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="81" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A19" s="90" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90" t="s">
-        <v>396</v>
-      </c>
       <c r="B19" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C19" s="91" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A20" s="81" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="B20" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="81" t="s">
+      <c r="D20" s="81" t="s">
         <v>399</v>
       </c>
-      <c r="D20" s="81" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A21" s="92" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
+      <c r="B21" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="81" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="65.25" thickBot="1">
+      <c r="A22" s="81" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="B22" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="81" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="27" thickBot="1">
+      <c r="A23" s="81" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="B23" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="81" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A24" s="81" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="B24" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C24" s="81" t="s">
+      <c r="D24" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="81" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A25" s="81" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
-        <v>410</v>
-      </c>
       <c r="B25" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="81" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" thickBot="1">
+      <c r="A26" s="81" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
-        <v>412</v>
-      </c>
       <c r="B26" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D26" s="81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27" thickBot="1">
+      <c r="A27" s="81" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="B27" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="81" t="s">
+      <c r="D27" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="81" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A28" s="81" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
-        <v>417</v>
-      </c>
       <c r="B28" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C28" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="81" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A29" s="92" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
-        <v>419</v>
-      </c>
       <c r="B29" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C29" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="81" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A30" s="81" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="B30" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D30" s="81" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="27" thickBot="1">
+      <c r="A31" s="81" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
-        <v>423</v>
-      </c>
       <c r="B31" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="81" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A32" s="81" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
+      <c r="B32" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="B32" s="81" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
+      <c r="D33" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="81" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A34" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D33" s="81" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81" t="s">
+      <c r="D34" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="81" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A36" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" thickBot="1">
+      <c r="A37" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27" thickBot="1">
+      <c r="A38" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="B35" s="81" t="s">
+      <c r="D38" s="81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="52.5" thickBot="1">
+      <c r="A39" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="90" t="s">
-        <v>433</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="91" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81" t="s">
-        <v>435</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81" t="s">
-        <v>437</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="91" t="s">
+      <c r="D39" s="81" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="81" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="27" thickBot="1">
+      <c r="A40" s="81" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
-        <v>441</v>
-      </c>
       <c r="B40" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="81" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="B41" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="81" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="81" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92" t="s">
+      <c r="D42" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="81" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="92" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
-        <v>447</v>
-      </c>
       <c r="B43" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="91" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27" thickBot="1">
+      <c r="A44" s="90" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90" t="s">
+      <c r="B44" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="81" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="D44" s="81" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="81" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
+      <c r="B45" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D45" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="B45" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="D45" s="81" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A46" s="92" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92" t="s">
+      <c r="B46" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="B46" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="D46" s="91" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A47" s="81" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81" t="s">
-        <v>455</v>
-      </c>
       <c r="B47" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C47" s="81"/>
       <c r="D47" s="81" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1">
+      <c r="A48" s="81" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81" t="s">
-        <v>457</v>
-      </c>
       <c r="B48" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C48" s="93"/>
       <c r="D48" s="91" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="A49" s="81"/>
       <c r="B49" s="81"/>
       <c r="C49" s="93"/>
       <c r="D49" s="93"/>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
       <c r="A50" s="81"/>
       <c r="B50" s="81"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
     </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="39" thickBot="1">
       <c r="A51" s="94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="81"/>
       <c r="C51" s="81"/>
       <c r="D51" s="94" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="41.25" thickBot="1">
       <c r="A52" s="94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" s="81"/>
       <c r="C52" s="81"/>
       <c r="D52" s="95" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="54.75" thickBot="1">
       <c r="A53" s="94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" s="81"/>
       <c r="C53" s="81"/>
       <c r="D53" s="95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$226</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="522">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2678,6 +2678,17 @@
     d) F11 指定變量名查動態值
     e) Eval *=* 在某切面動態賦值
 x. ENDDBG</t>
+  </si>
+  <si>
+    <t>rpg</t>
+  </si>
+  <si>
+    <t>1. Move can hide error, so eval is preferred. 
+2. In DSPF, SEU provide support (F1) to functinos  
+3. We don’t use 17 on dspf editting because it might erase the remark/comment, so we only */? A certain field to know its name and quit without saving.</t>
+  </si>
+  <si>
+    <t>I prove that "MOVE" can cause problem again. In my sample program YMYLES1/QRTSTCSRC, I move 99999 to a variable and then move 0 to it, but its never works anymore. So we need to use the Z-ADD to ensure a value is written</t>
   </si>
 </sst>
 </file>
@@ -3006,7 +3017,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3307,6 +3318,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3384,13 +3401,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3706,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3735,915 +3752,909 @@
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" s="102" customFormat="1">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A4" s="2">
+        <v>42507</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="60">
+      <c r="A5" s="2">
+        <v>42502</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="A6" s="2">
         <v>42485</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B6" s="113" t="s">
         <v>516</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C6" s="113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="30">
-      <c r="A4" s="2">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A7" s="2">
         <v>42485</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B7" s="110" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C7" s="110" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="300">
-      <c r="A5" s="2">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="300">
+      <c r="A8" s="2">
         <v>42485</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B8" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C8" s="112" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A6" s="2">
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="150">
+      <c r="A9" s="2">
         <v>42479</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B9" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C9" s="111" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A7" s="2">
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="A10" s="2">
         <v>42478</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B10" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C10" s="110" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="120">
-      <c r="A8" s="2">
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A11" s="2">
         <v>42477</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B11" s="109" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C11" s="109" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="30">
-      <c r="A9" s="2">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A12" s="2">
         <v>42477</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B12" s="108" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C12" s="108" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="102" customFormat="1">
-      <c r="A10" s="2">
+    <row r="13" spans="1:3" s="102" customFormat="1">
+      <c r="A13" s="2">
         <v>42473</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B13" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C13" s="106" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="45">
-      <c r="A11" s="2">
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A14" s="2">
         <v>42473</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B14" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C14" s="107" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="102" customFormat="1">
-      <c r="A12" s="2">
-        <v>42469</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A13" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="105">
-      <c r="A14" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="102" customFormat="1">
       <c r="A15" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>42469</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A16" s="2">
         <v>42463</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B16" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A17" s="2">
         <v>42463</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B17" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="102" customFormat="1">
       <c r="A18" s="2">
         <v>42463</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>489</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B18" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A19" s="2">
         <v>42463</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="A20" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A21" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A22" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B22" s="101" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C22" s="101" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A20" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>486</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="135">
-      <c r="A21" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="240">
-      <c r="A22" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="102" customFormat="1" ht="120">
+    <row r="23" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A23" s="2">
         <v>42462</v>
       </c>
       <c r="B23" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="102" customFormat="1" ht="135">
+      <c r="A24" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="102" customFormat="1" ht="240">
+      <c r="A25" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C25" s="100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A26" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="100" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A24" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="30">
-      <c r="A25" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B25" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="C25" s="99" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="180">
-      <c r="A26" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B26" s="99" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="99" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A27" s="2">
         <v>42460</v>
       </c>
       <c r="B27" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="30">
+      <c r="A28" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="180">
+      <c r="A29" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A30" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B30" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C30" s="99" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A28" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="C28" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="60">
-      <c r="A29" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1">
-      <c r="A30" s="2">
-        <v>42458</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>470</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A31" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="60">
+        <v>42459</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A32" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45">
+        <v>42459</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1">
       <c r="A33" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>42458</v>
+      </c>
+      <c r="B33" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A34" s="2">
         <v>42456</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45">
+      <c r="B34" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="2">
         <v>42456</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="96" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45">
+      <c r="A38" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C38" s="44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="77.25">
-      <c r="A36" s="79">
+    <row r="39" spans="1:3" ht="77.25">
+      <c r="A39" s="79">
         <v>42453</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B39" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C39" s="78" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26.25">
-      <c r="A37" s="79">
+    <row r="40" spans="1:3" ht="26.25">
+      <c r="A40" s="79">
         <v>42453</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B40" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C40" s="78" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="39">
-      <c r="A38" s="79">
+    <row r="41" spans="1:3" ht="39">
+      <c r="A41" s="79">
         <v>42452</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B41" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C41" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="165">
-      <c r="A39" s="75">
+    <row r="42" spans="1:3" ht="165">
+      <c r="A42" s="75">
         <v>42451</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B42" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C42" s="100" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45">
-      <c r="A40" s="2">
+    <row r="43" spans="1:3" ht="45">
+      <c r="A43" s="2">
         <v>42451</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B43" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="2">
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="2">
         <v>42451</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B44" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="165">
-      <c r="A42" s="2">
+    <row r="45" spans="1:3" ht="165">
+      <c r="A45" s="2">
         <v>42451</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B45" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="64.5">
-      <c r="A43" s="79">
+    <row r="46" spans="1:3" ht="64.5">
+      <c r="A46" s="79">
         <v>42451</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B46" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C46" s="78" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="64.5">
-      <c r="A44" s="79">
+    <row r="47" spans="1:3" ht="64.5">
+      <c r="A47" s="79">
         <v>42447</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B47" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C47" s="78" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>42440</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B48" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C48" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="75">
-      <c r="A46" s="2">
+    <row r="49" spans="1:3" ht="75">
+      <c r="A49" s="2">
         <v>42436</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B49" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="39">
-      <c r="A47" s="79">
+    <row r="50" spans="1:3" ht="39">
+      <c r="A50" s="79">
         <v>42431</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B50" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="26.25">
-      <c r="A48" s="79">
+    <row r="51" spans="1:3" ht="26.25">
+      <c r="A51" s="79">
         <v>42431</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B51" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C51" s="78" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="51.75">
-      <c r="A49" s="79">
+    <row r="52" spans="1:3" ht="51.75">
+      <c r="A52" s="79">
         <v>42430</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B52" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C52" s="78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25">
-      <c r="A50" s="79">
+    <row r="53" spans="1:3" ht="26.25">
+      <c r="A53" s="79">
         <v>42428</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B53" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C53" s="78" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="2">
-        <v>42426</v>
-      </c>
-      <c r="B51" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="77.25">
-      <c r="A52" s="79">
-        <v>42426</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30">
       <c r="A54" s="2">
+        <v>42426</v>
+      </c>
+      <c r="B54" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="77.25">
+      <c r="A55" s="79">
+        <v>42426</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>42425</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="26.25">
-      <c r="A55" s="79">
+    <row r="58" spans="1:3" ht="26.25">
+      <c r="A58" s="79">
         <v>42425</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B58" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C58" s="78" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="79">
+    <row r="59" spans="1:3">
+      <c r="A59" s="79">
         <v>42425</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B59" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C59" s="78" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="26.25">
-      <c r="A57" s="79">
+    <row r="60" spans="1:3" ht="26.25">
+      <c r="A60" s="79">
         <v>42425</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B60" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C60" s="78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="165">
-      <c r="A58" s="2">
+    <row r="61" spans="1:3" ht="165">
+      <c r="A61" s="2">
         <v>42424</v>
       </c>
-      <c r="B58" s="100" t="s">
+      <c r="B61" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C61" s="114" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45">
-      <c r="A59" s="2">
+    <row r="62" spans="1:3" ht="45">
+      <c r="A62" s="2">
         <v>42423</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B62" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="79">
+    <row r="63" spans="1:3">
+      <c r="A63" s="79">
         <v>42423</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B63" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C63" s="78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="90">
-      <c r="A61" s="2">
+    <row r="64" spans="1:3" ht="90">
+      <c r="A64" s="2">
         <v>42422</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B64" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C64" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60">
-      <c r="A62" s="2">
+    <row r="65" spans="1:3" ht="60">
+      <c r="A65" s="2">
         <v>42419</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C65" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="195">
-      <c r="A63" s="2">
+    <row r="66" spans="1:3" ht="195">
+      <c r="A66" s="2">
         <v>42418</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45">
-      <c r="A64" s="2">
+    <row r="67" spans="1:3" ht="45">
+      <c r="A67" s="2">
         <v>42403</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B67" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="75">
-      <c r="A65" s="2">
+    <row r="68" spans="1:3" ht="75">
+      <c r="A68" s="2">
         <v>42403</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="90">
-      <c r="A66" s="2">
+    <row r="69" spans="1:3" ht="90">
+      <c r="A69" s="2">
         <v>42403</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="90">
-      <c r="A67" s="2">
+    <row r="70" spans="1:3" ht="90">
+      <c r="A70" s="2">
         <v>42398</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45">
-      <c r="A68" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
-        <v>42397</v>
-      </c>
-      <c r="B69" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45">
-      <c r="A70" s="2">
-        <v>42396</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>196</v>
       </c>
       <c r="C70" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45">
+      <c r="A71" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>42397</v>
+      </c>
+      <c r="B72" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45">
+      <c r="A73" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30">
-      <c r="A71" s="2">
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="2">
         <v>42396</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B74" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="128.25">
-      <c r="A72" s="79">
+    <row r="75" spans="1:3" ht="128.25">
+      <c r="A75" s="79">
         <v>42386</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B75" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C75" s="78" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="64.5">
-      <c r="A73" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B73" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="45">
-      <c r="A74" s="2">
-        <v>42384</v>
-      </c>
-      <c r="B74" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="180">
-      <c r="A75" s="2">
-        <v>42382</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64.5">
       <c r="A76" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B76" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="45">
+      <c r="A77" s="2">
+        <v>42384</v>
+      </c>
+      <c r="B77" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="180">
+      <c r="A78" s="2">
         <v>42382</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B78" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="64.5">
+      <c r="A79" s="79">
+        <v>42382</v>
+      </c>
+      <c r="B79" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C79" s="78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30">
-      <c r="A77" s="2">
+    <row r="80" spans="1:3" ht="30">
+      <c r="A80" s="2">
         <v>42381</v>
       </c>
-      <c r="B77" s="100" t="s">
+      <c r="B80" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C77" s="100" t="s">
+      <c r="C80" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45">
-      <c r="A78" s="2">
+    <row r="81" spans="1:3" ht="45">
+      <c r="A81" s="2">
         <v>42380</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="75">
-      <c r="A79" s="2">
+    <row r="82" spans="1:3" ht="75">
+      <c r="A82" s="2">
         <v>42380</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B82" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="180">
-      <c r="A80" s="2">
+    <row r="83" spans="1:3" ht="180">
+      <c r="A83" s="2">
         <v>42380</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B83" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="217.5">
-      <c r="A81" s="79">
+    <row r="84" spans="1:3" ht="217.5">
+      <c r="A84" s="79">
         <v>42380</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B84" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C84" s="78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="102.75">
-      <c r="A82" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B82" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="102.75">
-      <c r="A83" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B83" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="141">
-      <c r="A84" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B84" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="77.25">
+    <row r="85" spans="1:3" ht="102.75">
       <c r="A85" s="79">
         <v>42378</v>
       </c>
       <c r="B85" s="78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C85" s="78" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="102.75">
@@ -4651,161 +4662,161 @@
         <v>42378</v>
       </c>
       <c r="B86" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C86" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="60">
-      <c r="A87" s="2">
-        <v>42377</v>
-      </c>
-      <c r="B87" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="100" t="s">
-        <v>211</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="141">
+      <c r="A87" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B87" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" s="78" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="77.25">
       <c r="A88" s="79">
-        <v>42376</v>
+        <v>42378</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C88" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="45">
-      <c r="A89" s="2">
-        <v>42375</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="100" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="102.75">
+      <c r="A89" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B89" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="60">
       <c r="A90" s="2">
-        <v>42369</v>
+        <v>42377</v>
       </c>
       <c r="B90" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="77.25">
+      <c r="A91" s="79">
+        <v>42376</v>
+      </c>
+      <c r="B91" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="45">
+      <c r="A92" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B93" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="195">
-      <c r="A91" s="2">
+    <row r="94" spans="1:3" ht="195">
+      <c r="A94" s="2">
         <v>42368</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C94" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="135">
-      <c r="A92" s="2">
+    <row r="95" spans="1:3" ht="135">
+      <c r="A95" s="2">
         <v>42368</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C95" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45">
-      <c r="A93" s="2">
+    <row r="96" spans="1:3" ht="45">
+      <c r="A96" s="2">
         <v>42368</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30">
-      <c r="A94" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30">
-      <c r="A95" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="150">
-      <c r="A96" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30">
       <c r="A97" s="2">
-        <v>42361</v>
+        <v>42366</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="270">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30">
       <c r="A98" s="2">
-        <v>42361</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30">
+        <v>42366</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="150">
       <c r="A99" s="2">
         <v>42361</v>
       </c>
-      <c r="B99" s="100" t="s">
-        <v>53</v>
-      </c>
       <c r="C99" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30">
       <c r="A100" s="2">
         <v>42361</v>
       </c>
-      <c r="B100" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="225">
+      <c r="C100" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="270">
       <c r="A101" s="2">
         <v>42361</v>
       </c>
@@ -4813,318 +4824,322 @@
         <v>186</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="60">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30">
       <c r="A102" s="2">
         <v>42361</v>
       </c>
       <c r="B102" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="90">
+        <v>53</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>42361</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="60">
+      <c r="B103" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="225">
       <c r="A104" s="2">
         <v>42361</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="60">
+      <c r="A105" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B105" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="90">
+      <c r="A106" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C106" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="60">
+      <c r="A107" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="40">
+    <row r="108" spans="1:3">
+      <c r="A108" s="40">
         <v>42360</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B108" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C108" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="40">
+    <row r="109" spans="1:3">
+      <c r="A109" s="40">
         <v>42360</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B109" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C109" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="102.75">
-      <c r="A107" s="80">
+    <row r="110" spans="1:3" ht="102.75">
+      <c r="A110" s="80">
         <v>42360</v>
       </c>
-      <c r="B107" s="78" t="s">
+      <c r="B110" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C110" s="78" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="30">
-      <c r="A108" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B108" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30">
       <c r="A111" s="2">
         <v>42356</v>
       </c>
-      <c r="B111" s="96"/>
-      <c r="C111" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="60">
+      <c r="B111" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B112" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>92</v>
+        <v>42356</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="150">
+        <v>42356</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30">
       <c r="A114" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="120">
+        <v>42356</v>
+      </c>
+      <c r="B114" s="96"/>
+      <c r="C114" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="60">
       <c r="A115" s="2">
         <v>42355</v>
       </c>
-      <c r="B115" s="100" t="s">
-        <v>168</v>
+      <c r="B115" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>42355</v>
       </c>
-      <c r="B116" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="B116" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="150">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="75">
+      <c r="B117" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="120">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="135">
+      <c r="B118" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
-      <c r="B119" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="75">
+      <c r="B119" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>42355</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30">
+      <c r="B120" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="75">
       <c r="A121" s="2">
         <v>42355</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="B121" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="135">
       <c r="A122" s="2">
         <v>42355</v>
       </c>
-      <c r="C122" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="B122" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="75">
       <c r="A123" s="2">
         <v>42355</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="B123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="2">
         <v>42355</v>
       </c>
-      <c r="B124" s="42"/>
+      <c r="B124" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C124" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>42355</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B126" s="42"/>
+      <c r="C126" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B127" s="42"/>
+      <c r="C127" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="75">
-      <c r="A125" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B125" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30">
-      <c r="A126" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="75">
-      <c r="A127" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="75">
       <c r="A128" s="2">
         <v>42352</v>
       </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="B128" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30">
       <c r="A129" s="2">
         <v>42352</v>
       </c>
-      <c r="B129" s="96"/>
-      <c r="C129" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="B129" s="26"/>
+      <c r="C129" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="75">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>72</v>
+      <c r="B130" s="26"/>
+      <c r="C130" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
-      <c r="B131" s="96"/>
-      <c r="C131" s="34" t="s">
-        <v>73</v>
+      <c r="B131" s="26"/>
+      <c r="C131" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5132,545 +5147,541 @@
         <v>42352</v>
       </c>
       <c r="B132" s="96"/>
-      <c r="C132" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30">
+      <c r="C132" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="30">
+      <c r="B133" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>42352</v>
       </c>
       <c r="B134" s="96"/>
-      <c r="C134" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="45">
+      <c r="C134" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="45">
+      <c r="B135" s="96"/>
+      <c r="C135" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="100"/>
-      <c r="C136" s="39" t="s">
-        <v>80</v>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
-      <c r="B137" s="38"/>
-      <c r="C137" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F137" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="75">
+      <c r="B137" s="96"/>
+      <c r="C137" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="45">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41" t="s">
-        <v>82</v>
+      <c r="B138" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="96" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="45">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
-      <c r="B139" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="41" t="s">
-        <v>90</v>
+      <c r="B139" s="100"/>
+      <c r="C139" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30">
       <c r="A140" s="2">
         <v>42352</v>
       </c>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="45">
+      <c r="B140" s="38"/>
+      <c r="C140" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F140" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="75">
       <c r="A141" s="2">
         <v>42352</v>
       </c>
-      <c r="B141" s="44"/>
-      <c r="C141" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="30">
+      <c r="B141" s="41"/>
+      <c r="C141" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="45">
       <c r="A142" s="2">
         <v>42352</v>
       </c>
-      <c r="B142" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" s="46" t="s">
-        <v>86</v>
+      <c r="B142" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="30">
       <c r="A143" s="2">
         <v>42352</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="B143" s="43"/>
+      <c r="C143" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="45">
       <c r="A144" s="2">
         <v>42352</v>
       </c>
-      <c r="B144" s="100" t="s">
+      <c r="B144" s="44"/>
+      <c r="C144" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
+      <c r="A145" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B145" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
+      <c r="A146" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B147" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C147" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="135">
-      <c r="A145" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B145" s="49"/>
-      <c r="C145" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="60">
-      <c r="A146" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B146" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="30">
-      <c r="A147" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B147" s="96"/>
-      <c r="C147" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="120">
+    <row r="148" spans="1:3" ht="135">
       <c r="A148" s="2">
         <v>42349</v>
       </c>
-      <c r="B148" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="150">
+      <c r="B148" s="49"/>
+      <c r="C148" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="60">
       <c r="A149" s="2">
         <v>42349</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52" t="s">
-        <v>59</v>
+      <c r="B149" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
-      <c r="B150" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="B150" s="96"/>
+      <c r="C150" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="120">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C151" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="B151" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="150">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
-      <c r="B152" s="100"/>
-      <c r="C152" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="B152" s="52"/>
+      <c r="C152" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30">
       <c r="A153" s="2">
         <v>42349</v>
       </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58" t="s">
-        <v>62</v>
+      <c r="B153" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42349</v>
       </c>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59" t="s">
-        <v>70</v>
+      <c r="B154" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42349</v>
       </c>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60" t="s">
-        <v>64</v>
+      <c r="B155" s="100"/>
+      <c r="C155" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>42349</v>
       </c>
-      <c r="B156" s="61"/>
-      <c r="C156" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="60">
+      <c r="B156" s="58"/>
+      <c r="C156" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>42349</v>
       </c>
-      <c r="B157" s="62" t="s">
+      <c r="B157" s="59"/>
+      <c r="C157" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B159" s="61"/>
+      <c r="C159" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="60">
+      <c r="A160" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B160" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C157" s="100" t="s">
+      <c r="C160" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="90">
-      <c r="A158" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B158" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="30">
-      <c r="A159" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="90">
       <c r="A161" s="2">
         <v>42345</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="64" t="s">
-        <v>29</v>
+      <c r="B161" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30">
       <c r="A162" s="2">
         <v>42345</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="195">
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="135">
+      <c r="B163" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C164" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="75">
+      <c r="B164" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
-      <c r="B165" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C165" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="75">
+      <c r="B165" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="195">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C166" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="30">
+      <c r="C166" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="135">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
       <c r="B167" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C167" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="75">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C168" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="B168" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="75">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
-      <c r="B169" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C169" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="60">
+      <c r="B169" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
-      <c r="B170" s="96" t="s">
-        <v>39</v>
+      <c r="B170" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C170" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="150">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>43</v>
+      <c r="B171" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="C171" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
-      <c r="B172" s="100" t="s">
+      <c r="B172" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C172" s="76" t="s">
-        <v>45</v>
+      <c r="C172" s="73" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="60">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
-      <c r="B173" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C173" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="105">
+      <c r="B173" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="150">
       <c r="A174" s="2">
         <v>42345</v>
       </c>
-      <c r="B174" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="B174" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="45">
       <c r="A175" s="2">
         <v>42345</v>
       </c>
-      <c r="B175" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="B175" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C175" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="60">
       <c r="A176" s="2">
         <v>42345</v>
       </c>
-      <c r="B176" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C176" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="75">
+      <c r="B176" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="105">
       <c r="A177" s="2">
         <v>42345</v>
       </c>
-      <c r="B177" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C177" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="45">
+      <c r="B177" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>42345</v>
       </c>
       <c r="B178" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B179" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="75">
+      <c r="A180" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="45">
+      <c r="A181" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B181" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C178" s="96" t="s">
+      <c r="C181" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="141">
-      <c r="A179" s="80">
+    <row r="182" spans="1:3" ht="141">
+      <c r="A182" s="80">
         <v>42345</v>
       </c>
-      <c r="B179" s="78" t="s">
+      <c r="B182" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C179" s="78" t="s">
+      <c r="C182" s="78" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="105">
-      <c r="A180" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="90">
-      <c r="A181" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="75">
-      <c r="A182" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="30">
+    <row r="183" spans="1:3" ht="105">
       <c r="A183" s="2">
         <v>42341</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="30">
+        <v>12</v>
+      </c>
+      <c r="C183" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="90">
       <c r="A184" s="2">
         <v>42341</v>
       </c>
@@ -5678,10 +5689,10 @@
         <v>15</v>
       </c>
       <c r="C184" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="75">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
@@ -5689,18 +5700,18 @@
         <v>15</v>
       </c>
       <c r="C185" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30">
@@ -5711,10 +5722,10 @@
         <v>15</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="45">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5722,73 +5733,73 @@
         <v>15</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="90">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
-      <c r="B190" s="100" t="s">
-        <v>12</v>
+      <c r="B190" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C190" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="150">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
-      <c r="B191" s="96" t="s">
+      <c r="B191" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="75">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
-      <c r="B192" s="96" t="s">
-        <v>12</v>
+      <c r="B192" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C192" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="90">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
-      <c r="B193" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="B193" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="60">
       <c r="A194" s="2">
         <v>42341</v>
       </c>
       <c r="B194" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>166</v>
+      <c r="C194" s="96" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5796,10 +5807,10 @@
         <v>42341</v>
       </c>
       <c r="B195" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="C195" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5809,307 +5820,340 @@
       <c r="B196" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="75">
+      <c r="C196" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>42341</v>
       </c>
       <c r="B197" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C197" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="60">
+      <c r="C197" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>42341</v>
       </c>
       <c r="B198" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="60">
+        <v>15</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B199" s="96"/>
-      <c r="C199" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="45">
+        <v>42341</v>
+      </c>
+      <c r="B199" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="75">
       <c r="A200" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B200" s="96"/>
-      <c r="C200" s="96" t="s">
-        <v>8</v>
+        <v>42341</v>
+      </c>
+      <c r="B200" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="60">
       <c r="A201" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B201" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="60">
+      <c r="A202" s="2">
         <v>42340</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B202" s="96"/>
+      <c r="C202" s="96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="45">
+      <c r="A203" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B203" s="96"/>
+      <c r="C203" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="60">
+      <c r="A204" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C201" s="96" t="s">
+      <c r="C204" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2">
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
         <v>42339</v>
       </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="96" t="s">
+      <c r="B205" s="2"/>
+      <c r="C205" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2">
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
         <v>42339</v>
       </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="96" t="s">
+      <c r="B206" s="2"/>
+      <c r="C206" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="64.5">
-      <c r="A204" s="80">
+    <row r="207" spans="1:3" ht="64.5">
+      <c r="A207" s="80">
         <v>42334</v>
       </c>
-      <c r="B204" s="78" t="s">
+      <c r="B207" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="78" t="s">
+      <c r="C207" s="78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="26.25">
-      <c r="A205" s="80">
+    <row r="208" spans="1:3" ht="26.25">
+      <c r="A208" s="80">
         <v>42334</v>
       </c>
-      <c r="B205" s="78" t="s">
+      <c r="B208" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C208" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="39">
-      <c r="A206" s="80">
+    <row r="209" spans="1:3" ht="39">
+      <c r="A209" s="80">
         <v>42334</v>
       </c>
-      <c r="B206" s="78" t="s">
+      <c r="B209" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C206" s="78" t="s">
+      <c r="C209" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="128.25">
-      <c r="A207" s="80">
+    <row r="210" spans="1:3" ht="128.25">
+      <c r="A210" s="80">
         <v>42333</v>
       </c>
-      <c r="B207" s="78" t="s">
+      <c r="B210" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C207" s="78" t="s">
+      <c r="C210" s="78" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="51.75">
-      <c r="A208" s="80">
+    <row r="211" spans="1:3" ht="51.75">
+      <c r="A211" s="80">
         <v>42333</v>
       </c>
-      <c r="B208" s="78" t="s">
+      <c r="B211" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C208" s="78" t="s">
+      <c r="C211" s="78" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="26.25">
-      <c r="A209" s="80">
-        <v>42331</v>
-      </c>
-      <c r="B209" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="C209" s="78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="39">
-      <c r="A210" s="80">
-        <v>42329</v>
-      </c>
-      <c r="B210" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="C210" s="78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="39">
-      <c r="A211" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B211" s="78" t="s">
-        <v>324</v>
-      </c>
-      <c r="C211" s="78" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="26.25">
       <c r="A212" s="80">
-        <v>42328</v>
+        <v>42331</v>
       </c>
       <c r="B212" s="78" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C212" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="115.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="39">
       <c r="A213" s="80">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B213" s="78" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C213" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="90">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="39">
       <c r="A214" s="80">
         <v>42328</v>
       </c>
       <c r="B214" s="78" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C214" s="78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="153.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="26.25">
       <c r="A215" s="80">
         <v>42328</v>
       </c>
       <c r="B215" s="78" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C215" s="78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="102.75">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="115.5">
       <c r="A216" s="80">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B216" s="78" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="C216" s="78" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="90">
       <c r="A217" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B217" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C217" s="78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="153.75">
+      <c r="A218" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B218" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C218" s="78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="102.75">
+      <c r="A219" s="80">
+        <v>42324</v>
+      </c>
+      <c r="B219" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="90">
+      <c r="A220" s="80">
         <v>42321</v>
       </c>
-      <c r="B217" s="78" t="s">
+      <c r="B220" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C217" s="78" t="s">
+      <c r="C220" s="78" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="26.25">
-      <c r="A218" s="80">
+    <row r="221" spans="1:3" ht="26.25">
+      <c r="A221" s="80">
         <v>42321</v>
       </c>
-      <c r="B218" s="78" t="s">
+      <c r="B221" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C218" s="78" t="s">
+      <c r="C221" s="78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="77.25">
-      <c r="A219" s="79">
+    <row r="222" spans="1:3" ht="77.25">
+      <c r="A222" s="79">
         <v>42318</v>
       </c>
-      <c r="B219" s="78" t="s">
+      <c r="B222" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="C219" s="78" t="s">
+      <c r="C222" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="115.5">
-      <c r="A220" s="79">
+    <row r="223" spans="1:3" ht="115.5">
+      <c r="A223" s="79">
         <v>42311</v>
       </c>
-      <c r="B220" s="78" t="s">
+      <c r="B223" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C220" s="78" t="s">
+      <c r="C223" s="78" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="77.25">
-      <c r="A221" s="79">
+    <row r="224" spans="1:3" ht="77.25">
+      <c r="A224" s="79">
         <v>42310</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B224" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="78" t="s">
+      <c r="C224" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="51.75">
-      <c r="A222" s="79">
+    <row r="225" spans="1:3" ht="51.75">
+      <c r="A225" s="79">
         <v>42306</v>
       </c>
-      <c r="B222" s="78" t="s">
+      <c r="B225" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="C222" s="78" t="s">
+      <c r="C225" s="78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="100"/>
-      <c r="B223" s="100"/>
-      <c r="C223" s="100"/>
+    <row r="226" spans="1:3">
+      <c r="A226" s="100"/>
+      <c r="B226" s="100"/>
+      <c r="C226" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C223">
+  <autoFilter ref="A1:C226">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C195" r:id="rId1"/>
-    <hyperlink ref="C156" r:id="rId2"/>
-    <hyperlink ref="C196" r:id="rId3"/>
-    <hyperlink ref="C30" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C198" r:id="rId1"/>
+    <hyperlink ref="C159" r:id="rId2"/>
+    <hyperlink ref="C199" r:id="rId3"/>
+    <hyperlink ref="C33" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -6128,16 +6172,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$228</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="524">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -2689,6 +2689,15 @@
   </si>
   <si>
     <t>I prove that "MOVE" can cause problem again. In my sample program YMYLES1/QRTSTCSRC, I move 99999 to a variable and then move 0 to it, but its never works anymore. So we need to use the Z-ADD to ensure a value is written</t>
+  </si>
+  <si>
+    <t>When I try to read through a file CDBLST and I encounter error CPF5029 (data-mapping error) in the message RNQ1299. The error keep showing up even there is only READ operation. It turns out the pf CDBLST has NULL value in it (allow null statement in the dds).
+I learn about:
+1. The important and confidence Delta Development Style (DDS) brings
+2. For details error job log, F1 to the msg page and F10 to details job log</t>
+  </si>
+  <si>
+    <t>There are message file (MSGF), and ibm build interface in CL control language to fetch MSG body by MSGID (key).  For example, refer to IMODULE/RCVMSG, IMODULE/IHDMSGF</t>
   </si>
 </sst>
 </file>
@@ -3017,7 +3026,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3318,6 +3327,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3401,13 +3416,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3723,7 +3738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3759,618 +3774,618 @@
     </row>
     <row r="4" spans="1:3" s="102" customFormat="1" ht="45">
       <c r="A4" s="2">
+        <v>42517</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A5" s="2">
+        <v>42514</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A6" s="2">
         <v>42507</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B6" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C6" s="116" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="60">
-      <c r="A5" s="2">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="60">
+      <c r="A7" s="2">
         <v>42502</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B7" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C7" s="116" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A6" s="2">
-        <v>42485</v>
-      </c>
-      <c r="B6" s="113" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="30">
-      <c r="A7" s="2">
-        <v>42485</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="300">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A8" s="2">
         <v>42485</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A9" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="300">
+      <c r="A10" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B10" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C10" s="112" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A9" s="2">
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="150">
+      <c r="A11" s="2">
         <v>42479</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B11" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C11" s="111" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A10" s="2">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="A12" s="2">
         <v>42478</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B12" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C12" s="110" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="120">
-      <c r="A11" s="2">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A13" s="2">
         <v>42477</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B13" s="109" t="s">
         <v>509</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C13" s="109" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="30">
-      <c r="A12" s="2">
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A14" s="2">
         <v>42477</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B14" s="108" t="s">
         <v>507</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C14" s="108" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="102" customFormat="1">
-      <c r="A13" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="45">
-      <c r="A14" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="102" customFormat="1">
       <c r="A15" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="102" customFormat="1" ht="45">
+      <c r="A16" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1">
+      <c r="A17" s="2">
         <v>42469</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B17" s="105" t="s">
         <v>504</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A16" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="102" customFormat="1" ht="105">
-      <c r="A17" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="102" customFormat="1">
+    <row r="18" spans="1:3" s="102" customFormat="1" ht="75">
       <c r="A18" s="2">
         <v>42463</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="105">
       <c r="A19" s="2">
         <v>42463</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B19" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="102" customFormat="1">
       <c r="A20" s="2">
         <v>42463</v>
       </c>
-      <c r="B20" s="103" t="s">
-        <v>492</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B20" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A21" s="2">
         <v>42463</v>
       </c>
-      <c r="B21" s="101" t="s">
-        <v>489</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B21" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="90">
       <c r="A22" s="2">
         <v>42463</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="A23" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="A24" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B24" s="101" t="s">
         <v>488</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C24" s="101" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A23" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>486</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="102" customFormat="1" ht="135">
-      <c r="A24" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="102" customFormat="1" ht="240">
+    <row r="25" spans="1:3" s="102" customFormat="1" ht="150">
       <c r="A25" s="2">
         <v>42462</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="102" customFormat="1" ht="120">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="102" customFormat="1" ht="135">
       <c r="A26" s="2">
         <v>42462</v>
       </c>
       <c r="B26" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="102" customFormat="1" ht="240">
+      <c r="A27" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B27" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C27" s="100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="102" customFormat="1" ht="120">
+      <c r="A28" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>480</v>
+      </c>
+      <c r="C28" s="100" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A27" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>477</v>
-      </c>
-      <c r="C27" s="99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="30">
-      <c r="A28" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="180">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A29" s="2">
         <v>42460</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="60">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="30">
       <c r="A30" s="2">
         <v>42460</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="105">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="180">
       <c r="A31" s="2">
-        <v>42459</v>
+        <v>42460</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="60">
       <c r="A32" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="105">
+      <c r="A33" s="2">
         <v>42459</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B33" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="60">
+      <c r="A34" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B34" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C34" s="99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1">
-      <c r="A33" s="2">
+    <row r="35" spans="1:3" s="4" customFormat="1">
+      <c r="A35" s="2">
         <v>42458</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B35" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A34" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B34" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60">
-      <c r="A35" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B35" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="105">
       <c r="A36" s="2">
         <v>42456</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="60">
       <c r="A37" s="2">
         <v>42456</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>466</v>
+      <c r="B37" s="96" t="s">
+        <v>462</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45">
       <c r="A38" s="2">
         <v>42456</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45">
+      <c r="A40" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C40" s="44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="77.25">
-      <c r="A39" s="79">
+    <row r="41" spans="1:3" ht="77.25">
+      <c r="A41" s="79">
         <v>42453</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B41" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C41" s="78" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="26.25">
-      <c r="A40" s="79">
+    <row r="42" spans="1:3" ht="26.25">
+      <c r="A42" s="79">
         <v>42453</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="39">
-      <c r="A41" s="79">
+    <row r="43" spans="1:3" ht="39">
+      <c r="A43" s="79">
         <v>42452</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B43" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="165">
-      <c r="A42" s="75">
+    <row r="44" spans="1:3" ht="165">
+      <c r="A44" s="75">
         <v>42451</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B44" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C44" s="100" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
-      <c r="A43" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B43" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30">
-      <c r="A44" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="165">
+    <row r="45" spans="1:3" ht="45">
       <c r="A45" s="2">
         <v>42451</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B46" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="165">
+      <c r="A47" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B47" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="64.5">
-      <c r="A46" s="79">
+    <row r="48" spans="1:3" ht="64.5">
+      <c r="A48" s="79">
         <v>42451</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B48" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C48" s="78" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="64.5">
-      <c r="A47" s="79">
+    <row r="49" spans="1:3" ht="64.5">
+      <c r="A49" s="79">
         <v>42447</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B49" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C49" s="78" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>42440</v>
       </c>
-      <c r="B48" s="100" t="s">
+      <c r="B50" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C50" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="75">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" ht="75">
+      <c r="A51" s="2">
         <v>42436</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B51" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="39">
-      <c r="A50" s="79">
+    <row r="52" spans="1:3" ht="39">
+      <c r="A52" s="79">
         <v>42431</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B52" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C52" s="78" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="26.25">
-      <c r="A51" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="51.75">
-      <c r="A52" s="79">
-        <v>42430</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="26.25">
       <c r="A53" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="51.75">
+      <c r="A54" s="79">
+        <v>42430</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="26.25">
+      <c r="A55" s="79">
         <v>42428</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B55" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C55" s="78" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="2">
+    <row r="56" spans="1:3" ht="30">
+      <c r="A56" s="2">
         <v>42426</v>
       </c>
-      <c r="B54" s="100" t="s">
+      <c r="B56" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="100" t="s">
+      <c r="C56" s="100" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="77.25">
-      <c r="A55" s="79">
+    <row r="57" spans="1:3" ht="77.25">
+      <c r="A57" s="79">
         <v>42426</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B57" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C57" s="78" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>42425</v>
       </c>
-      <c r="B56" s="100" t="s">
+      <c r="B58" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C58" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30">
-      <c r="A57" s="2">
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="2">
         <v>42425</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="26.25">
-      <c r="A58" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B58" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" s="78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="26.25">
@@ -4378,788 +4393,790 @@
         <v>42425</v>
       </c>
       <c r="B60" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B61" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="26.25">
+      <c r="A62" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B62" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C62" s="78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="165">
-      <c r="A61" s="2">
+    <row r="63" spans="1:3" ht="165">
+      <c r="A63" s="2">
         <v>42424</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B63" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C63" s="114" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
-      <c r="A62" s="2">
+    <row r="64" spans="1:3" ht="45">
+      <c r="A64" s="2">
         <v>42423</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B64" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="79">
+    <row r="65" spans="1:3">
+      <c r="A65" s="79">
         <v>42423</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B65" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C65" s="78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="90">
-      <c r="A64" s="2">
+    <row r="66" spans="1:3" ht="90">
+      <c r="A66" s="2">
         <v>42422</v>
       </c>
-      <c r="B64" s="100" t="s">
+      <c r="B66" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="100" t="s">
+      <c r="C66" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="60">
-      <c r="A65" s="2">
+    <row r="67" spans="1:3" ht="60">
+      <c r="A67" s="2">
         <v>42419</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C67" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="195">
-      <c r="A66" s="2">
+    <row r="68" spans="1:3" ht="195">
+      <c r="A68" s="2">
         <v>42418</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45">
-      <c r="A67" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75">
-      <c r="A68" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="90">
+    <row r="69" spans="1:3" ht="45">
       <c r="A69" s="2">
         <v>42403</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="96" t="s">
+        <v>229</v>
+      </c>
       <c r="C69" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="75">
+      <c r="A70" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="90">
+      <c r="A71" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="90">
-      <c r="A70" s="2">
+    <row r="72" spans="1:3" ht="90">
+      <c r="A72" s="2">
         <v>42398</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45">
-      <c r="A71" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
-        <v>42397</v>
-      </c>
-      <c r="B72" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="45">
       <c r="A73" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>42397</v>
+      </c>
+      <c r="B74" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45">
+      <c r="A75" s="2">
         <v>42396</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B75" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="2">
+    <row r="76" spans="1:3" ht="30">
+      <c r="A76" s="2">
         <v>42396</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B76" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="128.25">
-      <c r="A75" s="79">
+    <row r="77" spans="1:3" ht="128.25">
+      <c r="A77" s="79">
         <v>42386</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B77" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C77" s="78" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="64.5">
-      <c r="A76" s="79">
+    <row r="78" spans="1:3" ht="64.5">
+      <c r="A78" s="79">
         <v>42386</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B78" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C78" s="78" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45">
-      <c r="A77" s="2">
+    <row r="79" spans="1:3" ht="45">
+      <c r="A79" s="2">
         <v>42384</v>
       </c>
-      <c r="B77" s="100" t="s">
+      <c r="B79" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C77" s="100" t="s">
+      <c r="C79" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="180">
-      <c r="A78" s="2">
+    <row r="80" spans="1:3" ht="180">
+      <c r="A80" s="2">
         <v>42382</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B80" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="64.5">
-      <c r="A79" s="79">
+    <row r="81" spans="1:3" ht="64.5">
+      <c r="A81" s="79">
         <v>42382</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B81" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C81" s="78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30">
-      <c r="A80" s="2">
+    <row r="82" spans="1:3" ht="30">
+      <c r="A82" s="2">
         <v>42381</v>
       </c>
-      <c r="B80" s="100" t="s">
+      <c r="B82" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="100" t="s">
+      <c r="C82" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45">
-      <c r="A81" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="75">
-      <c r="A82" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="180">
+    <row r="83" spans="1:3" ht="45">
       <c r="A83" s="2">
         <v>42380</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="75">
+      <c r="A84" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B84" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="180">
+      <c r="A85" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="217.5">
-      <c r="A84" s="79">
+    <row r="86" spans="1:3" ht="217.5">
+      <c r="A86" s="79">
         <v>42380</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B86" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C86" s="78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="102.75">
-      <c r="A85" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B85" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="102.75">
-      <c r="A86" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B86" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="C86" s="78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="141">
+    <row r="87" spans="1:3" ht="102.75">
       <c r="A87" s="79">
         <v>42378</v>
       </c>
       <c r="B87" s="78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C87" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="77.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="102.75">
       <c r="A88" s="79">
         <v>42378</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C88" s="78" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="102.75">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="141">
       <c r="A89" s="79">
         <v>42378</v>
       </c>
       <c r="B89" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="77.25">
+      <c r="A90" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B90" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="102.75">
+      <c r="A91" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B91" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C91" s="78" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="60">
-      <c r="A90" s="2">
+    <row r="92" spans="1:3" ht="60">
+      <c r="A92" s="2">
         <v>42377</v>
       </c>
-      <c r="B90" s="100" t="s">
+      <c r="B92" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="100" t="s">
+      <c r="C92" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="77.25">
-      <c r="A91" s="79">
+    <row r="93" spans="1:3" ht="77.25">
+      <c r="A93" s="79">
         <v>42376</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B93" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C93" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45">
-      <c r="A92" s="2">
+    <row r="94" spans="1:3" ht="45">
+      <c r="A94" s="2">
         <v>42375</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B94" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C94" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>42369</v>
       </c>
-      <c r="B93" s="100" t="s">
+      <c r="B95" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="195">
-      <c r="A94" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="135">
-      <c r="A95" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45">
+    <row r="96" spans="1:3" ht="195">
       <c r="A96" s="2">
         <v>42368</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="135">
+      <c r="A97" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="45">
+      <c r="A98" s="2">
+        <v>42368</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C98" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30">
-      <c r="A97" s="2">
+    <row r="99" spans="1:3" ht="30">
+      <c r="A99" s="2">
         <v>42366</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B99" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C99" s="20" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30">
-      <c r="A98" s="2">
-        <v>42366</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="150">
-      <c r="A99" s="2">
-        <v>42361</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30">
       <c r="A100" s="2">
-        <v>42361</v>
+        <v>42366</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="270">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="150">
       <c r="A101" s="2">
         <v>42361</v>
       </c>
-      <c r="B101" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>187</v>
+      <c r="C101" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30">
       <c r="A102" s="2">
         <v>42361</v>
       </c>
-      <c r="B102" s="100" t="s">
-        <v>53</v>
-      </c>
       <c r="C102" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="270">
       <c r="A103" s="2">
         <v>42361</v>
       </c>
       <c r="B103" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="225">
+      <c r="C103" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30">
       <c r="A104" s="2">
         <v>42361</v>
       </c>
-      <c r="B104" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="60">
+      <c r="B104" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>42361</v>
       </c>
-      <c r="B105" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="90">
+      <c r="B105" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="225">
       <c r="A106" s="2">
         <v>42361</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>196</v>
+      <c r="B106" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="60">
       <c r="A107" s="2">
         <v>42361</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="90">
+      <c r="A108" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C108" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="60">
+      <c r="A109" s="2">
+        <v>42361</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="40">
+    <row r="110" spans="1:3">
+      <c r="A110" s="40">
         <v>42360</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B110" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="40">
+    <row r="111" spans="1:3">
+      <c r="A111" s="40">
         <v>42360</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B111" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="102.75">
-      <c r="A110" s="80">
+    <row r="112" spans="1:3" ht="102.75">
+      <c r="A112" s="80">
         <v>42360</v>
       </c>
-      <c r="B110" s="78" t="s">
+      <c r="B112" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C112" s="78" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30">
-      <c r="A111" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B111" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2">
-        <v>42356</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="30">
       <c r="A113" s="2">
         <v>42356</v>
       </c>
-      <c r="B113" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
+      <c r="B113" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>42356</v>
       </c>
-      <c r="B114" s="96"/>
-      <c r="C114" s="25" t="s">
+      <c r="B114" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
+      <c r="A116" s="2">
+        <v>42356</v>
+      </c>
+      <c r="B116" s="96"/>
+      <c r="C116" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="60">
-      <c r="A115" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B115" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2">
-        <v>42355</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="150">
+    <row r="117" spans="1:3" ht="60">
       <c r="A117" s="2">
         <v>42355</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>33</v>
+      <c r="B117" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="120">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>42355</v>
       </c>
-      <c r="B118" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
+      <c r="B118" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="150">
       <c r="A119" s="2">
         <v>42355</v>
       </c>
-      <c r="B119" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="B119" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="120">
       <c r="A120" s="2">
         <v>42355</v>
       </c>
-      <c r="B120" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="75">
+      <c r="B120" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="2">
         <v>42355</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="135">
+      <c r="B121" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42355</v>
       </c>
-      <c r="B122" s="100" t="s">
-        <v>173</v>
+      <c r="B122" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75">
       <c r="A123" s="2">
         <v>42355</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30">
+      <c r="B123" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="135">
       <c r="A124" s="2">
         <v>42355</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="75">
       <c r="A125" s="2">
         <v>42355</v>
       </c>
-      <c r="C125" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="B125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" s="2">
         <v>42355</v>
       </c>
-      <c r="B126" s="42"/>
+      <c r="B126" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C126" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42355</v>
       </c>
-      <c r="B127" s="42"/>
       <c r="C127" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B128" s="42"/>
+      <c r="C128" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>42355</v>
+      </c>
+      <c r="B129" s="42"/>
+      <c r="C129" s="30" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="75">
-      <c r="A128" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B128" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30">
-      <c r="A129" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="75">
       <c r="A130" s="2">
         <v>42352</v>
       </c>
-      <c r="B130" s="26"/>
-      <c r="C130" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="B130" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30">
       <c r="A131" s="2">
         <v>42352</v>
       </c>
       <c r="B131" s="26"/>
-      <c r="C131" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="C131" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="75">
       <c r="A132" s="2">
         <v>42352</v>
       </c>
-      <c r="B132" s="96"/>
-      <c r="C132" s="33" t="s">
-        <v>75</v>
+      <c r="B132" s="26"/>
+      <c r="C132" s="70" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>42352</v>
       </c>
-      <c r="B133" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>72</v>
+      <c r="B133" s="26"/>
+      <c r="C133" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5167,477 +5184,475 @@
         <v>42352</v>
       </c>
       <c r="B134" s="96"/>
-      <c r="C134" s="34" t="s">
-        <v>73</v>
+      <c r="C134" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>42352</v>
       </c>
-      <c r="B135" s="96"/>
-      <c r="C135" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30">
+      <c r="B135" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>42352</v>
       </c>
-      <c r="B136" s="37"/>
-      <c r="C136" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="30">
+      <c r="B136" s="96"/>
+      <c r="C136" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>42352</v>
       </c>
       <c r="B137" s="96"/>
-      <c r="C137" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="45">
+      <c r="C137" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30">
       <c r="A138" s="2">
         <v>42352</v>
       </c>
-      <c r="B138" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C138" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="45">
+      <c r="B138" s="37"/>
+      <c r="C138" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2">
         <v>42352</v>
       </c>
-      <c r="B139" s="100"/>
-      <c r="C139" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="30">
+      <c r="B139" s="96"/>
+      <c r="C139" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="2">
         <v>42352</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F140" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="75">
+      <c r="B140" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="45">
       <c r="A141" s="2">
         <v>42352</v>
       </c>
-      <c r="B141" s="41"/>
-      <c r="C141" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="45">
+      <c r="B141" s="100"/>
+      <c r="C141" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2">
         <v>42352</v>
       </c>
-      <c r="B142" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="30">
+      <c r="B142" s="38"/>
+      <c r="C142" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="75">
       <c r="A143" s="2">
         <v>42352</v>
       </c>
-      <c r="B143" s="43"/>
-      <c r="C143" s="43" t="s">
-        <v>84</v>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="45">
       <c r="A144" s="2">
         <v>42352</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44" t="s">
-        <v>177</v>
+      <c r="B144" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30">
       <c r="A145" s="2">
         <v>42352</v>
       </c>
-      <c r="B145" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="30">
+      <c r="B145" s="43"/>
+      <c r="C145" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="45">
       <c r="A146" s="2">
         <v>42352</v>
       </c>
-      <c r="B146" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="B146" s="44"/>
+      <c r="C146" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30">
       <c r="A147" s="2">
         <v>42352</v>
       </c>
-      <c r="B147" s="100" t="s">
+      <c r="B147" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30">
+      <c r="A148" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>42352</v>
+      </c>
+      <c r="B149" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C147" s="48" t="s">
+      <c r="C149" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="135">
-      <c r="A148" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B148" s="49"/>
-      <c r="C148" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="60">
-      <c r="A149" s="2">
-        <v>42349</v>
-      </c>
-      <c r="B149" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="30">
+    <row r="150" spans="1:3" ht="135">
       <c r="A150" s="2">
         <v>42349</v>
       </c>
-      <c r="B150" s="96"/>
-      <c r="C150" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="120">
+      <c r="B150" s="49"/>
+      <c r="C150" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="60">
       <c r="A151" s="2">
         <v>42349</v>
       </c>
-      <c r="B151" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="150">
+      <c r="B151" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30">
       <c r="A152" s="2">
         <v>42349</v>
       </c>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="30">
+      <c r="B152" s="96"/>
+      <c r="C152" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="120">
       <c r="A153" s="2">
         <v>42349</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C153" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="B153" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="150">
       <c r="A154" s="2">
         <v>42349</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C154" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="B154" s="52"/>
+      <c r="C154" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30">
       <c r="A155" s="2">
         <v>42349</v>
       </c>
-      <c r="B155" s="100"/>
-      <c r="C155" s="57" t="s">
-        <v>78</v>
+      <c r="B155" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>42349</v>
       </c>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58" t="s">
-        <v>62</v>
+      <c r="B156" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" s="55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>42349</v>
       </c>
-      <c r="B157" s="59"/>
-      <c r="C157" s="59" t="s">
-        <v>70</v>
+      <c r="B157" s="100"/>
+      <c r="C157" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>42349</v>
       </c>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60" t="s">
-        <v>64</v>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>42349</v>
       </c>
-      <c r="B159" s="61"/>
-      <c r="C159" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="60">
+      <c r="B159" s="59"/>
+      <c r="C159" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>42349</v>
       </c>
-      <c r="B160" s="62" t="s">
+      <c r="B160" s="60"/>
+      <c r="C160" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B161" s="61"/>
+      <c r="C161" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="60">
+      <c r="A162" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B162" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C160" s="100" t="s">
+      <c r="C162" s="100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="90">
-      <c r="A161" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B161" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="30">
-      <c r="A162" s="2">
-        <v>42345</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" ht="90">
       <c r="A163" s="2">
         <v>42345</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C163" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="B163" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30">
       <c r="A164" s="2">
         <v>42345</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="30">
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>42345</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="195">
+      <c r="C165" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>42345</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="135">
+      <c r="B166" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30">
       <c r="A167" s="2">
         <v>42345</v>
       </c>
-      <c r="B167" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="75">
+      <c r="B167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="195">
       <c r="A168" s="2">
         <v>42345</v>
       </c>
-      <c r="B168" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="75">
+      <c r="B168" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="135">
       <c r="A169" s="2">
         <v>42345</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="30">
+      <c r="B169" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="75">
       <c r="A170" s="2">
         <v>42345</v>
       </c>
-      <c r="B170" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="B170" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="75">
       <c r="A171" s="2">
         <v>42345</v>
       </c>
-      <c r="B171" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C171" s="73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="B171" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30">
       <c r="A172" s="2">
         <v>42345</v>
       </c>
-      <c r="B172" s="72" t="s">
-        <v>39</v>
+      <c r="B172" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C172" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>42345</v>
       </c>
-      <c r="B173" s="96" t="s">
+      <c r="B173" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C173" s="73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="150">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>42345</v>
       </c>
-      <c r="B174" s="15" t="s">
-        <v>43</v>
+      <c r="B174" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="C174" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="60">
       <c r="A175" s="2">
         <v>42345</v>
       </c>
-      <c r="B175" s="100" t="s">
+      <c r="B175" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C175" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="60">
+      <c r="C175" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="150">
       <c r="A176" s="2">
         <v>42345</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C176" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="105">
+      <c r="C176" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="45">
       <c r="A177" s="2">
         <v>42345</v>
       </c>
       <c r="B177" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C177" s="76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="60">
       <c r="A178" s="2">
         <v>42345</v>
       </c>
-      <c r="B178" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C178" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="B178" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" s="77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="105">
       <c r="A179" s="2">
         <v>42345</v>
       </c>
-      <c r="B179" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C179" s="96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="75">
+      <c r="B179" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>42345</v>
       </c>
@@ -5645,65 +5660,65 @@
         <v>49</v>
       </c>
       <c r="C180" s="96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>42345</v>
       </c>
       <c r="B181" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="75">
+      <c r="A182" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B182" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="45">
+      <c r="A183" s="2">
+        <v>42345</v>
+      </c>
+      <c r="B183" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C181" s="96" t="s">
+      <c r="C183" s="96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="141">
-      <c r="A182" s="80">
+    <row r="184" spans="1:3" ht="141">
+      <c r="A184" s="80">
         <v>42345</v>
       </c>
-      <c r="B182" s="78" t="s">
+      <c r="B184" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C182" s="78" t="s">
+      <c r="C184" s="78" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="105">
-      <c r="A183" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="90">
-      <c r="A184" s="2">
-        <v>42341</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" s="96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="75">
+    <row r="185" spans="1:3" ht="105">
       <c r="A185" s="2">
         <v>42341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="30">
+        <v>12</v>
+      </c>
+      <c r="C185" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="90">
       <c r="A186" s="2">
         <v>42341</v>
       </c>
@@ -5711,10 +5726,10 @@
         <v>15</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="75">
       <c r="A187" s="2">
         <v>42341</v>
       </c>
@@ -5722,10 +5737,10 @@
         <v>15</v>
       </c>
       <c r="C187" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30">
       <c r="A188" s="2">
         <v>42341</v>
       </c>
@@ -5733,21 +5748,21 @@
         <v>15</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30">
       <c r="A189" s="2">
         <v>42341</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="45">
       <c r="A190" s="2">
         <v>42341</v>
       </c>
@@ -5755,21 +5770,21 @@
         <v>15</v>
       </c>
       <c r="C190" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="90">
       <c r="A191" s="2">
         <v>42341</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30">
       <c r="A192" s="2">
         <v>42341</v>
       </c>
@@ -5777,51 +5792,51 @@
         <v>15</v>
       </c>
       <c r="C192" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="150">
       <c r="A193" s="2">
         <v>42341</v>
       </c>
-      <c r="B193" s="100" t="s">
-        <v>12</v>
+      <c r="B193" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C193" s="96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="75">
       <c r="A194" s="2">
         <v>42341</v>
       </c>
-      <c r="B194" s="96" t="s">
+      <c r="B194" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C194" s="96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="90">
       <c r="A195" s="2">
         <v>42341</v>
       </c>
-      <c r="B195" s="96" t="s">
+      <c r="B195" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="60">
       <c r="A196" s="2">
         <v>42341</v>
       </c>
       <c r="B196" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C196" s="7" t="s">
-        <v>34</v>
+      <c r="C196" s="96" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5829,10 +5844,10 @@
         <v>42341</v>
       </c>
       <c r="B197" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
+      </c>
+      <c r="C197" s="96" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5842,8 +5857,8 @@
       <c r="B198" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>165</v>
+      <c r="C198" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5853,307 +5868,329 @@
       <c r="B199" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="75">
+      <c r="C199" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>42341</v>
       </c>
       <c r="B200" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C200" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="60">
+      <c r="C200" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>42341</v>
       </c>
       <c r="B201" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="75">
+      <c r="A202" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B202" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="60">
+      <c r="A203" s="2">
+        <v>42341</v>
+      </c>
+      <c r="B203" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C201" s="96" t="s">
+      <c r="C203" s="96" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="60">
-      <c r="A202" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B202" s="96"/>
-      <c r="C202" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="45">
-      <c r="A203" s="2">
-        <v>42340</v>
-      </c>
-      <c r="B203" s="96"/>
-      <c r="C203" s="96" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="60">
       <c r="A204" s="2">
         <v>42340</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="96"/>
+      <c r="C204" s="96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="45">
+      <c r="A205" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B205" s="96"/>
+      <c r="C205" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="60">
+      <c r="A206" s="2">
+        <v>42340</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="96" t="s">
+      <c r="C206" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2">
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
         <v>42339</v>
       </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="96" t="s">
+      <c r="B207" s="2"/>
+      <c r="C207" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2">
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
         <v>42339</v>
       </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="96" t="s">
+      <c r="B208" s="2"/>
+      <c r="C208" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="64.5">
-      <c r="A207" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B207" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C207" s="78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="26.25">
-      <c r="A208" s="80">
-        <v>42334</v>
-      </c>
-      <c r="B208" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="C208" s="78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="39">
+    <row r="209" spans="1:3" ht="64.5">
       <c r="A209" s="80">
         <v>42334</v>
       </c>
       <c r="B209" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C209" s="78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="26.25">
+      <c r="A210" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B210" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C210" s="78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="39">
+      <c r="A211" s="80">
+        <v>42334</v>
+      </c>
+      <c r="B211" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C211" s="78" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="128.25">
-      <c r="A210" s="80">
+    <row r="212" spans="1:3" ht="128.25">
+      <c r="A212" s="80">
         <v>42333</v>
       </c>
-      <c r="B210" s="78" t="s">
+      <c r="B212" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C212" s="78" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="51.75">
-      <c r="A211" s="80">
+    <row r="213" spans="1:3" ht="51.75">
+      <c r="A213" s="80">
         <v>42333</v>
       </c>
-      <c r="B211" s="78" t="s">
+      <c r="B213" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C211" s="78" t="s">
+      <c r="C213" s="78" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="26.25">
-      <c r="A212" s="80">
+    <row r="214" spans="1:3" ht="26.25">
+      <c r="A214" s="80">
         <v>42331</v>
       </c>
-      <c r="B212" s="78" t="s">
+      <c r="B214" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C214" s="78" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="39">
-      <c r="A213" s="80">
+    <row r="215" spans="1:3" ht="39">
+      <c r="A215" s="80">
         <v>42329</v>
       </c>
-      <c r="B213" s="78" t="s">
+      <c r="B215" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="C213" s="78" t="s">
+      <c r="C215" s="78" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="39">
-      <c r="A214" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B214" s="78" t="s">
-        <v>324</v>
-      </c>
-      <c r="C214" s="78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="26.25">
-      <c r="A215" s="80">
-        <v>42328</v>
-      </c>
-      <c r="B215" s="78" t="s">
-        <v>322</v>
-      </c>
-      <c r="C215" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="115.5">
+    <row r="216" spans="1:3" ht="39">
       <c r="A216" s="80">
         <v>42328</v>
       </c>
       <c r="B216" s="78" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C216" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="90">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="26.25">
       <c r="A217" s="80">
         <v>42328</v>
       </c>
       <c r="B217" s="78" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="153.75">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="115.5">
       <c r="A218" s="80">
         <v>42328</v>
       </c>
       <c r="B218" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C218" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="90">
+      <c r="A219" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B219" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="C218" s="78" t="s">
+      <c r="C219" s="78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="153.75">
+      <c r="A220" s="80">
+        <v>42328</v>
+      </c>
+      <c r="B220" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="102.75">
-      <c r="A219" s="80">
+    <row r="221" spans="1:3" ht="102.75">
+      <c r="A221" s="80">
         <v>42324</v>
       </c>
-      <c r="B219" s="78" t="s">
+      <c r="B221" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C219" s="78" t="s">
+      <c r="C221" s="78" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="90">
-      <c r="A220" s="80">
+    <row r="222" spans="1:3" ht="90">
+      <c r="A222" s="80">
         <v>42321</v>
       </c>
-      <c r="B220" s="78" t="s">
+      <c r="B222" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C220" s="78" t="s">
+      <c r="C222" s="78" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="26.25">
-      <c r="A221" s="80">
+    <row r="223" spans="1:3" ht="26.25">
+      <c r="A223" s="80">
         <v>42321</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B223" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C221" s="78" t="s">
+      <c r="C223" s="78" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="77.25">
-      <c r="A222" s="79">
-        <v>42318</v>
-      </c>
-      <c r="B222" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C222" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="115.5">
-      <c r="A223" s="79">
-        <v>42311</v>
-      </c>
-      <c r="B223" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C223" s="78" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="77.25">
       <c r="A224" s="79">
+        <v>42318</v>
+      </c>
+      <c r="B224" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C224" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="115.5">
+      <c r="A225" s="79">
+        <v>42311</v>
+      </c>
+      <c r="B225" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225" s="78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="77.25">
+      <c r="A226" s="79">
         <v>42310</v>
       </c>
-      <c r="B224" s="78" t="s">
+      <c r="B226" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C224" s="78" t="s">
+      <c r="C226" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="51.75">
-      <c r="A225" s="79">
+    <row r="227" spans="1:3" ht="51.75">
+      <c r="A227" s="79">
         <v>42306</v>
       </c>
-      <c r="B225" s="78" t="s">
+      <c r="B227" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="C225" s="78" t="s">
+      <c r="C227" s="78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="100"/>
-      <c r="B226" s="100"/>
-      <c r="C226" s="100"/>
+    <row r="228" spans="1:3">
+      <c r="A228" s="100"/>
+      <c r="B228" s="100"/>
+      <c r="C228" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C226">
+  <autoFilter ref="A1:C228">
     <sortState ref="A2:C201">
       <sortCondition descending="1" ref="A1:A201"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C198" r:id="rId1"/>
-    <hyperlink ref="C159" r:id="rId2"/>
-    <hyperlink ref="C199" r:id="rId3"/>
-    <hyperlink ref="C33" r:id="rId4"/>
-    <hyperlink ref="C18" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C200" r:id="rId1"/>
+    <hyperlink ref="C161" r:id="rId2"/>
+    <hyperlink ref="C201" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
+    <hyperlink ref="C20" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -6172,16 +6209,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="8145" windowHeight="9405"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AS400 Version'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$C$229</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="528">
   <si>
     <t>General Induction of infrastructure</t>
   </si>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +174,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,7 +206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +217,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -406,7 +406,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,7 +444,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,7 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +468,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -544,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +580,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +671,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,7 +1131,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1270,7 +1270,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,7 +1466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2478,7 +2478,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2490,7 +2490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2699,16 +2699,36 @@
   <si>
     <t>There are message file (MSGF), and ibm build interface in CL control language to fetch MSG body by MSGID (key).  For example, refer to IMODULE/RCVMSG, IMODULE/IHDMSGF</t>
   </si>
+  <si>
+    <t>PenTest</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在兩三周前看完了這本英文書, 感覺世界改變, 對於很多網絡安全的事情清淅了也更恐懼, 就像初入行的小醫生看到處處都是病機一樣的感覺. 書大概介紹了Kali linux, Metasploit, 各種Module及其相容Payload, 市面上(見光的) 漏洞數據庫. 又順道介紹了小工具如Netcat, nmap, wireshark, 等等, man-in-the-middle原理, stack-overflow-attack原理等等. 分兩個入侵理念的server side attack和client side attack.. Wireless hacking及Mobile Hacking都有講解. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在物理機上安裝Android Studio(AS)太慢, 主要在Gradle的自動rebuild平均一次要5分鐘, 且過度頻繁, 又遇上一個叫Intel HAXM Not installed的問題(在試運行Hello world時). 還未搞懂原因為何, 先試下用Linode 4GB做下Virtual ide setup, 打算如果PoC得了的話, 就在阿里云上按需地配一台4核8G VPS. 但Linode上的PoC結果是:
+1. 安裝速度超快, 因為網速很快, 計算能力也很強
+2. 不能進入Run的功能, 因為需要VT-D或SVM這種virtualize的工具來Estimate Android Machine但在VPS上不能再Virtuall了(理論上可但十分艱鉅)
+3. 結論是不行
+現在回頭理解HAXM那個問題, 其實是只要安裝了, 再在BIOS時Enable了VT-X這個功能就可以在我的物理機上run 到了. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2716,7 +2736,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2724,7 +2744,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2738,21 +2758,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2760,7 +2780,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2768,27 +2788,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2878,7 +2898,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2886,7 +2906,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3026,7 +3046,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3379,10 +3399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3416,14 +3439,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4202207</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>593914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>102264</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>102265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3454,7 +3477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3528,6 +3551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3562,6 +3586,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3737,21 +3762,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3762,281 +3787,287 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="102" customFormat="1">
+    <row r="2" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="1:3" s="102" customFormat="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-    </row>
-    <row r="4" spans="1:3" s="102" customFormat="1" ht="45">
+    <row r="3" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42539</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>42539</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="102" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42517</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C5" s="118" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="102" customFormat="1" ht="105">
-      <c r="A5" s="2">
+    <row r="6" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42514</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B6" s="117" t="s">
         <v>519</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C6" s="117" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="102" customFormat="1" ht="45">
-      <c r="A6" s="2">
+    <row r="7" spans="1:3" s="102" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42507</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B7" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C7" s="116" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="102" customFormat="1" ht="60">
-      <c r="A7" s="2">
+    <row r="8" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42502</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B8" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C8" s="116" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A8" s="2">
-        <v>42485</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>516</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="102" customFormat="1" ht="30">
+    <row r="9" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42485</v>
       </c>
-      <c r="B9" s="110" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="102" customFormat="1" ht="300">
+      <c r="B9" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42485</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="110" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="102" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B11" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C11" s="112" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A11" s="2">
+    <row r="12" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42479</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B12" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C12" s="111" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="102" customFormat="1" ht="90">
-      <c r="A12" s="2">
+    <row r="13" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>42478</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B13" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C13" s="110" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="102" customFormat="1" ht="120">
-      <c r="A13" s="2">
-        <v>42477</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>509</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="102" customFormat="1" ht="30">
+    <row r="14" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42477</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="109" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42477</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>507</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C15" s="108" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="102" customFormat="1">
-      <c r="A15" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="102" customFormat="1" ht="45">
+    <row r="16" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42473</v>
       </c>
       <c r="B16" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="106" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="107" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="102" customFormat="1">
-      <c r="A17" s="2">
+    <row r="18" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42469</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B18" s="105" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="102" customFormat="1" ht="75">
-      <c r="A18" s="2">
-        <v>42463</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="102" customFormat="1" ht="105">
+    <row r="19" spans="1:3" s="102" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42463</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="102" customFormat="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="102" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42463</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="102" customFormat="1" ht="150">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42463</v>
       </c>
-      <c r="B21" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="102" customFormat="1" ht="90">
+      <c r="B21" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42463</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>492</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="102" customFormat="1" ht="30">
+      <c r="B22" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="102" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42463</v>
       </c>
-      <c r="B23" s="101" t="s">
-        <v>489</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="102" customFormat="1" ht="105">
+      <c r="B23" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42463</v>
       </c>
       <c r="B24" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="102" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42463</v>
+      </c>
+      <c r="B25" s="101" t="s">
         <v>488</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C25" s="101" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="102" customFormat="1" ht="150">
-      <c r="A25" s="2">
-        <v>42462</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>486</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="102" customFormat="1" ht="135">
+    <row r="26" spans="1:3" s="102" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42462</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="102" customFormat="1" ht="240">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="102" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42462</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="102" customFormat="1" ht="120">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="102" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42462</v>
       </c>
@@ -4044,362 +4075,362 @@
         <v>480</v>
       </c>
       <c r="C28" s="100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="102" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>42462</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="100" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A29" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42460</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="180">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42460</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="60">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
       <c r="B32" s="99" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B33" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C33" s="99" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A33" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B33" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="60">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42459</v>
       </c>
       <c r="B34" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B35" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C35" s="99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1">
-      <c r="A35" s="2">
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>42458</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B36" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="105">
-      <c r="A36" s="2">
-        <v>42456</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="100" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="60">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42456</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="45">
+        <v>254</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42456</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42456</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>466</v>
+      <c r="B39" s="96" t="s">
+        <v>463</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42456</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42456</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C41" s="44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="77.25">
-      <c r="A41" s="79">
-        <v>42453</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="26.25">
+    <row r="42" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A42" s="79">
         <v>42453</v>
       </c>
       <c r="B42" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <v>42453</v>
+      </c>
+      <c r="B43" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C43" s="78" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="39">
-      <c r="A43" s="79">
+    <row r="44" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
         <v>42452</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B44" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C44" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="165">
-      <c r="A44" s="75">
+    <row r="45" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="75">
         <v>42451</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B45" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C45" s="100" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="2">
-        <v>42451</v>
-      </c>
-      <c r="B45" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42451</v>
       </c>
-      <c r="B46" s="96" t="s">
-        <v>196</v>
+      <c r="B46" s="100" t="s">
+        <v>249</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="165">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42451</v>
       </c>
       <c r="B47" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>42451</v>
+      </c>
+      <c r="B48" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="64.5">
-      <c r="A48" s="79">
+    <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="79">
         <v>42451</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B49" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C49" s="78" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="64.5">
-      <c r="A49" s="79">
+    <row r="50" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
         <v>42447</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B50" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>42440</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B51" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C51" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75">
-      <c r="A51" s="2">
+    <row r="52" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>42436</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B52" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="39">
-      <c r="A52" s="79">
-        <v>42431</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="26.25">
+    <row r="53" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A53" s="79">
         <v>42431</v>
       </c>
       <c r="B53" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="79">
+        <v>42431</v>
+      </c>
+      <c r="B54" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C54" s="78" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="51.75">
-      <c r="A54" s="79">
+    <row r="55" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="79">
         <v>42430</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B55" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C55" s="78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="26.25">
-      <c r="A55" s="79">
+    <row r="56" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
         <v>42428</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B56" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C56" s="78" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30">
-      <c r="A56" s="2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>42426</v>
       </c>
-      <c r="B56" s="100" t="s">
+      <c r="B57" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C57" s="100" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="77.25">
-      <c r="A57" s="79">
+    <row r="58" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="79">
         <v>42426</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B58" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C58" s="78" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B58" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="C58" s="100" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42425</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>42425</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="26.25">
-      <c r="A60" s="79">
-        <v>42425</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="79">
         <v>42425</v>
       </c>
@@ -4407,316 +4438,316 @@
         <v>276</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="26.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="79">
         <v>42425</v>
       </c>
       <c r="B62" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="79">
+        <v>42425</v>
+      </c>
+      <c r="B63" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C63" s="78" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="165">
-      <c r="A63" s="2">
+    <row r="64" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>42424</v>
       </c>
-      <c r="B63" s="100" t="s">
+      <c r="B64" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="114" t="s">
+      <c r="C64" s="114" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45">
-      <c r="A64" s="2">
+    <row r="65" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>42423</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B65" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="79">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
         <v>42423</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B66" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C66" s="78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="90">
-      <c r="A66" s="2">
+    <row r="67" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>42422</v>
       </c>
-      <c r="B66" s="100" t="s">
+      <c r="B67" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C67" s="100" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="60">
-      <c r="A67" s="2">
+    <row r="68" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>42419</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C68" s="36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="195">
-      <c r="A68" s="2">
+    <row r="69" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>42418</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45">
-      <c r="A69" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B69" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="75">
+    <row r="70" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42403</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>230</v>
+      <c r="B70" s="96" t="s">
+        <v>229</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="90">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42403</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="C71" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>42403</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="90">
-      <c r="A72" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="45">
+    <row r="73" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42398</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>42397</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B75" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="2">
-        <v>42396</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42396</v>
       </c>
-      <c r="B76" s="96" t="s">
+      <c r="B76" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>42396</v>
+      </c>
+      <c r="B77" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="128.25">
-      <c r="A77" s="79">
-        <v>42386</v>
-      </c>
-      <c r="B77" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="64.5">
+    <row r="78" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A78" s="79">
         <v>42386</v>
       </c>
       <c r="B78" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="79">
+        <v>42386</v>
+      </c>
+      <c r="B79" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C79" s="78" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45">
-      <c r="A79" s="2">
+    <row r="80" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>42384</v>
       </c>
-      <c r="B79" s="100" t="s">
+      <c r="B80" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C80" s="100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="180">
-      <c r="A80" s="2">
+    <row r="81" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>42382</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B81" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="64.5">
-      <c r="A81" s="79">
+    <row r="82" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
         <v>42382</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B82" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C82" s="78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30">
-      <c r="A82" s="2">
+    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>42381</v>
       </c>
-      <c r="B82" s="100" t="s">
+      <c r="B83" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="100" t="s">
+      <c r="C83" s="100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45">
-      <c r="A83" s="2">
-        <v>42380</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="75">
+    <row r="84" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42380</v>
       </c>
-      <c r="B84" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="180">
+      <c r="B84" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42380</v>
       </c>
       <c r="B85" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="217.5">
-      <c r="A86" s="79">
+    <row r="87" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
         <v>42380</v>
       </c>
-      <c r="B86" s="78" t="s">
+      <c r="B87" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C87" s="78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="102.75">
-      <c r="A87" s="79">
-        <v>42378</v>
-      </c>
-      <c r="B87" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="102.75">
+    <row r="88" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A88" s="79">
         <v>42378</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C88" s="78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="141">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A89" s="79">
         <v>42378</v>
       </c>
       <c r="B89" s="78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C89" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="77.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A90" s="79">
         <v>42378</v>
       </c>
@@ -4724,109 +4755,109 @@
         <v>297</v>
       </c>
       <c r="C90" s="78" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="102.75">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A91" s="79">
         <v>42378</v>
       </c>
       <c r="B91" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="78" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="79">
+        <v>42378</v>
+      </c>
+      <c r="B92" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C92" s="78" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="60">
-      <c r="A92" s="2">
+    <row r="93" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>42377</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B93" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C93" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="77.25">
-      <c r="A93" s="79">
+    <row r="94" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="79">
         <v>42376</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B94" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="C94" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="45">
-      <c r="A94" s="2">
+    <row r="95" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>42375</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B95" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="100" t="s">
+      <c r="C95" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>42369</v>
       </c>
-      <c r="B95" s="100" t="s">
+      <c r="B96" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C96" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="195">
-      <c r="A96" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="135">
+    <row r="97" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <